--- a/TNR_JDD/RO/JDD.RO.ACT.xlsx
+++ b/TNR_JDD/RO/JDD.RO.ACT.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="337">
   <si>
     <t>Date</t>
   </si>
@@ -979,15 +979,6 @@
     <t>a_Habilitation</t>
   </si>
   <si>
-    <t>//li[@class ='nav-item']//a[contains(text(),'Habilitation')]</t>
-  </si>
-  <si>
-    <t>h4_Habilitation</t>
-  </si>
-  <si>
-    <t>//div[@class='advBlock']//h4[text() = 'Habilitation' ]</t>
-  </si>
-  <si>
     <t>span_Supprime_Habilitation</t>
   </si>
   <si>
@@ -1027,9 +1018,6 @@
     <t>DEFAUT</t>
   </si>
   <si>
-    <t>//li[@class ='nav-item']//a[contains(text(),'Affectation')]</t>
-  </si>
-  <si>
     <t>a_Affectation</t>
   </si>
   <si>
@@ -1042,25 +1030,91 @@
     <t>ST_DESID_CODGESAFF</t>
   </si>
   <si>
-    <t>h4_Affectation</t>
-  </si>
-  <si>
-    <t>//div[@class='advBlock']//h4[text() = 'Affectation' ]</t>
-  </si>
-  <si>
     <t>a_Role</t>
   </si>
   <si>
-    <t>h4_Role</t>
-  </si>
-  <si>
-    <t>//li[@class ='nav-item']//a[contains(text(),'Rôle')]</t>
-  </si>
-  <si>
-    <t>//div[@class='advBlock']//h4[text() = 'Profil']</t>
-  </si>
-  <si>
-    <t>//input[@id='ST_NUMZON']</t>
+    <t>a_Preventif</t>
+  </si>
+  <si>
+    <t>a_Zone</t>
+  </si>
+  <si>
+    <t>//li[@class ='nav-item']//a[@ml-text3='affectation']</t>
+  </si>
+  <si>
+    <t>a_Acteur</t>
+  </si>
+  <si>
+    <t>a_ActeurSelected</t>
+  </si>
+  <si>
+    <t>//li[@class ='nav-item']//a[@ml-text3='ID_CODINT']</t>
+  </si>
+  <si>
+    <t>//li[@class ='nav-item']//a[@ml-text3='ID_CODINT' and starts-with(@class,'nav-link active')]</t>
+  </si>
+  <si>
+    <t>//li[@class ='nav-item']//a[@ml-text3='affectation' and starts-with(@class,'nav-link active')]</t>
+  </si>
+  <si>
+    <t>//li[@class ='nav-item']//a[@ml-text3='role']</t>
+  </si>
+  <si>
+    <t>//li[@class ='nav-item']//a[@ml-text3='role' and starts-with(@class,'nav-link active')]</t>
+  </si>
+  <si>
+    <t>//li[@class ='nav-item']//a[@ml-text3='preventif']</t>
+  </si>
+  <si>
+    <t>//li[@class ='nav-item']//a[@ml-text3='preventif' and starts-with(@class,'nav-link active')]</t>
+  </si>
+  <si>
+    <t>//li[@class ='nav-item']//a[@ml-text3='ID_CODHAB']</t>
+  </si>
+  <si>
+    <t>//li[@class ='nav-item']//a[@ml-text3='ID_CODHAB' and starts-with(@class,'nav-link active')]</t>
+  </si>
+  <si>
+    <t>//li[@class ='nav-item']//a[@ml-text3='ID_CODMET']</t>
+  </si>
+  <si>
+    <t>//li[@class ='nav-item']//a[@ml-text3='ID_CODMET' and starts-with(@class,'nav-link active')]</t>
+  </si>
+  <si>
+    <t>//li[@class ='nav-item']//a[@ml-text3='ID_NUMZON']</t>
+  </si>
+  <si>
+    <t>//li[@class ='nav-item']//a[@ml-text3='ID_NUMZON' and starts-with(@class,'nav-link active')]</t>
+  </si>
+  <si>
+    <t>a_AffectationSelected</t>
+  </si>
+  <si>
+    <t>a_RoleSelected</t>
+  </si>
+  <si>
+    <t>a_Metier</t>
+  </si>
+  <si>
+    <t>a_ZoneSelected</t>
+  </si>
+  <si>
+    <t>a_MetierSelected</t>
+  </si>
+  <si>
+    <t>a_HabilitationSelected</t>
+  </si>
+  <si>
+    <t>a_PreventifSelected</t>
+  </si>
+  <si>
+    <t>ALL</t>
+  </si>
+  <si>
+    <t>$NULL</t>
+  </si>
+  <si>
+    <t>//input[@id='ID_CODZON']</t>
   </si>
 </sst>
 </file>
@@ -1474,7 +1528,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1490,6 +1543,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4811,8 +4865,8 @@
   </sheetPr>
   <dimension ref="A1:BD18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AR1" workbookViewId="0">
-      <selection activeCell="AV16" sqref="AV16:AV17"/>
+    <sheetView tabSelected="1" topLeftCell="AQ1" workbookViewId="0">
+      <selection activeCell="AV14" sqref="AV14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -4826,6 +4880,7 @@
     <col min="17" max="17" width="19.88671875" customWidth="1"/>
     <col min="32" max="32" width="23" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="25.21875" customWidth="1"/>
+    <col min="48" max="48" width="26.6640625" customWidth="1"/>
     <col min="54" max="54" width="24.5546875" bestFit="1" customWidth="1"/>
     <col min="55" max="55" width="28.6640625" bestFit="1" customWidth="1"/>
     <col min="56" max="56" width="31.44140625" customWidth="1"/>
@@ -4973,7 +5028,7 @@
       <c r="AU1" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="AV1" s="77" t="s">
+      <c r="AV1" s="76" t="s">
         <v>109</v>
       </c>
       <c r="AW1" s="30" t="s">
@@ -4995,10 +5050,10 @@
         <v>155</v>
       </c>
       <c r="BC1" s="68" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="BD1" s="68" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="2" spans="1:56">
@@ -5142,136 +5197,142 @@
         <v>163</v>
       </c>
       <c r="BD3" s="67" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="4" spans="1:56" s="75" customFormat="1">
-      <c r="A4" s="71" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="4" spans="1:56" s="74" customFormat="1">
+      <c r="A4" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="B4" s="72" t="s">
+      <c r="B4" s="71" t="s">
         <v>164</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72" t="s">
+      <c r="C4" s="71"/>
+      <c r="D4" s="71" t="s">
         <v>164</v>
       </c>
-      <c r="E4" s="72" t="s">
+      <c r="E4" s="71" t="s">
         <v>164</v>
       </c>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72" t="s">
+      <c r="F4" s="71" t="s">
         <v>164</v>
       </c>
-      <c r="I4" s="72" t="s">
+      <c r="G4" s="71"/>
+      <c r="H4" s="71" t="s">
         <v>164</v>
       </c>
-      <c r="J4" s="72" t="s">
+      <c r="I4" s="71" t="s">
         <v>164</v>
       </c>
-      <c r="K4" s="72" t="s">
+      <c r="J4" s="71" t="s">
         <v>164</v>
       </c>
-      <c r="L4" s="72"/>
-      <c r="M4" s="72" t="s">
+      <c r="K4" s="71" t="s">
         <v>164</v>
       </c>
-      <c r="N4" s="72" t="s">
+      <c r="L4" s="71"/>
+      <c r="M4" s="71" t="s">
         <v>164</v>
       </c>
-      <c r="O4" s="72"/>
-      <c r="P4" s="72"/>
-      <c r="Q4" s="73" t="s">
+      <c r="N4" s="71" t="s">
         <v>164</v>
       </c>
-      <c r="R4" s="73" t="s">
+      <c r="O4" s="71" t="s">
         <v>164</v>
       </c>
-      <c r="S4" s="73" t="s">
+      <c r="P4" s="71" t="s">
         <v>164</v>
       </c>
-      <c r="T4" s="73" t="s">
+      <c r="Q4" s="72" t="s">
         <v>164</v>
       </c>
-      <c r="U4" s="73" t="s">
+      <c r="R4" s="72" t="s">
         <v>164</v>
       </c>
-      <c r="V4" s="72" t="s">
+      <c r="S4" s="72" t="s">
         <v>164</v>
       </c>
-      <c r="W4" s="74"/>
-      <c r="X4" s="72"/>
-      <c r="Y4" s="72"/>
-      <c r="Z4" s="72" t="s">
+      <c r="T4" s="72" t="s">
         <v>164</v>
       </c>
-      <c r="AA4" s="72"/>
-      <c r="AB4" s="72" t="s">
+      <c r="U4" s="72" t="s">
         <v>164</v>
       </c>
-      <c r="AC4" s="73" t="s">
+      <c r="V4" s="71" t="s">
         <v>164</v>
       </c>
-      <c r="AD4" s="73" t="s">
+      <c r="W4" s="73"/>
+      <c r="X4" s="71"/>
+      <c r="Y4" s="71"/>
+      <c r="Z4" s="71" t="s">
         <v>164</v>
       </c>
-      <c r="AE4" s="73" t="s">
+      <c r="AA4" s="71"/>
+      <c r="AB4" s="71" t="s">
         <v>164</v>
       </c>
-      <c r="AF4" s="73" t="s">
+      <c r="AC4" s="72" t="s">
         <v>164</v>
       </c>
-      <c r="AG4" s="73" t="s">
+      <c r="AD4" s="72" t="s">
         <v>164</v>
       </c>
-      <c r="AH4" s="72"/>
-      <c r="AI4" s="72"/>
-      <c r="AJ4" s="72"/>
-      <c r="AK4" s="72" t="s">
+      <c r="AE4" s="72" t="s">
         <v>164</v>
       </c>
-      <c r="AL4" s="72" t="s">
+      <c r="AF4" s="72" t="s">
         <v>164</v>
       </c>
-      <c r="AM4" s="72" t="s">
+      <c r="AG4" s="72" t="s">
         <v>164</v>
       </c>
-      <c r="AN4" s="72"/>
-      <c r="AO4" s="74"/>
-      <c r="AP4" s="72"/>
-      <c r="AQ4" s="73" t="s">
+      <c r="AH4" s="71"/>
+      <c r="AI4" s="71"/>
+      <c r="AJ4" s="71"/>
+      <c r="AK4" s="71" t="s">
         <v>164</v>
       </c>
-      <c r="AR4" s="73" t="s">
+      <c r="AL4" s="71" t="s">
         <v>164</v>
       </c>
-      <c r="AS4" s="73" t="s">
+      <c r="AM4" s="71" t="s">
         <v>164</v>
       </c>
-      <c r="AT4" s="72" t="s">
+      <c r="AN4" s="71"/>
+      <c r="AO4" s="73"/>
+      <c r="AP4" s="71"/>
+      <c r="AQ4" s="72" t="s">
         <v>164</v>
       </c>
-      <c r="AU4" s="73" t="s">
+      <c r="AR4" s="72" t="s">
         <v>164</v>
       </c>
-      <c r="AV4" s="72" t="s">
-        <v>318</v>
-      </c>
-      <c r="AW4" s="72" t="s">
+      <c r="AS4" s="72" t="s">
+        <v>164</v>
+      </c>
+      <c r="AT4" s="71" t="s">
+        <v>164</v>
+      </c>
+      <c r="AU4" s="72" t="s">
+        <v>164</v>
+      </c>
+      <c r="AV4" s="71" t="s">
+        <v>336</v>
+      </c>
+      <c r="AW4" s="71" t="s">
         <v>165</v>
       </c>
-      <c r="AX4" s="72"/>
-      <c r="AY4" s="72"/>
-      <c r="AZ4" s="72"/>
-      <c r="BA4" s="72"/>
-      <c r="BB4" s="72" t="s">
+      <c r="AX4" s="71"/>
+      <c r="AY4" s="71"/>
+      <c r="AZ4" s="71"/>
+      <c r="BA4" s="71"/>
+      <c r="BB4" s="71" t="s">
         <v>164</v>
       </c>
-      <c r="BC4" s="72" t="s">
+      <c r="BC4" s="71" t="s">
         <v>164</v>
       </c>
-      <c r="BD4" s="72" t="s">
+      <c r="BD4" s="71" t="s">
         <v>164</v>
       </c>
     </row>
@@ -5402,7 +5463,9 @@
       <c r="V6" s="42">
         <v>80</v>
       </c>
-      <c r="W6" s="43"/>
+      <c r="W6" s="77" t="s">
+        <v>335</v>
+      </c>
       <c r="X6" s="41" t="s">
         <v>179</v>
       </c>
@@ -5454,7 +5517,9 @@
       <c r="AN6" s="40" t="s">
         <v>170</v>
       </c>
-      <c r="AO6" s="43"/>
+      <c r="AO6" s="77" t="s">
+        <v>335</v>
+      </c>
       <c r="AP6" s="41" t="s">
         <v>178</v>
       </c>
@@ -5476,8 +5541,8 @@
       <c r="AV6" s="40">
         <v>0</v>
       </c>
-      <c r="AW6" s="76" t="s">
-        <v>306</v>
+      <c r="AW6" s="75" t="s">
+        <v>303</v>
       </c>
       <c r="AX6" s="41" t="s">
         <v>179</v>
@@ -5568,7 +5633,9 @@
       <c r="V7" s="42">
         <v>90</v>
       </c>
-      <c r="W7" s="43"/>
+      <c r="W7" s="77" t="s">
+        <v>335</v>
+      </c>
       <c r="X7" s="41" t="s">
         <v>179</v>
       </c>
@@ -5620,7 +5687,9 @@
       <c r="AN7" s="40" t="s">
         <v>170</v>
       </c>
-      <c r="AO7" s="43"/>
+      <c r="AO7" s="77" t="s">
+        <v>335</v>
+      </c>
       <c r="AP7" s="41" t="s">
         <v>178</v>
       </c>
@@ -5642,8 +5711,8 @@
       <c r="AV7" s="40">
         <v>0</v>
       </c>
-      <c r="AW7" s="76" t="s">
-        <v>306</v>
+      <c r="AW7" s="75" t="s">
+        <v>303</v>
       </c>
       <c r="AX7" s="41" t="s">
         <v>179</v>
@@ -5734,7 +5803,9 @@
       <c r="V8" s="42">
         <v>0</v>
       </c>
-      <c r="W8" s="43"/>
+      <c r="W8" s="77" t="s">
+        <v>335</v>
+      </c>
       <c r="X8" s="41" t="s">
         <v>179</v>
       </c>
@@ -5786,7 +5857,9 @@
       <c r="AN8" s="40" t="s">
         <v>170</v>
       </c>
-      <c r="AO8" s="43"/>
+      <c r="AO8" s="77" t="s">
+        <v>335</v>
+      </c>
       <c r="AP8" s="41" t="s">
         <v>178</v>
       </c>
@@ -5808,8 +5881,8 @@
       <c r="AV8" s="40">
         <v>0</v>
       </c>
-      <c r="AW8" s="76" t="s">
-        <v>306</v>
+      <c r="AW8" s="75" t="s">
+        <v>303</v>
       </c>
       <c r="AX8" s="41" t="s">
         <v>179</v>
@@ -7952,10 +8025,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C26" sqref="C25:C26"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -8079,10 +8152,10 @@
         <v>287</v>
       </c>
       <c r="B11" s="40" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C11" s="40" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="13.2">
@@ -8090,10 +8163,10 @@
         <v>287</v>
       </c>
       <c r="B12" s="40" t="s">
-        <v>292</v>
-      </c>
-      <c r="C12" s="41" t="s">
         <v>293</v>
+      </c>
+      <c r="C12" s="40" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="13.2">
@@ -8101,32 +8174,32 @@
         <v>287</v>
       </c>
       <c r="B13" s="40" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C13" s="40" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="13.2">
       <c r="A14" s="40" t="s">
         <v>287</v>
       </c>
-      <c r="B14" s="40" t="s">
-        <v>296</v>
-      </c>
-      <c r="C14" s="40" t="s">
+      <c r="B14" s="63" t="s">
         <v>297</v>
+      </c>
+      <c r="C14" s="63" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="13.2">
       <c r="A15" s="40" t="s">
         <v>287</v>
       </c>
-      <c r="B15" s="40" t="s">
-        <v>298</v>
-      </c>
-      <c r="C15" s="40" t="s">
+      <c r="B15" s="63" t="s">
         <v>299</v>
+      </c>
+      <c r="C15" s="63" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="13.2">
@@ -8134,76 +8207,164 @@
         <v>287</v>
       </c>
       <c r="B16" s="63" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C16" s="63" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="13.2">
-      <c r="A17" s="40" t="s">
-        <v>287</v>
-      </c>
-      <c r="B17" s="63" t="s">
-        <v>302</v>
-      </c>
-      <c r="C17" s="63" t="s">
-        <v>303</v>
+      <c r="A17" s="66" t="s">
+        <v>334</v>
+      </c>
+      <c r="B17" s="66" t="s">
+        <v>312</v>
+      </c>
+      <c r="C17" s="66" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="13.2">
-      <c r="A18" s="40" t="s">
-        <v>287</v>
-      </c>
-      <c r="B18" s="63" t="s">
+      <c r="A18" s="66" t="s">
+        <v>334</v>
+      </c>
+      <c r="B18" s="66" t="s">
+        <v>313</v>
+      </c>
+      <c r="C18" s="66" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="13.2">
+      <c r="A19" s="66" t="s">
+        <v>334</v>
+      </c>
+      <c r="B19" s="66" t="s">
         <v>304</v>
       </c>
-      <c r="C18" s="63" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="13.2">
-      <c r="A19" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="66" t="s">
+      <c r="C19" s="66" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="13.2">
+      <c r="A20" s="66" t="s">
+        <v>334</v>
+      </c>
+      <c r="B20" s="66" t="s">
+        <v>327</v>
+      </c>
+      <c r="C20" s="66" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="13.2">
+      <c r="A21" s="66" t="s">
+        <v>334</v>
+      </c>
+      <c r="B21" s="66" t="s">
         <v>308</v>
       </c>
-      <c r="C19" s="66" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="13.2">
-      <c r="A20" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" s="66" t="s">
-        <v>312</v>
-      </c>
-      <c r="C20" s="70" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="13.2">
-      <c r="A21" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" s="66" t="s">
-        <v>314</v>
-      </c>
       <c r="C21" s="66" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15" customHeight="1">
-      <c r="A22" s="44" t="s">
-        <v>11</v>
+      <c r="A22" s="66" t="s">
+        <v>334</v>
       </c>
       <c r="B22" s="66" t="s">
-        <v>315</v>
-      </c>
-      <c r="C22" s="70" t="s">
-        <v>317</v>
+        <v>328</v>
+      </c>
+      <c r="C22" s="66" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15" customHeight="1">
+      <c r="A23" s="66" t="s">
+        <v>334</v>
+      </c>
+      <c r="B23" s="66" t="s">
+        <v>309</v>
+      </c>
+      <c r="C23" s="66" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15" customHeight="1">
+      <c r="A24" s="66" t="s">
+        <v>334</v>
+      </c>
+      <c r="B24" s="66" t="s">
+        <v>333</v>
+      </c>
+      <c r="C24" s="66" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="13.2">
+      <c r="A25" s="66" t="s">
+        <v>334</v>
+      </c>
+      <c r="B25" s="40" t="s">
+        <v>290</v>
+      </c>
+      <c r="C25" s="66" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="13.2">
+      <c r="A26" s="66" t="s">
+        <v>334</v>
+      </c>
+      <c r="B26" s="66" t="s">
+        <v>332</v>
+      </c>
+      <c r="C26" s="66" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15" customHeight="1">
+      <c r="A27" s="66" t="s">
+        <v>334</v>
+      </c>
+      <c r="B27" s="66" t="s">
+        <v>329</v>
+      </c>
+      <c r="C27" s="66" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15" customHeight="1">
+      <c r="A28" s="66" t="s">
+        <v>334</v>
+      </c>
+      <c r="B28" s="66" t="s">
+        <v>331</v>
+      </c>
+      <c r="C28" s="66" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15" customHeight="1">
+      <c r="A29" s="66" t="s">
+        <v>334</v>
+      </c>
+      <c r="B29" s="66" t="s">
+        <v>310</v>
+      </c>
+      <c r="C29" s="66" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15" customHeight="1">
+      <c r="A30" s="66" t="s">
+        <v>334</v>
+      </c>
+      <c r="B30" s="66" t="s">
+        <v>330</v>
+      </c>
+      <c r="C30" s="66" t="s">
+        <v>326</v>
       </c>
     </row>
   </sheetData>

--- a/TNR_JDD/RO/JDD.RO.ACT.xlsx
+++ b/TNR_JDD/RO/JDD.RO.ACT.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="341">
   <si>
     <t>Date</t>
   </si>
@@ -1114,7 +1114,19 @@
     <t>$NULL</t>
   </si>
   <si>
-    <t>//input[@id='ID_CODZON']</t>
+    <t>//input[@id='ST_CODZON']</t>
+  </si>
+  <si>
+    <t>ID_NUMZON*ZON*ST_CODZON</t>
+  </si>
+  <si>
+    <t>ST_DESID_CODCAL</t>
+  </si>
+  <si>
+    <t>ST_DES*CAL*ID_CODCAL = CAL.ID_CODCAL</t>
+  </si>
+  <si>
+    <t>RO.ACT.001.LEC.01.A</t>
   </si>
 </sst>
 </file>
@@ -1379,7 +1391,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1544,6 +1556,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1751,9 +1765,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F999"/>
+  <dimension ref="A1:G999"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -1764,7 +1780,7 @@
     <col min="6" max="26" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="12.75" customHeight="1">
+    <row r="1" spans="1:7" ht="12.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1781,7 +1797,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="12.75" customHeight="1">
+    <row r="2" spans="1:7" ht="12.75" customHeight="1">
       <c r="A2" s="3">
         <v>44886</v>
       </c>
@@ -1797,98 +1813,101 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="12.75" customHeight="1">
+    <row r="3" spans="1:7" ht="12.75" customHeight="1">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:6" ht="12.75" customHeight="1">
+    <row r="4" spans="1:7" ht="12.75" customHeight="1">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:6" ht="12.75" customHeight="1">
+    <row r="5" spans="1:7" ht="12.75" customHeight="1">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="1:6" ht="12.75" customHeight="1">
+      <c r="G5" s="34" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="12.75" customHeight="1">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:6" ht="12.75" customHeight="1">
+    <row r="7" spans="1:7" ht="12.75" customHeight="1">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:6" ht="12.75" customHeight="1">
+    <row r="8" spans="1:7" ht="12.75" customHeight="1">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:6" ht="12.75" customHeight="1">
+    <row r="9" spans="1:7" ht="12.75" customHeight="1">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:6" ht="12.75" customHeight="1">
+    <row r="10" spans="1:7" ht="12.75" customHeight="1">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:6" ht="12.75" customHeight="1">
+    <row r="11" spans="1:7" ht="12.75" customHeight="1">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="1:6" ht="12.75" customHeight="1">
+    <row r="12" spans="1:7" ht="12.75" customHeight="1">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
     </row>
-    <row r="13" spans="1:6" ht="12.75" customHeight="1">
+    <row r="13" spans="1:7" ht="12.75" customHeight="1">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="1:6" ht="12.75" customHeight="1">
+    <row r="14" spans="1:7" ht="12.75" customHeight="1">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
     </row>
-    <row r="15" spans="1:6" ht="12.75" customHeight="1">
+    <row r="15" spans="1:7" ht="12.75" customHeight="1">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="1:6" ht="12.75" customHeight="1">
+    <row r="16" spans="1:7" ht="12.75" customHeight="1">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -2894,11 +2913,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z980"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="61.44140625" customWidth="1"/>
     <col min="3" max="3" width="28" customWidth="1"/>
     <col min="4" max="4" width="10.6640625" customWidth="1"/>
@@ -4863,10 +4884,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BD18"/>
+  <dimension ref="A1:BE18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AQ1" workbookViewId="0">
-      <selection activeCell="AV14" sqref="AV14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -4884,9 +4905,10 @@
     <col min="54" max="54" width="24.5546875" bestFit="1" customWidth="1"/>
     <col min="55" max="55" width="28.6640625" bestFit="1" customWidth="1"/>
     <col min="56" max="56" width="31.44140625" customWidth="1"/>
+    <col min="57" max="57" width="24.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56">
+    <row r="1" spans="1:57">
       <c r="A1" s="26" t="s">
         <v>12</v>
       </c>
@@ -5055,8 +5077,11 @@
       <c r="BD1" s="68" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="2" spans="1:56">
+      <c r="BE1" s="68" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="2" spans="1:57">
       <c r="A2" s="32" t="s">
         <v>156</v>
       </c>
@@ -5122,7 +5147,7 @@
         <v>157</v>
       </c>
       <c r="AU2" s="33"/>
-      <c r="AV2" s="33"/>
+      <c r="AV2" s="34"/>
       <c r="AW2" s="33"/>
       <c r="AX2" s="33"/>
       <c r="AY2" s="33"/>
@@ -5131,8 +5156,9 @@
       <c r="BB2" s="33"/>
       <c r="BC2" s="34"/>
       <c r="BD2" s="34"/>
-    </row>
-    <row r="3" spans="1:56">
+      <c r="BE2" s="34"/>
+    </row>
+    <row r="3" spans="1:57">
       <c r="A3" s="32" t="s">
         <v>161</v>
       </c>
@@ -5184,7 +5210,7 @@
       <c r="AS3" s="33"/>
       <c r="AT3" s="33"/>
       <c r="AU3" s="33"/>
-      <c r="AV3" s="33"/>
+      <c r="AV3" s="34"/>
       <c r="AW3" s="33"/>
       <c r="AX3" s="33"/>
       <c r="AY3" s="33"/>
@@ -5199,8 +5225,11 @@
       <c r="BD3" s="67" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="4" spans="1:56" s="74" customFormat="1">
+      <c r="BE3" s="67" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="4" spans="1:57" s="74" customFormat="1">
       <c r="A4" s="70" t="s">
         <v>166</v>
       </c>
@@ -5335,8 +5364,11 @@
       <c r="BD4" s="71" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="5" spans="1:56">
+      <c r="BE4" s="71" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="5" spans="1:57">
       <c r="A5" s="37" t="s">
         <v>167</v>
       </c>
@@ -5395,8 +5427,9 @@
       <c r="BB5" s="38"/>
       <c r="BC5" s="38"/>
       <c r="BD5" s="38"/>
-    </row>
-    <row r="6" spans="1:56">
+      <c r="BE5" s="38"/>
+    </row>
+    <row r="6" spans="1:57">
       <c r="A6" s="39" t="s">
         <v>168</v>
       </c>
@@ -5502,8 +5535,8 @@
       <c r="AI6" s="41" t="s">
         <v>181</v>
       </c>
-      <c r="AJ6" s="41" t="s">
-        <v>181</v>
+      <c r="AJ6" s="78" t="s">
+        <v>335</v>
       </c>
       <c r="AK6" s="44" t="s">
         <v>182</v>
@@ -5538,8 +5571,8 @@
       <c r="AU6" s="40" t="s">
         <v>178</v>
       </c>
-      <c r="AV6" s="40">
-        <v>0</v>
+      <c r="AV6" s="66" t="s">
+        <v>335</v>
       </c>
       <c r="AW6" s="75" t="s">
         <v>303</v>
@@ -5547,26 +5580,21 @@
       <c r="AX6" s="41" t="s">
         <v>179</v>
       </c>
-      <c r="AY6" s="41" t="s">
-        <v>179</v>
+      <c r="AY6" s="78" t="s">
+        <v>335</v>
       </c>
       <c r="AZ6" s="41" t="s">
         <v>181</v>
       </c>
-      <c r="BA6" s="41" t="s">
-        <v>181</v>
-      </c>
-      <c r="BB6" s="45" t="s">
-        <v>168</v>
-      </c>
-      <c r="BC6" s="50" t="s">
-        <v>174</v>
-      </c>
-      <c r="BD6" s="50" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="7" spans="1:56">
+      <c r="BA6" s="78" t="s">
+        <v>335</v>
+      </c>
+      <c r="BB6" s="47"/>
+      <c r="BC6" s="47"/>
+      <c r="BD6" s="47"/>
+      <c r="BE6" s="47"/>
+    </row>
+    <row r="7" spans="1:57">
       <c r="A7" s="39" t="s">
         <v>186</v>
       </c>
@@ -5708,8 +5736,8 @@
       <c r="AU7" s="40" t="s">
         <v>178</v>
       </c>
-      <c r="AV7" s="40">
-        <v>0</v>
+      <c r="AV7" s="66" t="s">
+        <v>335</v>
       </c>
       <c r="AW7" s="75" t="s">
         <v>303</v>
@@ -5729,14 +5757,17 @@
       <c r="BB7" s="45" t="s">
         <v>186</v>
       </c>
-      <c r="BC7" s="50" t="s">
-        <v>191</v>
+      <c r="BC7" s="79" t="s">
+        <v>340</v>
       </c>
       <c r="BD7" s="50" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="8" spans="1:56">
+      <c r="BE7" s="50" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="8" spans="1:57">
       <c r="A8" s="39" t="s">
         <v>198</v>
       </c>
@@ -5878,8 +5909,8 @@
       <c r="AU8" s="40" t="s">
         <v>178</v>
       </c>
-      <c r="AV8" s="40">
-        <v>0</v>
+      <c r="AV8" s="66" t="s">
+        <v>335</v>
       </c>
       <c r="AW8" s="75" t="s">
         <v>303</v>
@@ -5896,17 +5927,12 @@
       <c r="BA8" s="41" t="s">
         <v>181</v>
       </c>
-      <c r="BB8" s="45" t="s">
-        <v>200</v>
-      </c>
-      <c r="BC8" s="50" t="s">
-        <v>204</v>
-      </c>
-      <c r="BD8" s="50" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="9" spans="1:56">
+      <c r="BB8" s="47"/>
+      <c r="BC8" s="47"/>
+      <c r="BD8" s="47"/>
+      <c r="BE8" s="47"/>
+    </row>
+    <row r="9" spans="1:57">
       <c r="A9" s="65" t="s">
         <v>209</v>
       </c>
@@ -5967,8 +5993,9 @@
       <c r="BB9" s="39"/>
       <c r="BC9" s="47"/>
       <c r="BD9" s="47"/>
-    </row>
-    <row r="10" spans="1:56">
+      <c r="BE9" s="47"/>
+    </row>
+    <row r="10" spans="1:57">
       <c r="A10" s="39" t="s">
         <v>210</v>
       </c>
@@ -6029,8 +6056,9 @@
       <c r="BB10" s="39"/>
       <c r="BC10" s="47"/>
       <c r="BD10" s="47"/>
-    </row>
-    <row r="11" spans="1:56">
+      <c r="BE10" s="47"/>
+    </row>
+    <row r="11" spans="1:57">
       <c r="A11" s="47"/>
       <c r="B11" s="48"/>
       <c r="C11" s="49"/>
@@ -6087,8 +6115,9 @@
       <c r="BB11" s="50"/>
       <c r="BC11" s="50"/>
       <c r="BD11" s="50"/>
-    </row>
-    <row r="12" spans="1:56">
+      <c r="BE11" s="50"/>
+    </row>
+    <row r="12" spans="1:57">
       <c r="A12" s="47"/>
       <c r="B12" s="48"/>
       <c r="C12" s="49"/>
@@ -6145,8 +6174,9 @@
       <c r="BB12" s="50"/>
       <c r="BC12" s="50"/>
       <c r="BD12" s="50"/>
-    </row>
-    <row r="13" spans="1:56">
+      <c r="BE12" s="50"/>
+    </row>
+    <row r="13" spans="1:57">
       <c r="A13" s="47"/>
       <c r="B13" s="48"/>
       <c r="C13" s="49"/>
@@ -6203,8 +6233,9 @@
       <c r="BB13" s="50"/>
       <c r="BC13" s="50"/>
       <c r="BD13" s="50"/>
-    </row>
-    <row r="14" spans="1:56">
+      <c r="BE13" s="50"/>
+    </row>
+    <row r="14" spans="1:57">
       <c r="A14" s="47"/>
       <c r="B14" s="48"/>
       <c r="C14" s="49"/>
@@ -6261,8 +6292,9 @@
       <c r="BB14" s="50"/>
       <c r="BC14" s="50"/>
       <c r="BD14" s="50"/>
-    </row>
-    <row r="15" spans="1:56">
+      <c r="BE14" s="50"/>
+    </row>
+    <row r="15" spans="1:57">
       <c r="A15" s="47"/>
       <c r="B15" s="48"/>
       <c r="C15" s="49"/>
@@ -6319,8 +6351,9 @@
       <c r="BB15" s="50"/>
       <c r="BC15" s="50"/>
       <c r="BD15" s="50"/>
-    </row>
-    <row r="16" spans="1:56">
+      <c r="BE15" s="50"/>
+    </row>
+    <row r="16" spans="1:57">
       <c r="A16" s="47"/>
       <c r="B16" s="48"/>
       <c r="C16" s="49"/>
@@ -6377,8 +6410,9 @@
       <c r="BB16" s="50"/>
       <c r="BC16" s="50"/>
       <c r="BD16" s="50"/>
-    </row>
-    <row r="17" spans="1:56">
+      <c r="BE16" s="50"/>
+    </row>
+    <row r="17" spans="1:57">
       <c r="A17" s="47"/>
       <c r="B17" s="48"/>
       <c r="C17" s="49"/>
@@ -6435,8 +6469,9 @@
       <c r="BB17" s="50"/>
       <c r="BC17" s="50"/>
       <c r="BD17" s="50"/>
-    </row>
-    <row r="18" spans="1:56">
+      <c r="BE17" s="50"/>
+    </row>
+    <row r="18" spans="1:57">
       <c r="A18" s="47"/>
       <c r="B18" s="48"/>
       <c r="C18" s="49"/>
@@ -6493,6 +6528,7 @@
       <c r="BB18" s="50"/>
       <c r="BC18" s="50"/>
       <c r="BD18" s="50"/>
+      <c r="BE18" s="50"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TNR_JDD/RO/JDD.RO.ACT.xlsx
+++ b/TNR_JDD/RO/JDD.RO.ACT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="228" yWindow="504" windowWidth="19356" windowHeight="8676" activeTab="2"/>
+    <workbookView xWindow="228" yWindow="504" windowWidth="19356" windowHeight="8676" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Version" sheetId="1" r:id="rId1"/>
@@ -625,12 +625,6 @@
     <t>RO.ACT.001.MAJ.01</t>
   </si>
   <si>
-    <t>upd.RO.ACT.001.MAJ.01.........</t>
-  </si>
-  <si>
-    <t>upd.RO.ACT.001.MAJ.01</t>
-  </si>
-  <si>
     <t>upd.PEPLU</t>
   </si>
   <si>
@@ -638,9 +632,6 @@
   </si>
   <si>
     <t>upd.DIVERS02</t>
-  </si>
-  <si>
-    <t>upd.RO.ACT.001.MAJ.01.A.......</t>
   </si>
   <si>
     <t>upd.GROUPE 3</t>
@@ -1127,6 +1118,15 @@
   </si>
   <si>
     <t>RO.ACT.001.LEC.01.A</t>
+  </si>
+  <si>
+    <t>UPD.RO.ACT.001.MAJ.01.........</t>
+  </si>
+  <si>
+    <t>UPD.RO.ACT.001.MAJ.01</t>
+  </si>
+  <si>
+    <t>UPD.RO.ACT.001.MAJ.01.A.......</t>
   </si>
 </sst>
 </file>
@@ -1834,7 +1834,7 @@
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="G5" s="34" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="12.75" customHeight="1">
@@ -4886,8 +4886,8 @@
   </sheetPr>
   <dimension ref="A1:BE18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView topLeftCell="AN1" workbookViewId="0">
+      <selection activeCell="AT9" sqref="AT9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -5072,13 +5072,13 @@
         <v>155</v>
       </c>
       <c r="BC1" s="68" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="BD1" s="68" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="BE1" s="68" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="2" spans="1:57">
@@ -5223,10 +5223,10 @@
         <v>163</v>
       </c>
       <c r="BD3" s="67" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="BE3" s="67" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="4" spans="1:57" s="74" customFormat="1">
@@ -5346,7 +5346,7 @@
         <v>164</v>
       </c>
       <c r="AV4" s="71" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="AW4" s="71" t="s">
         <v>165</v>
@@ -5497,7 +5497,7 @@
         <v>80</v>
       </c>
       <c r="W6" s="77" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="X6" s="41" t="s">
         <v>179</v>
@@ -5536,7 +5536,7 @@
         <v>181</v>
       </c>
       <c r="AJ6" s="78" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="AK6" s="44" t="s">
         <v>182</v>
@@ -5551,7 +5551,7 @@
         <v>170</v>
       </c>
       <c r="AO6" s="77" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="AP6" s="41" t="s">
         <v>178</v>
@@ -5572,22 +5572,22 @@
         <v>178</v>
       </c>
       <c r="AV6" s="66" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="AW6" s="75" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="AX6" s="41" t="s">
         <v>179</v>
       </c>
       <c r="AY6" s="78" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="AZ6" s="41" t="s">
         <v>181</v>
       </c>
       <c r="BA6" s="78" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="BB6" s="47"/>
       <c r="BC6" s="47"/>
@@ -5662,7 +5662,7 @@
         <v>90</v>
       </c>
       <c r="W7" s="77" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="X7" s="41" t="s">
         <v>179</v>
@@ -5716,7 +5716,7 @@
         <v>170</v>
       </c>
       <c r="AO7" s="77" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="AP7" s="41" t="s">
         <v>178</v>
@@ -5737,10 +5737,10 @@
         <v>178</v>
       </c>
       <c r="AV7" s="66" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="AW7" s="75" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="AX7" s="41" t="s">
         <v>179</v>
@@ -5758,7 +5758,7 @@
         <v>186</v>
       </c>
       <c r="BC7" s="79" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="BD7" s="50" t="s">
         <v>186</v>
@@ -5774,41 +5774,41 @@
       <c r="B8" s="40" t="s">
         <v>198</v>
       </c>
-      <c r="C8" s="41" t="s">
-        <v>199</v>
-      </c>
-      <c r="D8" s="40" t="s">
-        <v>199</v>
-      </c>
-      <c r="E8" s="40" t="s">
-        <v>200</v>
-      </c>
-      <c r="F8" s="40" t="s">
-        <v>200</v>
+      <c r="C8" s="78" t="s">
+        <v>338</v>
+      </c>
+      <c r="D8" s="66" t="s">
+        <v>338</v>
+      </c>
+      <c r="E8" s="66" t="s">
+        <v>339</v>
+      </c>
+      <c r="F8" s="66" t="s">
+        <v>339</v>
       </c>
       <c r="G8" s="41" t="s">
         <v>170</v>
       </c>
       <c r="H8" s="40" t="s">
+        <v>199</v>
+      </c>
+      <c r="I8" s="40" t="s">
+        <v>200</v>
+      </c>
+      <c r="J8" s="40" t="s">
         <v>201</v>
-      </c>
-      <c r="I8" s="40" t="s">
-        <v>202</v>
-      </c>
-      <c r="J8" s="40" t="s">
-        <v>203</v>
       </c>
       <c r="K8" s="42">
         <v>12</v>
       </c>
-      <c r="L8" s="41" t="s">
-        <v>204</v>
+      <c r="L8" s="78" t="s">
+        <v>340</v>
       </c>
       <c r="M8" s="40" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="N8" s="40" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O8" s="40" t="s">
         <v>177</v>
@@ -5835,7 +5835,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="77" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="X8" s="41" t="s">
         <v>179</v>
@@ -5844,7 +5844,7 @@
         <v>170</v>
       </c>
       <c r="Z8" s="40" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="AA8" s="40" t="s">
         <v>170</v>
@@ -5877,19 +5877,19 @@
         <v>181</v>
       </c>
       <c r="AK8" s="44" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="AL8" s="44" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="AM8" s="44" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="AN8" s="40" t="s">
         <v>170</v>
       </c>
       <c r="AO8" s="77" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="AP8" s="41" t="s">
         <v>178</v>
@@ -5903,17 +5903,17 @@
       <c r="AS8" s="41" t="s">
         <v>178</v>
       </c>
-      <c r="AT8" s="40" t="s">
-        <v>204</v>
+      <c r="AT8" s="66" t="s">
+        <v>340</v>
       </c>
       <c r="AU8" s="40" t="s">
         <v>178</v>
       </c>
       <c r="AV8" s="66" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="AW8" s="75" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="AX8" s="41" t="s">
         <v>179</v>
@@ -5934,7 +5934,7 @@
     </row>
     <row r="9" spans="1:57">
       <c r="A9" s="65" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B9" s="64" t="s">
         <v>168</v>
@@ -5997,10 +5997,10 @@
     </row>
     <row r="10" spans="1:57">
       <c r="A10" s="39" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B10" s="40" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C10" s="39"/>
       <c r="D10" s="39"/>
@@ -6543,8 +6543,8 @@
   </sheetPr>
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -6581,10 +6581,10 @@
       <c r="B2" s="51"/>
       <c r="C2" s="51"/>
       <c r="D2" s="52" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E2" s="52" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -6601,13 +6601,13 @@
         <v>166</v>
       </c>
       <c r="B4" s="52" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C4" s="52" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D4" s="52" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E4" s="52" t="s">
         <v>164</v>
@@ -6624,41 +6624,41 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="39" t="s">
-        <v>216</v>
-      </c>
-      <c r="B6" s="40" t="s">
-        <v>170</v>
-      </c>
-      <c r="C6" s="40" t="s">
-        <v>170</v>
+        <v>213</v>
+      </c>
+      <c r="B6" s="66" t="s">
+        <v>332</v>
+      </c>
+      <c r="C6" s="66" t="s">
+        <v>332</v>
       </c>
       <c r="D6" s="40" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E6" s="41" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="39" t="s">
-        <v>216</v>
-      </c>
-      <c r="B7" s="40" t="s">
-        <v>170</v>
-      </c>
-      <c r="C7" s="40" t="s">
-        <v>170</v>
+        <v>213</v>
+      </c>
+      <c r="B7" s="66" t="s">
+        <v>332</v>
+      </c>
+      <c r="C7" s="66" t="s">
+        <v>332</v>
       </c>
       <c r="D7" s="40" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E7" s="41" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="39" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B8" s="53">
         <v>44562</v>
@@ -6667,15 +6667,15 @@
         <v>45658</v>
       </c>
       <c r="D8" s="40" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E8" s="41" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="39" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B9" s="53">
         <v>44562</v>
@@ -6684,41 +6684,41 @@
         <v>46023</v>
       </c>
       <c r="D9" s="40" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E9" s="41" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="39" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B10" s="47"/>
       <c r="C10" s="47"/>
       <c r="D10" s="40" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E10" s="41" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="39" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B11" s="47"/>
       <c r="C11" s="47"/>
       <c r="D11" s="40" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E11" s="41" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="39" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B12" s="53">
         <v>44927</v>
@@ -6727,10 +6727,10 @@
         <v>46388</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E12" s="41" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -6810,10 +6810,10 @@
       <c r="B2" s="33"/>
       <c r="C2" s="33"/>
       <c r="D2" s="52" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F2" s="33"/>
     </row>
@@ -6849,7 +6849,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="39" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B6" s="40" t="s">
         <v>170</v>
@@ -6858,10 +6858,10 @@
         <v>170</v>
       </c>
       <c r="D6" s="41" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E6" s="40" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F6" s="40" t="s">
         <v>170</v>
@@ -6869,7 +6869,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="39" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B7" s="40" t="s">
         <v>170</v>
@@ -6878,10 +6878,10 @@
         <v>170</v>
       </c>
       <c r="D7" s="41" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E7" s="40" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F7" s="40" t="s">
         <v>170</v>
@@ -6889,7 +6889,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="39" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B8" s="53">
         <v>44562</v>
@@ -6898,18 +6898,18 @@
         <v>45658</v>
       </c>
       <c r="D8" s="41" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E8" s="40" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F8" s="40" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="39" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B9" s="53">
         <v>44562</v>
@@ -6918,46 +6918,46 @@
         <v>46023</v>
       </c>
       <c r="D9" s="41" t="s">
+        <v>227</v>
+      </c>
+      <c r="E9" s="40" t="s">
         <v>230</v>
       </c>
-      <c r="E9" s="40" t="s">
-        <v>233</v>
-      </c>
       <c r="F9" s="40" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="39" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B10" s="47"/>
       <c r="C10" s="47"/>
       <c r="D10" s="41" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E10" s="40" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F10" s="47"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="39" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B11" s="47"/>
       <c r="C11" s="47"/>
       <c r="D11" s="41" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E11" s="40" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F11" s="47"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="39" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B12" s="53">
         <v>44927</v>
@@ -6966,13 +6966,13 @@
         <v>46388</v>
       </c>
       <c r="D12" s="41" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E12" s="40" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F12" s="40" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -7050,11 +7050,11 @@
       <c r="B2" s="33"/>
       <c r="C2" s="33"/>
       <c r="D2" s="34" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E2" s="33"/>
       <c r="F2" s="34" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G2" s="33"/>
       <c r="H2" s="33"/>
@@ -7072,7 +7072,7 @@
       <c r="B3" s="33"/>
       <c r="C3" s="33"/>
       <c r="D3" s="34" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E3" s="33"/>
       <c r="F3" s="33"/>
@@ -7087,10 +7087,10 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="54" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B4" s="55" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C4" s="56"/>
       <c r="D4" s="56"/>
@@ -7143,22 +7143,22 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="39" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B7" s="41" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C7" s="41">
         <v>0</v>
       </c>
       <c r="D7" s="40" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E7" s="41" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F7" s="40" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G7" s="41" t="s">
         <v>179</v>
@@ -7187,22 +7187,22 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="39" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B8" s="41" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C8" s="41">
         <v>0</v>
       </c>
       <c r="D8" s="40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E8" s="41" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F8" s="40" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G8" s="41" t="s">
         <v>179</v>
@@ -7231,22 +7231,22 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="39" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B9" s="41" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C9" s="41">
         <v>0</v>
       </c>
       <c r="D9" s="40" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E9" s="41" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F9" s="40" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G9" s="41" t="s">
         <v>179</v>
@@ -7275,22 +7275,22 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="39" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B10" s="41" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C10" s="41">
         <v>0</v>
       </c>
       <c r="D10" s="40" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E10" s="41" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F10" s="40" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G10" s="41" t="s">
         <v>179</v>
@@ -7319,16 +7319,16 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="39" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B11" s="47"/>
       <c r="C11" s="47"/>
       <c r="D11" s="40" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E11" s="47"/>
       <c r="F11" s="40" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G11" s="47"/>
       <c r="H11" s="47"/>
@@ -7341,16 +7341,16 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="39" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B12" s="47"/>
       <c r="C12" s="47"/>
       <c r="D12" s="40" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E12" s="47"/>
       <c r="F12" s="40" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G12" s="47"/>
       <c r="H12" s="47"/>
@@ -7363,22 +7363,22 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="39" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B13" s="41" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C13" s="41">
         <v>0</v>
       </c>
       <c r="D13" s="40" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E13" s="41" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F13" s="40" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G13" s="41" t="s">
         <v>179</v>
@@ -7484,7 +7484,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="57" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C1" s="27" t="s">
         <v>13</v>
@@ -7648,7 +7648,7 @@
         <v>156</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C2" s="33"/>
       <c r="D2" s="34" t="s">
@@ -7895,47 +7895,47 @@
     </row>
     <row r="6" spans="1:54">
       <c r="A6" s="39" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C6" s="40" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D6" s="60" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E6" s="60" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F6" s="40" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G6" s="40" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="H6" s="41" t="s">
         <v>170</v>
       </c>
       <c r="I6" s="40" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="J6" s="40" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="K6" s="40" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L6" s="42">
         <v>28</v>
       </c>
       <c r="M6" s="61"/>
       <c r="N6" s="40" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="O6" s="40" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="P6" s="40" t="s">
         <v>178</v>
@@ -7969,7 +7969,7 @@
         <v>170</v>
       </c>
       <c r="AA6" s="40" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="AB6" s="40" t="s">
         <v>170</v>
@@ -8027,7 +8027,7 @@
         <v>178</v>
       </c>
       <c r="AU6" s="60" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="AV6" s="40" t="s">
         <v>178</v>
@@ -8064,7 +8064,7 @@
   <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -8075,13 +8075,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="13.2">
       <c r="A1" s="28" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B1" s="62" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C1" s="62" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="13.2">
@@ -8089,43 +8089,43 @@
         <v>11</v>
       </c>
       <c r="B2" s="40" t="s">
+        <v>268</v>
+      </c>
+      <c r="C2" s="40" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="13.2">
+      <c r="A3" s="66" t="s">
+        <v>331</v>
+      </c>
+      <c r="B3" s="40" t="s">
+        <v>270</v>
+      </c>
+      <c r="C3" s="40" t="s">
         <v>271</v>
       </c>
-      <c r="C2" s="40" t="s">
+    </row>
+    <row r="4" spans="1:3" ht="13.2">
+      <c r="A4" s="66" t="s">
+        <v>331</v>
+      </c>
+      <c r="B4" s="40" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="13.2">
-      <c r="A3" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="40" t="s">
+      <c r="C4" s="40" t="s">
         <v>273</v>
       </c>
-      <c r="C3" s="40" t="s">
+    </row>
+    <row r="5" spans="1:3" ht="13.2">
+      <c r="A5" s="66" t="s">
+        <v>331</v>
+      </c>
+      <c r="B5" s="40" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="13.2">
-      <c r="A4" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="40" t="s">
+      <c r="C5" s="40" t="s">
         <v>275</v>
-      </c>
-      <c r="C4" s="40" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="13.2">
-      <c r="A5" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="40" t="s">
-        <v>277</v>
-      </c>
-      <c r="C5" s="40" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="13.2">
@@ -8133,10 +8133,10 @@
         <v>11</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C6" s="40" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="13.2">
@@ -8144,10 +8144,10 @@
         <v>11</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C7" s="40" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="13.2">
@@ -8155,10 +8155,10 @@
         <v>11</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C8" s="40" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="13.2">
@@ -8166,241 +8166,241 @@
         <v>11</v>
       </c>
       <c r="B9" s="40" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C9" s="40" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="13.2">
       <c r="A10" s="40" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B10" s="40" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C10" s="40" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="13.2">
       <c r="A11" s="40" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B11" s="40" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C11" s="40" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="13.2">
       <c r="A12" s="40" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B12" s="40" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C12" s="40" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="13.2">
       <c r="A13" s="40" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B13" s="40" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C13" s="40" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="13.2">
       <c r="A14" s="40" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B14" s="63" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C14" s="63" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="13.2">
       <c r="A15" s="40" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B15" s="63" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C15" s="63" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="13.2">
       <c r="A16" s="40" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B16" s="63" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C16" s="63" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="13.2">
       <c r="A17" s="66" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B17" s="66" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C17" s="66" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="13.2">
       <c r="A18" s="66" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B18" s="66" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C18" s="66" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="13.2">
       <c r="A19" s="66" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B19" s="66" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C19" s="66" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="13.2">
       <c r="A20" s="66" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B20" s="66" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C20" s="66" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="13.2">
       <c r="A21" s="66" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B21" s="66" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C21" s="66" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15" customHeight="1">
       <c r="A22" s="66" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B22" s="66" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C22" s="66" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15" customHeight="1">
       <c r="A23" s="66" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B23" s="66" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C23" s="66" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15" customHeight="1">
       <c r="A24" s="66" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B24" s="66" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C24" s="66" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="13.2">
       <c r="A25" s="66" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B25" s="40" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C25" s="66" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="13.2">
       <c r="A26" s="66" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B26" s="66" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C26" s="66" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15" customHeight="1">
       <c r="A27" s="66" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B27" s="66" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C27" s="66" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15" customHeight="1">
       <c r="A28" s="66" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B28" s="66" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C28" s="66" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15" customHeight="1">
       <c r="A29" s="66" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B29" s="66" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C29" s="66" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15" customHeight="1">
       <c r="A30" s="66" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B30" s="66" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C30" s="66" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
   </sheetData>

--- a/TNR_JDD/RO/JDD.RO.ACT.xlsx
+++ b/TNR_JDD/RO/JDD.RO.ACT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="228" yWindow="504" windowWidth="19356" windowHeight="8676" activeTab="3"/>
+    <workbookView xWindow="228" yWindow="504" windowWidth="19356" windowHeight="8676" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Version" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="357">
   <si>
     <t>Date</t>
   </si>
@@ -766,12 +766,6 @@
     <t>RO.ACT.003HAB.SRS.01</t>
   </si>
   <si>
-    <t>RO.ACT.003HAB.SRS.01.1</t>
-  </si>
-  <si>
-    <t>RO.ACT.003HAB.SRS.01.2</t>
-  </si>
-  <si>
     <t>RO.ACT.003HAB.SRL.01</t>
   </si>
   <si>
@@ -805,12 +799,6 @@
     <t>RO.ACT.003MET.SRS.01</t>
   </si>
   <si>
-    <t>RO.ACT.003MET.SRS.01.1</t>
-  </si>
-  <si>
-    <t>RO.ACT.003MET.SRS.01.2</t>
-  </si>
-  <si>
     <t>RO.ACT.003MET.SRL.01</t>
   </si>
   <si>
@@ -991,9 +979,6 @@
     <t>SelectionHabilitation_button_Ajouter</t>
   </si>
   <si>
-    <t>//button[text() = 'Ajouter']</t>
-  </si>
-  <si>
     <t>SelectionHabilitation_input_Filtre</t>
   </si>
   <si>
@@ -1127,6 +1112,149 @@
   </si>
   <si>
     <t>UPD.RO.ACT.001.MAJ.01.A.......</t>
+  </si>
+  <si>
+    <t>003MET</t>
+  </si>
+  <si>
+    <t>a_AjouterMetier</t>
+  </si>
+  <si>
+    <t>//div[@id='bAddGridMET']/a[@id='add']</t>
+  </si>
+  <si>
+    <t>SelectionMetier_input_Filtre</t>
+  </si>
+  <si>
+    <t>SelectionMetier_td</t>
+  </si>
+  <si>
+    <t>SelectionMetier_button_Ajouter</t>
+  </si>
+  <si>
+    <t>//input[@name='SEARCH_ID_CODMET']</t>
+  </si>
+  <si>
+    <t>//div[@id='v-dbtdhtmlxtableART']/table/tbody//td[3][text()='${ID_CODMET}']</t>
+  </si>
+  <si>
+    <t>//button[@value='Ajouter']</t>
+  </si>
+  <si>
+    <t>span_Supprime_Metier</t>
+  </si>
+  <si>
+    <r>
+      <t>//div[@id='v-dbtdhtmlxMET']/table/tbody//td[3][text()='${</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0000"/>
+        <rFont val="Arial, sans-serif"/>
+      </rPr>
+      <t>ID_CODMET</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial, sans-serif"/>
+      </rPr>
+      <t>}']//following-sibling::td[3]/textarea</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>//div[@id='v-dbtdhtmlxMET']/table/tbody//td[3][text()='${</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0000"/>
+        <rFont val="Arial, sans-serif"/>
+      </rPr>
+      <t>ID_CODMET</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial, sans-serif"/>
+      </rPr>
+      <t>}']//following-sibling::td[4]/textarea</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>//div[@id='v-dbtdhtmlxMET']/table/tbody//td[3][text()='${</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0000"/>
+        <rFont val="Arial, sans-serif"/>
+      </rPr>
+      <t>ID_CODMET</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial, sans-serif"/>
+      </rPr>
+      <t>}']</t>
+    </r>
+  </si>
+  <si>
+    <t>//div[@id='v-dbtdhtmlxMET']/table/tbody//td[3][text()='${ID_CODMET}']//preceding-sibling::td//span</t>
+  </si>
+  <si>
+    <t>//div[@id='v-dbtdhtmlxMET']/table/tbody//td[3][text()='${ID_CODMET}']//following-sibling::td[3]</t>
+  </si>
+  <si>
+    <t>//div[@id='v-dbtdhtmlxMET']/table/tbody//td[3][text()='${ID_CODMET}']//following-sibling::td[4]</t>
+  </si>
+  <si>
+    <t>N1</t>
+  </si>
+  <si>
+    <t>N2</t>
+  </si>
+  <si>
+    <r>
+      <t>//div[@id='v-dbtdhtmlxMET']/table/tbody//td[3][text()='${</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFCC0000"/>
+        <rFont val="Arial, sans-serif"/>
+      </rPr>
+      <t>ID_CODMET</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial, sans-serif"/>
+      </rPr>
+      <t>}']//following-sibling::td[2]</t>
+    </r>
+  </si>
+  <si>
+    <t>//input[@id='MainFormART_ST_NIV']</t>
+  </si>
+  <si>
+    <t>SelectionMetier_input_ST_NIV</t>
   </si>
 </sst>
 </file>
@@ -1241,7 +1369,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="20">
+  <fills count="25">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1356,6 +1484,36 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -1391,7 +1549,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1558,6 +1716,16 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1834,7 +2002,7 @@
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="G5" s="34" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="12.75" customHeight="1">
@@ -4886,8 +5054,8 @@
   </sheetPr>
   <dimension ref="A1:BE18"/>
   <sheetViews>
-    <sheetView topLeftCell="AN1" workbookViewId="0">
-      <selection activeCell="AT9" sqref="AT9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -5072,13 +5240,13 @@
         <v>155</v>
       </c>
       <c r="BC1" s="68" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="BD1" s="68" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="BE1" s="68" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
     </row>
     <row r="2" spans="1:57">
@@ -5223,10 +5391,10 @@
         <v>163</v>
       </c>
       <c r="BD3" s="67" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="BE3" s="67" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
     </row>
     <row r="4" spans="1:57" s="74" customFormat="1">
@@ -5346,7 +5514,7 @@
         <v>164</v>
       </c>
       <c r="AV4" s="71" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="AW4" s="71" t="s">
         <v>165</v>
@@ -5497,7 +5665,7 @@
         <v>80</v>
       </c>
       <c r="W6" s="77" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="X6" s="41" t="s">
         <v>179</v>
@@ -5536,7 +5704,7 @@
         <v>181</v>
       </c>
       <c r="AJ6" s="78" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="AK6" s="44" t="s">
         <v>182</v>
@@ -5551,7 +5719,7 @@
         <v>170</v>
       </c>
       <c r="AO6" s="77" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="AP6" s="41" t="s">
         <v>178</v>
@@ -5571,23 +5739,23 @@
       <c r="AU6" s="40" t="s">
         <v>178</v>
       </c>
-      <c r="AV6" s="66" t="s">
-        <v>332</v>
+      <c r="AV6" s="66">
+        <v>0</v>
       </c>
       <c r="AW6" s="75" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="AX6" s="41" t="s">
         <v>179</v>
       </c>
       <c r="AY6" s="78" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="AZ6" s="41" t="s">
         <v>181</v>
       </c>
       <c r="BA6" s="78" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="BB6" s="47"/>
       <c r="BC6" s="47"/>
@@ -5662,7 +5830,7 @@
         <v>90</v>
       </c>
       <c r="W7" s="77" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="X7" s="41" t="s">
         <v>179</v>
@@ -5716,7 +5884,7 @@
         <v>170</v>
       </c>
       <c r="AO7" s="77" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="AP7" s="41" t="s">
         <v>178</v>
@@ -5736,11 +5904,11 @@
       <c r="AU7" s="40" t="s">
         <v>178</v>
       </c>
-      <c r="AV7" s="66" t="s">
-        <v>332</v>
+      <c r="AV7" s="66">
+        <v>0</v>
       </c>
       <c r="AW7" s="75" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="AX7" s="41" t="s">
         <v>179</v>
@@ -5758,7 +5926,7 @@
         <v>186</v>
       </c>
       <c r="BC7" s="79" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="BD7" s="50" t="s">
         <v>186</v>
@@ -5775,16 +5943,16 @@
         <v>198</v>
       </c>
       <c r="C8" s="78" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="D8" s="66" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="E8" s="66" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="F8" s="66" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="G8" s="41" t="s">
         <v>170</v>
@@ -5802,7 +5970,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="78" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="M8" s="40" t="s">
         <v>202</v>
@@ -5835,7 +6003,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="77" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="X8" s="41" t="s">
         <v>179</v>
@@ -5889,7 +6057,7 @@
         <v>170</v>
       </c>
       <c r="AO8" s="77" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="AP8" s="41" t="s">
         <v>178</v>
@@ -5904,16 +6072,16 @@
         <v>178</v>
       </c>
       <c r="AT8" s="66" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="AU8" s="40" t="s">
         <v>178</v>
       </c>
-      <c r="AV8" s="66" t="s">
-        <v>332</v>
+      <c r="AV8" s="66">
+        <v>0</v>
       </c>
       <c r="AW8" s="75" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="AX8" s="41" t="s">
         <v>179</v>
@@ -6543,17 +6711,17 @@
   </sheetPr>
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="20.21875" customWidth="1"/>
-    <col min="2" max="2" width="58.21875" customWidth="1"/>
-    <col min="3" max="3" width="58" customWidth="1"/>
-    <col min="4" max="4" width="51.77734375" customWidth="1"/>
-    <col min="5" max="5" width="20.44140625" customWidth="1"/>
+    <col min="1" max="1" width="24.44140625" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" customWidth="1"/>
+    <col min="3" max="3" width="34.5546875" customWidth="1"/>
+    <col min="4" max="4" width="26.33203125" customWidth="1"/>
+    <col min="5" max="5" width="31.44140625" customWidth="1"/>
     <col min="6" max="6" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6561,31 +6729,31 @@
       <c r="A1" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="84" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="E1" s="30" t="s">
         <v>125</v>
-      </c>
-      <c r="D1" s="30" t="s">
-        <v>127</v>
-      </c>
-      <c r="E1" s="28" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="32" t="s">
         <v>156</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="52" t="s">
+      <c r="B2" s="52" t="s">
+        <v>209</v>
+      </c>
+      <c r="C2" s="52" t="s">
         <v>208</v>
       </c>
-      <c r="E2" s="52" t="s">
-        <v>209</v>
-      </c>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="32" t="s">
@@ -6600,17 +6768,15 @@
       <c r="A4" s="32" t="s">
         <v>166</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="83"/>
+      <c r="C4" s="52" t="s">
+        <v>212</v>
+      </c>
+      <c r="D4" s="52" t="s">
         <v>210</v>
       </c>
-      <c r="C4" s="52" t="s">
+      <c r="E4" s="52" t="s">
         <v>211</v>
-      </c>
-      <c r="D4" s="52" t="s">
-        <v>212</v>
-      </c>
-      <c r="E4" s="52" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6626,111 +6792,111 @@
       <c r="A6" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="B6" s="66" t="s">
-        <v>332</v>
-      </c>
-      <c r="C6" s="66" t="s">
-        <v>332</v>
-      </c>
-      <c r="D6" s="40" t="s">
+      <c r="B6" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="C6" s="40" t="s">
         <v>214</v>
       </c>
-      <c r="E6" s="41" t="s">
-        <v>213</v>
+      <c r="D6" s="66" t="s">
+        <v>327</v>
+      </c>
+      <c r="E6" s="66" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="B7" s="66" t="s">
-        <v>332</v>
-      </c>
-      <c r="C7" s="66" t="s">
-        <v>332</v>
-      </c>
-      <c r="D7" s="40" t="s">
+      <c r="B7" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="C7" s="40" t="s">
         <v>215</v>
       </c>
-      <c r="E7" s="41" t="s">
-        <v>213</v>
+      <c r="D7" s="66" t="s">
+        <v>327</v>
+      </c>
+      <c r="E7" s="66" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="39" t="s">
         <v>216</v>
       </c>
-      <c r="B8" s="53">
+      <c r="B8" s="41" t="s">
+        <v>216</v>
+      </c>
+      <c r="C8" s="40" t="s">
+        <v>217</v>
+      </c>
+      <c r="D8" s="53">
         <v>44562</v>
       </c>
-      <c r="C8" s="53">
+      <c r="E8" s="53">
         <v>45658</v>
-      </c>
-      <c r="D8" s="40" t="s">
-        <v>217</v>
-      </c>
-      <c r="E8" s="41" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="39" t="s">
         <v>216</v>
       </c>
-      <c r="B9" s="53">
+      <c r="B9" s="41" t="s">
+        <v>216</v>
+      </c>
+      <c r="C9" s="40" t="s">
+        <v>218</v>
+      </c>
+      <c r="D9" s="53">
         <v>44562</v>
       </c>
-      <c r="C9" s="53">
+      <c r="E9" s="53">
         <v>46023</v>
-      </c>
-      <c r="D9" s="40" t="s">
-        <v>218</v>
-      </c>
-      <c r="E9" s="41" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="39" t="s">
         <v>219</v>
       </c>
-      <c r="B10" s="47"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="40" t="s">
-        <v>220</v>
-      </c>
-      <c r="E10" s="41" t="s">
-        <v>219</v>
-      </c>
+      <c r="B10" s="81" t="s">
+        <v>213</v>
+      </c>
+      <c r="C10" s="80" t="s">
+        <v>214</v>
+      </c>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="39" t="s">
         <v>219</v>
       </c>
-      <c r="B11" s="47"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="40" t="s">
-        <v>221</v>
-      </c>
-      <c r="E11" s="41" t="s">
-        <v>219</v>
-      </c>
+      <c r="B11" s="81" t="s">
+        <v>213</v>
+      </c>
+      <c r="C11" s="80" t="s">
+        <v>215</v>
+      </c>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="39" t="s">
-        <v>222</v>
-      </c>
-      <c r="B12" s="53">
+        <v>220</v>
+      </c>
+      <c r="B12" s="41" t="s">
+        <v>220</v>
+      </c>
+      <c r="C12" s="40" t="s">
+        <v>220</v>
+      </c>
+      <c r="D12" s="53">
         <v>44927</v>
       </c>
-      <c r="C12" s="53">
+      <c r="E12" s="53">
         <v>46388</v>
-      </c>
-      <c r="D12" s="40" t="s">
-        <v>222</v>
-      </c>
-      <c r="E12" s="41" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -6773,48 +6939,49 @@
   </sheetPr>
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="4" max="4" width="20.44140625" customWidth="1"/>
-    <col min="5" max="5" width="21.44140625" customWidth="1"/>
+    <col min="1" max="1" width="28.5546875" customWidth="1"/>
+    <col min="2" max="2" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="E1" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="F1" s="30" t="s">
         <v>125</v>
-      </c>
-      <c r="D1" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="30" t="s">
-        <v>133</v>
-      </c>
-      <c r="F1" s="30" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="32" t="s">
         <v>156</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="52" t="s">
+      <c r="B2" s="52" t="s">
         <v>209</v>
       </c>
-      <c r="E2" s="34" t="s">
-        <v>223</v>
-      </c>
+      <c r="C2" s="34" t="s">
+        <v>221</v>
+      </c>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
       <c r="F2" s="33"/>
     </row>
     <row r="3" spans="1:6">
@@ -6832,10 +6999,18 @@
         <v>166</v>
       </c>
       <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
+      <c r="C4" s="85" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4" s="85" t="s">
+        <v>354</v>
+      </c>
+      <c r="E4" s="85" t="s">
+        <v>346</v>
+      </c>
+      <c r="F4" s="85" t="s">
+        <v>347</v>
+      </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="37" t="s">
@@ -6849,130 +7024,130 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="39" t="s">
-        <v>224</v>
-      </c>
-      <c r="B6" s="40" t="s">
-        <v>170</v>
-      </c>
-      <c r="C6" s="40" t="s">
-        <v>170</v>
-      </c>
-      <c r="D6" s="41" t="s">
-        <v>224</v>
-      </c>
-      <c r="E6" s="40" t="s">
-        <v>225</v>
-      </c>
-      <c r="F6" s="40" t="s">
-        <v>170</v>
+        <v>222</v>
+      </c>
+      <c r="B6" s="41" t="s">
+        <v>222</v>
+      </c>
+      <c r="C6" s="66" t="s">
+        <v>223</v>
+      </c>
+      <c r="D6" s="66" t="s">
+        <v>352</v>
+      </c>
+      <c r="E6" s="66" t="s">
+        <v>327</v>
+      </c>
+      <c r="F6" s="66" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="39" t="s">
+        <v>222</v>
+      </c>
+      <c r="B7" s="41" t="s">
+        <v>222</v>
+      </c>
+      <c r="C7" s="40" t="s">
         <v>224</v>
       </c>
-      <c r="B7" s="40" t="s">
-        <v>170</v>
-      </c>
-      <c r="C7" s="40" t="s">
-        <v>170</v>
-      </c>
-      <c r="D7" s="41" t="s">
-        <v>224</v>
-      </c>
-      <c r="E7" s="40" t="s">
-        <v>226</v>
-      </c>
-      <c r="F7" s="40" t="s">
-        <v>170</v>
+      <c r="D7" s="66" t="s">
+        <v>353</v>
+      </c>
+      <c r="E7" s="66" t="s">
+        <v>327</v>
+      </c>
+      <c r="F7" s="66" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="39" t="s">
+        <v>225</v>
+      </c>
+      <c r="B8" s="41" t="s">
+        <v>225</v>
+      </c>
+      <c r="C8" s="40" t="s">
+        <v>226</v>
+      </c>
+      <c r="D8" s="66" t="s">
         <v>227</v>
       </c>
-      <c r="B8" s="53">
+      <c r="E8" s="53">
         <v>44562</v>
       </c>
-      <c r="C8" s="53">
+      <c r="F8" s="53">
         <v>45658</v>
-      </c>
-      <c r="D8" s="41" t="s">
-        <v>227</v>
-      </c>
-      <c r="E8" s="40" t="s">
-        <v>228</v>
-      </c>
-      <c r="F8" s="40" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="39" t="s">
-        <v>227</v>
-      </c>
-      <c r="B9" s="53">
+        <v>225</v>
+      </c>
+      <c r="B9" s="41" t="s">
+        <v>225</v>
+      </c>
+      <c r="C9" s="40" t="s">
+        <v>228</v>
+      </c>
+      <c r="D9" s="40" t="s">
+        <v>229</v>
+      </c>
+      <c r="E9" s="53">
         <v>44562</v>
       </c>
-      <c r="C9" s="53">
+      <c r="F9" s="53">
         <v>46023</v>
-      </c>
-      <c r="D9" s="41" t="s">
-        <v>227</v>
-      </c>
-      <c r="E9" s="40" t="s">
-        <v>230</v>
-      </c>
-      <c r="F9" s="40" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="39" t="s">
-        <v>232</v>
-      </c>
-      <c r="B10" s="47"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="41" t="s">
-        <v>232</v>
-      </c>
-      <c r="E10" s="40" t="s">
-        <v>233</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="B10" s="88" t="s">
+        <v>222</v>
+      </c>
+      <c r="C10" s="89" t="s">
+        <v>223</v>
+      </c>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
       <c r="F10" s="47"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="39" t="s">
-        <v>232</v>
-      </c>
-      <c r="B11" s="47"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="41" t="s">
-        <v>232</v>
-      </c>
-      <c r="E11" s="40" t="s">
-        <v>234</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="B11" s="88" t="s">
+        <v>222</v>
+      </c>
+      <c r="C11" s="64" t="s">
+        <v>224</v>
+      </c>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
       <c r="F11" s="47"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="39" t="s">
-        <v>235</v>
-      </c>
-      <c r="B12" s="53">
+        <v>231</v>
+      </c>
+      <c r="B12" s="41" t="s">
+        <v>231</v>
+      </c>
+      <c r="C12" s="40" t="s">
+        <v>231</v>
+      </c>
+      <c r="D12" s="40" t="s">
+        <v>232</v>
+      </c>
+      <c r="E12" s="53">
         <v>44927</v>
       </c>
-      <c r="C12" s="53">
+      <c r="F12" s="53">
         <v>46388</v>
-      </c>
-      <c r="D12" s="41" t="s">
-        <v>235</v>
-      </c>
-      <c r="E12" s="40" t="s">
-        <v>235</v>
-      </c>
-      <c r="F12" s="40" t="s">
-        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -7050,7 +7225,7 @@
       <c r="B2" s="33"/>
       <c r="C2" s="33"/>
       <c r="D2" s="34" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E2" s="33"/>
       <c r="F2" s="34" t="s">
@@ -7072,7 +7247,7 @@
       <c r="B3" s="33"/>
       <c r="C3" s="33"/>
       <c r="D3" s="34" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E3" s="33"/>
       <c r="F3" s="33"/>
@@ -7087,10 +7262,10 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="54" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B4" s="55" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C4" s="56"/>
       <c r="D4" s="56"/>
@@ -7143,22 +7318,22 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="39" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B7" s="41" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C7" s="41">
         <v>0</v>
       </c>
       <c r="D7" s="40" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="E7" s="41" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="F7" s="40" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="G7" s="41" t="s">
         <v>179</v>
@@ -7187,22 +7362,22 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="39" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B8" s="41" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C8" s="41">
         <v>0</v>
       </c>
       <c r="D8" s="40" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="E8" s="41" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="F8" s="40" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="G8" s="41" t="s">
         <v>179</v>
@@ -7231,22 +7406,22 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="39" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B9" s="41" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C9" s="41">
         <v>0</v>
       </c>
       <c r="D9" s="40" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E9" s="41" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="F9" s="40" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G9" s="41" t="s">
         <v>179</v>
@@ -7275,22 +7450,22 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="39" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B10" s="41" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C10" s="41">
         <v>0</v>
       </c>
       <c r="D10" s="40" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="E10" s="41" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="F10" s="40" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G10" s="41" t="s">
         <v>179</v>
@@ -7319,16 +7494,16 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="39" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B11" s="47"/>
       <c r="C11" s="47"/>
       <c r="D11" s="40" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="E11" s="47"/>
       <c r="F11" s="40" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="G11" s="47"/>
       <c r="H11" s="47"/>
@@ -7341,16 +7516,16 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="39" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B12" s="47"/>
       <c r="C12" s="47"/>
       <c r="D12" s="40" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="E12" s="47"/>
       <c r="F12" s="40" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="G12" s="47"/>
       <c r="H12" s="47"/>
@@ -7363,22 +7538,22 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="39" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B13" s="41" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C13" s="41">
         <v>0</v>
       </c>
       <c r="D13" s="40" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="E13" s="41" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="F13" s="40" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G13" s="41" t="s">
         <v>179</v>
@@ -7484,7 +7659,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="57" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C1" s="27" t="s">
         <v>13</v>
@@ -7895,47 +8070,47 @@
     </row>
     <row r="6" spans="1:54">
       <c r="A6" s="39" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C6" s="40" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D6" s="60" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E6" s="60" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F6" s="40" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="G6" s="40" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="H6" s="41" t="s">
         <v>170</v>
       </c>
       <c r="I6" s="40" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="J6" s="40" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="K6" s="40" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="L6" s="42">
         <v>28</v>
       </c>
       <c r="M6" s="61"/>
       <c r="N6" s="40" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="O6" s="40" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="P6" s="40" t="s">
         <v>178</v>
@@ -7969,7 +8144,7 @@
         <v>170</v>
       </c>
       <c r="AA6" s="40" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="AB6" s="40" t="s">
         <v>170</v>
@@ -8027,7 +8202,7 @@
         <v>178</v>
       </c>
       <c r="AU6" s="60" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="AV6" s="40" t="s">
         <v>178</v>
@@ -8061,10 +8236,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -8075,13 +8250,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="13.2">
       <c r="A1" s="28" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B1" s="62" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C1" s="62" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="13.2">
@@ -8089,43 +8264,43 @@
         <v>11</v>
       </c>
       <c r="B2" s="40" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C2" s="40" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="13.2">
       <c r="A3" s="66" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="13.2">
       <c r="A4" s="66" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="13.2">
       <c r="A5" s="66" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="13.2">
@@ -8133,10 +8308,10 @@
         <v>11</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C6" s="40" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="13.2">
@@ -8144,10 +8319,10 @@
         <v>11</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C7" s="40" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="13.2">
@@ -8155,10 +8330,10 @@
         <v>11</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C8" s="40" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="13.2">
@@ -8166,241 +8341,329 @@
         <v>11</v>
       </c>
       <c r="B9" s="40" t="s">
+        <v>278</v>
+      </c>
+      <c r="C9" s="40" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="13.2">
+      <c r="A10" s="86" t="s">
+        <v>280</v>
+      </c>
+      <c r="B10" s="40" t="s">
+        <v>281</v>
+      </c>
+      <c r="C10" s="40" t="s">
         <v>282</v>
       </c>
-      <c r="C9" s="40" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="13.2">
-      <c r="A10" s="40" t="s">
+    </row>
+    <row r="11" spans="1:3" ht="13.2">
+      <c r="A11" s="86" t="s">
+        <v>280</v>
+      </c>
+      <c r="B11" s="40" t="s">
         <v>284</v>
       </c>
-      <c r="B10" s="40" t="s">
+      <c r="C11" s="40" t="s">
         <v>285</v>
       </c>
-      <c r="C10" s="40" t="s">
+    </row>
+    <row r="12" spans="1:3" ht="13.2">
+      <c r="A12" s="86" t="s">
+        <v>280</v>
+      </c>
+      <c r="B12" s="40" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="13.2">
-      <c r="A11" s="40" t="s">
-        <v>284</v>
-      </c>
-      <c r="B11" s="40" t="s">
+      <c r="C12" s="40" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="13.2">
+      <c r="A13" s="86" t="s">
+        <v>280</v>
+      </c>
+      <c r="B13" s="40" t="s">
         <v>288</v>
       </c>
-      <c r="C11" s="40" t="s">
+      <c r="C13" s="40" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="13.2">
-      <c r="A12" s="40" t="s">
-        <v>284</v>
-      </c>
-      <c r="B12" s="40" t="s">
+    <row r="14" spans="1:3" ht="13.2">
+      <c r="A14" s="86" t="s">
+        <v>280</v>
+      </c>
+      <c r="B14" s="63" t="s">
+        <v>291</v>
+      </c>
+      <c r="C14" s="63" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="13.2">
+      <c r="A15" s="86" t="s">
+        <v>280</v>
+      </c>
+      <c r="B15" s="63" t="s">
+        <v>293</v>
+      </c>
+      <c r="C15" s="63" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="13.2">
+      <c r="A16" s="86" t="s">
+        <v>280</v>
+      </c>
+      <c r="B16" s="63" t="s">
         <v>290</v>
       </c>
-      <c r="C12" s="40" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="13.2">
-      <c r="A13" s="40" t="s">
-        <v>284</v>
-      </c>
-      <c r="B13" s="40" t="s">
-        <v>292</v>
-      </c>
-      <c r="C13" s="40" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="13.2">
-      <c r="A14" s="40" t="s">
-        <v>284</v>
-      </c>
-      <c r="B14" s="63" t="s">
-        <v>294</v>
-      </c>
-      <c r="C14" s="63" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="13.2">
-      <c r="A15" s="40" t="s">
-        <v>284</v>
-      </c>
-      <c r="B15" s="63" t="s">
-        <v>296</v>
-      </c>
-      <c r="C15" s="63" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="13.2">
-      <c r="A16" s="40" t="s">
-        <v>284</v>
-      </c>
-      <c r="B16" s="63" t="s">
-        <v>298</v>
-      </c>
-      <c r="C16" s="63" t="s">
-        <v>299</v>
+      <c r="C16" s="82" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="13.2">
-      <c r="A17" s="66" t="s">
-        <v>331</v>
+      <c r="A17" s="87" t="s">
+        <v>336</v>
       </c>
       <c r="B17" s="66" t="s">
-        <v>309</v>
+        <v>337</v>
       </c>
       <c r="C17" s="66" t="s">
-        <v>311</v>
+        <v>338</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="13.2">
-      <c r="A18" s="66" t="s">
-        <v>331</v>
+      <c r="A18" s="87" t="s">
+        <v>336</v>
       </c>
       <c r="B18" s="66" t="s">
-        <v>310</v>
+        <v>345</v>
       </c>
       <c r="C18" s="66" t="s">
-        <v>312</v>
+        <v>349</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="13.2">
-      <c r="A19" s="66" t="s">
-        <v>331</v>
-      </c>
-      <c r="B19" s="66" t="s">
-        <v>301</v>
+      <c r="A19" s="87" t="s">
+        <v>336</v>
+      </c>
+      <c r="B19" s="48" t="s">
+        <v>286</v>
       </c>
       <c r="C19" s="66" t="s">
-        <v>308</v>
+        <v>350</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="13.2">
-      <c r="A20" s="66" t="s">
-        <v>331</v>
-      </c>
-      <c r="B20" s="66" t="s">
-        <v>324</v>
+      <c r="A20" s="87" t="s">
+        <v>336</v>
+      </c>
+      <c r="B20" s="48" t="s">
+        <v>288</v>
       </c>
       <c r="C20" s="66" t="s">
-        <v>313</v>
+        <v>351</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="13.2">
-      <c r="A21" s="66" t="s">
-        <v>331</v>
-      </c>
-      <c r="B21" s="66" t="s">
-        <v>305</v>
-      </c>
-      <c r="C21" s="66" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="15" customHeight="1">
-      <c r="A22" s="66" t="s">
-        <v>331</v>
-      </c>
-      <c r="B22" s="66" t="s">
-        <v>325</v>
-      </c>
-      <c r="C22" s="66" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="15" customHeight="1">
-      <c r="A23" s="66" t="s">
-        <v>331</v>
-      </c>
-      <c r="B23" s="66" t="s">
-        <v>306</v>
+      <c r="A21" s="87" t="s">
+        <v>336</v>
+      </c>
+      <c r="B21" s="82" t="s">
+        <v>339</v>
+      </c>
+      <c r="C21" s="82" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="13.2">
+      <c r="A22" s="87" t="s">
+        <v>336</v>
+      </c>
+      <c r="B22" s="82" t="s">
+        <v>340</v>
+      </c>
+      <c r="C22" s="82" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="13.2">
+      <c r="A23" s="87" t="s">
+        <v>336</v>
+      </c>
+      <c r="B23" s="82" t="s">
+        <v>356</v>
       </c>
       <c r="C23" s="66" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="15" customHeight="1">
-      <c r="A24" s="66" t="s">
-        <v>331</v>
-      </c>
-      <c r="B24" s="66" t="s">
-        <v>330</v>
-      </c>
-      <c r="C24" s="66" t="s">
-        <v>317</v>
+        <v>355</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="13.2">
+      <c r="A24" s="87" t="s">
+        <v>336</v>
+      </c>
+      <c r="B24" s="82" t="s">
+        <v>341</v>
+      </c>
+      <c r="C24" s="82" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="13.2">
       <c r="A25" s="66" t="s">
-        <v>331</v>
-      </c>
-      <c r="B25" s="40" t="s">
-        <v>287</v>
+        <v>326</v>
+      </c>
+      <c r="B25" s="66" t="s">
+        <v>304</v>
       </c>
       <c r="C25" s="66" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="13.2">
       <c r="A26" s="66" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="B26" s="66" t="s">
-        <v>329</v>
+        <v>305</v>
       </c>
       <c r="C26" s="66" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="13.2">
+      <c r="A27" s="66" t="s">
+        <v>326</v>
+      </c>
+      <c r="B27" s="66" t="s">
+        <v>296</v>
+      </c>
+      <c r="C27" s="66" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="13.2">
+      <c r="A28" s="66" t="s">
+        <v>326</v>
+      </c>
+      <c r="B28" s="66" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" ht="15" customHeight="1">
-      <c r="A27" s="66" t="s">
-        <v>331</v>
-      </c>
-      <c r="B27" s="66" t="s">
+      <c r="C28" s="66" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="13.2">
+      <c r="A29" s="66" t="s">
         <v>326</v>
       </c>
-      <c r="C27" s="66" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="15" customHeight="1">
-      <c r="A28" s="66" t="s">
-        <v>331</v>
-      </c>
-      <c r="B28" s="66" t="s">
-        <v>328</v>
-      </c>
-      <c r="C28" s="66" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="15" customHeight="1">
-      <c r="A29" s="66" t="s">
-        <v>331</v>
-      </c>
       <c r="B29" s="66" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="C29" s="66" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15" customHeight="1">
       <c r="A30" s="66" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="B30" s="66" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="C30" s="66" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15" customHeight="1">
+      <c r="A31" s="66" t="s">
+        <v>326</v>
+      </c>
+      <c r="B31" s="66" t="s">
+        <v>301</v>
+      </c>
+      <c r="C31" s="66" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15" customHeight="1">
+      <c r="A32" s="66" t="s">
+        <v>326</v>
+      </c>
+      <c r="B32" s="66" t="s">
+        <v>325</v>
+      </c>
+      <c r="C32" s="66" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="13.2">
+      <c r="A33" s="66" t="s">
+        <v>326</v>
+      </c>
+      <c r="B33" s="40" t="s">
+        <v>283</v>
+      </c>
+      <c r="C33" s="66" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="13.2">
+      <c r="A34" s="66" t="s">
+        <v>326</v>
+      </c>
+      <c r="B34" s="66" t="s">
+        <v>324</v>
+      </c>
+      <c r="C34" s="66" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15" customHeight="1">
+      <c r="A35" s="66" t="s">
+        <v>326</v>
+      </c>
+      <c r="B35" s="66" t="s">
+        <v>321</v>
+      </c>
+      <c r="C35" s="66" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15" customHeight="1">
+      <c r="A36" s="66" t="s">
+        <v>326</v>
+      </c>
+      <c r="B36" s="66" t="s">
         <v>323</v>
+      </c>
+      <c r="C36" s="66" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15" customHeight="1">
+      <c r="A37" s="66" t="s">
+        <v>326</v>
+      </c>
+      <c r="B37" s="66" t="s">
+        <v>302</v>
+      </c>
+      <c r="C37" s="66" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15" customHeight="1">
+      <c r="A38" s="66" t="s">
+        <v>326</v>
+      </c>
+      <c r="B38" s="66" t="s">
+        <v>322</v>
+      </c>
+      <c r="C38" s="66" t="s">
+        <v>318</v>
       </c>
     </row>
   </sheetData>

--- a/TNR_JDD/RO/JDD.RO.ACT.xlsx
+++ b/TNR_JDD/RO/JDD.RO.ACT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="228" yWindow="504" windowWidth="19356" windowHeight="8676" activeTab="4"/>
+    <workbookView xWindow="228" yWindow="504" windowWidth="19356" windowHeight="8676" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Version" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="377">
   <si>
     <t>Date</t>
   </si>
@@ -805,12 +805,6 @@
     <t>N5</t>
   </si>
   <si>
-    <t>RT.EMP*001*ST_CODLON</t>
-  </si>
-  <si>
-    <t>ID_NUMEMP*EMP*ST_CODLON</t>
-  </si>
-  <si>
     <t>SEQUENCE</t>
   </si>
   <si>
@@ -1255,6 +1249,72 @@
   </si>
   <si>
     <t>SelectionMetier_input_ST_NIV</t>
+  </si>
+  <si>
+    <t>zon3</t>
+  </si>
+  <si>
+    <t>RT.EMP*001*ST_CODCOU</t>
+  </si>
+  <si>
+    <t>ID_NUMEMP*EMP*ST_CODCOU</t>
+  </si>
+  <si>
+    <t>004EMP</t>
+  </si>
+  <si>
+    <t>a_AjouterEmplacement</t>
+  </si>
+  <si>
+    <t>span_Supprime_Emplacement</t>
+  </si>
+  <si>
+    <t>SelectionEmplacement_input_Filtre</t>
+  </si>
+  <si>
+    <t>SelectionEmplacement_td</t>
+  </si>
+  <si>
+    <t>SelectionEmplacement_button_Ajouter</t>
+  </si>
+  <si>
+    <t>//div[@id='grid_AddEMP']//input[@name='SEARCH_ST_CODCOU']</t>
+  </si>
+  <si>
+    <t>//div[@id='bAddGridinterZonLig']/a[@id='add']</t>
+  </si>
+  <si>
+    <t>//div[@id='empFooter']//button[@value='Ajouter']</t>
+  </si>
+  <si>
+    <t>SelectionEmplacement_button_Fermer</t>
+  </si>
+  <si>
+    <t>//div[@id='empFooter']//button[@value='Fermer']</t>
+  </si>
+  <si>
+    <t>//div[@id='v-dbtdhtmlxinterZonLig']/table/tbody//td[5][text()='${ID_NUMREF}']</t>
+  </si>
+  <si>
+    <t>//div[@id='v-dbtdhtmlxinterZonLig']/table/tbody//td[5][text()='${ID_NUMREF}']/preceding-sibling::td[1]/img</t>
+  </si>
+  <si>
+    <t>//div[@id='v-dbtdhtmlxinterZonLig']/table/tbody//td[5][text()='${ID_NUMREF}']/preceding-sibling::td[2]/span</t>
+  </si>
+  <si>
+    <t>//div[@id='v-dbtdhtmlxAddEMP']/table/tbody//td[4][text()='${ID_NUMREF}']</t>
+  </si>
+  <si>
+    <t>//div[@id='v-dbtdhtmlxinterZonLig']/table/tbody//td[5][text()='${ID_NUMREF}']/following-sibling::td[4]</t>
+  </si>
+  <si>
+    <t>//div[@id='v-dbtdhtmlxinterZonLig']/table/tbody//td[5][text()='${ID_NUMREF}']/following-sibling::td[5]</t>
+  </si>
+  <si>
+    <t>//div[@id='v-dbtdhtmlxinterZonLig']/table/tbody//td[5][text()='${ID_NUMREF}']/following-sibling::td[4]/textarea</t>
+  </si>
+  <si>
+    <t>//div[@id='v-dbtdhtmlxinterZonLig']/table/tbody//td[5][text()='${ID_NUMREF}']/following-sibling::td[5]/textarea</t>
   </si>
 </sst>
 </file>
@@ -1369,7 +1429,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="25">
+  <fills count="27">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1514,6 +1574,18 @@
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -1549,7 +1621,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1726,12 +1798,20 @@
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF0066"/>
+    </mruColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -2002,7 +2082,7 @@
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="G5" s="34" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="12.75" customHeight="1">
@@ -5054,8 +5134,8 @@
   </sheetPr>
   <dimension ref="A1:BE18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView topLeftCell="AO1" workbookViewId="0">
+      <selection activeCell="AV13" sqref="AV13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -5240,13 +5320,13 @@
         <v>155</v>
       </c>
       <c r="BC1" s="68" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="BD1" s="68" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="BE1" s="68" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="2" spans="1:57">
@@ -5378,7 +5458,9 @@
       <c r="AS3" s="33"/>
       <c r="AT3" s="33"/>
       <c r="AU3" s="33"/>
-      <c r="AV3" s="34"/>
+      <c r="AV3" s="34" t="s">
+        <v>327</v>
+      </c>
       <c r="AW3" s="33"/>
       <c r="AX3" s="33"/>
       <c r="AY3" s="33"/>
@@ -5391,10 +5473,10 @@
         <v>163</v>
       </c>
       <c r="BD3" s="67" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="BE3" s="67" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="4" spans="1:57" s="74" customFormat="1">
@@ -5514,7 +5596,7 @@
         <v>164</v>
       </c>
       <c r="AV4" s="71" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="AW4" s="71" t="s">
         <v>165</v>
@@ -5665,7 +5747,7 @@
         <v>80</v>
       </c>
       <c r="W6" s="77" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="X6" s="41" t="s">
         <v>179</v>
@@ -5704,7 +5786,7 @@
         <v>181</v>
       </c>
       <c r="AJ6" s="78" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="AK6" s="44" t="s">
         <v>182</v>
@@ -5719,7 +5801,7 @@
         <v>170</v>
       </c>
       <c r="AO6" s="77" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="AP6" s="41" t="s">
         <v>178</v>
@@ -5739,23 +5821,23 @@
       <c r="AU6" s="40" t="s">
         <v>178</v>
       </c>
-      <c r="AV6" s="66">
-        <v>0</v>
+      <c r="AV6" s="89" t="s">
+        <v>355</v>
       </c>
       <c r="AW6" s="75" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AX6" s="41" t="s">
         <v>179</v>
       </c>
       <c r="AY6" s="78" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="AZ6" s="41" t="s">
         <v>181</v>
       </c>
       <c r="BA6" s="78" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="BB6" s="47"/>
       <c r="BC6" s="47"/>
@@ -5830,7 +5912,7 @@
         <v>90</v>
       </c>
       <c r="W7" s="77" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="X7" s="41" t="s">
         <v>179</v>
@@ -5884,7 +5966,7 @@
         <v>170</v>
       </c>
       <c r="AO7" s="77" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="AP7" s="41" t="s">
         <v>178</v>
@@ -5908,7 +5990,7 @@
         <v>0</v>
       </c>
       <c r="AW7" s="75" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AX7" s="41" t="s">
         <v>179</v>
@@ -5926,7 +6008,7 @@
         <v>186</v>
       </c>
       <c r="BC7" s="79" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="BD7" s="50" t="s">
         <v>186</v>
@@ -5943,16 +6025,16 @@
         <v>198</v>
       </c>
       <c r="C8" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D8" s="66" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E8" s="66" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F8" s="66" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G8" s="41" t="s">
         <v>170</v>
@@ -5970,7 +6052,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="78" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="M8" s="40" t="s">
         <v>202</v>
@@ -6003,7 +6085,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="77" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="X8" s="41" t="s">
         <v>179</v>
@@ -6057,7 +6139,7 @@
         <v>170</v>
       </c>
       <c r="AO8" s="77" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="AP8" s="41" t="s">
         <v>178</v>
@@ -6072,7 +6154,7 @@
         <v>178</v>
       </c>
       <c r="AT8" s="66" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="AU8" s="40" t="s">
         <v>178</v>
@@ -6081,7 +6163,7 @@
         <v>0</v>
       </c>
       <c r="AW8" s="75" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AX8" s="41" t="s">
         <v>179</v>
@@ -6799,10 +6881,10 @@
         <v>214</v>
       </c>
       <c r="D6" s="66" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E6" s="66" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -6816,10 +6898,10 @@
         <v>215</v>
       </c>
       <c r="D7" s="66" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E7" s="66" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -6939,8 +7021,8 @@
   </sheetPr>
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -7000,16 +7082,16 @@
       </c>
       <c r="B4" s="33"/>
       <c r="C4" s="85" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D4" s="85" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E4" s="85" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="F4" s="85" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -7033,13 +7115,13 @@
         <v>223</v>
       </c>
       <c r="D6" s="66" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E6" s="66" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F6" s="66" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7053,13 +7135,13 @@
         <v>224</v>
       </c>
       <c r="D7" s="66" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E7" s="66" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F7" s="66" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7162,8 +7244,8 @@
   </sheetPr>
   <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -7171,7 +7253,7 @@
     <col min="1" max="1" width="22.21875" customWidth="1"/>
     <col min="2" max="2" width="16.88671875" customWidth="1"/>
     <col min="4" max="4" width="26.109375" customWidth="1"/>
-    <col min="6" max="6" width="20.44140625" customWidth="1"/>
+    <col min="6" max="6" width="22.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -7184,7 +7266,7 @@
       <c r="C1" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="76" t="s">
         <v>142</v>
       </c>
       <c r="E1" s="28" t="s">
@@ -7225,7 +7307,7 @@
       <c r="B2" s="33"/>
       <c r="C2" s="33"/>
       <c r="D2" s="34" t="s">
-        <v>233</v>
+        <v>356</v>
       </c>
       <c r="E2" s="33"/>
       <c r="F2" s="34" t="s">
@@ -7247,7 +7329,7 @@
       <c r="B3" s="33"/>
       <c r="C3" s="33"/>
       <c r="D3" s="34" t="s">
-        <v>234</v>
+        <v>357</v>
       </c>
       <c r="E3" s="33"/>
       <c r="F3" s="33"/>
@@ -7262,10 +7344,10 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="54" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B4" s="55" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C4" s="56"/>
       <c r="D4" s="56"/>
@@ -7286,13 +7368,21 @@
       </c>
       <c r="B5" s="33"/>
       <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
+      <c r="D5" s="34" t="s">
+        <v>369</v>
+      </c>
       <c r="E5" s="33"/>
       <c r="F5" s="33"/>
       <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
+      <c r="H5" s="34" t="s">
+        <v>375</v>
+      </c>
+      <c r="I5" s="34" t="s">
+        <v>376</v>
+      </c>
+      <c r="J5" s="34" t="s">
+        <v>370</v>
+      </c>
       <c r="K5" s="33"/>
       <c r="L5" s="33"/>
       <c r="M5" s="33"/>
@@ -7318,31 +7408,31 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="39" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B7" s="41" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C7" s="41">
         <v>0</v>
       </c>
       <c r="D7" s="40" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E7" s="41" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F7" s="40" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G7" s="41" t="s">
         <v>179</v>
       </c>
-      <c r="H7" s="40" t="s">
-        <v>170</v>
-      </c>
-      <c r="I7" s="40" t="s">
-        <v>170</v>
+      <c r="H7" s="66" t="s">
+        <v>325</v>
+      </c>
+      <c r="I7" s="66" t="s">
+        <v>325</v>
       </c>
       <c r="J7" s="41" t="s">
         <v>177</v>
@@ -7362,31 +7452,31 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="39" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B8" s="41" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C8" s="41">
         <v>0</v>
       </c>
       <c r="D8" s="40" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E8" s="41" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F8" s="40" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G8" s="41" t="s">
         <v>179</v>
       </c>
-      <c r="H8" s="40" t="s">
-        <v>170</v>
-      </c>
-      <c r="I8" s="40" t="s">
-        <v>170</v>
+      <c r="H8" s="66" t="s">
+        <v>325</v>
+      </c>
+      <c r="I8" s="66" t="s">
+        <v>325</v>
       </c>
       <c r="J8" s="41" t="s">
         <v>178</v>
@@ -7406,22 +7496,22 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="39" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B9" s="41" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C9" s="41">
         <v>0</v>
       </c>
       <c r="D9" s="40" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E9" s="41" t="s">
+        <v>238</v>
+      </c>
+      <c r="F9" s="40" t="s">
         <v>240</v>
-      </c>
-      <c r="F9" s="40" t="s">
-        <v>242</v>
       </c>
       <c r="G9" s="41" t="s">
         <v>179</v>
@@ -7450,22 +7540,22 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="39" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B10" s="41" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C10" s="41">
         <v>0</v>
       </c>
       <c r="D10" s="40" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E10" s="41" t="s">
+        <v>238</v>
+      </c>
+      <c r="F10" s="40" t="s">
         <v>240</v>
-      </c>
-      <c r="F10" s="40" t="s">
-        <v>242</v>
       </c>
       <c r="G10" s="41" t="s">
         <v>179</v>
@@ -7494,16 +7584,16 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="39" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B11" s="47"/>
       <c r="C11" s="47"/>
       <c r="D11" s="40" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E11" s="47"/>
       <c r="F11" s="40" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G11" s="47"/>
       <c r="H11" s="47"/>
@@ -7516,16 +7606,16 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="39" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B12" s="47"/>
       <c r="C12" s="47"/>
       <c r="D12" s="40" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E12" s="47"/>
       <c r="F12" s="40" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G12" s="47"/>
       <c r="H12" s="47"/>
@@ -7538,22 +7628,22 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="39" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B13" s="41" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C13" s="41">
         <v>0</v>
       </c>
       <c r="D13" s="40" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E13" s="41" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F13" s="40" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G13" s="41" t="s">
         <v>179</v>
@@ -7659,7 +7749,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="57" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C1" s="27" t="s">
         <v>13</v>
@@ -8070,47 +8160,47 @@
     </row>
     <row r="6" spans="1:54">
       <c r="A6" s="39" t="s">
+        <v>249</v>
+      </c>
+      <c r="B6" s="40" t="s">
+        <v>250</v>
+      </c>
+      <c r="C6" s="40" t="s">
+        <v>249</v>
+      </c>
+      <c r="D6" s="60" t="s">
         <v>251</v>
       </c>
-      <c r="B6" s="40" t="s">
-        <v>252</v>
-      </c>
-      <c r="C6" s="40" t="s">
+      <c r="E6" s="60" t="s">
         <v>251</v>
       </c>
-      <c r="D6" s="60" t="s">
-        <v>253</v>
-      </c>
-      <c r="E6" s="60" t="s">
-        <v>253</v>
-      </c>
       <c r="F6" s="40" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G6" s="40" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H6" s="41" t="s">
         <v>170</v>
       </c>
       <c r="I6" s="40" t="s">
+        <v>252</v>
+      </c>
+      <c r="J6" s="40" t="s">
+        <v>253</v>
+      </c>
+      <c r="K6" s="40" t="s">
         <v>254</v>
-      </c>
-      <c r="J6" s="40" t="s">
-        <v>255</v>
-      </c>
-      <c r="K6" s="40" t="s">
-        <v>256</v>
       </c>
       <c r="L6" s="42">
         <v>28</v>
       </c>
       <c r="M6" s="61"/>
       <c r="N6" s="40" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="O6" s="40" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="P6" s="40" t="s">
         <v>178</v>
@@ -8144,7 +8234,7 @@
         <v>170</v>
       </c>
       <c r="AA6" s="40" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AB6" s="40" t="s">
         <v>170</v>
@@ -8202,7 +8292,7 @@
         <v>178</v>
       </c>
       <c r="AU6" s="60" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="AV6" s="40" t="s">
         <v>178</v>
@@ -8236,27 +8326,27 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView topLeftCell="A17" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="27.88671875" customWidth="1"/>
-    <col min="3" max="3" width="77.33203125" customWidth="1"/>
+    <col min="2" max="2" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="86.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="13.2">
       <c r="A1" s="28" t="s">
+        <v>259</v>
+      </c>
+      <c r="B1" s="62" t="s">
+        <v>260</v>
+      </c>
+      <c r="C1" s="62" t="s">
         <v>261</v>
-      </c>
-      <c r="B1" s="62" t="s">
-        <v>262</v>
-      </c>
-      <c r="C1" s="62" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="13.2">
@@ -8264,43 +8354,43 @@
         <v>11</v>
       </c>
       <c r="B2" s="40" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C2" s="40" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="13.2">
       <c r="A3" s="66" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="13.2">
       <c r="A4" s="66" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="13.2">
       <c r="A5" s="66" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="13.2">
@@ -8308,10 +8398,10 @@
         <v>11</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C6" s="40" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="13.2">
@@ -8319,10 +8409,10 @@
         <v>11</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C7" s="40" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="13.2">
@@ -8330,10 +8420,10 @@
         <v>11</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C8" s="40" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="13.2">
@@ -8341,329 +8431,424 @@
         <v>11</v>
       </c>
       <c r="B9" s="40" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C9" s="40" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="13.2">
       <c r="A10" s="86" t="s">
+        <v>278</v>
+      </c>
+      <c r="B10" s="40" t="s">
+        <v>279</v>
+      </c>
+      <c r="C10" s="66" t="s">
         <v>280</v>
-      </c>
-      <c r="B10" s="40" t="s">
-        <v>281</v>
-      </c>
-      <c r="C10" s="40" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="13.2">
       <c r="A11" s="86" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B11" s="40" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C11" s="40" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="13.2">
       <c r="A12" s="86" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B12" s="40" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C12" s="40" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="13.2">
       <c r="A13" s="86" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B13" s="40" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C13" s="40" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="13.2">
       <c r="A14" s="86" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B14" s="63" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C14" s="63" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="13.2">
       <c r="A15" s="86" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B15" s="63" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C15" s="63" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="13.2">
       <c r="A16" s="86" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B16" s="63" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C16" s="82" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="13.2">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="13.2">
       <c r="A17" s="87" t="s">
+        <v>334</v>
+      </c>
+      <c r="B17" s="66" t="s">
+        <v>335</v>
+      </c>
+      <c r="C17" s="66" t="s">
         <v>336</v>
       </c>
-      <c r="B17" s="66" t="s">
+    </row>
+    <row r="18" spans="1:5" ht="13.2">
+      <c r="A18" s="87" t="s">
+        <v>334</v>
+      </c>
+      <c r="B18" s="66" t="s">
+        <v>343</v>
+      </c>
+      <c r="C18" s="66" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="13.2">
+      <c r="A19" s="87" t="s">
+        <v>334</v>
+      </c>
+      <c r="B19" s="48" t="s">
+        <v>284</v>
+      </c>
+      <c r="C19" s="66" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="13.2">
+      <c r="A20" s="87" t="s">
+        <v>334</v>
+      </c>
+      <c r="B20" s="48" t="s">
+        <v>286</v>
+      </c>
+      <c r="C20" s="66" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="13.2">
+      <c r="A21" s="87" t="s">
+        <v>334</v>
+      </c>
+      <c r="B21" s="82" t="s">
         <v>337</v>
       </c>
-      <c r="C17" s="66" t="s">
+      <c r="C21" s="82" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="13.2">
+      <c r="A22" s="87" t="s">
+        <v>334</v>
+      </c>
+      <c r="B22" s="82" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="13.2">
-      <c r="A18" s="87" t="s">
-        <v>336</v>
-      </c>
-      <c r="B18" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="C18" s="66" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="13.2">
-      <c r="A19" s="87" t="s">
-        <v>336</v>
-      </c>
-      <c r="B19" s="48" t="s">
+      <c r="C22" s="82" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="13.2">
+      <c r="A23" s="87" t="s">
+        <v>334</v>
+      </c>
+      <c r="B23" s="82" t="s">
+        <v>354</v>
+      </c>
+      <c r="C23" s="82" t="s">
+        <v>353</v>
+      </c>
+      <c r="E23" s="91"/>
+    </row>
+    <row r="24" spans="1:5" ht="13.2">
+      <c r="A24" s="87" t="s">
+        <v>334</v>
+      </c>
+      <c r="B24" s="82" t="s">
+        <v>339</v>
+      </c>
+      <c r="C24" s="82" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="13.2">
+      <c r="A25" s="90" t="s">
+        <v>358</v>
+      </c>
+      <c r="B25" s="66" t="s">
+        <v>359</v>
+      </c>
+      <c r="C25" s="92" t="s">
+        <v>365</v>
+      </c>
+      <c r="E25" s="91" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="13.2">
+      <c r="A26" s="90" t="s">
+        <v>358</v>
+      </c>
+      <c r="B26" s="66" t="s">
+        <v>360</v>
+      </c>
+      <c r="C26" s="66" t="s">
+        <v>371</v>
+      </c>
+      <c r="D26" s="66"/>
+      <c r="E26" s="91"/>
+    </row>
+    <row r="27" spans="1:5" ht="13.2">
+      <c r="A27" s="90" t="s">
+        <v>358</v>
+      </c>
+      <c r="B27" s="48" t="s">
+        <v>284</v>
+      </c>
+      <c r="C27" s="66" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="13.2">
+      <c r="A28" s="90" t="s">
+        <v>358</v>
+      </c>
+      <c r="B28" s="48" t="s">
         <v>286</v>
       </c>
-      <c r="C19" s="66" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="13.2">
-      <c r="A20" s="87" t="s">
-        <v>336</v>
-      </c>
-      <c r="B20" s="48" t="s">
-        <v>288</v>
-      </c>
-      <c r="C20" s="66" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="13.2">
-      <c r="A21" s="87" t="s">
-        <v>336</v>
-      </c>
-      <c r="B21" s="82" t="s">
-        <v>339</v>
-      </c>
-      <c r="C21" s="82" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="13.2">
-      <c r="A22" s="87" t="s">
-        <v>336</v>
-      </c>
-      <c r="B22" s="82" t="s">
-        <v>340</v>
-      </c>
-      <c r="C22" s="82" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="13.2">
-      <c r="A23" s="87" t="s">
-        <v>336</v>
-      </c>
-      <c r="B23" s="82" t="s">
-        <v>356</v>
-      </c>
-      <c r="C23" s="66" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="13.2">
-      <c r="A24" s="87" t="s">
-        <v>336</v>
-      </c>
-      <c r="B24" s="82" t="s">
-        <v>341</v>
-      </c>
-      <c r="C24" s="82" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="13.2">
-      <c r="A25" s="66" t="s">
-        <v>326</v>
-      </c>
-      <c r="B25" s="66" t="s">
-        <v>304</v>
-      </c>
-      <c r="C25" s="66" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="13.2">
-      <c r="A26" s="66" t="s">
-        <v>326</v>
-      </c>
-      <c r="B26" s="66" t="s">
-        <v>305</v>
-      </c>
-      <c r="C26" s="66" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="13.2">
-      <c r="A27" s="66" t="s">
-        <v>326</v>
-      </c>
-      <c r="B27" s="66" t="s">
-        <v>296</v>
-      </c>
-      <c r="C27" s="66" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="13.2">
-      <c r="A28" s="66" t="s">
-        <v>326</v>
-      </c>
-      <c r="B28" s="66" t="s">
-        <v>319</v>
-      </c>
       <c r="C28" s="66" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="13.2">
-      <c r="A29" s="66" t="s">
-        <v>326</v>
-      </c>
-      <c r="B29" s="66" t="s">
-        <v>300</v>
-      </c>
-      <c r="C29" s="66" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="15" customHeight="1">
-      <c r="A30" s="66" t="s">
-        <v>326</v>
-      </c>
-      <c r="B30" s="66" t="s">
-        <v>320</v>
-      </c>
-      <c r="C30" s="66" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="15" customHeight="1">
-      <c r="A31" s="66" t="s">
-        <v>326</v>
-      </c>
-      <c r="B31" s="66" t="s">
-        <v>301</v>
-      </c>
-      <c r="C31" s="66" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="15" customHeight="1">
-      <c r="A32" s="66" t="s">
-        <v>326</v>
-      </c>
-      <c r="B32" s="66" t="s">
-        <v>325</v>
-      </c>
-      <c r="C32" s="66" t="s">
-        <v>312</v>
+        <v>374</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="13.2">
+      <c r="A29" s="90" t="s">
+        <v>358</v>
+      </c>
+      <c r="B29" s="82" t="s">
+        <v>361</v>
+      </c>
+      <c r="C29" s="82" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="13.2">
+      <c r="A30" s="90" t="s">
+        <v>358</v>
+      </c>
+      <c r="B30" s="82" t="s">
+        <v>362</v>
+      </c>
+      <c r="C30" s="82" t="s">
+        <v>372</v>
+      </c>
+      <c r="E30" s="48"/>
+    </row>
+    <row r="31" spans="1:5" ht="13.2">
+      <c r="A31" s="90" t="s">
+        <v>358</v>
+      </c>
+      <c r="B31" s="82" t="s">
+        <v>363</v>
+      </c>
+      <c r="C31" s="82" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="13.2">
+      <c r="A32" s="90" t="s">
+        <v>358</v>
+      </c>
+      <c r="B32" s="82" t="s">
+        <v>367</v>
+      </c>
+      <c r="C32" s="82" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="13.2">
       <c r="A33" s="66" t="s">
-        <v>326</v>
-      </c>
-      <c r="B33" s="40" t="s">
-        <v>283</v>
+        <v>324</v>
+      </c>
+      <c r="B33" s="66" t="s">
+        <v>302</v>
       </c>
       <c r="C33" s="66" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="13.2">
       <c r="A34" s="66" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B34" s="66" t="s">
+        <v>303</v>
+      </c>
+      <c r="C34" s="66" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="13.2">
+      <c r="A35" s="66" t="s">
         <v>324</v>
       </c>
-      <c r="C34" s="66" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="15" customHeight="1">
-      <c r="A35" s="66" t="s">
-        <v>326</v>
-      </c>
       <c r="B35" s="66" t="s">
-        <v>321</v>
+        <v>294</v>
       </c>
       <c r="C35" s="66" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="15" customHeight="1">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="13.2">
       <c r="A36" s="66" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B36" s="66" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="C36" s="66" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="15" customHeight="1">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="13.2">
       <c r="A37" s="66" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B37" s="66" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C37" s="66" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15" customHeight="1">
       <c r="A38" s="66" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B38" s="66" t="s">
+        <v>318</v>
+      </c>
+      <c r="C38" s="66" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15" customHeight="1">
+      <c r="A39" s="66" t="s">
+        <v>324</v>
+      </c>
+      <c r="B39" s="66" t="s">
+        <v>299</v>
+      </c>
+      <c r="C39" s="66" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15" customHeight="1">
+      <c r="A40" s="66" t="s">
+        <v>324</v>
+      </c>
+      <c r="B40" s="66" t="s">
+        <v>323</v>
+      </c>
+      <c r="C40" s="66" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="13.2">
+      <c r="A41" s="66" t="s">
+        <v>324</v>
+      </c>
+      <c r="B41" s="40" t="s">
+        <v>281</v>
+      </c>
+      <c r="C41" s="66" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="13.2">
+      <c r="A42" s="66" t="s">
+        <v>324</v>
+      </c>
+      <c r="B42" s="66" t="s">
         <v>322</v>
       </c>
-      <c r="C38" s="66" t="s">
-        <v>318</v>
+      <c r="C42" s="66" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15" customHeight="1">
+      <c r="A43" s="66" t="s">
+        <v>324</v>
+      </c>
+      <c r="B43" s="66" t="s">
+        <v>319</v>
+      </c>
+      <c r="C43" s="66" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15" customHeight="1">
+      <c r="A44" s="66" t="s">
+        <v>324</v>
+      </c>
+      <c r="B44" s="66" t="s">
+        <v>321</v>
+      </c>
+      <c r="C44" s="66" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15" customHeight="1">
+      <c r="A45" s="66" t="s">
+        <v>324</v>
+      </c>
+      <c r="B45" s="66" t="s">
+        <v>300</v>
+      </c>
+      <c r="C45" s="66" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15" customHeight="1">
+      <c r="A46" s="66" t="s">
+        <v>324</v>
+      </c>
+      <c r="B46" s="66" t="s">
+        <v>320</v>
+      </c>
+      <c r="C46" s="66" t="s">
+        <v>316</v>
       </c>
     </row>
   </sheetData>

--- a/TNR_JDD/RO/JDD.RO.ACT.xlsx
+++ b/TNR_JDD/RO/JDD.RO.ACT.xlsx
@@ -1,19 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
+  <bookViews>
+    <workbookView xWindow="612" yWindow="588" windowWidth="21852" windowHeight="8940" activeTab="2"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Version" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Info" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="001" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="003HAB" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="003MET" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="004EMP" sheetId="6" r:id="rId9"/>
-    <sheet state="visible" name="005" sheetId="7" r:id="rId10"/>
-    <sheet state="visible" name="IHMTO" sheetId="8" r:id="rId11"/>
+    <sheet name="Version" sheetId="1" r:id="rId1"/>
+    <sheet name="Info" sheetId="2" r:id="rId2"/>
+    <sheet name="001" sheetId="3" r:id="rId3"/>
+    <sheet name="003HAB" sheetId="4" r:id="rId4"/>
+    <sheet name="003MET" sheetId="5" r:id="rId5"/>
+    <sheet name="004EMP" sheetId="6" r:id="rId6"/>
+    <sheet name="005" sheetId="7" r:id="rId7"/>
+    <sheet name="IHMTO" sheetId="8" r:id="rId8"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId12" roundtripDataSignature="AMtx7mgzw2kPSin+sLqc9nqWsTwuV+hbRw=="/>
@@ -1174,86 +1177,91 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
-  </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="15">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
-      <sz val="8.0"/>
+      <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="&quot;Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
@@ -1263,7 +1271,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1387,7 +1395,13 @@
     </fill>
   </fills>
   <borders count="3">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -1401,360 +1415,246 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+  <cellXfs count="103">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="2" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf quotePrefix="1" borderId="2" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="2" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="10" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="11" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="12" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="12" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="12" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="10" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="10" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="12" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="13" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="13" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="14" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="14" fontId="6" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="10" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="14" fontId="12" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf quotePrefix="1" borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="6" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="14" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="11" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="15" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="15" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf quotePrefix="1" borderId="0" fillId="15" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="14" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="14" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="14" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="10" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="11" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="12" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="12" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="12" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="12" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="13" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="15" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="12" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="12" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="15" fontId="12" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="15" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="14" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="9" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="16" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="17" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="10" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="12" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="12" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="12" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="10" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="10" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="13" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="13" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="10" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="14" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="18" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="17" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="19" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="20" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="21" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1944,27 +1844,27 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F999"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="2" width="10.63"/>
-    <col customWidth="1" min="3" max="3" width="29.88"/>
-    <col customWidth="1" min="4" max="4" width="10.63"/>
-    <col customWidth="1" min="5" max="5" width="12.13"/>
-    <col customWidth="1" min="6" max="26" width="10.63"/>
+    <col min="1" max="2" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="29.88671875" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" customWidth="1"/>
+    <col min="6" max="26" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.75" customHeight="1">
+    <row r="1" spans="1:6" ht="12.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1981,9 +1881,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="12.75" customHeight="1">
+    <row r="2" spans="1:6" ht="12.75" customHeight="1">
       <c r="A2" s="3">
-        <v>44886.0</v>
+        <v>44886</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>5</v>
@@ -1997,126 +1897,126 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" ht="12.75" customHeight="1">
+    <row r="3" spans="1:6" ht="12.75" customHeight="1">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" ht="12.75" customHeight="1">
+    <row r="4" spans="1:6" ht="12.75" customHeight="1">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" ht="12.75" customHeight="1">
+    <row r="5" spans="1:6" ht="12.75" customHeight="1">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" ht="12.75" customHeight="1">
+    <row r="6" spans="1:6" ht="12.75" customHeight="1">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" ht="12.75" customHeight="1">
+    <row r="7" spans="1:6" ht="12.75" customHeight="1">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" ht="12.75" customHeight="1">
+    <row r="8" spans="1:6" ht="12.75" customHeight="1">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" ht="12.75" customHeight="1">
+    <row r="9" spans="1:6" ht="12.75" customHeight="1">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" ht="12.75" customHeight="1">
+    <row r="10" spans="1:6" ht="12.75" customHeight="1">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" ht="12.75" customHeight="1">
+    <row r="11" spans="1:6" ht="12.75" customHeight="1">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" ht="12.75" customHeight="1">
+    <row r="12" spans="1:6" ht="12.75" customHeight="1">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
     </row>
-    <row r="13" ht="12.75" customHeight="1">
+    <row r="13" spans="1:6" ht="12.75" customHeight="1">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" ht="12.75" customHeight="1">
+    <row r="14" spans="1:6" ht="12.75" customHeight="1">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
     </row>
-    <row r="15" ht="12.75" customHeight="1">
+    <row r="15" spans="1:6" ht="12.75" customHeight="1">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" ht="12.75" customHeight="1">
+    <row r="16" spans="1:6" ht="12.75" customHeight="1">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
     </row>
-    <row r="17" ht="12.75" customHeight="1">
+    <row r="17" spans="1:5" ht="12.75" customHeight="1">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
     </row>
-    <row r="18" ht="12.75" customHeight="1"/>
-    <row r="19" ht="12.75" customHeight="1"/>
-    <row r="20" ht="12.75" customHeight="1"/>
-    <row r="21" ht="12.75" customHeight="1"/>
-    <row r="22" ht="12.75" customHeight="1"/>
-    <row r="23" ht="12.75" customHeight="1"/>
-    <row r="24" ht="12.75" customHeight="1"/>
-    <row r="25" ht="12.75" customHeight="1"/>
-    <row r="26" ht="12.75" customHeight="1"/>
-    <row r="27" ht="12.75" customHeight="1"/>
-    <row r="28" ht="12.75" customHeight="1"/>
-    <row r="29" ht="12.75" customHeight="1"/>
-    <row r="30" ht="12.75" customHeight="1"/>
-    <row r="31" ht="12.75" customHeight="1"/>
-    <row r="32" ht="12.75" customHeight="1"/>
+    <row r="18" spans="1:5" ht="12.75" customHeight="1"/>
+    <row r="19" spans="1:5" ht="12.75" customHeight="1"/>
+    <row r="20" spans="1:5" ht="12.75" customHeight="1"/>
+    <row r="21" spans="1:5" ht="12.75" customHeight="1"/>
+    <row r="22" spans="1:5" ht="12.75" customHeight="1"/>
+    <row r="23" spans="1:5" ht="12.75" customHeight="1"/>
+    <row r="24" spans="1:5" ht="12.75" customHeight="1"/>
+    <row r="25" spans="1:5" ht="12.75" customHeight="1"/>
+    <row r="26" spans="1:5" ht="12.75" customHeight="1"/>
+    <row r="27" spans="1:5" ht="12.75" customHeight="1"/>
+    <row r="28" spans="1:5" ht="12.75" customHeight="1"/>
+    <row r="29" spans="1:5" ht="12.75" customHeight="1"/>
+    <row r="30" spans="1:5" ht="12.75" customHeight="1"/>
+    <row r="31" spans="1:5" ht="12.75" customHeight="1"/>
+    <row r="32" spans="1:5" ht="12.75" customHeight="1"/>
     <row r="33" ht="12.75" customHeight="1"/>
     <row r="34" ht="12.75" customHeight="1"/>
     <row r="35" ht="12.75" customHeight="1"/>
@@ -3085,32 +2985,28 @@
     <row r="998" ht="12.75" customHeight="1"/>
     <row r="999" ht="12.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Z980"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="13.5"/>
-    <col customWidth="1" min="2" max="2" width="61.5"/>
-    <col customWidth="1" min="3" max="3" width="28.0"/>
-    <col customWidth="1" min="4" max="4" width="10.63"/>
-    <col customWidth="1" min="5" max="5" width="11.88"/>
-    <col customWidth="1" min="6" max="26" width="10.63"/>
+    <col min="1" max="1" width="13.44140625" customWidth="1"/>
+    <col min="2" max="2" width="61.44140625" customWidth="1"/>
+    <col min="3" max="3" width="28" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" customWidth="1"/>
+    <col min="6" max="26" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.75" customHeight="1">
+    <row r="1" spans="1:5" ht="12.75" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>8</v>
       </c>
@@ -3123,7 +3019,7 @@
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
     </row>
-    <row r="2" ht="12.75" customHeight="1">
+    <row r="2" spans="1:5" ht="12.75" customHeight="1">
       <c r="A2" s="10" t="s">
         <v>11</v>
       </c>
@@ -3131,12 +3027,12 @@
         <v>12</v>
       </c>
       <c r="C2" s="9">
-        <v>1022.0</v>
+        <v>1022</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
     </row>
-    <row r="3" ht="12.75" customHeight="1">
+    <row r="3" spans="1:5" ht="12.75" customHeight="1">
       <c r="A3" s="12" t="s">
         <v>13</v>
       </c>
@@ -3150,7 +3046,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" ht="12.75" customHeight="1">
+    <row r="4" spans="1:5" ht="12.75" customHeight="1">
       <c r="A4" s="12" t="s">
         <v>17</v>
       </c>
@@ -3164,7 +3060,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" ht="12.75" customHeight="1">
+    <row r="5" spans="1:5" ht="12.75" customHeight="1">
       <c r="A5" s="12" t="s">
         <v>20</v>
       </c>
@@ -3179,7 +3075,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" ht="12.75" customHeight="1">
+    <row r="6" spans="1:5" ht="12.75" customHeight="1">
       <c r="A6" s="12" t="s">
         <v>23</v>
       </c>
@@ -3194,7 +3090,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" ht="12.75" customHeight="1">
+    <row r="7" spans="1:5" ht="12.75" customHeight="1">
       <c r="A7" s="12" t="s">
         <v>25</v>
       </c>
@@ -3209,7 +3105,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" ht="12.75" customHeight="1">
+    <row r="8" spans="1:5" ht="12.75" customHeight="1">
       <c r="A8" s="12" t="s">
         <v>27</v>
       </c>
@@ -3223,7 +3119,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" ht="12.75" customHeight="1">
+    <row r="9" spans="1:5" ht="12.75" customHeight="1">
       <c r="A9" s="12" t="s">
         <v>29</v>
       </c>
@@ -3235,7 +3131,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="12.75" customHeight="1">
+    <row r="10" spans="1:5" ht="12.75" customHeight="1">
       <c r="A10" s="12" t="s">
         <v>31</v>
       </c>
@@ -3247,7 +3143,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" ht="12.75" customHeight="1">
+    <row r="11" spans="1:5" ht="12.75" customHeight="1">
       <c r="A11" s="12" t="s">
         <v>33</v>
       </c>
@@ -3259,7 +3155,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" ht="12.75" customHeight="1">
+    <row r="12" spans="1:5" ht="12.75" customHeight="1">
       <c r="A12" s="13" t="s">
         <v>35</v>
       </c>
@@ -3271,7 +3167,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" ht="12.75" customHeight="1">
+    <row r="13" spans="1:5" ht="12.75" customHeight="1">
       <c r="A13" s="13" t="s">
         <v>37</v>
       </c>
@@ -3285,7 +3181,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" ht="12.75" customHeight="1">
+    <row r="14" spans="1:5" ht="12.75" customHeight="1">
       <c r="A14" s="5" t="s">
         <v>39</v>
       </c>
@@ -3300,7 +3196,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" ht="12.75" customHeight="1">
+    <row r="15" spans="1:5" ht="12.75" customHeight="1">
       <c r="A15" s="13" t="s">
         <v>41</v>
       </c>
@@ -3312,7 +3208,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" ht="12.75" customHeight="1">
+    <row r="16" spans="1:5" ht="12.75" customHeight="1">
       <c r="A16" s="13" t="s">
         <v>43</v>
       </c>
@@ -3324,7 +3220,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" ht="12.75" customHeight="1">
+    <row r="17" spans="1:5" ht="12.75" customHeight="1">
       <c r="A17" s="5" t="s">
         <v>45</v>
       </c>
@@ -3335,7 +3231,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" ht="12.75" customHeight="1">
+    <row r="18" spans="1:5" ht="12.75" customHeight="1">
       <c r="A18" s="5" t="s">
         <v>47</v>
       </c>
@@ -3346,7 +3242,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" ht="12.75" customHeight="1">
+    <row r="19" spans="1:5" ht="12.75" customHeight="1">
       <c r="A19" s="5" t="s">
         <v>49</v>
       </c>
@@ -3357,7 +3253,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" ht="12.75" customHeight="1">
+    <row r="20" spans="1:5" ht="12.75" customHeight="1">
       <c r="A20" s="5" t="s">
         <v>51</v>
       </c>
@@ -3368,7 +3264,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" ht="12.75" customHeight="1">
+    <row r="21" spans="1:5" ht="12.75" customHeight="1">
       <c r="A21" s="5" t="s">
         <v>53</v>
       </c>
@@ -3379,7 +3275,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" ht="12.75" customHeight="1">
+    <row r="22" spans="1:5" ht="12.75" customHeight="1">
       <c r="A22" s="5" t="s">
         <v>55</v>
       </c>
@@ -3390,7 +3286,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" ht="12.75" customHeight="1">
+    <row r="23" spans="1:5" ht="12.75" customHeight="1">
       <c r="A23" s="5" t="s">
         <v>57</v>
       </c>
@@ -3401,7 +3297,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" ht="12.75" customHeight="1">
+    <row r="24" spans="1:5" ht="12.75" customHeight="1">
       <c r="A24" s="5" t="s">
         <v>59</v>
       </c>
@@ -3412,7 +3308,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" ht="12.75" customHeight="1">
+    <row r="25" spans="1:5" ht="12.75" customHeight="1">
       <c r="A25" s="5" t="s">
         <v>61</v>
       </c>
@@ -3423,7 +3319,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" ht="12.75" customHeight="1">
+    <row r="26" spans="1:5" ht="12.75" customHeight="1">
       <c r="A26" s="18" t="s">
         <v>63</v>
       </c>
@@ -3437,7 +3333,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" ht="12.75" customHeight="1">
+    <row r="27" spans="1:5" ht="12.75" customHeight="1">
       <c r="A27" s="5" t="s">
         <v>65</v>
       </c>
@@ -3454,7 +3350,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="28" ht="12.75" customHeight="1">
+    <row r="28" spans="1:5" ht="12.75" customHeight="1">
       <c r="A28" s="5" t="s">
         <v>68</v>
       </c>
@@ -3471,7 +3367,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="29" ht="12.75" customHeight="1">
+    <row r="29" spans="1:5" ht="12.75" customHeight="1">
       <c r="A29" s="5" t="s">
         <v>70</v>
       </c>
@@ -3482,7 +3378,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" ht="12.75" customHeight="1">
+    <row r="30" spans="1:5" ht="12.75" customHeight="1">
       <c r="A30" s="5" t="s">
         <v>72</v>
       </c>
@@ -3493,7 +3389,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" ht="12.75" customHeight="1">
+    <row r="31" spans="1:5" ht="12.75" customHeight="1">
       <c r="A31" s="5" t="s">
         <v>74</v>
       </c>
@@ -3504,7 +3400,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" ht="12.75" customHeight="1">
+    <row r="32" spans="1:5" ht="12.75" customHeight="1">
       <c r="A32" s="5" t="s">
         <v>76</v>
       </c>
@@ -3515,7 +3411,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="33" ht="12.75" customHeight="1">
+    <row r="33" spans="1:5" ht="12.75" customHeight="1">
       <c r="A33" s="5" t="s">
         <v>78</v>
       </c>
@@ -3526,7 +3422,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" ht="12.75" customHeight="1">
+    <row r="34" spans="1:5" ht="12.75" customHeight="1">
       <c r="A34" s="5" t="s">
         <v>80</v>
       </c>
@@ -3537,7 +3433,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" ht="12.75" customHeight="1">
+    <row r="35" spans="1:5" ht="12.75" customHeight="1">
       <c r="A35" s="5" t="s">
         <v>82</v>
       </c>
@@ -3548,7 +3444,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" ht="12.75" customHeight="1">
+    <row r="36" spans="1:5" ht="12.75" customHeight="1">
       <c r="A36" s="5" t="s">
         <v>84</v>
       </c>
@@ -3559,7 +3455,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" ht="12.75" customHeight="1">
+    <row r="37" spans="1:5" ht="12.75" customHeight="1">
       <c r="A37" s="5" t="s">
         <v>86</v>
       </c>
@@ -3576,7 +3472,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="38" ht="12.75" customHeight="1">
+    <row r="38" spans="1:5" ht="12.75" customHeight="1">
       <c r="A38" s="5" t="s">
         <v>88</v>
       </c>
@@ -3590,7 +3486,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="39" ht="12.75" customHeight="1">
+    <row r="39" spans="1:5" ht="12.75" customHeight="1">
       <c r="A39" s="5" t="s">
         <v>90</v>
       </c>
@@ -3604,7 +3500,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" ht="12.75" customHeight="1">
+    <row r="40" spans="1:5" ht="12.75" customHeight="1">
       <c r="A40" s="5" t="s">
         <v>92</v>
       </c>
@@ -3615,7 +3511,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="41" ht="12.75" customHeight="1">
+    <row r="41" spans="1:5" ht="12.75" customHeight="1">
       <c r="A41" s="5" t="s">
         <v>94</v>
       </c>
@@ -3626,7 +3522,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="42" ht="12.75" customHeight="1">
+    <row r="42" spans="1:5" ht="12.75" customHeight="1">
       <c r="A42" s="5" t="s">
         <v>96</v>
       </c>
@@ -3637,7 +3533,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43" ht="12.75" customHeight="1">
+    <row r="43" spans="1:5" ht="12.75" customHeight="1">
       <c r="A43" s="5" t="s">
         <v>98</v>
       </c>
@@ -3649,7 +3545,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="44" ht="12.75" customHeight="1">
+    <row r="44" spans="1:5" ht="12.75" customHeight="1">
       <c r="A44" s="18" t="s">
         <v>100</v>
       </c>
@@ -3663,7 +3559,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="45" ht="12.75" customHeight="1">
+    <row r="45" spans="1:5" ht="12.75" customHeight="1">
       <c r="A45" s="5" t="s">
         <v>101</v>
       </c>
@@ -3677,7 +3573,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="46" ht="12.75" customHeight="1">
+    <row r="46" spans="1:5" ht="12.75" customHeight="1">
       <c r="A46" s="5" t="s">
         <v>103</v>
       </c>
@@ -3691,7 +3587,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="47" ht="12.75" customHeight="1">
+    <row r="47" spans="1:5" ht="12.75" customHeight="1">
       <c r="A47" s="5" t="s">
         <v>105</v>
       </c>
@@ -3705,7 +3601,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="48" ht="12.75" customHeight="1">
+    <row r="48" spans="1:5" ht="12.75" customHeight="1">
       <c r="A48" s="5" t="s">
         <v>107</v>
       </c>
@@ -3719,7 +3615,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="49" ht="12.75" customHeight="1">
+    <row r="49" spans="1:26" ht="12.75" customHeight="1">
       <c r="A49" s="5" t="s">
         <v>109</v>
       </c>
@@ -3730,7 +3626,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="50" ht="12.75" customHeight="1">
+    <row r="50" spans="1:26" ht="12.75" customHeight="1">
       <c r="A50" s="22" t="s">
         <v>111</v>
       </c>
@@ -3766,7 +3662,7 @@
       <c r="Y50" s="23"/>
       <c r="Z50" s="23"/>
     </row>
-    <row r="51" ht="12.75" customHeight="1">
+    <row r="51" spans="1:26" ht="12.75" customHeight="1">
       <c r="A51" s="5" t="s">
         <v>113</v>
       </c>
@@ -3780,7 +3676,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="52" ht="12.75" customHeight="1">
+    <row r="52" spans="1:26" ht="12.75" customHeight="1">
       <c r="A52" s="5" t="s">
         <v>115</v>
       </c>
@@ -3794,7 +3690,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="53" ht="12.75" customHeight="1">
+    <row r="53" spans="1:26" ht="12.75" customHeight="1">
       <c r="A53" s="5" t="s">
         <v>117</v>
       </c>
@@ -3808,7 +3704,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" ht="12.75" customHeight="1">
+    <row r="54" spans="1:26" ht="12.75" customHeight="1">
       <c r="A54" s="5" t="s">
         <v>119</v>
       </c>
@@ -3822,7 +3718,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="55" ht="12.75" customHeight="1">
+    <row r="55" spans="1:26" ht="12.75" customHeight="1">
       <c r="A55" s="9" t="s">
         <v>121</v>
       </c>
@@ -3830,11 +3726,11 @@
         <v>122</v>
       </c>
       <c r="C55" s="9">
-        <v>1083.0</v>
+        <v>1083</v>
       </c>
       <c r="D55" s="9"/>
     </row>
-    <row r="56" ht="12.75" customHeight="1">
+    <row r="56" spans="1:26" ht="12.75" customHeight="1">
       <c r="A56" s="5" t="s">
         <v>123</v>
       </c>
@@ -3845,7 +3741,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="57" ht="12.75" customHeight="1">
+    <row r="57" spans="1:26" ht="12.75" customHeight="1">
       <c r="A57" s="5" t="s">
         <v>125</v>
       </c>
@@ -3856,7 +3752,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="58" ht="12.75" customHeight="1">
+    <row r="58" spans="1:26" ht="12.75" customHeight="1">
       <c r="A58" s="5" t="s">
         <v>127</v>
       </c>
@@ -3870,7 +3766,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="59" ht="12.75" customHeight="1">
+    <row r="59" spans="1:26" ht="12.75" customHeight="1">
       <c r="A59" s="5" t="s">
         <v>13</v>
       </c>
@@ -3884,7 +3780,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="60" ht="12.75" customHeight="1">
+    <row r="60" spans="1:26" ht="12.75" customHeight="1">
       <c r="A60" s="9" t="s">
         <v>129</v>
       </c>
@@ -3892,11 +3788,11 @@
         <v>130</v>
       </c>
       <c r="C60" s="25">
-        <v>1086.0</v>
+        <v>1086</v>
       </c>
       <c r="D60" s="9"/>
     </row>
-    <row r="61" ht="12.75" customHeight="1">
+    <row r="61" spans="1:26" ht="12.75" customHeight="1">
       <c r="A61" s="5" t="s">
         <v>123</v>
       </c>
@@ -3907,7 +3803,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="62" ht="12.75" customHeight="1">
+    <row r="62" spans="1:26" ht="12.75" customHeight="1">
       <c r="A62" s="5" t="s">
         <v>125</v>
       </c>
@@ -3918,7 +3814,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="63" ht="12.75" customHeight="1">
+    <row r="63" spans="1:26" ht="12.75" customHeight="1">
       <c r="A63" s="5" t="s">
         <v>13</v>
       </c>
@@ -3932,7 +3828,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="64" ht="12.75" customHeight="1">
+    <row r="64" spans="1:26" ht="12.75" customHeight="1">
       <c r="A64" s="5" t="s">
         <v>133</v>
       </c>
@@ -3946,7 +3842,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="65" ht="12.75" customHeight="1">
+    <row r="65" spans="1:5" ht="12.75" customHeight="1">
       <c r="A65" s="5" t="s">
         <v>135</v>
       </c>
@@ -3957,7 +3853,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="66" ht="12.75" customHeight="1">
+    <row r="66" spans="1:5" ht="12.75" customHeight="1">
       <c r="A66" s="25" t="s">
         <v>137</v>
       </c>
@@ -3965,11 +3861,11 @@
         <v>138</v>
       </c>
       <c r="C66" s="25">
-        <v>1587.0</v>
+        <v>1587</v>
       </c>
       <c r="D66" s="9"/>
     </row>
-    <row r="67" ht="12.75" customHeight="1">
+    <row r="67" spans="1:5" ht="12.75" customHeight="1">
       <c r="A67" s="5" t="s">
         <v>139</v>
       </c>
@@ -3984,7 +3880,7 @@
       </c>
       <c r="E67" s="17"/>
     </row>
-    <row r="68" ht="12.75" customHeight="1">
+    <row r="68" spans="1:5" ht="12.75" customHeight="1">
       <c r="A68" s="5" t="s">
         <v>109</v>
       </c>
@@ -4001,7 +3897,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="69" ht="12.75" customHeight="1">
+    <row r="69" spans="1:5" ht="12.75" customHeight="1">
       <c r="A69" s="5" t="s">
         <v>142</v>
       </c>
@@ -4015,7 +3911,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="70" ht="12.75" customHeight="1">
+    <row r="70" spans="1:5" ht="12.75" customHeight="1">
       <c r="A70" s="5" t="s">
         <v>144</v>
       </c>
@@ -4029,7 +3925,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="71" ht="12.75" customHeight="1">
+    <row r="71" spans="1:5" ht="12.75" customHeight="1">
       <c r="A71" s="5" t="s">
         <v>13</v>
       </c>
@@ -4043,7 +3939,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="72" ht="12.75" customHeight="1">
+    <row r="72" spans="1:5" ht="12.75" customHeight="1">
       <c r="A72" s="5" t="s">
         <v>65</v>
       </c>
@@ -4057,7 +3953,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="73" ht="12.75" customHeight="1">
+    <row r="73" spans="1:5" ht="12.75" customHeight="1">
       <c r="A73" s="5" t="s">
         <v>123</v>
       </c>
@@ -4068,7 +3964,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="74" ht="12.75" customHeight="1">
+    <row r="74" spans="1:5" ht="12.75" customHeight="1">
       <c r="A74" s="5" t="s">
         <v>125</v>
       </c>
@@ -4079,7 +3975,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="75" ht="12.75" customHeight="1">
+    <row r="75" spans="1:5" ht="12.75" customHeight="1">
       <c r="A75" s="5" t="s">
         <v>149</v>
       </c>
@@ -4093,7 +3989,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="76" ht="12.75" customHeight="1">
+    <row r="76" spans="1:5" ht="12.75" customHeight="1">
       <c r="A76" s="5" t="s">
         <v>113</v>
       </c>
@@ -4110,7 +4006,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="77" ht="12.75" customHeight="1">
+    <row r="77" spans="1:5" ht="12.75" customHeight="1">
       <c r="A77" s="5" t="s">
         <v>115</v>
       </c>
@@ -4127,7 +4023,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="78" ht="12.75" customHeight="1">
+    <row r="78" spans="1:5" ht="12.75" customHeight="1">
       <c r="A78" s="5" t="s">
         <v>117</v>
       </c>
@@ -4141,7 +4037,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="79" ht="12.75" customHeight="1">
+    <row r="79" spans="1:5" ht="12.75" customHeight="1">
       <c r="A79" s="5" t="s">
         <v>119</v>
       </c>
@@ -4155,7 +4051,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="80" ht="12.75" customHeight="1"/>
+    <row r="80" spans="1:5" ht="12.75" customHeight="1"/>
     <row r="81" ht="12.75" customHeight="1"/>
     <row r="82" ht="12.75" customHeight="1"/>
     <row r="83" ht="12.75" customHeight="1"/>
@@ -5057,33 +4953,34 @@
     <row r="979" ht="12.75" customHeight="1"/>
     <row r="980" ht="12.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:BE18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="2" width="16.63"/>
-    <col customWidth="1" min="3" max="3" width="32.88"/>
-    <col customWidth="1" min="4" max="4" width="24.63"/>
-    <col customWidth="1" min="5" max="5" width="20.88"/>
-    <col customWidth="1" min="6" max="6" width="21.13"/>
-    <col customWidth="1" min="12" max="12" width="25.25"/>
-    <col customWidth="1" min="46" max="46" width="25.25"/>
+    <col min="1" max="2" width="16.6640625" customWidth="1"/>
+    <col min="3" max="3" width="32.88671875" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" customWidth="1"/>
+    <col min="5" max="5" width="20.88671875" customWidth="1"/>
+    <col min="6" max="6" width="21.109375" customWidth="1"/>
+    <col min="12" max="12" width="25.21875" customWidth="1"/>
+    <col min="46" max="46" width="25.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:57">
       <c r="A1" s="26" t="s">
         <v>12</v>
       </c>
@@ -5256,7 +5153,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:57">
       <c r="A2" s="33" t="s">
         <v>159</v>
       </c>
@@ -5333,7 +5230,7 @@
       <c r="BD2" s="34"/>
       <c r="BE2" s="34"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:57">
       <c r="A3" s="33" t="s">
         <v>164</v>
       </c>
@@ -5385,9 +5282,10 @@
       <c r="AS3" s="34"/>
       <c r="AT3" s="34"/>
       <c r="AU3" s="34"/>
-      <c r="AV3" s="35" t="s">
+      <c r="AV3" s="101" t="s">
         <v>166</v>
       </c>
+      <c r="AW3" s="102"/>
       <c r="AX3" s="34"/>
       <c r="AY3" s="34"/>
       <c r="AZ3" s="34"/>
@@ -5405,7 +5303,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:57">
       <c r="A4" s="33" t="s">
         <v>170</v>
       </c>
@@ -5544,7 +5442,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:57">
       <c r="A5" s="39" t="s">
         <v>174</v>
       </c>
@@ -5605,7 +5503,7 @@
       <c r="BD5" s="40"/>
       <c r="BE5" s="40"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:57">
       <c r="A6" s="41" t="s">
         <v>175</v>
       </c>
@@ -5621,7 +5519,7 @@
       <c r="E6" s="42" t="s">
         <v>175</v>
       </c>
-      <c r="F6" s="42" t="s">
+      <c r="F6" s="100" t="s">
         <v>175</v>
       </c>
       <c r="G6" s="44" t="s">
@@ -5637,7 +5535,7 @@
         <v>180</v>
       </c>
       <c r="K6" s="45">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="L6" s="43" t="s">
         <v>181</v>
@@ -5652,7 +5550,7 @@
         <v>184</v>
       </c>
       <c r="P6" s="45">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="Q6" s="42" t="s">
         <v>184</v>
@@ -5670,7 +5568,7 @@
         <v>185</v>
       </c>
       <c r="V6" s="45">
-        <v>80.0</v>
+        <v>80</v>
       </c>
       <c r="W6" s="46" t="s">
         <v>177</v>
@@ -5748,7 +5646,7 @@
         <v>185</v>
       </c>
       <c r="AV6" s="45">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AW6" s="42" t="s">
         <v>192</v>
@@ -5770,7 +5668,7 @@
       <c r="BD6" s="49"/>
       <c r="BE6" s="49"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:57">
       <c r="A7" s="41" t="s">
         <v>193</v>
       </c>
@@ -5802,7 +5700,7 @@
         <v>197</v>
       </c>
       <c r="K7" s="45">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="L7" s="43" t="s">
         <v>198</v>
@@ -5817,7 +5715,7 @@
         <v>184</v>
       </c>
       <c r="P7" s="45">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="Q7" s="42" t="s">
         <v>184</v>
@@ -5835,7 +5733,7 @@
         <v>185</v>
       </c>
       <c r="V7" s="45">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="W7" s="46" t="s">
         <v>177</v>
@@ -5913,7 +5811,7 @@
         <v>185</v>
       </c>
       <c r="AV7" s="45">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AW7" s="42" t="s">
         <v>192</v>
@@ -5943,7 +5841,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:57">
       <c r="A8" s="51" t="s">
         <v>206</v>
       </c>
@@ -5975,7 +5873,7 @@
         <v>211</v>
       </c>
       <c r="K8" s="52">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="L8" s="51" t="s">
         <v>212</v>
@@ -5990,7 +5888,7 @@
         <v>184</v>
       </c>
       <c r="P8" s="52">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="51" t="s">
         <v>184</v>
@@ -6008,7 +5906,7 @@
         <v>185</v>
       </c>
       <c r="V8" s="52">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W8" s="46" t="s">
         <v>177</v>
@@ -6086,7 +5984,7 @@
         <v>185</v>
       </c>
       <c r="AV8" s="45">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AW8" s="42" t="s">
         <v>192</v>
@@ -6108,7 +6006,7 @@
       <c r="BD8" s="54"/>
       <c r="BE8" s="54"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:57">
       <c r="A9" s="41" t="s">
         <v>217</v>
       </c>
@@ -6171,7 +6069,7 @@
       <c r="BD9" s="54"/>
       <c r="BE9" s="54"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:57">
       <c r="A10" s="41" t="s">
         <v>218</v>
       </c>
@@ -6234,7 +6132,7 @@
       <c r="BD10" s="54"/>
       <c r="BE10" s="54"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:57">
       <c r="A11" s="56"/>
       <c r="B11" s="57"/>
       <c r="C11" s="58"/>
@@ -6293,7 +6191,7 @@
       <c r="BD11" s="60"/>
       <c r="BE11" s="60"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:57">
       <c r="A12" s="56"/>
       <c r="B12" s="57"/>
       <c r="C12" s="58"/>
@@ -6352,7 +6250,7 @@
       <c r="BD12" s="60"/>
       <c r="BE12" s="60"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:57">
       <c r="A13" s="56"/>
       <c r="B13" s="57"/>
       <c r="C13" s="58"/>
@@ -6411,7 +6309,7 @@
       <c r="BD13" s="60"/>
       <c r="BE13" s="60"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:57">
       <c r="A14" s="56"/>
       <c r="B14" s="57"/>
       <c r="C14" s="58"/>
@@ -6470,7 +6368,7 @@
       <c r="BD14" s="60"/>
       <c r="BE14" s="60"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:57">
       <c r="A15" s="56"/>
       <c r="B15" s="57"/>
       <c r="C15" s="58"/>
@@ -6529,7 +6427,7 @@
       <c r="BD15" s="60"/>
       <c r="BE15" s="60"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:57">
       <c r="A16" s="56"/>
       <c r="B16" s="57"/>
       <c r="C16" s="58"/>
@@ -6588,7 +6486,7 @@
       <c r="BD16" s="60"/>
       <c r="BE16" s="60"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:57">
       <c r="A17" s="56"/>
       <c r="B17" s="57"/>
       <c r="C17" s="58"/>
@@ -6647,7 +6545,7 @@
       <c r="BD17" s="60"/>
       <c r="BE17" s="60"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:57">
       <c r="A18" s="56"/>
       <c r="B18" s="57"/>
       <c r="C18" s="58"/>
@@ -6710,29 +6608,30 @@
   <mergeCells count="1">
     <mergeCell ref="AV3:AW3"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="20.25"/>
-    <col customWidth="1" min="2" max="2" width="20.5"/>
-    <col customWidth="1" min="3" max="3" width="25.38"/>
-    <col customWidth="1" min="4" max="4" width="22.5"/>
-    <col customWidth="1" min="5" max="5" width="20.5"/>
-    <col customWidth="1" min="6" max="6" width="12.5"/>
+    <col min="1" max="1" width="20.21875" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" customWidth="1"/>
+    <col min="3" max="3" width="25.33203125" customWidth="1"/>
+    <col min="4" max="4" width="22.44140625" customWidth="1"/>
+    <col min="5" max="5" width="20.44140625" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5">
       <c r="A1" s="26" t="s">
         <v>122</v>
       </c>
@@ -6749,7 +6648,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5">
       <c r="A2" s="33" t="s">
         <v>159</v>
       </c>
@@ -6762,7 +6661,7 @@
       <c r="D2" s="62"/>
       <c r="E2" s="62"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5">
       <c r="A3" s="33" t="s">
         <v>164</v>
       </c>
@@ -6771,7 +6670,7 @@
       <c r="D3" s="63"/>
       <c r="E3" s="63"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:5">
       <c r="A4" s="33" t="s">
         <v>170</v>
       </c>
@@ -6786,7 +6685,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:5">
       <c r="A5" s="39" t="s">
         <v>174</v>
       </c>
@@ -6795,7 +6694,7 @@
       <c r="D5" s="65"/>
       <c r="E5" s="40"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:5">
       <c r="A6" s="41" t="s">
         <v>224</v>
       </c>
@@ -6812,7 +6711,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:5">
       <c r="A7" s="41" t="s">
         <v>224</v>
       </c>
@@ -6829,7 +6728,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:5">
       <c r="A8" s="51" t="s">
         <v>227</v>
       </c>
@@ -6840,13 +6739,13 @@
         <v>228</v>
       </c>
       <c r="D8" s="66">
-        <v>44562.0</v>
+        <v>44562</v>
       </c>
       <c r="E8" s="66">
-        <v>45658.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>45658</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="51" t="s">
         <v>227</v>
       </c>
@@ -6857,13 +6756,13 @@
         <v>229</v>
       </c>
       <c r="D9" s="66">
-        <v>44562.0</v>
+        <v>44562</v>
       </c>
       <c r="E9" s="66">
-        <v>46023.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>46023</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="41" t="s">
         <v>230</v>
       </c>
@@ -6876,7 +6775,7 @@
       <c r="D10" s="54"/>
       <c r="E10" s="54"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:5">
       <c r="A11" s="41" t="s">
         <v>230</v>
       </c>
@@ -6889,7 +6788,7 @@
       <c r="D11" s="54"/>
       <c r="E11" s="54"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:5">
       <c r="A12" s="41" t="s">
         <v>233</v>
       </c>
@@ -6900,34 +6799,34 @@
         <v>233</v>
       </c>
       <c r="D12" s="67">
-        <v>44927.0</v>
+        <v>44927</v>
       </c>
       <c r="E12" s="67">
-        <v>46388.0</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>46388</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="56"/>
       <c r="B13" s="57"/>
       <c r="C13" s="57"/>
       <c r="D13" s="57"/>
       <c r="E13" s="57"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:5">
       <c r="A14" s="56"/>
       <c r="B14" s="57"/>
       <c r="C14" s="57"/>
       <c r="D14" s="57"/>
       <c r="E14" s="57"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:5">
       <c r="A15" s="56"/>
       <c r="B15" s="57"/>
       <c r="C15" s="57"/>
       <c r="D15" s="57"/>
       <c r="E15" s="57"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:5">
       <c r="A16" s="56"/>
       <c r="B16" s="57"/>
       <c r="C16" s="57"/>
@@ -6935,28 +6834,29 @@
       <c r="E16" s="57"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="20.13"/>
-    <col customWidth="1" min="2" max="2" width="20.5"/>
-    <col customWidth="1" min="3" max="3" width="26.75"/>
-    <col customWidth="1" min="4" max="4" width="20.5"/>
-    <col customWidth="1" min="5" max="5" width="21.5"/>
+    <col min="1" max="1" width="20.109375" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" customWidth="1"/>
+    <col min="3" max="3" width="26.77734375" customWidth="1"/>
+    <col min="4" max="4" width="20.44140625" customWidth="1"/>
+    <col min="5" max="5" width="21.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6">
       <c r="A1" s="26" t="s">
         <v>130</v>
       </c>
@@ -6976,7 +6876,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:6">
       <c r="A2" s="33" t="s">
         <v>159</v>
       </c>
@@ -6990,7 +6890,7 @@
       <c r="E2" s="68"/>
       <c r="F2" s="34"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:6">
       <c r="A3" s="33" t="s">
         <v>164</v>
       </c>
@@ -7000,7 +6900,7 @@
       <c r="E3" s="34"/>
       <c r="F3" s="34"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:6">
       <c r="A4" s="33" t="s">
         <v>170</v>
       </c>
@@ -7018,7 +6918,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:6">
       <c r="A5" s="39" t="s">
         <v>174</v>
       </c>
@@ -7028,7 +6928,7 @@
       <c r="E5" s="40"/>
       <c r="F5" s="40"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:6">
       <c r="A6" s="41" t="s">
         <v>239</v>
       </c>
@@ -7048,7 +6948,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:6">
       <c r="A7" s="41" t="s">
         <v>239</v>
       </c>
@@ -7068,7 +6968,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:6">
       <c r="A8" s="51" t="s">
         <v>244</v>
       </c>
@@ -7082,13 +6982,13 @@
         <v>246</v>
       </c>
       <c r="E8" s="66">
-        <v>44562.0</v>
+        <v>44562</v>
       </c>
       <c r="F8" s="66">
-        <v>45658.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>45658</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="51" t="s">
         <v>244</v>
       </c>
@@ -7102,13 +7002,13 @@
         <v>248</v>
       </c>
       <c r="E9" s="66">
-        <v>44562.0</v>
+        <v>44562</v>
       </c>
       <c r="F9" s="66">
-        <v>46023.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>46023</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="41" t="s">
         <v>249</v>
       </c>
@@ -7122,7 +7022,7 @@
       <c r="E10" s="54"/>
       <c r="F10" s="54"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:6">
       <c r="A11" s="41" t="s">
         <v>249</v>
       </c>
@@ -7136,7 +7036,7 @@
       <c r="E11" s="54"/>
       <c r="F11" s="49"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:6">
       <c r="A12" s="41" t="s">
         <v>252</v>
       </c>
@@ -7150,34 +7050,35 @@
         <v>253</v>
       </c>
       <c r="E12" s="67">
-        <v>44927.0</v>
+        <v>44927</v>
       </c>
       <c r="F12" s="67">
-        <v>46388.0</v>
+        <v>46388</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="22.25"/>
-    <col customWidth="1" min="2" max="2" width="15.5"/>
-    <col customWidth="1" min="4" max="4" width="26.13"/>
-    <col customWidth="1" min="6" max="6" width="20.5"/>
+    <col min="1" max="1" width="22.21875" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="26.109375" customWidth="1"/>
+    <col min="6" max="6" width="20.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:14">
       <c r="A1" s="26" t="s">
         <v>138</v>
       </c>
@@ -7221,7 +7122,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:14">
       <c r="A2" s="33" t="s">
         <v>159</v>
       </c>
@@ -7243,7 +7144,7 @@
       <c r="M2" s="34"/>
       <c r="N2" s="34"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:14">
       <c r="A3" s="33" t="s">
         <v>164</v>
       </c>
@@ -7263,7 +7164,7 @@
       <c r="M3" s="34"/>
       <c r="N3" s="34"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:14">
       <c r="A4" s="33" t="s">
         <v>256</v>
       </c>
@@ -7283,26 +7184,33 @@
       <c r="M4" s="70"/>
       <c r="N4" s="70"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:14">
       <c r="A5" s="33" t="s">
         <v>170</v>
       </c>
       <c r="B5" s="34"/>
       <c r="C5" s="34"/>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="101" t="s">
         <v>258</v>
       </c>
+      <c r="E5" s="102"/>
+      <c r="F5" s="102"/>
+      <c r="G5" s="102"/>
       <c r="H5" s="38" t="s">
         <v>259</v>
       </c>
       <c r="I5" s="35" t="s">
         <v>260</v>
       </c>
-      <c r="J5" s="38" t="s">
+      <c r="J5" s="101" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="6">
+      <c r="K5" s="102"/>
+      <c r="L5" s="102"/>
+      <c r="M5" s="102"/>
+      <c r="N5" s="102"/>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="39" t="s">
         <v>174</v>
       </c>
@@ -7320,7 +7228,7 @@
       <c r="M6" s="40"/>
       <c r="N6" s="40"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:14">
       <c r="A7" s="41" t="s">
         <v>262</v>
       </c>
@@ -7328,7 +7236,7 @@
         <v>263</v>
       </c>
       <c r="C7" s="71">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D7" s="42" t="s">
         <v>264</v>
@@ -7364,7 +7272,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:14">
       <c r="A8" s="41" t="s">
         <v>262</v>
       </c>
@@ -7372,7 +7280,7 @@
         <v>263</v>
       </c>
       <c r="C8" s="71">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D8" s="42" t="s">
         <v>266</v>
@@ -7408,15 +7316,15 @@
         <v>188</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:14">
       <c r="A9" s="51" t="s">
         <v>267</v>
       </c>
       <c r="B9" s="71">
-        <v>1001.0</v>
+        <v>1001</v>
       </c>
       <c r="C9" s="71">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D9" s="47" t="s">
         <v>268</v>
@@ -7431,10 +7339,10 @@
         <v>186</v>
       </c>
       <c r="H9" s="72">
-        <v>44562.0</v>
+        <v>44562</v>
       </c>
       <c r="I9" s="72">
-        <v>45659.0</v>
+        <v>45659</v>
       </c>
       <c r="J9" s="73" t="s">
         <v>185</v>
@@ -7452,15 +7360,15 @@
         <v>188</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:14">
       <c r="A10" s="51" t="s">
         <v>267</v>
       </c>
       <c r="B10" s="71">
-        <v>1002.0</v>
+        <v>1002</v>
       </c>
       <c r="C10" s="71">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D10" s="42" t="s">
         <v>269</v>
@@ -7475,10 +7383,10 @@
         <v>186</v>
       </c>
       <c r="H10" s="72">
-        <v>44562.0</v>
+        <v>44562</v>
       </c>
       <c r="I10" s="72">
-        <v>46025.0</v>
+        <v>46025</v>
       </c>
       <c r="J10" s="73" t="s">
         <v>184</v>
@@ -7496,12 +7404,12 @@
         <v>188</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:14">
       <c r="A11" s="41" t="s">
         <v>270</v>
       </c>
       <c r="B11" s="71">
-        <v>1003.0</v>
+        <v>1003</v>
       </c>
       <c r="C11" s="54"/>
       <c r="D11" s="42" t="s">
@@ -7522,12 +7430,12 @@
       <c r="M11" s="54"/>
       <c r="N11" s="54"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:14">
       <c r="A12" s="41" t="s">
         <v>270</v>
       </c>
       <c r="B12" s="71">
-        <v>1004.0</v>
+        <v>1004</v>
       </c>
       <c r="C12" s="49"/>
       <c r="D12" s="42" t="s">
@@ -7548,15 +7456,15 @@
       <c r="M12" s="49"/>
       <c r="N12" s="49"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:14">
       <c r="A13" s="41" t="s">
         <v>273</v>
       </c>
       <c r="B13" s="71">
-        <v>1005.0</v>
+        <v>1005</v>
       </c>
       <c r="C13" s="71">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D13" s="42" t="s">
         <v>274</v>
@@ -7571,10 +7479,10 @@
         <v>186</v>
       </c>
       <c r="H13" s="67">
-        <v>44927.0</v>
+        <v>44927</v>
       </c>
       <c r="I13" s="67">
-        <v>46390.0</v>
+        <v>46390</v>
       </c>
       <c r="J13" s="43" t="s">
         <v>184</v>
@@ -7592,7 +7500,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:14">
       <c r="A14" s="56"/>
       <c r="B14" s="57"/>
       <c r="C14" s="57"/>
@@ -7608,7 +7516,7 @@
       <c r="M14" s="57"/>
       <c r="N14" s="57"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:14">
       <c r="A15" s="56"/>
       <c r="B15" s="57"/>
       <c r="C15" s="57"/>
@@ -7624,7 +7532,7 @@
       <c r="M15" s="57"/>
       <c r="N15" s="57"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:14">
       <c r="A16" s="56"/>
       <c r="B16" s="57"/>
       <c r="C16" s="57"/>
@@ -7645,29 +7553,30 @@
     <mergeCell ref="D5:G5"/>
     <mergeCell ref="J5:N5"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:BB6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="16.63"/>
-    <col customWidth="1" min="2" max="2" width="24.75"/>
-    <col customWidth="1" min="3" max="3" width="23.5"/>
-    <col customWidth="1" min="4" max="4" width="25.38"/>
-    <col customWidth="1" min="5" max="5" width="30.88"/>
-    <col customWidth="1" min="47" max="47" width="21.63"/>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="24.77734375" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" customWidth="1"/>
+    <col min="5" max="5" width="30.88671875" customWidth="1"/>
+    <col min="47" max="47" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:54">
       <c r="A1" s="75" t="s">
         <v>12</v>
       </c>
@@ -7831,7 +7740,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:54">
       <c r="A2" s="82" t="s">
         <v>159</v>
       </c>
@@ -7905,7 +7814,7 @@
       <c r="BA2" s="84"/>
       <c r="BB2" s="84"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:54">
       <c r="A3" s="82" t="s">
         <v>164</v>
       </c>
@@ -7965,7 +7874,7 @@
       <c r="BA3" s="84"/>
       <c r="BB3" s="84"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:54">
       <c r="A4" s="82" t="s">
         <v>170</v>
       </c>
@@ -8023,7 +7932,7 @@
       <c r="BA4" s="84"/>
       <c r="BB4" s="84"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:54">
       <c r="A5" s="87" t="s">
         <v>174</v>
       </c>
@@ -8081,7 +7990,7 @@
       <c r="BA5" s="88"/>
       <c r="BB5" s="88"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:54">
       <c r="A6" s="90" t="s">
         <v>276</v>
       </c>
@@ -8116,7 +8025,7 @@
         <v>282</v>
       </c>
       <c r="L6" s="92">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="M6" s="93"/>
       <c r="N6" s="47" t="s">
@@ -8129,7 +8038,7 @@
         <v>185</v>
       </c>
       <c r="Q6" s="92">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="R6" s="47" t="s">
         <v>184</v>
@@ -8147,7 +8056,7 @@
         <v>185</v>
       </c>
       <c r="W6" s="92">
-        <v>200.0</v>
+        <v>200</v>
       </c>
       <c r="X6" s="59"/>
       <c r="Y6" s="44" t="s">
@@ -8190,13 +8099,13 @@
         <v>188</v>
       </c>
       <c r="AL6" s="92">
-        <v>1010128.0</v>
+        <v>1010128</v>
       </c>
       <c r="AM6" s="92">
-        <v>6060628.0</v>
+        <v>6060628</v>
       </c>
       <c r="AN6" s="92">
-        <v>9090928.0</v>
+        <v>9090928</v>
       </c>
       <c r="AO6" s="47" t="s">
         <v>279</v>
@@ -8221,7 +8130,7 @@
         <v>185</v>
       </c>
       <c r="AW6" s="92">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AX6" s="47" t="s">
         <v>287</v>
@@ -8240,25 +8149,26 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:C47"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="27.88"/>
-    <col customWidth="1" min="3" max="3" width="77.38"/>
+    <col min="2" max="2" width="27.88671875" customWidth="1"/>
+    <col min="3" max="3" width="77.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3">
       <c r="A1" s="28" t="s">
         <v>288</v>
       </c>
@@ -8269,7 +8179,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3">
       <c r="A2" s="48" t="s">
         <v>11</v>
       </c>
@@ -8280,7 +8190,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3">
       <c r="A3" s="42" t="s">
         <v>293</v>
       </c>
@@ -8291,7 +8201,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3">
       <c r="A4" s="42" t="s">
         <v>293</v>
       </c>
@@ -8302,7 +8212,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3">
       <c r="A5" s="42" t="s">
         <v>293</v>
       </c>
@@ -8313,7 +8223,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3">
       <c r="A6" s="48" t="s">
         <v>11</v>
       </c>
@@ -8324,7 +8234,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:3">
       <c r="A7" s="48" t="s">
         <v>11</v>
       </c>
@@ -8335,7 +8245,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:3">
       <c r="A8" s="48" t="s">
         <v>11</v>
       </c>
@@ -8346,7 +8256,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:3">
       <c r="A9" s="48" t="s">
         <v>11</v>
       </c>
@@ -8357,7 +8267,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:3">
       <c r="A10" s="95" t="s">
         <v>308</v>
       </c>
@@ -8368,7 +8278,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:3">
       <c r="A11" s="95" t="s">
         <v>308</v>
       </c>
@@ -8379,7 +8289,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:3">
       <c r="A12" s="95" t="s">
         <v>308</v>
       </c>
@@ -8390,7 +8300,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:3">
       <c r="A13" s="95" t="s">
         <v>308</v>
       </c>
@@ -8401,7 +8311,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:3">
       <c r="A14" s="95" t="s">
         <v>308</v>
       </c>
@@ -8412,7 +8322,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:3">
       <c r="A15" s="95" t="s">
         <v>308</v>
       </c>
@@ -8423,7 +8333,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:3">
       <c r="A16" s="95" t="s">
         <v>308</v>
       </c>
@@ -8434,7 +8344,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:3">
       <c r="A17" s="97" t="s">
         <v>323</v>
       </c>
@@ -8445,7 +8355,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:3">
       <c r="A18" s="97" t="s">
         <v>323</v>
       </c>
@@ -8456,7 +8366,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:3">
       <c r="A19" s="97" t="s">
         <v>323</v>
       </c>
@@ -8467,7 +8377,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:3">
       <c r="A20" s="97" t="s">
         <v>323</v>
       </c>
@@ -8478,7 +8388,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:3">
       <c r="A21" s="97" t="s">
         <v>323</v>
       </c>
@@ -8489,7 +8399,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:3">
       <c r="A22" s="97" t="s">
         <v>323</v>
       </c>
@@ -8500,7 +8410,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:3">
       <c r="A23" s="97" t="s">
         <v>323</v>
       </c>
@@ -8511,7 +8421,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:3">
       <c r="A24" s="97" t="s">
         <v>323</v>
       </c>
@@ -8522,7 +8432,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:3">
       <c r="A25" s="98" t="s">
         <v>337</v>
       </c>
@@ -8533,7 +8443,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:3">
       <c r="A26" s="98" t="s">
         <v>337</v>
       </c>
@@ -8544,7 +8454,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:3">
       <c r="A27" s="98" t="s">
         <v>337</v>
       </c>
@@ -8555,7 +8465,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:3">
       <c r="A28" s="98" t="s">
         <v>337</v>
       </c>
@@ -8566,7 +8476,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:3">
       <c r="A29" s="98" t="s">
         <v>337</v>
       </c>
@@ -8577,7 +8487,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:3">
       <c r="A30" s="98" t="s">
         <v>337</v>
       </c>
@@ -8588,7 +8498,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:3">
       <c r="A31" s="98" t="s">
         <v>337</v>
       </c>
@@ -8599,7 +8509,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:3">
       <c r="A32" s="98" t="s">
         <v>337</v>
       </c>
@@ -8610,7 +8520,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:3">
       <c r="A33" s="98" t="s">
         <v>337</v>
       </c>
@@ -8621,7 +8531,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:3">
       <c r="A34" s="42" t="s">
         <v>293</v>
       </c>
@@ -8632,7 +8542,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:3">
       <c r="A35" s="42" t="s">
         <v>293</v>
       </c>
@@ -8643,7 +8553,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:3">
       <c r="A36" s="42" t="s">
         <v>293</v>
       </c>
@@ -8654,7 +8564,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:3">
       <c r="A37" s="42" t="s">
         <v>293</v>
       </c>
@@ -8665,7 +8575,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:3">
       <c r="A38" s="42" t="s">
         <v>293</v>
       </c>
@@ -8676,7 +8586,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:3">
       <c r="A39" s="42" t="s">
         <v>293</v>
       </c>
@@ -8687,7 +8597,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:3">
       <c r="A40" s="42" t="s">
         <v>293</v>
       </c>
@@ -8698,7 +8608,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:3">
       <c r="A41" s="42" t="s">
         <v>293</v>
       </c>
@@ -8709,7 +8619,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:3">
       <c r="A42" s="42" t="s">
         <v>293</v>
       </c>
@@ -8720,7 +8630,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:3">
       <c r="A43" s="42" t="s">
         <v>293</v>
       </c>
@@ -8731,7 +8641,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:3">
       <c r="A44" s="42" t="s">
         <v>293</v>
       </c>
@@ -8742,7 +8652,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:3">
       <c r="A45" s="42" t="s">
         <v>293</v>
       </c>
@@ -8753,7 +8663,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:3">
       <c r="A46" s="42" t="s">
         <v>293</v>
       </c>
@@ -8764,7 +8674,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:3">
       <c r="A47" s="42" t="s">
         <v>293</v>
       </c>
@@ -8776,6 +8686,6 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/TNR_JDD/RO/JDD.RO.ACT.xlsx
+++ b/TNR_JDD/RO/JDD.RO.ACT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="612" yWindow="588" windowWidth="21852" windowHeight="8940" activeTab="2"/>
+    <workbookView xWindow="612" yWindow="588" windowWidth="21852" windowHeight="8940" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Version" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="394">
   <si>
     <t>Date</t>
   </si>
@@ -865,9 +865,6 @@
     <t>RO.ACT.005.FON.01.............</t>
   </si>
   <si>
-    <t>$VIDE</t>
-  </si>
-  <si>
     <t>PABOCOU</t>
   </si>
   <si>
@@ -1093,85 +1090,124 @@
     <t>a_Acteur</t>
   </si>
   <si>
-    <t>//li[@class ='nav-item']//a[@ml-text3='ID_CODINT']</t>
-  </si>
-  <si>
     <t>a_ActeurSelected</t>
   </si>
   <si>
-    <t>//li[@class ='nav-item']//a[@ml-text3='ID_CODINT' and starts-with(@class,'nav-link active')]</t>
-  </si>
-  <si>
     <t>a_Affectation</t>
   </si>
   <si>
-    <t>//li[@class ='nav-item']//a[@ml-text3='affectation']</t>
-  </si>
-  <si>
     <t>a_AffectationSelected</t>
   </si>
   <si>
-    <t>//li[@class ='nav-item']//a[@ml-text3='affectation' and starts-with(@class,'nav-link active')]</t>
-  </si>
-  <si>
     <t>a_Role</t>
   </si>
   <si>
-    <t>//li[@class ='nav-item']//a[@ml-text3='role']</t>
-  </si>
-  <si>
     <t>a_RoleSelected</t>
   </si>
   <si>
-    <t>//li[@class ='nav-item']//a[@ml-text3='role' and starts-with(@class,'nav-link active')]</t>
-  </si>
-  <si>
     <t>a_Preventif</t>
   </si>
   <si>
-    <t>//li[@class ='nav-item']//a[@ml-text3='preventif']</t>
-  </si>
-  <si>
     <t>a_PreventifSelected</t>
   </si>
   <si>
-    <t>//li[@class ='nav-item']//a[@ml-text3='preventif' and starts-with(@class,'nav-link active')]</t>
-  </si>
-  <si>
     <t>a_Habilitation</t>
   </si>
   <si>
-    <t>//li[@class ='nav-item']//a[@ml-text3='ID_CODHAB']</t>
-  </si>
-  <si>
     <t>a_HabilitationSelected</t>
   </si>
   <si>
-    <t>//li[@class ='nav-item']//a[@ml-text3='ID_CODHAB' and starts-with(@class,'nav-link active')]</t>
-  </si>
-  <si>
     <t>a_Metier</t>
   </si>
   <si>
-    <t>//li[@class ='nav-item']//a[@ml-text3='ID_CODMET']</t>
-  </si>
-  <si>
     <t>a_MetierSelected</t>
   </si>
   <si>
-    <t>//li[@class ='nav-item']//a[@ml-text3='ID_CODMET' and starts-with(@class,'nav-link active')]</t>
-  </si>
-  <si>
     <t>a_Zone</t>
   </si>
   <si>
-    <t>//li[@class ='nav-item']//a[@ml-text3='ID_NUMZON']</t>
-  </si>
-  <si>
     <t>a_ZoneSelected</t>
   </si>
   <si>
-    <t>//li[@class ='nav-item']//a[@ml-text3='ID_NUMZON' and starts-with(@class,'nav-link active')]</t>
+    <t>01010128</t>
+  </si>
+  <si>
+    <t>06060628</t>
+  </si>
+  <si>
+    <t>09090928</t>
+  </si>
+  <si>
+    <t>005</t>
+  </si>
+  <si>
+    <t>a_Copy</t>
+  </si>
+  <si>
+    <t>//li[@id='FormE21__copy']/a</t>
+  </si>
+  <si>
+    <t>//li[@class ='nav-item']/a[@ml-text3='ID_CODINT']</t>
+  </si>
+  <si>
+    <t>//li[@class ='nav-item']/a[@ml-text3='ID_CODINT' and starts-with(@class,'nav-link active')]</t>
+  </si>
+  <si>
+    <t>//li[@class ='nav-item']/a[@ml-text3='affectation']</t>
+  </si>
+  <si>
+    <t>//li[@class ='nav-item']/a[@ml-text3='affectation' and starts-with(@class,'nav-link active')]</t>
+  </si>
+  <si>
+    <t>//li[@class ='nav-item']/a[@ml-text3='role']</t>
+  </si>
+  <si>
+    <t>//li[@class ='nav-item']/a[@ml-text3='role' and starts-with(@class,'nav-link active')]</t>
+  </si>
+  <si>
+    <t>//li[@class ='nav-item']/a[@ml-text3='preventif']</t>
+  </si>
+  <si>
+    <t>//li[@class ='nav-item']/a[@ml-text3='preventif' and starts-with(@class,'nav-link active')]</t>
+  </si>
+  <si>
+    <t>//li[@class ='nav-item']/a[@ml-text3='ID_CODHAB']</t>
+  </si>
+  <si>
+    <t>//li[@class ='nav-item']/a[@ml-text3='ID_CODHAB' and starts-with(@class,'nav-link active')]</t>
+  </si>
+  <si>
+    <t>//li[@class ='nav-item']/a[@ml-text3='ID_CODMET']</t>
+  </si>
+  <si>
+    <t>//li[@class ='nav-item']/a[@ml-text3='ID_CODMET' and starts-with(@class,'nav-link active')]</t>
+  </si>
+  <si>
+    <t>//li[@class ='nav-item']/a[@ml-text3='ID_NUMZON']</t>
+  </si>
+  <si>
+    <t>//li[@class ='nav-item']/a[@ml-text3='ID_NUMZON' and starts-with(@class,'nav-link active')]</t>
+  </si>
+  <si>
+    <t>input_ID_COD</t>
+  </si>
+  <si>
+    <t>//input[@id='ID_COD']</t>
+  </si>
+  <si>
+    <t>//input[@id='ST_NOMNEW']</t>
+  </si>
+  <si>
+    <t>//input[@id='ST_PRENEW']</t>
+  </si>
+  <si>
+    <t>//button[@value='Valider']</t>
+  </si>
+  <si>
+    <t>input_ST_PRENEW</t>
+  </si>
+  <si>
+    <t>input_ST_NOMNEW</t>
   </si>
 </sst>
 </file>
@@ -1266,7 +1302,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="22">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1393,6 +1429,12 @@
         <bgColor rgb="FFFDE39B"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor rgb="FFFDE39B"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -1428,7 +1470,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1612,12 +1654,6 @@
     <xf numFmtId="0" fontId="14" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1627,7 +1663,6 @@
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1644,6 +1679,15 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4965,13 +5009,14 @@
   </sheetPr>
   <dimension ref="A1:BE18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:BE6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
     <col min="3" max="3" width="32.88671875" customWidth="1"/>
     <col min="4" max="4" width="24.6640625" customWidth="1"/>
     <col min="5" max="5" width="20.88671875" customWidth="1"/>
@@ -5282,10 +5327,10 @@
       <c r="AS3" s="34"/>
       <c r="AT3" s="34"/>
       <c r="AU3" s="34"/>
-      <c r="AV3" s="101" t="s">
+      <c r="AV3" s="100" t="s">
         <v>166</v>
       </c>
-      <c r="AW3" s="102"/>
+      <c r="AW3" s="101"/>
       <c r="AX3" s="34"/>
       <c r="AY3" s="34"/>
       <c r="AZ3" s="34"/>
@@ -5519,7 +5564,7 @@
       <c r="E6" s="42" t="s">
         <v>175</v>
       </c>
-      <c r="F6" s="100" t="s">
+      <c r="F6" s="97" t="s">
         <v>175</v>
       </c>
       <c r="G6" s="44" t="s">
@@ -7190,25 +7235,25 @@
       </c>
       <c r="B5" s="34"/>
       <c r="C5" s="34"/>
-      <c r="D5" s="101" t="s">
+      <c r="D5" s="100" t="s">
         <v>258</v>
       </c>
-      <c r="E5" s="102"/>
-      <c r="F5" s="102"/>
-      <c r="G5" s="102"/>
+      <c r="E5" s="101"/>
+      <c r="F5" s="101"/>
+      <c r="G5" s="101"/>
       <c r="H5" s="38" t="s">
         <v>259</v>
       </c>
       <c r="I5" s="35" t="s">
         <v>260</v>
       </c>
-      <c r="J5" s="101" t="s">
+      <c r="J5" s="100" t="s">
         <v>261</v>
       </c>
-      <c r="K5" s="102"/>
-      <c r="L5" s="102"/>
-      <c r="M5" s="102"/>
-      <c r="N5" s="102"/>
+      <c r="K5" s="101"/>
+      <c r="L5" s="101"/>
+      <c r="M5" s="101"/>
+      <c r="N5" s="101"/>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="39" t="s">
@@ -7564,15 +7609,18 @@
   </sheetPr>
   <dimension ref="A1:BB6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="18.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.77734375" customWidth="1"/>
     <col min="3" max="3" width="23.44140625" customWidth="1"/>
     <col min="4" max="4" width="25.33203125" customWidth="1"/>
     <col min="5" max="5" width="30.88671875" customWidth="1"/>
+    <col min="35" max="35" width="12.5546875" customWidth="1"/>
     <col min="47" max="47" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7747,251 +7795,325 @@
       <c r="B2" s="83" t="s">
         <v>219</v>
       </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="83" t="s">
+      <c r="C2" s="98"/>
+      <c r="D2" s="98" t="s">
         <v>160</v>
       </c>
-      <c r="E2" s="83" t="s">
+      <c r="E2" s="98" t="s">
         <v>160</v>
       </c>
-      <c r="F2" s="83" t="s">
+      <c r="F2" s="98" t="s">
         <v>161</v>
       </c>
-      <c r="G2" s="83" t="s">
+      <c r="G2" s="98" t="s">
         <v>162</v>
       </c>
-      <c r="H2" s="83"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="84"/>
-      <c r="N2" s="84"/>
-      <c r="O2" s="84"/>
-      <c r="P2" s="84"/>
-      <c r="Q2" s="84"/>
-      <c r="R2" s="84"/>
-      <c r="S2" s="84"/>
-      <c r="T2" s="84"/>
-      <c r="U2" s="84"/>
-      <c r="V2" s="84"/>
-      <c r="W2" s="84"/>
-      <c r="X2" s="85" t="s">
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="98" t="s">
+        <v>160</v>
+      </c>
+      <c r="N2" s="98"/>
+      <c r="O2" s="98"/>
+      <c r="P2" s="98"/>
+      <c r="Q2" s="98"/>
+      <c r="R2" s="98"/>
+      <c r="S2" s="98"/>
+      <c r="T2" s="98"/>
+      <c r="U2" s="98"/>
+      <c r="V2" s="98"/>
+      <c r="W2" s="98"/>
+      <c r="X2" s="37" t="s">
         <v>163</v>
       </c>
-      <c r="Y2" s="84"/>
-      <c r="Z2" s="84"/>
-      <c r="AA2" s="84"/>
-      <c r="AB2" s="84"/>
-      <c r="AC2" s="84"/>
-      <c r="AD2" s="84"/>
-      <c r="AE2" s="84"/>
-      <c r="AF2" s="84"/>
-      <c r="AG2" s="84"/>
-      <c r="AH2" s="84"/>
-      <c r="AI2" s="84"/>
-      <c r="AJ2" s="84"/>
-      <c r="AK2" s="84"/>
-      <c r="AL2" s="84"/>
-      <c r="AM2" s="84"/>
-      <c r="AN2" s="84"/>
-      <c r="AO2" s="84"/>
-      <c r="AP2" s="85" t="s">
+      <c r="Y2" s="98"/>
+      <c r="Z2" s="98"/>
+      <c r="AA2" s="98"/>
+      <c r="AB2" s="98"/>
+      <c r="AC2" s="98"/>
+      <c r="AD2" s="98"/>
+      <c r="AE2" s="98"/>
+      <c r="AF2" s="98"/>
+      <c r="AG2" s="98"/>
+      <c r="AH2" s="98"/>
+      <c r="AI2" s="98"/>
+      <c r="AJ2" s="98"/>
+      <c r="AK2" s="98"/>
+      <c r="AL2" s="98"/>
+      <c r="AM2" s="98"/>
+      <c r="AN2" s="98"/>
+      <c r="AO2" s="98"/>
+      <c r="AP2" s="37" t="s">
         <v>163</v>
       </c>
-      <c r="AQ2" s="84"/>
-      <c r="AR2" s="84"/>
-      <c r="AS2" s="84"/>
-      <c r="AT2" s="84"/>
-      <c r="AU2" s="83" t="s">
+      <c r="AQ2" s="98"/>
+      <c r="AR2" s="98"/>
+      <c r="AS2" s="98"/>
+      <c r="AT2" s="98"/>
+      <c r="AU2" s="98" t="s">
         <v>160</v>
       </c>
-      <c r="AV2" s="83"/>
-      <c r="AW2" s="84"/>
-      <c r="AX2" s="84"/>
-      <c r="AY2" s="84"/>
-      <c r="AZ2" s="84"/>
-      <c r="BA2" s="84"/>
-      <c r="BB2" s="84"/>
+      <c r="AV2" s="98"/>
+      <c r="AW2" s="98"/>
+      <c r="AX2" s="98"/>
+      <c r="AY2" s="98"/>
+      <c r="AZ2" s="98"/>
+      <c r="BA2" s="98"/>
+      <c r="BB2" s="98"/>
     </row>
     <row r="3" spans="1:54">
       <c r="A3" s="82" t="s">
         <v>164</v>
       </c>
       <c r="B3" s="84"/>
-      <c r="C3" s="84"/>
-      <c r="D3" s="83" t="s">
+      <c r="C3" s="98"/>
+      <c r="D3" s="98" t="s">
         <v>165</v>
       </c>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
-      <c r="M3" s="84"/>
-      <c r="N3" s="84"/>
-      <c r="O3" s="84"/>
-      <c r="P3" s="84"/>
-      <c r="Q3" s="84"/>
-      <c r="R3" s="84"/>
-      <c r="S3" s="84"/>
-      <c r="T3" s="84"/>
-      <c r="U3" s="84"/>
-      <c r="V3" s="84"/>
-      <c r="W3" s="84"/>
-      <c r="X3" s="86"/>
-      <c r="Y3" s="84"/>
-      <c r="Z3" s="84"/>
-      <c r="AA3" s="84"/>
-      <c r="AB3" s="84"/>
-      <c r="AC3" s="84"/>
-      <c r="AD3" s="84"/>
-      <c r="AE3" s="84"/>
-      <c r="AF3" s="84"/>
-      <c r="AG3" s="84"/>
-      <c r="AH3" s="84"/>
-      <c r="AI3" s="84"/>
-      <c r="AJ3" s="84"/>
-      <c r="AK3" s="84"/>
-      <c r="AL3" s="84"/>
-      <c r="AM3" s="84"/>
-      <c r="AN3" s="84"/>
-      <c r="AO3" s="84"/>
-      <c r="AP3" s="86"/>
-      <c r="AQ3" s="84"/>
-      <c r="AR3" s="84"/>
-      <c r="AS3" s="84"/>
-      <c r="AT3" s="84"/>
-      <c r="AU3" s="84"/>
-      <c r="AV3" s="84"/>
-      <c r="AW3" s="84"/>
-      <c r="AX3" s="84"/>
-      <c r="AY3" s="84"/>
-      <c r="AZ3" s="84"/>
-      <c r="BA3" s="84"/>
-      <c r="BB3" s="84"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="98"/>
+      <c r="I3" s="98"/>
+      <c r="J3" s="98"/>
+      <c r="K3" s="98"/>
+      <c r="L3" s="98"/>
+      <c r="M3" s="98"/>
+      <c r="N3" s="98"/>
+      <c r="O3" s="98"/>
+      <c r="P3" s="98"/>
+      <c r="Q3" s="98"/>
+      <c r="R3" s="98"/>
+      <c r="S3" s="98"/>
+      <c r="T3" s="98"/>
+      <c r="U3" s="98"/>
+      <c r="V3" s="98"/>
+      <c r="W3" s="98"/>
+      <c r="X3" s="37"/>
+      <c r="Y3" s="98"/>
+      <c r="Z3" s="98"/>
+      <c r="AA3" s="98"/>
+      <c r="AB3" s="98"/>
+      <c r="AC3" s="98"/>
+      <c r="AD3" s="98"/>
+      <c r="AE3" s="98"/>
+      <c r="AF3" s="98"/>
+      <c r="AG3" s="98"/>
+      <c r="AH3" s="98"/>
+      <c r="AI3" s="98"/>
+      <c r="AJ3" s="98"/>
+      <c r="AK3" s="98"/>
+      <c r="AL3" s="98"/>
+      <c r="AM3" s="98"/>
+      <c r="AN3" s="98"/>
+      <c r="AO3" s="98"/>
+      <c r="AP3" s="37"/>
+      <c r="AQ3" s="98"/>
+      <c r="AR3" s="98"/>
+      <c r="AS3" s="98"/>
+      <c r="AT3" s="98"/>
+      <c r="AU3" s="98"/>
+      <c r="AV3" s="98"/>
+      <c r="AW3" s="100" t="s">
+        <v>166</v>
+      </c>
+      <c r="AX3" s="101"/>
+      <c r="AY3" s="98"/>
+      <c r="AZ3" s="98"/>
+      <c r="BA3" s="98"/>
+      <c r="BB3" s="98"/>
     </row>
     <row r="4" spans="1:54">
       <c r="A4" s="82" t="s">
         <v>170</v>
       </c>
       <c r="B4" s="84"/>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
-      <c r="J4" s="84"/>
-      <c r="K4" s="84"/>
-      <c r="L4" s="84"/>
-      <c r="M4" s="84"/>
-      <c r="N4" s="84"/>
-      <c r="O4" s="84"/>
-      <c r="P4" s="84"/>
-      <c r="Q4" s="84"/>
-      <c r="R4" s="84"/>
-      <c r="S4" s="84"/>
-      <c r="T4" s="84"/>
-      <c r="U4" s="84"/>
-      <c r="V4" s="84"/>
-      <c r="W4" s="84"/>
-      <c r="X4" s="86"/>
-      <c r="Y4" s="84"/>
-      <c r="Z4" s="84"/>
-      <c r="AA4" s="84"/>
-      <c r="AB4" s="84"/>
-      <c r="AC4" s="84"/>
-      <c r="AD4" s="84"/>
-      <c r="AE4" s="84"/>
-      <c r="AF4" s="84"/>
-      <c r="AG4" s="84"/>
-      <c r="AH4" s="84"/>
-      <c r="AI4" s="84"/>
-      <c r="AJ4" s="84"/>
-      <c r="AK4" s="84"/>
-      <c r="AL4" s="84"/>
-      <c r="AM4" s="84"/>
-      <c r="AN4" s="84"/>
-      <c r="AO4" s="84"/>
-      <c r="AP4" s="86"/>
-      <c r="AQ4" s="84"/>
-      <c r="AR4" s="84"/>
-      <c r="AS4" s="84"/>
-      <c r="AT4" s="84"/>
-      <c r="AU4" s="84"/>
-      <c r="AV4" s="84"/>
-      <c r="AW4" s="84"/>
-      <c r="AX4" s="84"/>
-      <c r="AY4" s="84"/>
-      <c r="AZ4" s="84"/>
-      <c r="BA4" s="84"/>
-      <c r="BB4" s="84"/>
+      <c r="C4" s="98" t="s">
+        <v>171</v>
+      </c>
+      <c r="D4" s="98"/>
+      <c r="E4" s="98" t="s">
+        <v>171</v>
+      </c>
+      <c r="F4" s="98" t="s">
+        <v>171</v>
+      </c>
+      <c r="G4" s="98" t="s">
+        <v>171</v>
+      </c>
+      <c r="H4" s="98"/>
+      <c r="I4" s="98" t="s">
+        <v>171</v>
+      </c>
+      <c r="J4" s="98" t="s">
+        <v>171</v>
+      </c>
+      <c r="K4" s="98" t="s">
+        <v>171</v>
+      </c>
+      <c r="L4" s="98" t="s">
+        <v>171</v>
+      </c>
+      <c r="M4" s="98"/>
+      <c r="N4" s="98" t="s">
+        <v>171</v>
+      </c>
+      <c r="O4" s="98" t="s">
+        <v>171</v>
+      </c>
+      <c r="P4" s="98" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q4" s="98" t="s">
+        <v>171</v>
+      </c>
+      <c r="R4" s="98" t="s">
+        <v>171</v>
+      </c>
+      <c r="S4" s="98" t="s">
+        <v>171</v>
+      </c>
+      <c r="T4" s="98" t="s">
+        <v>171</v>
+      </c>
+      <c r="U4" s="98" t="s">
+        <v>171</v>
+      </c>
+      <c r="V4" s="98" t="s">
+        <v>171</v>
+      </c>
+      <c r="W4" s="98" t="s">
+        <v>171</v>
+      </c>
+      <c r="X4" s="37"/>
+      <c r="Y4" s="98"/>
+      <c r="Z4" s="98"/>
+      <c r="AA4" s="98" t="s">
+        <v>171</v>
+      </c>
+      <c r="AB4" s="98"/>
+      <c r="AC4" s="98" t="s">
+        <v>171</v>
+      </c>
+      <c r="AD4" s="98" t="s">
+        <v>171</v>
+      </c>
+      <c r="AE4" s="98" t="s">
+        <v>171</v>
+      </c>
+      <c r="AF4" s="98" t="s">
+        <v>171</v>
+      </c>
+      <c r="AG4" s="98" t="s">
+        <v>171</v>
+      </c>
+      <c r="AH4" s="98" t="s">
+        <v>171</v>
+      </c>
+      <c r="AI4" s="98"/>
+      <c r="AJ4" s="98"/>
+      <c r="AK4" s="98"/>
+      <c r="AL4" s="98" t="s">
+        <v>171</v>
+      </c>
+      <c r="AM4" s="98" t="s">
+        <v>171</v>
+      </c>
+      <c r="AN4" s="98" t="s">
+        <v>171</v>
+      </c>
+      <c r="AO4" s="98"/>
+      <c r="AP4" s="37"/>
+      <c r="AQ4" s="98"/>
+      <c r="AR4" s="98" t="s">
+        <v>171</v>
+      </c>
+      <c r="AS4" s="98" t="s">
+        <v>171</v>
+      </c>
+      <c r="AT4" s="98" t="s">
+        <v>171</v>
+      </c>
+      <c r="AU4" s="98" t="s">
+        <v>171</v>
+      </c>
+      <c r="AV4" s="98" t="s">
+        <v>171</v>
+      </c>
+      <c r="AW4" s="98" t="s">
+        <v>172</v>
+      </c>
+      <c r="AX4" s="98" t="s">
+        <v>173</v>
+      </c>
+      <c r="AY4" s="98"/>
+      <c r="AZ4" s="98"/>
+      <c r="BA4" s="98"/>
+      <c r="BB4" s="98"/>
     </row>
     <row r="5" spans="1:54">
-      <c r="A5" s="87" t="s">
+      <c r="A5" s="85" t="s">
         <v>174</v>
       </c>
-      <c r="B5" s="88"/>
-      <c r="C5" s="88"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="88"/>
-      <c r="G5" s="88"/>
-      <c r="H5" s="88"/>
-      <c r="I5" s="88"/>
-      <c r="J5" s="88"/>
-      <c r="K5" s="88"/>
-      <c r="L5" s="88"/>
-      <c r="M5" s="88"/>
-      <c r="N5" s="88"/>
-      <c r="O5" s="88"/>
-      <c r="P5" s="88"/>
-      <c r="Q5" s="88"/>
-      <c r="R5" s="88"/>
-      <c r="S5" s="88"/>
-      <c r="T5" s="88"/>
-      <c r="U5" s="88"/>
-      <c r="V5" s="88"/>
-      <c r="W5" s="88"/>
-      <c r="X5" s="89"/>
-      <c r="Y5" s="88"/>
-      <c r="Z5" s="88"/>
-      <c r="AA5" s="88"/>
-      <c r="AB5" s="88"/>
-      <c r="AC5" s="88"/>
-      <c r="AD5" s="88"/>
-      <c r="AE5" s="88"/>
-      <c r="AF5" s="88"/>
-      <c r="AG5" s="88"/>
-      <c r="AH5" s="88"/>
-      <c r="AI5" s="88"/>
-      <c r="AJ5" s="88"/>
-      <c r="AK5" s="88"/>
-      <c r="AL5" s="88"/>
-      <c r="AM5" s="88"/>
-      <c r="AN5" s="88"/>
-      <c r="AO5" s="88"/>
-      <c r="AP5" s="89"/>
-      <c r="AQ5" s="88"/>
-      <c r="AR5" s="88"/>
-      <c r="AS5" s="88"/>
-      <c r="AT5" s="88"/>
-      <c r="AU5" s="88"/>
-      <c r="AV5" s="88"/>
-      <c r="AW5" s="88"/>
-      <c r="AX5" s="88"/>
-      <c r="AY5" s="88"/>
-      <c r="AZ5" s="88"/>
-      <c r="BA5" s="88"/>
-      <c r="BB5" s="88"/>
+      <c r="B5" s="86"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="86"/>
+      <c r="I5" s="86"/>
+      <c r="J5" s="86"/>
+      <c r="K5" s="86"/>
+      <c r="L5" s="86"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="86"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="86"/>
+      <c r="T5" s="86"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
+      <c r="W5" s="86"/>
+      <c r="X5" s="87"/>
+      <c r="Y5" s="86"/>
+      <c r="Z5" s="86"/>
+      <c r="AA5" s="86"/>
+      <c r="AB5" s="86"/>
+      <c r="AC5" s="86"/>
+      <c r="AD5" s="86"/>
+      <c r="AE5" s="86"/>
+      <c r="AF5" s="86"/>
+      <c r="AG5" s="86"/>
+      <c r="AH5" s="86"/>
+      <c r="AI5" s="86"/>
+      <c r="AJ5" s="86"/>
+      <c r="AK5" s="86"/>
+      <c r="AL5" s="86"/>
+      <c r="AM5" s="86"/>
+      <c r="AN5" s="86"/>
+      <c r="AO5" s="86"/>
+      <c r="AP5" s="87"/>
+      <c r="AQ5" s="86"/>
+      <c r="AR5" s="86"/>
+      <c r="AS5" s="86"/>
+      <c r="AT5" s="86"/>
+      <c r="AU5" s="86"/>
+      <c r="AV5" s="86"/>
+      <c r="AW5" s="86"/>
+      <c r="AX5" s="86"/>
+      <c r="AY5" s="86"/>
+      <c r="AZ5" s="86"/>
+      <c r="BA5" s="86"/>
+      <c r="BB5" s="86"/>
     </row>
     <row r="6" spans="1:54">
-      <c r="A6" s="90" t="s">
+      <c r="A6" s="103" t="s">
         <v>276</v>
       </c>
       <c r="B6" s="47" t="s">
@@ -8000,10 +8122,10 @@
       <c r="C6" s="47" t="s">
         <v>276</v>
       </c>
-      <c r="D6" s="91" t="s">
+      <c r="D6" s="88" t="s">
         <v>278</v>
       </c>
-      <c r="E6" s="91" t="s">
+      <c r="E6" s="88" t="s">
         <v>278</v>
       </c>
       <c r="F6" s="47" t="s">
@@ -8012,32 +8134,32 @@
       <c r="G6" s="47" t="s">
         <v>276</v>
       </c>
-      <c r="H6" s="44" t="s">
+      <c r="H6" s="58" t="s">
+        <v>177</v>
+      </c>
+      <c r="I6" s="47" t="s">
         <v>279</v>
       </c>
-      <c r="I6" s="47" t="s">
+      <c r="J6" s="47" t="s">
         <v>280</v>
       </c>
-      <c r="J6" s="47" t="s">
+      <c r="K6" s="47" t="s">
         <v>281</v>
       </c>
-      <c r="K6" s="47" t="s">
+      <c r="L6" s="89">
+        <v>28</v>
+      </c>
+      <c r="M6" s="90"/>
+      <c r="N6" s="47" t="s">
         <v>282</v>
       </c>
-      <c r="L6" s="92">
-        <v>28</v>
-      </c>
-      <c r="M6" s="93"/>
-      <c r="N6" s="47" t="s">
+      <c r="O6" s="47" t="s">
         <v>283</v>
-      </c>
-      <c r="O6" s="47" t="s">
-        <v>284</v>
       </c>
       <c r="P6" s="47" t="s">
         <v>185</v>
       </c>
-      <c r="Q6" s="92">
+      <c r="Q6" s="89">
         <v>40</v>
       </c>
       <c r="R6" s="47" t="s">
@@ -8055,21 +8177,21 @@
       <c r="V6" s="47" t="s">
         <v>185</v>
       </c>
-      <c r="W6" s="92">
+      <c r="W6" s="89">
         <v>200</v>
       </c>
       <c r="X6" s="59"/>
       <c r="Y6" s="44" t="s">
         <v>186</v>
       </c>
-      <c r="Z6" s="44" t="s">
-        <v>279</v>
+      <c r="Z6" s="58" t="s">
+        <v>177</v>
       </c>
       <c r="AA6" s="47" t="s">
-        <v>285</v>
-      </c>
-      <c r="AB6" s="47" t="s">
-        <v>279</v>
+        <v>284</v>
+      </c>
+      <c r="AB6" s="57" t="s">
+        <v>177</v>
       </c>
       <c r="AC6" s="47" t="s">
         <v>185</v>
@@ -8089,28 +8211,30 @@
       <c r="AH6" s="47" t="s">
         <v>185</v>
       </c>
-      <c r="AI6" s="44" t="s">
+      <c r="AI6" s="58" t="s">
+        <v>186</v>
+      </c>
+      <c r="AJ6" s="58" t="s">
         <v>188</v>
       </c>
-      <c r="AJ6" s="44" t="s">
-        <v>188</v>
-      </c>
-      <c r="AK6" s="44" t="s">
-        <v>188</v>
-      </c>
-      <c r="AL6" s="92">
-        <v>1010128</v>
-      </c>
-      <c r="AM6" s="92">
-        <v>6060628</v>
-      </c>
-      <c r="AN6" s="92">
-        <v>9090928</v>
-      </c>
-      <c r="AO6" s="47" t="s">
-        <v>279</v>
-      </c>
-      <c r="AP6" s="59"/>
+      <c r="AK6" s="58" t="s">
+        <v>177</v>
+      </c>
+      <c r="AL6" s="102" t="s">
+        <v>367</v>
+      </c>
+      <c r="AM6" s="102" t="s">
+        <v>368</v>
+      </c>
+      <c r="AN6" s="102" t="s">
+        <v>369</v>
+      </c>
+      <c r="AO6" s="57" t="s">
+        <v>177</v>
+      </c>
+      <c r="AP6" s="59" t="s">
+        <v>177</v>
+      </c>
       <c r="AQ6" s="44" t="s">
         <v>185</v>
       </c>
@@ -8123,32 +8247,35 @@
       <c r="AT6" s="44" t="s">
         <v>185</v>
       </c>
-      <c r="AU6" s="91" t="s">
-        <v>286</v>
+      <c r="AU6" s="88" t="s">
+        <v>285</v>
       </c>
       <c r="AV6" s="47" t="s">
         <v>185</v>
       </c>
-      <c r="AW6" s="92">
-        <v>3</v>
+      <c r="AW6" s="89">
+        <v>0</v>
       </c>
       <c r="AX6" s="47" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AY6" s="44" t="s">
         <v>186</v>
       </c>
-      <c r="AZ6" s="44" t="s">
-        <v>186</v>
-      </c>
-      <c r="BA6" s="44" t="s">
+      <c r="AZ6" s="58" t="s">
+        <v>177</v>
+      </c>
+      <c r="BA6" s="58" t="s">
         <v>188</v>
       </c>
-      <c r="BB6" s="44" t="s">
-        <v>188</v>
+      <c r="BB6" s="58" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="AW3:AX3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8158,9 +8285,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C47"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -8170,13 +8299,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="28" t="s">
+        <v>287</v>
+      </c>
+      <c r="B1" s="91" t="s">
         <v>288</v>
       </c>
-      <c r="B1" s="94" t="s">
+      <c r="C1" s="91" t="s">
         <v>289</v>
-      </c>
-      <c r="C1" s="94" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -8184,43 +8313,43 @@
         <v>11</v>
       </c>
       <c r="B2" s="42" t="s">
+        <v>290</v>
+      </c>
+      <c r="C2" s="42" t="s">
         <v>291</v>
-      </c>
-      <c r="C2" s="42" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="42" t="s">
+        <v>292</v>
+      </c>
+      <c r="B3" s="42" t="s">
         <v>293</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="C3" s="42" t="s">
         <v>294</v>
-      </c>
-      <c r="C3" s="42" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="42" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B4" s="42" t="s">
+        <v>295</v>
+      </c>
+      <c r="C4" s="42" t="s">
         <v>296</v>
-      </c>
-      <c r="C4" s="42" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="42" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B5" s="42" t="s">
+        <v>297</v>
+      </c>
+      <c r="C5" s="42" t="s">
         <v>298</v>
-      </c>
-      <c r="C5" s="42" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -8228,10 +8357,10 @@
         <v>11</v>
       </c>
       <c r="B6" s="42" t="s">
+        <v>299</v>
+      </c>
+      <c r="C6" s="42" t="s">
         <v>300</v>
-      </c>
-      <c r="C6" s="42" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -8239,10 +8368,10 @@
         <v>11</v>
       </c>
       <c r="B7" s="42" t="s">
+        <v>301</v>
+      </c>
+      <c r="C7" s="42" t="s">
         <v>302</v>
-      </c>
-      <c r="C7" s="42" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -8250,10 +8379,10 @@
         <v>11</v>
       </c>
       <c r="B8" s="42" t="s">
+        <v>303</v>
+      </c>
+      <c r="C8" s="42" t="s">
         <v>304</v>
-      </c>
-      <c r="C8" s="42" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -8261,428 +8390,483 @@
         <v>11</v>
       </c>
       <c r="B9" s="42" t="s">
+        <v>305</v>
+      </c>
+      <c r="C9" s="42" t="s">
         <v>306</v>
       </c>
-      <c r="C9" s="42" t="s">
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="92" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="95" t="s">
+      <c r="B10" s="42" t="s">
         <v>308</v>
       </c>
-      <c r="B10" s="42" t="s">
+      <c r="C10" s="42" t="s">
         <v>309</v>
       </c>
-      <c r="C10" s="42" t="s">
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="92" t="s">
+        <v>307</v>
+      </c>
+      <c r="B11" s="42" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="95" t="s">
-        <v>308</v>
-      </c>
-      <c r="B11" s="42" t="s">
+      <c r="C11" s="42" t="s">
         <v>311</v>
       </c>
-      <c r="C11" s="42" t="s">
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="92" t="s">
+        <v>307</v>
+      </c>
+      <c r="B12" s="42" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="95" t="s">
-        <v>308</v>
-      </c>
-      <c r="B12" s="42" t="s">
+      <c r="C12" s="42" t="s">
         <v>313</v>
       </c>
-      <c r="C12" s="42" t="s">
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="92" t="s">
+        <v>307</v>
+      </c>
+      <c r="B13" s="42" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="95" t="s">
-        <v>308</v>
-      </c>
-      <c r="B13" s="42" t="s">
+      <c r="C13" s="42" t="s">
         <v>315</v>
       </c>
-      <c r="C13" s="42" t="s">
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="92" t="s">
+        <v>307</v>
+      </c>
+      <c r="B14" s="93" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="95" t="s">
-        <v>308</v>
-      </c>
-      <c r="B14" s="96" t="s">
+      <c r="C14" s="93" t="s">
         <v>317</v>
       </c>
-      <c r="C14" s="96" t="s">
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="92" t="s">
+        <v>307</v>
+      </c>
+      <c r="B15" s="93" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="95" t="s">
-        <v>308</v>
-      </c>
-      <c r="B15" s="96" t="s">
+      <c r="C15" s="93" t="s">
         <v>319</v>
       </c>
-      <c r="C15" s="96" t="s">
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="92" t="s">
+        <v>307</v>
+      </c>
+      <c r="B16" s="93" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="95" t="s">
-        <v>308</v>
-      </c>
-      <c r="B16" s="96" t="s">
+      <c r="C16" s="93" t="s">
         <v>321</v>
       </c>
-      <c r="C16" s="96" t="s">
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="94" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="97" t="s">
+      <c r="B17" s="42" t="s">
         <v>323</v>
       </c>
-      <c r="B17" s="42" t="s">
+      <c r="C17" s="42" t="s">
         <v>324</v>
       </c>
-      <c r="C17" s="42" t="s">
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="94" t="s">
+        <v>322</v>
+      </c>
+      <c r="B18" s="42" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="97" t="s">
-        <v>323</v>
-      </c>
-      <c r="B18" s="42" t="s">
+      <c r="C18" s="42" t="s">
         <v>326</v>
       </c>
-      <c r="C18" s="42" t="s">
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="94" t="s">
+        <v>322</v>
+      </c>
+      <c r="B19" s="42" t="s">
+        <v>312</v>
+      </c>
+      <c r="C19" s="42" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="97" t="s">
-        <v>323</v>
-      </c>
-      <c r="B19" s="42" t="s">
-        <v>313</v>
-      </c>
-      <c r="C19" s="42" t="s">
+    <row r="20" spans="1:3">
+      <c r="A20" s="94" t="s">
+        <v>322</v>
+      </c>
+      <c r="B20" s="42" t="s">
+        <v>314</v>
+      </c>
+      <c r="C20" s="42" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="97" t="s">
-        <v>323</v>
-      </c>
-      <c r="B20" s="42" t="s">
-        <v>315</v>
-      </c>
-      <c r="C20" s="42" t="s">
+    <row r="21" spans="1:3">
+      <c r="A21" s="94" t="s">
+        <v>322</v>
+      </c>
+      <c r="B21" s="93" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="97" t="s">
-        <v>323</v>
-      </c>
-      <c r="B21" s="96" t="s">
+      <c r="C21" s="93" t="s">
         <v>330</v>
       </c>
-      <c r="C21" s="96" t="s">
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="94" t="s">
+        <v>322</v>
+      </c>
+      <c r="B22" s="93" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="97" t="s">
-        <v>323</v>
-      </c>
-      <c r="B22" s="96" t="s">
+      <c r="C22" s="93" t="s">
         <v>332</v>
       </c>
-      <c r="C22" s="96" t="s">
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="94" t="s">
+        <v>322</v>
+      </c>
+      <c r="B23" s="93" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="97" t="s">
-        <v>323</v>
-      </c>
-      <c r="B23" s="96" t="s">
+      <c r="C23" s="93" t="s">
         <v>334</v>
       </c>
-      <c r="C23" s="96" t="s">
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="94" t="s">
+        <v>322</v>
+      </c>
+      <c r="B24" s="93" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="97" t="s">
-        <v>323</v>
-      </c>
-      <c r="B24" s="96" t="s">
+      <c r="C24" s="93" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="95" t="s">
         <v>336</v>
       </c>
-      <c r="C24" s="96" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="98" t="s">
+      <c r="B25" s="42" t="s">
         <v>337</v>
       </c>
-      <c r="B25" s="42" t="s">
+      <c r="C25" s="43" t="s">
         <v>338</v>
       </c>
-      <c r="C25" s="43" t="s">
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="95" t="s">
+        <v>336</v>
+      </c>
+      <c r="B26" s="42" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="98" t="s">
-        <v>337</v>
-      </c>
-      <c r="B26" s="42" t="s">
+      <c r="C26" s="47" t="s">
         <v>340</v>
       </c>
-      <c r="C26" s="47" t="s">
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="95" t="s">
+        <v>336</v>
+      </c>
+      <c r="B27" s="42" t="s">
+        <v>312</v>
+      </c>
+      <c r="C27" s="42" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="98" t="s">
-        <v>337</v>
-      </c>
-      <c r="B27" s="42" t="s">
-        <v>313</v>
-      </c>
-      <c r="C27" s="42" t="s">
+    <row r="28" spans="1:3">
+      <c r="A28" s="95" t="s">
+        <v>336</v>
+      </c>
+      <c r="B28" s="42" t="s">
+        <v>314</v>
+      </c>
+      <c r="C28" s="42" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="98" t="s">
-        <v>337</v>
-      </c>
-      <c r="B28" s="42" t="s">
-        <v>315</v>
-      </c>
-      <c r="C28" s="42" t="s">
+    <row r="29" spans="1:3">
+      <c r="A29" s="95" t="s">
+        <v>336</v>
+      </c>
+      <c r="B29" s="47" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="98" t="s">
-        <v>337</v>
-      </c>
-      <c r="B29" s="47" t="s">
+      <c r="C29" s="47" t="s">
         <v>344</v>
       </c>
-      <c r="C29" s="47" t="s">
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="95" t="s">
+        <v>336</v>
+      </c>
+      <c r="B30" s="93" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="98" t="s">
-        <v>337</v>
-      </c>
-      <c r="B30" s="96" t="s">
+      <c r="C30" s="93" t="s">
         <v>346</v>
       </c>
-      <c r="C30" s="96" t="s">
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="95" t="s">
+        <v>336</v>
+      </c>
+      <c r="B31" s="93" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="98" t="s">
-        <v>337</v>
-      </c>
-      <c r="B31" s="96" t="s">
+      <c r="C31" s="93" t="s">
         <v>348</v>
       </c>
-      <c r="C31" s="96" t="s">
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="95" t="s">
+        <v>336</v>
+      </c>
+      <c r="B32" s="93" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="98" t="s">
-        <v>337</v>
-      </c>
-      <c r="B32" s="96" t="s">
+      <c r="C32" s="93" t="s">
         <v>350</v>
       </c>
-      <c r="C32" s="96" t="s">
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="95" t="s">
+        <v>336</v>
+      </c>
+      <c r="B33" s="93" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="98" t="s">
-        <v>337</v>
-      </c>
-      <c r="B33" s="96" t="s">
+      <c r="C33" s="96" t="s">
         <v>352</v>
       </c>
-      <c r="C33" s="99" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="42" t="s">
+    </row>
+    <row r="34" spans="1:3" s="99" customFormat="1">
+      <c r="A34" s="104" t="s">
+        <v>370</v>
+      </c>
+      <c r="B34" s="57" t="s">
+        <v>371</v>
+      </c>
+      <c r="C34" s="97" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" s="99" customFormat="1">
+      <c r="A35" s="104" t="s">
+        <v>370</v>
+      </c>
+      <c r="B35" s="97" t="s">
+        <v>387</v>
+      </c>
+      <c r="C35" s="97" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" s="99" customFormat="1">
+      <c r="A36" s="104" t="s">
+        <v>370</v>
+      </c>
+      <c r="B36" s="97" t="s">
+        <v>393</v>
+      </c>
+      <c r="C36" s="97" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" s="99" customFormat="1">
+      <c r="A37" s="104" t="s">
+        <v>370</v>
+      </c>
+      <c r="B37" s="97" t="s">
+        <v>392</v>
+      </c>
+      <c r="C37" s="97" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" s="99" customFormat="1">
+      <c r="A38" s="104" t="s">
+        <v>370</v>
+      </c>
+      <c r="B38" s="97" t="s">
         <v>293</v>
       </c>
-      <c r="B34" s="42" t="s">
-        <v>354</v>
-      </c>
-      <c r="C34" s="42" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="42" t="s">
-        <v>293</v>
-      </c>
-      <c r="B35" s="42" t="s">
-        <v>356</v>
-      </c>
-      <c r="C35" s="42" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="42" t="s">
-        <v>293</v>
-      </c>
-      <c r="B36" s="42" t="s">
-        <v>358</v>
-      </c>
-      <c r="C36" s="42" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="42" t="s">
-        <v>293</v>
-      </c>
-      <c r="B37" s="42" t="s">
-        <v>360</v>
-      </c>
-      <c r="C37" s="42" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="42" t="s">
-        <v>293</v>
-      </c>
-      <c r="B38" s="42" t="s">
-        <v>362</v>
-      </c>
-      <c r="C38" s="42" t="s">
-        <v>363</v>
+      <c r="C38" s="97" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="42" t="s">
-        <v>293</v>
-      </c>
-      <c r="B39" s="42" t="s">
-        <v>364</v>
-      </c>
-      <c r="C39" s="42" t="s">
-        <v>365</v>
+        <v>292</v>
+      </c>
+      <c r="B39" s="57" t="s">
+        <v>353</v>
+      </c>
+      <c r="C39" s="97" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="42" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B40" s="42" t="s">
-        <v>366</v>
-      </c>
-      <c r="C40" s="42" t="s">
-        <v>367</v>
+        <v>354</v>
+      </c>
+      <c r="C40" s="57" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="42" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B41" s="42" t="s">
-        <v>368</v>
-      </c>
-      <c r="C41" s="42" t="s">
-        <v>369</v>
+        <v>355</v>
+      </c>
+      <c r="C41" s="57" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="42" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B42" s="42" t="s">
-        <v>370</v>
-      </c>
-      <c r="C42" s="42" t="s">
-        <v>371</v>
+        <v>356</v>
+      </c>
+      <c r="C42" s="57" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="42" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B43" s="42" t="s">
-        <v>372</v>
-      </c>
-      <c r="C43" s="47" t="s">
-        <v>373</v>
+        <v>357</v>
+      </c>
+      <c r="C43" s="57" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="42" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B44" s="42" t="s">
-        <v>374</v>
-      </c>
-      <c r="C44" s="42" t="s">
-        <v>375</v>
+        <v>358</v>
+      </c>
+      <c r="C44" s="57" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="42" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B45" s="42" t="s">
-        <v>376</v>
-      </c>
-      <c r="C45" s="42" t="s">
-        <v>377</v>
+        <v>359</v>
+      </c>
+      <c r="C45" s="57" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="42" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B46" s="42" t="s">
-        <v>378</v>
-      </c>
-      <c r="C46" s="42" t="s">
-        <v>379</v>
+        <v>360</v>
+      </c>
+      <c r="C46" s="57" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="42" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B47" s="42" t="s">
-        <v>380</v>
-      </c>
-      <c r="C47" s="42" t="s">
+        <v>361</v>
+      </c>
+      <c r="C47" s="57" t="s">
         <v>381</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="42" t="s">
+        <v>292</v>
+      </c>
+      <c r="B48" s="42" t="s">
+        <v>362</v>
+      </c>
+      <c r="C48" s="57" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="42" t="s">
+        <v>292</v>
+      </c>
+      <c r="B49" s="42" t="s">
+        <v>363</v>
+      </c>
+      <c r="C49" s="57" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="42" t="s">
+        <v>292</v>
+      </c>
+      <c r="B50" s="42" t="s">
+        <v>364</v>
+      </c>
+      <c r="C50" s="57" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="42" t="s">
+        <v>292</v>
+      </c>
+      <c r="B51" s="42" t="s">
+        <v>365</v>
+      </c>
+      <c r="C51" s="57" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="42" t="s">
+        <v>292</v>
+      </c>
+      <c r="B52" s="42" t="s">
+        <v>366</v>
+      </c>
+      <c r="C52" s="57" t="s">
+        <v>386</v>
       </c>
     </row>
   </sheetData>

--- a/TNR_JDD/RO/JDD.RO.ACT.xlsx
+++ b/TNR_JDD/RO/JDD.RO.ACT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="612" yWindow="588" windowWidth="21852" windowHeight="8940" activeTab="7"/>
+    <workbookView xWindow="420" yWindow="552" windowWidth="23100" windowHeight="10260" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Version" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="390">
   <si>
     <t>Date</t>
   </si>
@@ -883,12 +883,57 @@
     <t>anna.pabocou@mainta.com</t>
   </si>
   <si>
+    <t>01010128</t>
+  </si>
+  <si>
+    <t>06060628</t>
+  </si>
+  <si>
+    <t>09090928</t>
+  </si>
+  <si>
     <t>RO.ACT.005.FON.01.A...........</t>
   </si>
   <si>
     <t>A</t>
   </si>
   <si>
+    <t>valeur de RO.ACT.005.FON.01.SRC</t>
+  </si>
+  <si>
+    <t>RO.ACT.005.FON.01.SRC.........</t>
+  </si>
+  <si>
+    <t>TERGEIST</t>
+  </si>
+  <si>
+    <t>PAUL</t>
+  </si>
+  <si>
+    <t>DIVERS15</t>
+  </si>
+  <si>
+    <t>RO.ACT.005.FON.01.SRC.A.......</t>
+  </si>
+  <si>
+    <t>GROUPE 16</t>
+  </si>
+  <si>
+    <t>FAMILLE 16</t>
+  </si>
+  <si>
+    <t>$VIDE</t>
+  </si>
+  <si>
+    <t>01010115</t>
+  </si>
+  <si>
+    <t>06060620</t>
+  </si>
+  <si>
+    <t>09090923</t>
+  </si>
+  <si>
     <t>TAB</t>
   </si>
   <si>
@@ -898,12 +943,6 @@
     <t>XPATH (if xpath is dynamic, put ${FIELDNAME} instead of the value of the mentioned field name.</t>
   </si>
   <si>
-    <t>a_Organisation</t>
-  </si>
-  <si>
-    <t>//a[@id='BtnID_CODGES']/i</t>
-  </si>
-  <si>
     <t>ALL</t>
   </si>
   <si>
@@ -925,18 +964,6 @@
     <t>//tr[1]/td[@class='clMaintaConfirmTableData']//a</t>
   </si>
   <si>
-    <t>input_Recherche_Organisation</t>
-  </si>
-  <si>
-    <t>//input[@name='SEARCH_ID_CODGES']</t>
-  </si>
-  <si>
-    <t>td_Recherche_Organisation</t>
-  </si>
-  <si>
-    <t>//div[@id='v-dbtdhtmlx1']/table/tbody//td[3][text()='${ID_CODGES}']</t>
-  </si>
-  <si>
     <t>input_Filtre_Acteur</t>
   </si>
   <si>
@@ -1090,124 +1117,85 @@
     <t>a_Acteur</t>
   </si>
   <si>
+    <t>//li[@class ='nav-item']//a[@ml-text3='ID_CODINT']</t>
+  </si>
+  <si>
     <t>a_ActeurSelected</t>
   </si>
   <si>
+    <t>//li[@class ='nav-item']//a[@ml-text3='ID_CODINT' and starts-with(@class,'nav-link active')]</t>
+  </si>
+  <si>
     <t>a_Affectation</t>
   </si>
   <si>
+    <t>//li[@class ='nav-item']//a[@ml-text3='affectation']</t>
+  </si>
+  <si>
     <t>a_AffectationSelected</t>
   </si>
   <si>
+    <t>//li[@class ='nav-item']//a[@ml-text3='affectation' and starts-with(@class,'nav-link active')]</t>
+  </si>
+  <si>
     <t>a_Role</t>
   </si>
   <si>
+    <t>//li[@class ='nav-item']//a[@ml-text3='role']</t>
+  </si>
+  <si>
     <t>a_RoleSelected</t>
   </si>
   <si>
+    <t>//li[@class ='nav-item']//a[@ml-text3='role' and starts-with(@class,'nav-link active')]</t>
+  </si>
+  <si>
     <t>a_Preventif</t>
   </si>
   <si>
+    <t>//li[@class ='nav-item']//a[@ml-text3='preventif']</t>
+  </si>
+  <si>
     <t>a_PreventifSelected</t>
   </si>
   <si>
+    <t>//li[@class ='nav-item']//a[@ml-text3='preventif' and starts-with(@class,'nav-link active')]</t>
+  </si>
+  <si>
     <t>a_Habilitation</t>
   </si>
   <si>
+    <t>//li[@class ='nav-item']//a[@ml-text3='ID_CODHAB']</t>
+  </si>
+  <si>
     <t>a_HabilitationSelected</t>
   </si>
   <si>
+    <t>//li[@class ='nav-item']//a[@ml-text3='ID_CODHAB' and starts-with(@class,'nav-link active')]</t>
+  </si>
+  <si>
     <t>a_Metier</t>
   </si>
   <si>
+    <t>//li[@class ='nav-item']//a[@ml-text3='ID_CODMET']</t>
+  </si>
+  <si>
     <t>a_MetierSelected</t>
   </si>
   <si>
+    <t>//li[@class ='nav-item']//a[@ml-text3='ID_CODMET' and starts-with(@class,'nav-link active')]</t>
+  </si>
+  <si>
     <t>a_Zone</t>
   </si>
   <si>
+    <t>//li[@class ='nav-item']//a[@ml-text3='ID_NUMZON']</t>
+  </si>
+  <si>
     <t>a_ZoneSelected</t>
   </si>
   <si>
-    <t>01010128</t>
-  </si>
-  <si>
-    <t>06060628</t>
-  </si>
-  <si>
-    <t>09090928</t>
-  </si>
-  <si>
-    <t>005</t>
-  </si>
-  <si>
-    <t>a_Copy</t>
-  </si>
-  <si>
-    <t>//li[@id='FormE21__copy']/a</t>
-  </si>
-  <si>
-    <t>//li[@class ='nav-item']/a[@ml-text3='ID_CODINT']</t>
-  </si>
-  <si>
-    <t>//li[@class ='nav-item']/a[@ml-text3='ID_CODINT' and starts-with(@class,'nav-link active')]</t>
-  </si>
-  <si>
-    <t>//li[@class ='nav-item']/a[@ml-text3='affectation']</t>
-  </si>
-  <si>
-    <t>//li[@class ='nav-item']/a[@ml-text3='affectation' and starts-with(@class,'nav-link active')]</t>
-  </si>
-  <si>
-    <t>//li[@class ='nav-item']/a[@ml-text3='role']</t>
-  </si>
-  <si>
-    <t>//li[@class ='nav-item']/a[@ml-text3='role' and starts-with(@class,'nav-link active')]</t>
-  </si>
-  <si>
-    <t>//li[@class ='nav-item']/a[@ml-text3='preventif']</t>
-  </si>
-  <si>
-    <t>//li[@class ='nav-item']/a[@ml-text3='preventif' and starts-with(@class,'nav-link active')]</t>
-  </si>
-  <si>
-    <t>//li[@class ='nav-item']/a[@ml-text3='ID_CODHAB']</t>
-  </si>
-  <si>
-    <t>//li[@class ='nav-item']/a[@ml-text3='ID_CODHAB' and starts-with(@class,'nav-link active')]</t>
-  </si>
-  <si>
-    <t>//li[@class ='nav-item']/a[@ml-text3='ID_CODMET']</t>
-  </si>
-  <si>
-    <t>//li[@class ='nav-item']/a[@ml-text3='ID_CODMET' and starts-with(@class,'nav-link active')]</t>
-  </si>
-  <si>
-    <t>//li[@class ='nav-item']/a[@ml-text3='ID_NUMZON']</t>
-  </si>
-  <si>
-    <t>//li[@class ='nav-item']/a[@ml-text3='ID_NUMZON' and starts-with(@class,'nav-link active')]</t>
-  </si>
-  <si>
-    <t>input_ID_COD</t>
-  </si>
-  <si>
-    <t>//input[@id='ID_COD']</t>
-  </si>
-  <si>
-    <t>//input[@id='ST_NOMNEW']</t>
-  </si>
-  <si>
-    <t>//input[@id='ST_PRENEW']</t>
-  </si>
-  <si>
-    <t>//button[@value='Valider']</t>
-  </si>
-  <si>
-    <t>input_ST_PRENEW</t>
-  </si>
-  <si>
-    <t>input_ST_NOMNEW</t>
+    <t>//li[@class ='nav-item']//a[@ml-text3='ID_NUMZON' and starts-with(@class,'nav-link active')]</t>
   </si>
 </sst>
 </file>
@@ -1302,7 +1290,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="23">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1426,12 +1414,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFDE39B"/>
-        <bgColor rgb="FFFDE39B"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor rgb="FFFDE39B"/>
       </patternFill>
     </fill>
@@ -1663,11 +1645,19 @@
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1679,20 +1669,23 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -5009,23 +5002,23 @@
   </sheetPr>
   <dimension ref="A1:BE18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:BE6"/>
+    <sheetView topLeftCell="AN1" workbookViewId="0">
+      <selection activeCell="AV20" sqref="AV20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="1" max="2" width="16.6640625" customWidth="1"/>
     <col min="3" max="3" width="32.88671875" customWidth="1"/>
     <col min="4" max="4" width="24.6640625" customWidth="1"/>
     <col min="5" max="5" width="20.88671875" customWidth="1"/>
     <col min="6" max="6" width="21.109375" customWidth="1"/>
     <col min="12" max="12" width="25.21875" customWidth="1"/>
     <col min="46" max="46" width="25.21875" customWidth="1"/>
+    <col min="48" max="48" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57">
+    <row r="1" spans="1:57" ht="14.25" customHeight="1">
       <c r="A1" s="26" t="s">
         <v>12</v>
       </c>
@@ -5198,7 +5191,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="2" spans="1:57">
+    <row r="2" spans="1:57" ht="13.2">
       <c r="A2" s="33" t="s">
         <v>159</v>
       </c>
@@ -5275,7 +5268,7 @@
       <c r="BD2" s="34"/>
       <c r="BE2" s="34"/>
     </row>
-    <row r="3" spans="1:57">
+    <row r="3" spans="1:57" ht="13.2">
       <c r="A3" s="33" t="s">
         <v>164</v>
       </c>
@@ -5327,10 +5320,10 @@
       <c r="AS3" s="34"/>
       <c r="AT3" s="34"/>
       <c r="AU3" s="34"/>
-      <c r="AV3" s="100" t="s">
+      <c r="AV3" s="102" t="s">
         <v>166</v>
       </c>
-      <c r="AW3" s="101"/>
+      <c r="AW3" s="103"/>
       <c r="AX3" s="34"/>
       <c r="AY3" s="34"/>
       <c r="AZ3" s="34"/>
@@ -5348,7 +5341,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="4" spans="1:57">
+    <row r="4" spans="1:57" ht="13.2">
       <c r="A4" s="33" t="s">
         <v>170</v>
       </c>
@@ -5391,19 +5384,19 @@
       <c r="P4" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="Q4" s="38" t="s">
+      <c r="Q4" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="R4" s="38" t="s">
+      <c r="R4" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="S4" s="38" t="s">
+      <c r="S4" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="T4" s="38" t="s">
+      <c r="T4" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="U4" s="38" t="s">
+      <c r="U4" s="35" t="s">
         <v>171</v>
       </c>
       <c r="V4" s="35" t="s">
@@ -5419,19 +5412,19 @@
       <c r="AB4" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="AC4" s="38" t="s">
+      <c r="AC4" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="AD4" s="38" t="s">
+      <c r="AD4" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="AE4" s="38" t="s">
+      <c r="AE4" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="AF4" s="38" t="s">
+      <c r="AF4" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="AG4" s="38" t="s">
+      <c r="AG4" s="35" t="s">
         <v>171</v>
       </c>
       <c r="AH4" s="34"/>
@@ -5449,22 +5442,22 @@
       <c r="AN4" s="34"/>
       <c r="AO4" s="37"/>
       <c r="AP4" s="34"/>
-      <c r="AQ4" s="38" t="s">
+      <c r="AQ4" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="AR4" s="38" t="s">
+      <c r="AR4" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="AS4" s="38" t="s">
+      <c r="AS4" s="35" t="s">
         <v>171</v>
       </c>
       <c r="AT4" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="AU4" s="38" t="s">
+      <c r="AU4" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="AV4" s="35" t="s">
+      <c r="AV4" s="104" t="s">
         <v>172</v>
       </c>
       <c r="AW4" s="35" t="s">
@@ -5487,7 +5480,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="5" spans="1:57">
+    <row r="5" spans="1:57" ht="13.2">
       <c r="A5" s="39" t="s">
         <v>174</v>
       </c>
@@ -5548,7 +5541,7 @@
       <c r="BD5" s="40"/>
       <c r="BE5" s="40"/>
     </row>
-    <row r="6" spans="1:57">
+    <row r="6" spans="1:57" ht="13.2">
       <c r="A6" s="41" t="s">
         <v>175</v>
       </c>
@@ -5564,7 +5557,7 @@
       <c r="E6" s="42" t="s">
         <v>175</v>
       </c>
-      <c r="F6" s="97" t="s">
+      <c r="F6" s="42" t="s">
         <v>175</v>
       </c>
       <c r="G6" s="44" t="s">
@@ -5713,7 +5706,7 @@
       <c r="BD6" s="49"/>
       <c r="BE6" s="49"/>
     </row>
-    <row r="7" spans="1:57">
+    <row r="7" spans="1:57" ht="13.2">
       <c r="A7" s="41" t="s">
         <v>193</v>
       </c>
@@ -5886,7 +5879,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="8" spans="1:57">
+    <row r="8" spans="1:57" ht="13.2">
       <c r="A8" s="51" t="s">
         <v>206</v>
       </c>
@@ -6051,7 +6044,7 @@
       <c r="BD8" s="54"/>
       <c r="BE8" s="54"/>
     </row>
-    <row r="9" spans="1:57">
+    <row r="9" spans="1:57" ht="13.2">
       <c r="A9" s="41" t="s">
         <v>217</v>
       </c>
@@ -6114,7 +6107,7 @@
       <c r="BD9" s="54"/>
       <c r="BE9" s="54"/>
     </row>
-    <row r="10" spans="1:57">
+    <row r="10" spans="1:57" ht="13.2">
       <c r="A10" s="41" t="s">
         <v>218</v>
       </c>
@@ -6177,7 +6170,7 @@
       <c r="BD10" s="54"/>
       <c r="BE10" s="54"/>
     </row>
-    <row r="11" spans="1:57">
+    <row r="11" spans="1:57" ht="13.2">
       <c r="A11" s="56"/>
       <c r="B11" s="57"/>
       <c r="C11" s="58"/>
@@ -6236,7 +6229,7 @@
       <c r="BD11" s="60"/>
       <c r="BE11" s="60"/>
     </row>
-    <row r="12" spans="1:57">
+    <row r="12" spans="1:57" ht="13.2">
       <c r="A12" s="56"/>
       <c r="B12" s="57"/>
       <c r="C12" s="58"/>
@@ -6295,7 +6288,7 @@
       <c r="BD12" s="60"/>
       <c r="BE12" s="60"/>
     </row>
-    <row r="13" spans="1:57">
+    <row r="13" spans="1:57" ht="13.2">
       <c r="A13" s="56"/>
       <c r="B13" s="57"/>
       <c r="C13" s="58"/>
@@ -6354,7 +6347,7 @@
       <c r="BD13" s="60"/>
       <c r="BE13" s="60"/>
     </row>
-    <row r="14" spans="1:57">
+    <row r="14" spans="1:57" ht="13.2">
       <c r="A14" s="56"/>
       <c r="B14" s="57"/>
       <c r="C14" s="58"/>
@@ -6413,7 +6406,7 @@
       <c r="BD14" s="60"/>
       <c r="BE14" s="60"/>
     </row>
-    <row r="15" spans="1:57">
+    <row r="15" spans="1:57" ht="13.2">
       <c r="A15" s="56"/>
       <c r="B15" s="57"/>
       <c r="C15" s="58"/>
@@ -6472,7 +6465,7 @@
       <c r="BD15" s="60"/>
       <c r="BE15" s="60"/>
     </row>
-    <row r="16" spans="1:57">
+    <row r="16" spans="1:57" ht="13.2">
       <c r="A16" s="56"/>
       <c r="B16" s="57"/>
       <c r="C16" s="58"/>
@@ -6531,7 +6524,7 @@
       <c r="BD16" s="60"/>
       <c r="BE16" s="60"/>
     </row>
-    <row r="17" spans="1:57">
+    <row r="17" spans="1:57" ht="13.2">
       <c r="A17" s="56"/>
       <c r="B17" s="57"/>
       <c r="C17" s="58"/>
@@ -6590,7 +6583,7 @@
       <c r="BD17" s="60"/>
       <c r="BE17" s="60"/>
     </row>
-    <row r="18" spans="1:57">
+    <row r="18" spans="1:57" ht="13.2">
       <c r="A18" s="56"/>
       <c r="B18" s="57"/>
       <c r="C18" s="58"/>
@@ -7235,25 +7228,25 @@
       </c>
       <c r="B5" s="34"/>
       <c r="C5" s="34"/>
-      <c r="D5" s="100" t="s">
+      <c r="D5" s="102" t="s">
         <v>258</v>
       </c>
-      <c r="E5" s="101"/>
-      <c r="F5" s="101"/>
-      <c r="G5" s="101"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="103"/>
+      <c r="G5" s="103"/>
       <c r="H5" s="38" t="s">
         <v>259</v>
       </c>
       <c r="I5" s="35" t="s">
         <v>260</v>
       </c>
-      <c r="J5" s="100" t="s">
+      <c r="J5" s="102" t="s">
         <v>261</v>
       </c>
-      <c r="K5" s="101"/>
-      <c r="L5" s="101"/>
-      <c r="M5" s="101"/>
-      <c r="N5" s="101"/>
+      <c r="K5" s="103"/>
+      <c r="L5" s="103"/>
+      <c r="M5" s="103"/>
+      <c r="N5" s="103"/>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="39" t="s">
@@ -7607,21 +7600,62 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BB6"/>
+  <dimension ref="A1:BB9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.77734375" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="28" customWidth="1"/>
     <col min="3" max="3" width="23.44140625" customWidth="1"/>
     <col min="4" max="4" width="25.33203125" customWidth="1"/>
     <col min="5" max="5" width="30.88671875" customWidth="1"/>
-    <col min="35" max="35" width="12.5546875" customWidth="1"/>
-    <col min="47" max="47" width="21.6640625" customWidth="1"/>
+    <col min="6" max="6" width="20.88671875" customWidth="1"/>
+    <col min="7" max="7" width="21.109375" customWidth="1"/>
+    <col min="8" max="8" width="6.88671875" customWidth="1"/>
+    <col min="9" max="9" width="9.33203125" customWidth="1"/>
+    <col min="10" max="10" width="7.44140625" customWidth="1"/>
+    <col min="11" max="11" width="9" customWidth="1"/>
+    <col min="12" max="12" width="7.44140625" customWidth="1"/>
+    <col min="13" max="13" width="25.44140625" customWidth="1"/>
+    <col min="14" max="14" width="10.44140625" customWidth="1"/>
+    <col min="15" max="15" width="10.109375" customWidth="1"/>
+    <col min="16" max="16" width="10.21875" customWidth="1"/>
+    <col min="17" max="17" width="11" customWidth="1"/>
+    <col min="18" max="18" width="7.77734375" customWidth="1"/>
+    <col min="19" max="19" width="6.77734375" customWidth="1"/>
+    <col min="20" max="21" width="7.6640625" customWidth="1"/>
+    <col min="22" max="22" width="6.77734375" customWidth="1"/>
+    <col min="23" max="23" width="11.77734375" customWidth="1"/>
+    <col min="24" max="24" width="10.109375" customWidth="1"/>
+    <col min="25" max="25" width="10" customWidth="1"/>
+    <col min="26" max="26" width="6.21875" customWidth="1"/>
+    <col min="27" max="27" width="21.88671875" customWidth="1"/>
+    <col min="28" max="28" width="9.88671875" customWidth="1"/>
+    <col min="29" max="29" width="6.88671875" customWidth="1"/>
+    <col min="30" max="31" width="7.6640625" customWidth="1"/>
+    <col min="32" max="32" width="7.33203125" customWidth="1"/>
+    <col min="33" max="33" width="7.6640625" customWidth="1"/>
+    <col min="34" max="34" width="7.109375" customWidth="1"/>
+    <col min="35" max="37" width="13.44140625" customWidth="1"/>
+    <col min="38" max="38" width="10.88671875" customWidth="1"/>
+    <col min="39" max="39" width="11.109375" customWidth="1"/>
+    <col min="40" max="40" width="10.88671875" customWidth="1"/>
+    <col min="41" max="41" width="7.6640625" customWidth="1"/>
+    <col min="42" max="42" width="10.109375" customWidth="1"/>
+    <col min="43" max="43" width="6.88671875" customWidth="1"/>
+    <col min="44" max="44" width="9" customWidth="1"/>
+    <col min="45" max="45" width="10.21875" customWidth="1"/>
+    <col min="46" max="46" width="9.21875" customWidth="1"/>
+    <col min="47" max="47" width="25.44140625" customWidth="1"/>
+    <col min="48" max="48" width="10.6640625" customWidth="1"/>
+    <col min="49" max="49" width="10.88671875" customWidth="1"/>
+    <col min="50" max="50" width="7.6640625" customWidth="1"/>
+    <col min="51" max="52" width="13.6640625" customWidth="1"/>
+    <col min="53" max="54" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:54">
@@ -7795,264 +7829,264 @@
       <c r="B2" s="83" t="s">
         <v>219</v>
       </c>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98" t="s">
+      <c r="C2" s="34"/>
+      <c r="D2" s="35" t="s">
         <v>160</v>
       </c>
-      <c r="E2" s="98" t="s">
+      <c r="E2" s="35" t="s">
         <v>160</v>
       </c>
-      <c r="F2" s="98" t="s">
+      <c r="F2" s="35" t="s">
         <v>161</v>
       </c>
-      <c r="G2" s="98" t="s">
+      <c r="G2" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="H2" s="98"/>
-      <c r="I2" s="98"/>
-      <c r="J2" s="98"/>
-      <c r="K2" s="98"/>
-      <c r="L2" s="98"/>
-      <c r="M2" s="98" t="s">
+      <c r="H2" s="35"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="35" t="s">
         <v>160</v>
       </c>
-      <c r="N2" s="98"/>
-      <c r="O2" s="98"/>
-      <c r="P2" s="98"/>
-      <c r="Q2" s="98"/>
-      <c r="R2" s="98"/>
-      <c r="S2" s="98"/>
-      <c r="T2" s="98"/>
-      <c r="U2" s="98"/>
-      <c r="V2" s="98"/>
-      <c r="W2" s="98"/>
-      <c r="X2" s="37" t="s">
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="34"/>
+      <c r="W2" s="34"/>
+      <c r="X2" s="36" t="s">
         <v>163</v>
       </c>
-      <c r="Y2" s="98"/>
-      <c r="Z2" s="98"/>
-      <c r="AA2" s="98"/>
-      <c r="AB2" s="98"/>
-      <c r="AC2" s="98"/>
-      <c r="AD2" s="98"/>
-      <c r="AE2" s="98"/>
-      <c r="AF2" s="98"/>
-      <c r="AG2" s="98"/>
-      <c r="AH2" s="98"/>
-      <c r="AI2" s="98"/>
-      <c r="AJ2" s="98"/>
-      <c r="AK2" s="98"/>
-      <c r="AL2" s="98"/>
-      <c r="AM2" s="98"/>
-      <c r="AN2" s="98"/>
-      <c r="AO2" s="98"/>
-      <c r="AP2" s="37" t="s">
+      <c r="Y2" s="34"/>
+      <c r="Z2" s="34"/>
+      <c r="AA2" s="34"/>
+      <c r="AB2" s="34"/>
+      <c r="AC2" s="34"/>
+      <c r="AD2" s="34"/>
+      <c r="AE2" s="34"/>
+      <c r="AF2" s="34"/>
+      <c r="AG2" s="34"/>
+      <c r="AH2" s="34"/>
+      <c r="AI2" s="34"/>
+      <c r="AJ2" s="34"/>
+      <c r="AK2" s="34"/>
+      <c r="AL2" s="34"/>
+      <c r="AM2" s="34"/>
+      <c r="AN2" s="34"/>
+      <c r="AO2" s="34"/>
+      <c r="AP2" s="36" t="s">
         <v>163</v>
       </c>
-      <c r="AQ2" s="98"/>
-      <c r="AR2" s="98"/>
-      <c r="AS2" s="98"/>
-      <c r="AT2" s="98"/>
-      <c r="AU2" s="98" t="s">
+      <c r="AQ2" s="34"/>
+      <c r="AR2" s="34"/>
+      <c r="AS2" s="34"/>
+      <c r="AT2" s="34"/>
+      <c r="AU2" s="35" t="s">
         <v>160</v>
       </c>
-      <c r="AV2" s="98"/>
-      <c r="AW2" s="98"/>
-      <c r="AX2" s="98"/>
-      <c r="AY2" s="98"/>
-      <c r="AZ2" s="98"/>
-      <c r="BA2" s="98"/>
-      <c r="BB2" s="98"/>
+      <c r="AV2" s="68"/>
+      <c r="AW2" s="34"/>
+      <c r="AX2" s="34"/>
+      <c r="AY2" s="34"/>
+      <c r="AZ2" s="34"/>
+      <c r="BA2" s="34"/>
+      <c r="BB2" s="34"/>
     </row>
     <row r="3" spans="1:54">
       <c r="A3" s="82" t="s">
         <v>164</v>
       </c>
       <c r="B3" s="84"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98" t="s">
+      <c r="C3" s="34"/>
+      <c r="D3" s="35" t="s">
         <v>165</v>
       </c>
-      <c r="E3" s="98"/>
-      <c r="F3" s="98"/>
-      <c r="G3" s="98"/>
-      <c r="H3" s="98"/>
-      <c r="I3" s="98"/>
-      <c r="J3" s="98"/>
-      <c r="K3" s="98"/>
-      <c r="L3" s="98"/>
-      <c r="M3" s="98"/>
-      <c r="N3" s="98"/>
-      <c r="O3" s="98"/>
-      <c r="P3" s="98"/>
-      <c r="Q3" s="98"/>
-      <c r="R3" s="98"/>
-      <c r="S3" s="98"/>
-      <c r="T3" s="98"/>
-      <c r="U3" s="98"/>
-      <c r="V3" s="98"/>
-      <c r="W3" s="98"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="34"/>
+      <c r="S3" s="34"/>
+      <c r="T3" s="34"/>
+      <c r="U3" s="34"/>
+      <c r="V3" s="34"/>
+      <c r="W3" s="34"/>
       <c r="X3" s="37"/>
-      <c r="Y3" s="98"/>
-      <c r="Z3" s="98"/>
-      <c r="AA3" s="98"/>
-      <c r="AB3" s="98"/>
-      <c r="AC3" s="98"/>
-      <c r="AD3" s="98"/>
-      <c r="AE3" s="98"/>
-      <c r="AF3" s="98"/>
-      <c r="AG3" s="98"/>
-      <c r="AH3" s="98"/>
-      <c r="AI3" s="98"/>
-      <c r="AJ3" s="98"/>
-      <c r="AK3" s="98"/>
-      <c r="AL3" s="98"/>
-      <c r="AM3" s="98"/>
-      <c r="AN3" s="98"/>
-      <c r="AO3" s="98"/>
+      <c r="Y3" s="34"/>
+      <c r="Z3" s="34"/>
+      <c r="AA3" s="34"/>
+      <c r="AB3" s="34"/>
+      <c r="AC3" s="34"/>
+      <c r="AD3" s="34"/>
+      <c r="AE3" s="34"/>
+      <c r="AF3" s="34"/>
+      <c r="AG3" s="34"/>
+      <c r="AH3" s="34"/>
+      <c r="AI3" s="34"/>
+      <c r="AJ3" s="34"/>
+      <c r="AK3" s="34"/>
+      <c r="AL3" s="34"/>
+      <c r="AM3" s="34"/>
+      <c r="AN3" s="34"/>
+      <c r="AO3" s="34"/>
       <c r="AP3" s="37"/>
-      <c r="AQ3" s="98"/>
-      <c r="AR3" s="98"/>
-      <c r="AS3" s="98"/>
-      <c r="AT3" s="98"/>
-      <c r="AU3" s="98"/>
-      <c r="AV3" s="98"/>
-      <c r="AW3" s="100" t="s">
+      <c r="AQ3" s="34"/>
+      <c r="AR3" s="34"/>
+      <c r="AS3" s="34"/>
+      <c r="AT3" s="34"/>
+      <c r="AU3" s="34"/>
+      <c r="AV3" s="34"/>
+      <c r="AW3" s="102" t="s">
         <v>166</v>
       </c>
-      <c r="AX3" s="101"/>
-      <c r="AY3" s="98"/>
-      <c r="AZ3" s="98"/>
-      <c r="BA3" s="98"/>
-      <c r="BB3" s="98"/>
+      <c r="AX3" s="103"/>
+      <c r="AY3" s="34"/>
+      <c r="AZ3" s="34"/>
+      <c r="BA3" s="34"/>
+      <c r="BB3" s="34"/>
     </row>
     <row r="4" spans="1:54">
       <c r="A4" s="82" t="s">
         <v>170</v>
       </c>
       <c r="B4" s="84"/>
-      <c r="C4" s="98" t="s">
+      <c r="C4" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="D4" s="98"/>
-      <c r="E4" s="98" t="s">
+      <c r="D4" s="34"/>
+      <c r="E4" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="F4" s="98" t="s">
+      <c r="F4" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="G4" s="98" t="s">
+      <c r="G4" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="H4" s="98"/>
-      <c r="I4" s="98" t="s">
+      <c r="H4" s="34"/>
+      <c r="I4" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="J4" s="98" t="s">
+      <c r="J4" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="K4" s="98" t="s">
+      <c r="K4" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="L4" s="98" t="s">
+      <c r="L4" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="M4" s="98"/>
-      <c r="N4" s="98" t="s">
+      <c r="M4" s="34"/>
+      <c r="N4" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="O4" s="98" t="s">
+      <c r="O4" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="P4" s="98" t="s">
+      <c r="P4" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="Q4" s="98" t="s">
+      <c r="Q4" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="R4" s="98" t="s">
+      <c r="R4" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="S4" s="98" t="s">
+      <c r="S4" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="T4" s="98" t="s">
+      <c r="T4" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="U4" s="98" t="s">
+      <c r="U4" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="V4" s="98" t="s">
+      <c r="V4" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="W4" s="98" t="s">
+      <c r="W4" s="35" t="s">
         <v>171</v>
       </c>
       <c r="X4" s="37"/>
-      <c r="Y4" s="98"/>
-      <c r="Z4" s="98"/>
-      <c r="AA4" s="98" t="s">
+      <c r="Y4" s="34"/>
+      <c r="Z4" s="34"/>
+      <c r="AA4" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="AB4" s="98"/>
-      <c r="AC4" s="98" t="s">
+      <c r="AB4" s="34"/>
+      <c r="AC4" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="AD4" s="98" t="s">
+      <c r="AD4" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="AE4" s="98" t="s">
+      <c r="AE4" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="AF4" s="98" t="s">
+      <c r="AF4" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="AG4" s="98" t="s">
+      <c r="AG4" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="AH4" s="98" t="s">
+      <c r="AH4" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="AI4" s="98"/>
-      <c r="AJ4" s="98"/>
-      <c r="AK4" s="98"/>
-      <c r="AL4" s="98" t="s">
+      <c r="AI4" s="34"/>
+      <c r="AJ4" s="34"/>
+      <c r="AK4" s="34"/>
+      <c r="AL4" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="AM4" s="98" t="s">
+      <c r="AM4" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="AN4" s="98" t="s">
+      <c r="AN4" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="AO4" s="98"/>
+      <c r="AO4" s="34"/>
       <c r="AP4" s="37"/>
-      <c r="AQ4" s="98"/>
-      <c r="AR4" s="98" t="s">
+      <c r="AQ4" s="34"/>
+      <c r="AR4" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="AS4" s="98" t="s">
+      <c r="AS4" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="AT4" s="98" t="s">
+      <c r="AT4" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="AU4" s="98" t="s">
+      <c r="AU4" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="AV4" s="98" t="s">
+      <c r="AV4" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="AW4" s="98" t="s">
+      <c r="AW4" s="35" t="s">
         <v>172</v>
       </c>
-      <c r="AX4" s="98" t="s">
+      <c r="AX4" s="35" t="s">
         <v>173</v>
       </c>
-      <c r="AY4" s="98"/>
-      <c r="AZ4" s="98"/>
-      <c r="BA4" s="98"/>
-      <c r="BB4" s="98"/>
+      <c r="AY4" s="34"/>
+      <c r="AZ4" s="34"/>
+      <c r="BA4" s="34"/>
+      <c r="BB4" s="34"/>
     </row>
     <row r="5" spans="1:54">
       <c r="A5" s="85" t="s">
@@ -8113,7 +8147,7 @@
       <c r="BB5" s="86"/>
     </row>
     <row r="6" spans="1:54">
-      <c r="A6" s="103" t="s">
+      <c r="A6" s="88" t="s">
         <v>276</v>
       </c>
       <c r="B6" s="47" t="s">
@@ -8122,10 +8156,10 @@
       <c r="C6" s="47" t="s">
         <v>276</v>
       </c>
-      <c r="D6" s="88" t="s">
+      <c r="D6" s="47" t="s">
         <v>278</v>
       </c>
-      <c r="E6" s="88" t="s">
+      <c r="E6" s="47" t="s">
         <v>278</v>
       </c>
       <c r="F6" s="47" t="s">
@@ -8134,7 +8168,7 @@
       <c r="G6" s="47" t="s">
         <v>276</v>
       </c>
-      <c r="H6" s="58" t="s">
+      <c r="H6" s="43" t="s">
         <v>177</v>
       </c>
       <c r="I6" s="47" t="s">
@@ -8180,17 +8214,19 @@
       <c r="W6" s="89">
         <v>200</v>
       </c>
-      <c r="X6" s="59"/>
+      <c r="X6" s="91" t="s">
+        <v>177</v>
+      </c>
       <c r="Y6" s="44" t="s">
         <v>186</v>
       </c>
-      <c r="Z6" s="58" t="s">
+      <c r="Z6" s="43" t="s">
         <v>177</v>
       </c>
       <c r="AA6" s="47" t="s">
         <v>284</v>
       </c>
-      <c r="AB6" s="57" t="s">
+      <c r="AB6" s="42" t="s">
         <v>177</v>
       </c>
       <c r="AC6" s="47" t="s">
@@ -8211,30 +8247,28 @@
       <c r="AH6" s="47" t="s">
         <v>185</v>
       </c>
-      <c r="AI6" s="58" t="s">
+      <c r="AI6" s="43" t="s">
         <v>186</v>
       </c>
-      <c r="AJ6" s="58" t="s">
+      <c r="AJ6" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="AK6" s="58" t="s">
+      <c r="AK6" s="44" t="s">
+        <v>188</v>
+      </c>
+      <c r="AL6" s="92" t="s">
+        <v>285</v>
+      </c>
+      <c r="AM6" s="92" t="s">
+        <v>286</v>
+      </c>
+      <c r="AN6" s="92" t="s">
+        <v>287</v>
+      </c>
+      <c r="AO6" s="42" t="s">
         <v>177</v>
       </c>
-      <c r="AL6" s="102" t="s">
-        <v>367</v>
-      </c>
-      <c r="AM6" s="102" t="s">
-        <v>368</v>
-      </c>
-      <c r="AN6" s="102" t="s">
-        <v>369</v>
-      </c>
-      <c r="AO6" s="57" t="s">
-        <v>177</v>
-      </c>
-      <c r="AP6" s="59" t="s">
-        <v>177</v>
-      </c>
+      <c r="AP6" s="59"/>
       <c r="AQ6" s="44" t="s">
         <v>185</v>
       </c>
@@ -8247,35 +8281,411 @@
       <c r="AT6" s="44" t="s">
         <v>185</v>
       </c>
-      <c r="AU6" s="88" t="s">
-        <v>285</v>
+      <c r="AU6" s="47" t="s">
+        <v>288</v>
       </c>
       <c r="AV6" s="47" t="s">
         <v>185</v>
       </c>
       <c r="AW6" s="89">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AX6" s="47" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="AY6" s="44" t="s">
         <v>186</v>
       </c>
-      <c r="AZ6" s="58" t="s">
+      <c r="AZ6" s="44" t="s">
+        <v>186</v>
+      </c>
+      <c r="BA6" s="44" t="s">
+        <v>188</v>
+      </c>
+      <c r="BB6" s="44" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="8" spans="1:54">
+      <c r="B8" s="93" t="s">
+        <v>290</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>277</v>
+      </c>
+      <c r="D8" s="71" t="s">
+        <v>291</v>
+      </c>
+      <c r="E8" s="42" t="s">
+        <v>291</v>
+      </c>
+      <c r="F8" s="42" t="s">
+        <v>277</v>
+      </c>
+      <c r="G8" s="42" t="s">
+        <v>277</v>
+      </c>
+      <c r="H8" s="43" t="s">
         <v>177</v>
       </c>
-      <c r="BA6" s="58" t="s">
+      <c r="I8" s="42" t="s">
+        <v>292</v>
+      </c>
+      <c r="J8" s="42" t="s">
+        <v>293</v>
+      </c>
+      <c r="K8" s="42" t="s">
+        <v>294</v>
+      </c>
+      <c r="L8" s="45">
+        <v>27</v>
+      </c>
+      <c r="M8" s="43" t="s">
+        <v>295</v>
+      </c>
+      <c r="N8" s="42" t="s">
+        <v>296</v>
+      </c>
+      <c r="O8" s="42" t="s">
+        <v>297</v>
+      </c>
+      <c r="P8" s="42" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q8" s="45">
+        <v>0</v>
+      </c>
+      <c r="R8" s="42" t="s">
+        <v>185</v>
+      </c>
+      <c r="S8" s="42" t="s">
+        <v>185</v>
+      </c>
+      <c r="T8" s="42" t="s">
+        <v>185</v>
+      </c>
+      <c r="U8" s="42" t="s">
+        <v>185</v>
+      </c>
+      <c r="V8" s="42" t="s">
+        <v>185</v>
+      </c>
+      <c r="W8" s="45">
+        <v>100</v>
+      </c>
+      <c r="X8" s="91" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y8" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="Z8" s="43" t="s">
+        <v>177</v>
+      </c>
+      <c r="AA8" s="42" t="s">
+        <v>298</v>
+      </c>
+      <c r="AB8" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="AC8" s="42" t="s">
+        <v>185</v>
+      </c>
+      <c r="AD8" s="42" t="s">
+        <v>184</v>
+      </c>
+      <c r="AE8" s="42" t="s">
+        <v>184</v>
+      </c>
+      <c r="AF8" s="42" t="s">
+        <v>184</v>
+      </c>
+      <c r="AG8" s="42" t="s">
+        <v>184</v>
+      </c>
+      <c r="AH8" s="42" t="s">
+        <v>184</v>
+      </c>
+      <c r="AI8" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="AJ8" s="43" t="s">
         <v>188</v>
       </c>
-      <c r="BB6" s="58" t="s">
+      <c r="AK8" s="43" t="s">
         <v>177</v>
+      </c>
+      <c r="AL8" s="48" t="s">
+        <v>299</v>
+      </c>
+      <c r="AM8" s="48" t="s">
+        <v>300</v>
+      </c>
+      <c r="AN8" s="48" t="s">
+        <v>301</v>
+      </c>
+      <c r="AO8" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="AP8" s="91" t="s">
+        <v>177</v>
+      </c>
+      <c r="AQ8" s="43" t="s">
+        <v>185</v>
+      </c>
+      <c r="AR8" s="43" t="s">
+        <v>185</v>
+      </c>
+      <c r="AS8" s="43" t="s">
+        <v>185</v>
+      </c>
+      <c r="AT8" s="43" t="s">
+        <v>185</v>
+      </c>
+      <c r="AU8" s="42" t="s">
+        <v>295</v>
+      </c>
+      <c r="AV8" s="42" t="s">
+        <v>185</v>
+      </c>
+      <c r="AW8" s="45">
+        <v>0</v>
+      </c>
+      <c r="AX8" s="42" t="s">
+        <v>192</v>
+      </c>
+      <c r="AY8" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="AZ8" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="BA8" s="43" t="s">
+        <v>188</v>
+      </c>
+      <c r="BB8" s="43" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="9" spans="1:54">
+      <c r="C9" s="94" t="b">
+        <f t="shared" ref="C9:BB9" si="0">C6=C8</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="94" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E9" s="94" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="94" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="94" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="94" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I9" s="94" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="94" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="94" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L9" s="94" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M9" s="94" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N9" s="94" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O9" s="94" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P9" s="94" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Q9" s="94" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R9" s="94" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S9" s="94" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T9" s="94" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="U9" s="94" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V9" s="94" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="W9" s="94" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X9" s="94" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Y9" s="94" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Z9" s="94" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AA9" s="94" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB9" s="94" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AC9" s="94" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AD9" s="94" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE9" s="94" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF9" s="94" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG9" s="94" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AH9" s="94" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI9" s="94" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AJ9" s="94" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AK9" s="94" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AL9" s="94" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AM9" s="94" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AN9" s="94" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AO9" s="94" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AP9" s="94" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="94" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AR9" s="94" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AS9" s="94" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AT9" s="94" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AU9" s="94" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AV9" s="94" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AW9" s="94" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AX9" s="94" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AY9" s="94" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AZ9" s="94" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="BA9" s="94" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="BB9" s="94" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="AW3:AX3"/>
   </mergeCells>
+  <conditionalFormatting sqref="C9:BB9">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>C6=C8</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8285,71 +8695,71 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="27.88671875" customWidth="1"/>
+    <col min="2" max="2" width="32.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="77.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="28" t="s">
-        <v>287</v>
-      </c>
-      <c r="B1" s="91" t="s">
-        <v>288</v>
-      </c>
-      <c r="C1" s="91" t="s">
-        <v>289</v>
+        <v>302</v>
+      </c>
+      <c r="B1" s="95" t="s">
+        <v>303</v>
+      </c>
+      <c r="C1" s="95" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="48" t="s">
-        <v>11</v>
+      <c r="A2" s="42" t="s">
+        <v>305</v>
       </c>
       <c r="B2" s="42" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="C2" s="42" t="s">
-        <v>291</v>
+        <v>307</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="42" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="B3" s="42" t="s">
-        <v>293</v>
+        <v>308</v>
       </c>
       <c r="C3" s="42" t="s">
-        <v>294</v>
+        <v>309</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="42" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="B4" s="42" t="s">
-        <v>295</v>
-      </c>
-      <c r="C4" s="42" t="s">
-        <v>296</v>
+        <v>310</v>
+      </c>
+      <c r="C4" s="101" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="42" t="s">
-        <v>292</v>
+      <c r="A5" s="48" t="s">
+        <v>11</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>297</v>
+        <v>312</v>
       </c>
       <c r="C5" s="42" t="s">
-        <v>298</v>
+        <v>313</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -8357,516 +8767,428 @@
         <v>11</v>
       </c>
       <c r="B6" s="42" t="s">
-        <v>299</v>
-      </c>
-      <c r="C6" s="42" t="s">
-        <v>300</v>
+        <v>314</v>
+      </c>
+      <c r="C6" s="101" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="48" t="s">
-        <v>11</v>
+      <c r="A7" s="96" t="s">
+        <v>316</v>
       </c>
       <c r="B7" s="42" t="s">
-        <v>301</v>
+        <v>317</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>302</v>
+        <v>318</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="48" t="s">
-        <v>11</v>
+      <c r="A8" s="96" t="s">
+        <v>316</v>
       </c>
       <c r="B8" s="42" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="C8" s="42" t="s">
-        <v>304</v>
+        <v>320</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="48" t="s">
-        <v>11</v>
+      <c r="A9" s="96" t="s">
+        <v>316</v>
       </c>
       <c r="B9" s="42" t="s">
-        <v>305</v>
+        <v>321</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>306</v>
+        <v>322</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="92" t="s">
-        <v>307</v>
+      <c r="A10" s="96" t="s">
+        <v>316</v>
       </c>
       <c r="B10" s="42" t="s">
-        <v>308</v>
+        <v>323</v>
       </c>
       <c r="C10" s="42" t="s">
-        <v>309</v>
+        <v>324</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="92" t="s">
-        <v>307</v>
-      </c>
-      <c r="B11" s="42" t="s">
-        <v>310</v>
-      </c>
-      <c r="C11" s="42" t="s">
-        <v>311</v>
+      <c r="A11" s="96" t="s">
+        <v>316</v>
+      </c>
+      <c r="B11" s="97" t="s">
+        <v>325</v>
+      </c>
+      <c r="C11" s="97" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="92" t="s">
-        <v>307</v>
-      </c>
-      <c r="B12" s="42" t="s">
-        <v>312</v>
-      </c>
-      <c r="C12" s="42" t="s">
-        <v>313</v>
+      <c r="A12" s="96" t="s">
+        <v>316</v>
+      </c>
+      <c r="B12" s="97" t="s">
+        <v>327</v>
+      </c>
+      <c r="C12" s="97" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="92" t="s">
-        <v>307</v>
-      </c>
-      <c r="B13" s="42" t="s">
-        <v>314</v>
-      </c>
-      <c r="C13" s="42" t="s">
-        <v>315</v>
+      <c r="A13" s="96" t="s">
+        <v>316</v>
+      </c>
+      <c r="B13" s="97" t="s">
+        <v>329</v>
+      </c>
+      <c r="C13" s="97" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="92" t="s">
-        <v>307</v>
-      </c>
-      <c r="B14" s="93" t="s">
-        <v>316</v>
-      </c>
-      <c r="C14" s="93" t="s">
-        <v>317</v>
+      <c r="A14" s="98" t="s">
+        <v>331</v>
+      </c>
+      <c r="B14" s="42" t="s">
+        <v>332</v>
+      </c>
+      <c r="C14" s="42" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="92" t="s">
-        <v>307</v>
-      </c>
-      <c r="B15" s="93" t="s">
-        <v>318</v>
-      </c>
-      <c r="C15" s="93" t="s">
-        <v>319</v>
+      <c r="A15" s="98" t="s">
+        <v>331</v>
+      </c>
+      <c r="B15" s="42" t="s">
+        <v>334</v>
+      </c>
+      <c r="C15" s="42" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="92" t="s">
-        <v>307</v>
-      </c>
-      <c r="B16" s="93" t="s">
-        <v>320</v>
-      </c>
-      <c r="C16" s="93" t="s">
+      <c r="A16" s="98" t="s">
+        <v>331</v>
+      </c>
+      <c r="B16" s="42" t="s">
         <v>321</v>
       </c>
+      <c r="C16" s="42" t="s">
+        <v>336</v>
+      </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="94" t="s">
-        <v>322</v>
+      <c r="A17" s="98" t="s">
+        <v>331</v>
       </c>
       <c r="B17" s="42" t="s">
         <v>323</v>
       </c>
       <c r="C17" s="42" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="94" t="s">
-        <v>322</v>
-      </c>
-      <c r="B18" s="42" t="s">
-        <v>325</v>
-      </c>
-      <c r="C18" s="42" t="s">
-        <v>326</v>
+      <c r="A18" s="98" t="s">
+        <v>331</v>
+      </c>
+      <c r="B18" s="97" t="s">
+        <v>338</v>
+      </c>
+      <c r="C18" s="97" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="94" t="s">
-        <v>322</v>
-      </c>
-      <c r="B19" s="42" t="s">
-        <v>312</v>
-      </c>
-      <c r="C19" s="42" t="s">
-        <v>327</v>
+      <c r="A19" s="98" t="s">
+        <v>331</v>
+      </c>
+      <c r="B19" s="97" t="s">
+        <v>340</v>
+      </c>
+      <c r="C19" s="97" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="94" t="s">
-        <v>322</v>
-      </c>
-      <c r="B20" s="42" t="s">
-        <v>314</v>
-      </c>
-      <c r="C20" s="42" t="s">
-        <v>328</v>
+      <c r="A20" s="98" t="s">
+        <v>331</v>
+      </c>
+      <c r="B20" s="97" t="s">
+        <v>342</v>
+      </c>
+      <c r="C20" s="97" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="94" t="s">
-        <v>322</v>
-      </c>
-      <c r="B21" s="93" t="s">
-        <v>329</v>
-      </c>
-      <c r="C21" s="93" t="s">
+      <c r="A21" s="98" t="s">
+        <v>331</v>
+      </c>
+      <c r="B21" s="97" t="s">
+        <v>344</v>
+      </c>
+      <c r="C21" s="97" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="94" t="s">
-        <v>322</v>
-      </c>
-      <c r="B22" s="93" t="s">
-        <v>331</v>
-      </c>
-      <c r="C22" s="93" t="s">
-        <v>332</v>
+      <c r="A22" s="99" t="s">
+        <v>345</v>
+      </c>
+      <c r="B22" s="42" t="s">
+        <v>346</v>
+      </c>
+      <c r="C22" s="43" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="94" t="s">
-        <v>322</v>
-      </c>
-      <c r="B23" s="93" t="s">
-        <v>333</v>
-      </c>
-      <c r="C23" s="93" t="s">
-        <v>334</v>
+      <c r="A23" s="99" t="s">
+        <v>345</v>
+      </c>
+      <c r="B23" s="42" t="s">
+        <v>348</v>
+      </c>
+      <c r="C23" s="47" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="94" t="s">
-        <v>322</v>
-      </c>
-      <c r="B24" s="93" t="s">
-        <v>335</v>
-      </c>
-      <c r="C24" s="93" t="s">
+      <c r="A24" s="99" t="s">
+        <v>345</v>
+      </c>
+      <c r="B24" s="42" t="s">
         <v>321</v>
       </c>
+      <c r="C24" s="42" t="s">
+        <v>350</v>
+      </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="95" t="s">
-        <v>336</v>
+      <c r="A25" s="99" t="s">
+        <v>345</v>
       </c>
       <c r="B25" s="42" t="s">
-        <v>337</v>
-      </c>
-      <c r="C25" s="43" t="s">
-        <v>338</v>
+        <v>323</v>
+      </c>
+      <c r="C25" s="42" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="95" t="s">
-        <v>336</v>
-      </c>
-      <c r="B26" s="42" t="s">
-        <v>339</v>
+      <c r="A26" s="99" t="s">
+        <v>345</v>
+      </c>
+      <c r="B26" s="47" t="s">
+        <v>352</v>
       </c>
       <c r="C26" s="47" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="95" t="s">
-        <v>336</v>
-      </c>
-      <c r="B27" s="42" t="s">
-        <v>312</v>
-      </c>
-      <c r="C27" s="42" t="s">
-        <v>341</v>
+      <c r="A27" s="99" t="s">
+        <v>345</v>
+      </c>
+      <c r="B27" s="97" t="s">
+        <v>354</v>
+      </c>
+      <c r="C27" s="97" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="95" t="s">
-        <v>336</v>
-      </c>
-      <c r="B28" s="42" t="s">
-        <v>314</v>
-      </c>
-      <c r="C28" s="42" t="s">
-        <v>342</v>
+      <c r="A28" s="99" t="s">
+        <v>345</v>
+      </c>
+      <c r="B28" s="97" t="s">
+        <v>356</v>
+      </c>
+      <c r="C28" s="97" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="95" t="s">
-        <v>336</v>
-      </c>
-      <c r="B29" s="47" t="s">
-        <v>343</v>
-      </c>
-      <c r="C29" s="47" t="s">
-        <v>344</v>
+      <c r="A29" s="99" t="s">
+        <v>345</v>
+      </c>
+      <c r="B29" s="97" t="s">
+        <v>358</v>
+      </c>
+      <c r="C29" s="97" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="95" t="s">
-        <v>336</v>
-      </c>
-      <c r="B30" s="93" t="s">
+      <c r="A30" s="99" t="s">
         <v>345</v>
       </c>
-      <c r="C30" s="93" t="s">
-        <v>346</v>
+      <c r="B30" s="97" t="s">
+        <v>360</v>
+      </c>
+      <c r="C30" s="100" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="95" t="s">
-        <v>336</v>
-      </c>
-      <c r="B31" s="93" t="s">
-        <v>347</v>
-      </c>
-      <c r="C31" s="93" t="s">
-        <v>348</v>
+      <c r="A31" s="42" t="s">
+        <v>305</v>
+      </c>
+      <c r="B31" s="42" t="s">
+        <v>362</v>
+      </c>
+      <c r="C31" s="42" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="95" t="s">
-        <v>336</v>
-      </c>
-      <c r="B32" s="93" t="s">
-        <v>349</v>
-      </c>
-      <c r="C32" s="93" t="s">
-        <v>350</v>
+      <c r="A32" s="42" t="s">
+        <v>305</v>
+      </c>
+      <c r="B32" s="42" t="s">
+        <v>364</v>
+      </c>
+      <c r="C32" s="42" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="95" t="s">
-        <v>336</v>
-      </c>
-      <c r="B33" s="93" t="s">
-        <v>351</v>
-      </c>
-      <c r="C33" s="96" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" s="99" customFormat="1">
-      <c r="A34" s="104" t="s">
+      <c r="A33" s="42" t="s">
+        <v>305</v>
+      </c>
+      <c r="B33" s="42" t="s">
+        <v>366</v>
+      </c>
+      <c r="C33" s="42" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="42" t="s">
+        <v>305</v>
+      </c>
+      <c r="B34" s="42" t="s">
+        <v>368</v>
+      </c>
+      <c r="C34" s="42" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="42" t="s">
+        <v>305</v>
+      </c>
+      <c r="B35" s="42" t="s">
         <v>370</v>
       </c>
-      <c r="B34" s="57" t="s">
+      <c r="C35" s="42" t="s">
         <v>371</v>
       </c>
-      <c r="C34" s="97" t="s">
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="42" t="s">
+        <v>305</v>
+      </c>
+      <c r="B36" s="42" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" s="99" customFormat="1">
-      <c r="A35" s="104" t="s">
-        <v>370</v>
-      </c>
-      <c r="B35" s="97" t="s">
-        <v>387</v>
-      </c>
-      <c r="C35" s="97" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" s="99" customFormat="1">
-      <c r="A36" s="104" t="s">
-        <v>370</v>
-      </c>
-      <c r="B36" s="97" t="s">
-        <v>393</v>
-      </c>
-      <c r="C36" s="97" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" s="99" customFormat="1">
-      <c r="A37" s="104" t="s">
-        <v>370</v>
-      </c>
-      <c r="B37" s="97" t="s">
-        <v>392</v>
-      </c>
-      <c r="C37" s="97" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" s="99" customFormat="1">
-      <c r="A38" s="104" t="s">
-        <v>370</v>
-      </c>
-      <c r="B38" s="97" t="s">
-        <v>293</v>
-      </c>
-      <c r="C38" s="97" t="s">
-        <v>391</v>
+      <c r="C36" s="42" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="42" t="s">
+        <v>305</v>
+      </c>
+      <c r="B37" s="42" t="s">
+        <v>374</v>
+      </c>
+      <c r="C37" s="42" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="42" t="s">
+        <v>305</v>
+      </c>
+      <c r="B38" s="42" t="s">
+        <v>376</v>
+      </c>
+      <c r="C38" s="42" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="42" t="s">
-        <v>292</v>
-      </c>
-      <c r="B39" s="57" t="s">
-        <v>353</v>
-      </c>
-      <c r="C39" s="97" t="s">
-        <v>373</v>
+        <v>305</v>
+      </c>
+      <c r="B39" s="42" t="s">
+        <v>378</v>
+      </c>
+      <c r="C39" s="42" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="42" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="B40" s="42" t="s">
-        <v>354</v>
-      </c>
-      <c r="C40" s="57" t="s">
-        <v>374</v>
+        <v>380</v>
+      </c>
+      <c r="C40" s="47" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="42" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="B41" s="42" t="s">
-        <v>355</v>
-      </c>
-      <c r="C41" s="57" t="s">
-        <v>375</v>
+        <v>382</v>
+      </c>
+      <c r="C41" s="42" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="42" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="B42" s="42" t="s">
-        <v>356</v>
-      </c>
-      <c r="C42" s="57" t="s">
-        <v>376</v>
+        <v>384</v>
+      </c>
+      <c r="C42" s="42" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="42" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="B43" s="42" t="s">
-        <v>357</v>
-      </c>
-      <c r="C43" s="57" t="s">
-        <v>377</v>
+        <v>386</v>
+      </c>
+      <c r="C43" s="42" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="42" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="B44" s="42" t="s">
-        <v>358</v>
-      </c>
-      <c r="C44" s="57" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="42" t="s">
-        <v>292</v>
-      </c>
-      <c r="B45" s="42" t="s">
-        <v>359</v>
-      </c>
-      <c r="C45" s="57" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="42" t="s">
-        <v>292</v>
-      </c>
-      <c r="B46" s="42" t="s">
-        <v>360</v>
-      </c>
-      <c r="C46" s="57" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="42" t="s">
-        <v>292</v>
-      </c>
-      <c r="B47" s="42" t="s">
-        <v>361</v>
-      </c>
-      <c r="C47" s="57" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="42" t="s">
-        <v>292</v>
-      </c>
-      <c r="B48" s="42" t="s">
-        <v>362</v>
-      </c>
-      <c r="C48" s="57" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="42" t="s">
-        <v>292</v>
-      </c>
-      <c r="B49" s="42" t="s">
-        <v>363</v>
-      </c>
-      <c r="C49" s="57" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="42" t="s">
-        <v>292</v>
-      </c>
-      <c r="B50" s="42" t="s">
-        <v>364</v>
-      </c>
-      <c r="C50" s="57" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="42" t="s">
-        <v>292</v>
-      </c>
-      <c r="B51" s="42" t="s">
-        <v>365</v>
-      </c>
-      <c r="C51" s="57" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="42" t="s">
-        <v>292</v>
-      </c>
-      <c r="B52" s="42" t="s">
-        <v>366</v>
-      </c>
-      <c r="C52" s="57" t="s">
-        <v>386</v>
+        <v>388</v>
+      </c>
+      <c r="C44" s="42" t="s">
+        <v>389</v>
       </c>
     </row>
   </sheetData>

--- a/TNR_JDD/RO/JDD.RO.ACT.xlsx
+++ b/TNR_JDD/RO/JDD.RO.ACT.xlsx
@@ -1,32 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
-  <bookViews>
-    <workbookView xWindow="420" yWindow="552" windowWidth="23100" windowHeight="10260" activeTab="6"/>
-  </bookViews>
   <sheets>
-    <sheet name="Version" sheetId="1" r:id="rId1"/>
-    <sheet name="Info" sheetId="2" r:id="rId2"/>
-    <sheet name="001" sheetId="3" r:id="rId3"/>
-    <sheet name="003HAB" sheetId="4" r:id="rId4"/>
-    <sheet name="003MET" sheetId="5" r:id="rId5"/>
-    <sheet name="004EMP" sheetId="6" r:id="rId6"/>
-    <sheet name="005" sheetId="7" r:id="rId7"/>
-    <sheet name="IHMTO" sheetId="8" r:id="rId8"/>
+    <sheet state="visible" name="Version" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Info" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="001" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="003HAB" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="003MET" sheetId="5" r:id="rId8"/>
+    <sheet state="visible" name="004EMP" sheetId="6" r:id="rId9"/>
+    <sheet state="visible" name="005" sheetId="7" r:id="rId10"/>
+    <sheet state="visible" name="IHMTO" sheetId="8" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <definedNames/>
+  <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId12" roundtripDataSignature="AMtx7mgzw2kPSin+sLqc9nqWsTwuV+hbRw=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId12" roundtripDataSignature="AMtx7mjxic+QLLr9Qld4wM4FXolcYTKtNQ=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="374">
   <si>
     <t>Date</t>
   </si>
@@ -862,7 +859,7 @@
     <t>RO.ACT.005.FON.01.SRC</t>
   </si>
   <si>
-    <t>RO.ACT.005.FON.01.............</t>
+    <t>RO.ACT.005.FON.01.SRC.........</t>
   </si>
   <si>
     <t>PABOCOU</t>
@@ -871,45 +868,6 @@
     <t>ANNA</t>
   </si>
   <si>
-    <t>DIVERS</t>
-  </si>
-  <si>
-    <t>GROUPE 28</t>
-  </si>
-  <si>
-    <t>FAMILLE 28</t>
-  </si>
-  <si>
-    <t>anna.pabocou@mainta.com</t>
-  </si>
-  <si>
-    <t>01010128</t>
-  </si>
-  <si>
-    <t>06060628</t>
-  </si>
-  <si>
-    <t>09090928</t>
-  </si>
-  <si>
-    <t>RO.ACT.005.FON.01.A...........</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>valeur de RO.ACT.005.FON.01.SRC</t>
-  </si>
-  <si>
-    <t>RO.ACT.005.FON.01.SRC.........</t>
-  </si>
-  <si>
-    <t>TERGEIST</t>
-  </si>
-  <si>
-    <t>PAUL</t>
-  </si>
-  <si>
     <t>DIVERS15</t>
   </si>
   <si>
@@ -923,15 +881,6 @@
   </si>
   <si>
     <t>$VIDE</t>
-  </si>
-  <si>
-    <t>01010115</t>
-  </si>
-  <si>
-    <t>06060620</t>
-  </si>
-  <si>
-    <t>09090923</t>
   </si>
   <si>
     <t>TAB</t>
@@ -1201,91 +1150,86 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
+  </numFmts>
   <fonts count="15">
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
-      <sz val="8"/>
+      <sz val="8.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="9"/>
+      <sz val="9.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="&quot;Arial"/>
     </font>
     <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="9"/>
+      <sz val="9.0"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
@@ -1295,7 +1239,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1419,13 +1363,7 @@
     </fill>
   </fills>
   <borders count="3">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -1439,259 +1377,348 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="105">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="96">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf quotePrefix="1" borderId="2" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="2" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="6" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="2" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="9" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="10" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="11" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="12" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="12" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="12" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="10" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="10" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="12" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="13" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="13" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="14" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="10" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf quotePrefix="1" borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="14" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="11" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="15" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="15" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf quotePrefix="1" borderId="0" fillId="15" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="14" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="14" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="14" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="10" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="11" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="12" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="12" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="12" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="12" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="13" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="15" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="12" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="12" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="15" fontId="12" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="15" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="14" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="9" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="16" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="17" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="10" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="12" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="12" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="12" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="13" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="13" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="10" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="18" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="10" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="19" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="20" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="21" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="0"/>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1881,27 +1908,27 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F999"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="2" width="10.6640625" customWidth="1"/>
-    <col min="3" max="3" width="29.88671875" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" customWidth="1"/>
-    <col min="6" max="26" width="10.6640625" customWidth="1"/>
+    <col customWidth="1" min="1" max="2" width="10.63"/>
+    <col customWidth="1" min="3" max="3" width="29.88"/>
+    <col customWidth="1" min="4" max="4" width="10.63"/>
+    <col customWidth="1" min="5" max="5" width="12.13"/>
+    <col customWidth="1" min="6" max="26" width="10.63"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="12.75" customHeight="1">
+    <row r="1" ht="12.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1918,9 +1945,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="12.75" customHeight="1">
+    <row r="2" ht="12.75" customHeight="1">
       <c r="A2" s="3">
-        <v>44886</v>
+        <v>44886.0</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>5</v>
@@ -1934,126 +1961,126 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="12.75" customHeight="1">
+    <row r="3" ht="12.75" customHeight="1">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:6" ht="12.75" customHeight="1">
+    <row r="4" ht="12.75" customHeight="1">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:6" ht="12.75" customHeight="1">
+    <row r="5" ht="12.75" customHeight="1">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:6" ht="12.75" customHeight="1">
+    <row r="6" ht="12.75" customHeight="1">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:6" ht="12.75" customHeight="1">
+    <row r="7" ht="12.75" customHeight="1">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:6" ht="12.75" customHeight="1">
+    <row r="8" ht="12.75" customHeight="1">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:6" ht="12.75" customHeight="1">
+    <row r="9" ht="12.75" customHeight="1">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:6" ht="12.75" customHeight="1">
+    <row r="10" ht="12.75" customHeight="1">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:6" ht="12.75" customHeight="1">
+    <row r="11" ht="12.75" customHeight="1">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="1:6" ht="12.75" customHeight="1">
+    <row r="12" ht="12.75" customHeight="1">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
     </row>
-    <row r="13" spans="1:6" ht="12.75" customHeight="1">
+    <row r="13" ht="12.75" customHeight="1">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="1:6" ht="12.75" customHeight="1">
+    <row r="14" ht="12.75" customHeight="1">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
     </row>
-    <row r="15" spans="1:6" ht="12.75" customHeight="1">
+    <row r="15" ht="12.75" customHeight="1">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="1:6" ht="12.75" customHeight="1">
+    <row r="16" ht="12.75" customHeight="1">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
     </row>
-    <row r="17" spans="1:5" ht="12.75" customHeight="1">
+    <row r="17" ht="12.75" customHeight="1">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
     </row>
-    <row r="18" spans="1:5" ht="12.75" customHeight="1"/>
-    <row r="19" spans="1:5" ht="12.75" customHeight="1"/>
-    <row r="20" spans="1:5" ht="12.75" customHeight="1"/>
-    <row r="21" spans="1:5" ht="12.75" customHeight="1"/>
-    <row r="22" spans="1:5" ht="12.75" customHeight="1"/>
-    <row r="23" spans="1:5" ht="12.75" customHeight="1"/>
-    <row r="24" spans="1:5" ht="12.75" customHeight="1"/>
-    <row r="25" spans="1:5" ht="12.75" customHeight="1"/>
-    <row r="26" spans="1:5" ht="12.75" customHeight="1"/>
-    <row r="27" spans="1:5" ht="12.75" customHeight="1"/>
-    <row r="28" spans="1:5" ht="12.75" customHeight="1"/>
-    <row r="29" spans="1:5" ht="12.75" customHeight="1"/>
-    <row r="30" spans="1:5" ht="12.75" customHeight="1"/>
-    <row r="31" spans="1:5" ht="12.75" customHeight="1"/>
-    <row r="32" spans="1:5" ht="12.75" customHeight="1"/>
+    <row r="18" ht="12.75" customHeight="1"/>
+    <row r="19" ht="12.75" customHeight="1"/>
+    <row r="20" ht="12.75" customHeight="1"/>
+    <row r="21" ht="12.75" customHeight="1"/>
+    <row r="22" ht="12.75" customHeight="1"/>
+    <row r="23" ht="12.75" customHeight="1"/>
+    <row r="24" ht="12.75" customHeight="1"/>
+    <row r="25" ht="12.75" customHeight="1"/>
+    <row r="26" ht="12.75" customHeight="1"/>
+    <row r="27" ht="12.75" customHeight="1"/>
+    <row r="28" ht="12.75" customHeight="1"/>
+    <row r="29" ht="12.75" customHeight="1"/>
+    <row r="30" ht="12.75" customHeight="1"/>
+    <row r="31" ht="12.75" customHeight="1"/>
+    <row r="32" ht="12.75" customHeight="1"/>
     <row r="33" ht="12.75" customHeight="1"/>
     <row r="34" ht="12.75" customHeight="1"/>
     <row r="35" ht="12.75" customHeight="1"/>
@@ -3022,28 +3049,32 @@
     <row r="998" ht="12.75" customHeight="1"/>
     <row r="999" ht="12.75" customHeight="1"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z980"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" customWidth="1"/>
-    <col min="2" max="2" width="61.44140625" customWidth="1"/>
-    <col min="3" max="3" width="28" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" customWidth="1"/>
-    <col min="6" max="26" width="10.6640625" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="13.5"/>
+    <col customWidth="1" min="2" max="2" width="61.5"/>
+    <col customWidth="1" min="3" max="3" width="28.0"/>
+    <col customWidth="1" min="4" max="4" width="10.63"/>
+    <col customWidth="1" min="5" max="5" width="11.88"/>
+    <col customWidth="1" min="6" max="26" width="10.63"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="12.75" customHeight="1">
+    <row r="1" ht="12.75" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>8</v>
       </c>
@@ -3056,7 +3087,7 @@
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
     </row>
-    <row r="2" spans="1:5" ht="12.75" customHeight="1">
+    <row r="2" ht="12.75" customHeight="1">
       <c r="A2" s="10" t="s">
         <v>11</v>
       </c>
@@ -3064,12 +3095,12 @@
         <v>12</v>
       </c>
       <c r="C2" s="9">
-        <v>1022</v>
+        <v>1022.0</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
     </row>
-    <row r="3" spans="1:5" ht="12.75" customHeight="1">
+    <row r="3" ht="12.75" customHeight="1">
       <c r="A3" s="12" t="s">
         <v>13</v>
       </c>
@@ -3083,7 +3114,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="12.75" customHeight="1">
+    <row r="4" ht="12.75" customHeight="1">
       <c r="A4" s="12" t="s">
         <v>17</v>
       </c>
@@ -3097,7 +3128,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="12.75" customHeight="1">
+    <row r="5" ht="12.75" customHeight="1">
       <c r="A5" s="12" t="s">
         <v>20</v>
       </c>
@@ -3112,7 +3143,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="12.75" customHeight="1">
+    <row r="6" ht="12.75" customHeight="1">
       <c r="A6" s="12" t="s">
         <v>23</v>
       </c>
@@ -3127,7 +3158,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="12.75" customHeight="1">
+    <row r="7" ht="12.75" customHeight="1">
       <c r="A7" s="12" t="s">
         <v>25</v>
       </c>
@@ -3142,7 +3173,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="12.75" customHeight="1">
+    <row r="8" ht="12.75" customHeight="1">
       <c r="A8" s="12" t="s">
         <v>27</v>
       </c>
@@ -3156,7 +3187,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="12.75" customHeight="1">
+    <row r="9" ht="12.75" customHeight="1">
       <c r="A9" s="12" t="s">
         <v>29</v>
       </c>
@@ -3168,7 +3199,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="12.75" customHeight="1">
+    <row r="10" ht="12.75" customHeight="1">
       <c r="A10" s="12" t="s">
         <v>31</v>
       </c>
@@ -3180,7 +3211,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="12.75" customHeight="1">
+    <row r="11" ht="12.75" customHeight="1">
       <c r="A11" s="12" t="s">
         <v>33</v>
       </c>
@@ -3192,7 +3223,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="12.75" customHeight="1">
+    <row r="12" ht="12.75" customHeight="1">
       <c r="A12" s="13" t="s">
         <v>35</v>
       </c>
@@ -3204,7 +3235,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="12.75" customHeight="1">
+    <row r="13" ht="12.75" customHeight="1">
       <c r="A13" s="13" t="s">
         <v>37</v>
       </c>
@@ -3218,7 +3249,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="12.75" customHeight="1">
+    <row r="14" ht="12.75" customHeight="1">
       <c r="A14" s="5" t="s">
         <v>39</v>
       </c>
@@ -3233,7 +3264,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="12.75" customHeight="1">
+    <row r="15" ht="12.75" customHeight="1">
       <c r="A15" s="13" t="s">
         <v>41</v>
       </c>
@@ -3245,7 +3276,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="12.75" customHeight="1">
+    <row r="16" ht="12.75" customHeight="1">
       <c r="A16" s="13" t="s">
         <v>43</v>
       </c>
@@ -3257,7 +3288,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="12.75" customHeight="1">
+    <row r="17" ht="12.75" customHeight="1">
       <c r="A17" s="5" t="s">
         <v>45</v>
       </c>
@@ -3268,7 +3299,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="12.75" customHeight="1">
+    <row r="18" ht="12.75" customHeight="1">
       <c r="A18" s="5" t="s">
         <v>47</v>
       </c>
@@ -3279,7 +3310,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="12.75" customHeight="1">
+    <row r="19" ht="12.75" customHeight="1">
       <c r="A19" s="5" t="s">
         <v>49</v>
       </c>
@@ -3290,7 +3321,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="12.75" customHeight="1">
+    <row r="20" ht="12.75" customHeight="1">
       <c r="A20" s="5" t="s">
         <v>51</v>
       </c>
@@ -3301,7 +3332,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="12.75" customHeight="1">
+    <row r="21" ht="12.75" customHeight="1">
       <c r="A21" s="5" t="s">
         <v>53</v>
       </c>
@@ -3312,7 +3343,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="12.75" customHeight="1">
+    <row r="22" ht="12.75" customHeight="1">
       <c r="A22" s="5" t="s">
         <v>55</v>
       </c>
@@ -3323,7 +3354,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="12.75" customHeight="1">
+    <row r="23" ht="12.75" customHeight="1">
       <c r="A23" s="5" t="s">
         <v>57</v>
       </c>
@@ -3334,7 +3365,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="12.75" customHeight="1">
+    <row r="24" ht="12.75" customHeight="1">
       <c r="A24" s="5" t="s">
         <v>59</v>
       </c>
@@ -3345,7 +3376,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="12.75" customHeight="1">
+    <row r="25" ht="12.75" customHeight="1">
       <c r="A25" s="5" t="s">
         <v>61</v>
       </c>
@@ -3356,7 +3387,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="12.75" customHeight="1">
+    <row r="26" ht="12.75" customHeight="1">
       <c r="A26" s="18" t="s">
         <v>63</v>
       </c>
@@ -3370,7 +3401,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="12.75" customHeight="1">
+    <row r="27" ht="12.75" customHeight="1">
       <c r="A27" s="5" t="s">
         <v>65</v>
       </c>
@@ -3387,7 +3418,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="12.75" customHeight="1">
+    <row r="28" ht="12.75" customHeight="1">
       <c r="A28" s="5" t="s">
         <v>68</v>
       </c>
@@ -3404,7 +3435,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="12.75" customHeight="1">
+    <row r="29" ht="12.75" customHeight="1">
       <c r="A29" s="5" t="s">
         <v>70</v>
       </c>
@@ -3415,7 +3446,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="12.75" customHeight="1">
+    <row r="30" ht="12.75" customHeight="1">
       <c r="A30" s="5" t="s">
         <v>72</v>
       </c>
@@ -3426,7 +3457,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="12.75" customHeight="1">
+    <row r="31" ht="12.75" customHeight="1">
       <c r="A31" s="5" t="s">
         <v>74</v>
       </c>
@@ -3437,7 +3468,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="12.75" customHeight="1">
+    <row r="32" ht="12.75" customHeight="1">
       <c r="A32" s="5" t="s">
         <v>76</v>
       </c>
@@ -3448,7 +3479,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="12.75" customHeight="1">
+    <row r="33" ht="12.75" customHeight="1">
       <c r="A33" s="5" t="s">
         <v>78</v>
       </c>
@@ -3459,7 +3490,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="12.75" customHeight="1">
+    <row r="34" ht="12.75" customHeight="1">
       <c r="A34" s="5" t="s">
         <v>80</v>
       </c>
@@ -3470,7 +3501,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="12.75" customHeight="1">
+    <row r="35" ht="12.75" customHeight="1">
       <c r="A35" s="5" t="s">
         <v>82</v>
       </c>
@@ -3481,7 +3512,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="12.75" customHeight="1">
+    <row r="36" ht="12.75" customHeight="1">
       <c r="A36" s="5" t="s">
         <v>84</v>
       </c>
@@ -3492,7 +3523,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="12.75" customHeight="1">
+    <row r="37" ht="12.75" customHeight="1">
       <c r="A37" s="5" t="s">
         <v>86</v>
       </c>
@@ -3509,7 +3540,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="12.75" customHeight="1">
+    <row r="38" ht="12.75" customHeight="1">
       <c r="A38" s="5" t="s">
         <v>88</v>
       </c>
@@ -3523,7 +3554,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="12.75" customHeight="1">
+    <row r="39" ht="12.75" customHeight="1">
       <c r="A39" s="5" t="s">
         <v>90</v>
       </c>
@@ -3537,7 +3568,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="12.75" customHeight="1">
+    <row r="40" ht="12.75" customHeight="1">
       <c r="A40" s="5" t="s">
         <v>92</v>
       </c>
@@ -3548,7 +3579,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="12.75" customHeight="1">
+    <row r="41" ht="12.75" customHeight="1">
       <c r="A41" s="5" t="s">
         <v>94</v>
       </c>
@@ -3559,7 +3590,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="12.75" customHeight="1">
+    <row r="42" ht="12.75" customHeight="1">
       <c r="A42" s="5" t="s">
         <v>96</v>
       </c>
@@ -3570,7 +3601,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="12.75" customHeight="1">
+    <row r="43" ht="12.75" customHeight="1">
       <c r="A43" s="5" t="s">
         <v>98</v>
       </c>
@@ -3582,7 +3613,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="12.75" customHeight="1">
+    <row r="44" ht="12.75" customHeight="1">
       <c r="A44" s="18" t="s">
         <v>100</v>
       </c>
@@ -3596,7 +3627,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="12.75" customHeight="1">
+    <row r="45" ht="12.75" customHeight="1">
       <c r="A45" s="5" t="s">
         <v>101</v>
       </c>
@@ -3610,7 +3641,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="12.75" customHeight="1">
+    <row r="46" ht="12.75" customHeight="1">
       <c r="A46" s="5" t="s">
         <v>103</v>
       </c>
@@ -3624,7 +3655,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="12.75" customHeight="1">
+    <row r="47" ht="12.75" customHeight="1">
       <c r="A47" s="5" t="s">
         <v>105</v>
       </c>
@@ -3638,7 +3669,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="12.75" customHeight="1">
+    <row r="48" ht="12.75" customHeight="1">
       <c r="A48" s="5" t="s">
         <v>107</v>
       </c>
@@ -3652,7 +3683,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:26" ht="12.75" customHeight="1">
+    <row r="49" ht="12.75" customHeight="1">
       <c r="A49" s="5" t="s">
         <v>109</v>
       </c>
@@ -3663,7 +3694,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="50" spans="1:26" ht="12.75" customHeight="1">
+    <row r="50" ht="12.75" customHeight="1">
       <c r="A50" s="22" t="s">
         <v>111</v>
       </c>
@@ -3699,7 +3730,7 @@
       <c r="Y50" s="23"/>
       <c r="Z50" s="23"/>
     </row>
-    <row r="51" spans="1:26" ht="12.75" customHeight="1">
+    <row r="51" ht="12.75" customHeight="1">
       <c r="A51" s="5" t="s">
         <v>113</v>
       </c>
@@ -3713,7 +3744,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="52" spans="1:26" ht="12.75" customHeight="1">
+    <row r="52" ht="12.75" customHeight="1">
       <c r="A52" s="5" t="s">
         <v>115</v>
       </c>
@@ -3727,7 +3758,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="53" spans="1:26" ht="12.75" customHeight="1">
+    <row r="53" ht="12.75" customHeight="1">
       <c r="A53" s="5" t="s">
         <v>117</v>
       </c>
@@ -3741,7 +3772,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="1:26" ht="12.75" customHeight="1">
+    <row r="54" ht="12.75" customHeight="1">
       <c r="A54" s="5" t="s">
         <v>119</v>
       </c>
@@ -3755,7 +3786,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="55" spans="1:26" ht="12.75" customHeight="1">
+    <row r="55" ht="12.75" customHeight="1">
       <c r="A55" s="9" t="s">
         <v>121</v>
       </c>
@@ -3763,11 +3794,11 @@
         <v>122</v>
       </c>
       <c r="C55" s="9">
-        <v>1083</v>
+        <v>1083.0</v>
       </c>
       <c r="D55" s="9"/>
     </row>
-    <row r="56" spans="1:26" ht="12.75" customHeight="1">
+    <row r="56" ht="12.75" customHeight="1">
       <c r="A56" s="5" t="s">
         <v>123</v>
       </c>
@@ -3778,7 +3809,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="57" spans="1:26" ht="12.75" customHeight="1">
+    <row r="57" ht="12.75" customHeight="1">
       <c r="A57" s="5" t="s">
         <v>125</v>
       </c>
@@ -3789,7 +3820,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="58" spans="1:26" ht="12.75" customHeight="1">
+    <row r="58" ht="12.75" customHeight="1">
       <c r="A58" s="5" t="s">
         <v>127</v>
       </c>
@@ -3803,7 +3834,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="59" spans="1:26" ht="12.75" customHeight="1">
+    <row r="59" ht="12.75" customHeight="1">
       <c r="A59" s="5" t="s">
         <v>13</v>
       </c>
@@ -3817,7 +3848,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="60" spans="1:26" ht="12.75" customHeight="1">
+    <row r="60" ht="12.75" customHeight="1">
       <c r="A60" s="9" t="s">
         <v>129</v>
       </c>
@@ -3825,11 +3856,11 @@
         <v>130</v>
       </c>
       <c r="C60" s="25">
-        <v>1086</v>
+        <v>1086.0</v>
       </c>
       <c r="D60" s="9"/>
     </row>
-    <row r="61" spans="1:26" ht="12.75" customHeight="1">
+    <row r="61" ht="12.75" customHeight="1">
       <c r="A61" s="5" t="s">
         <v>123</v>
       </c>
@@ -3840,7 +3871,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="62" spans="1:26" ht="12.75" customHeight="1">
+    <row r="62" ht="12.75" customHeight="1">
       <c r="A62" s="5" t="s">
         <v>125</v>
       </c>
@@ -3851,7 +3882,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="63" spans="1:26" ht="12.75" customHeight="1">
+    <row r="63" ht="12.75" customHeight="1">
       <c r="A63" s="5" t="s">
         <v>13</v>
       </c>
@@ -3865,7 +3896,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="64" spans="1:26" ht="12.75" customHeight="1">
+    <row r="64" ht="12.75" customHeight="1">
       <c r="A64" s="5" t="s">
         <v>133</v>
       </c>
@@ -3879,7 +3910,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="12.75" customHeight="1">
+    <row r="65" ht="12.75" customHeight="1">
       <c r="A65" s="5" t="s">
         <v>135</v>
       </c>
@@ -3890,7 +3921,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="12.75" customHeight="1">
+    <row r="66" ht="12.75" customHeight="1">
       <c r="A66" s="25" t="s">
         <v>137</v>
       </c>
@@ -3898,11 +3929,11 @@
         <v>138</v>
       </c>
       <c r="C66" s="25">
-        <v>1587</v>
+        <v>1587.0</v>
       </c>
       <c r="D66" s="9"/>
     </row>
-    <row r="67" spans="1:5" ht="12.75" customHeight="1">
+    <row r="67" ht="12.75" customHeight="1">
       <c r="A67" s="5" t="s">
         <v>139</v>
       </c>
@@ -3917,7 +3948,7 @@
       </c>
       <c r="E67" s="17"/>
     </row>
-    <row r="68" spans="1:5" ht="12.75" customHeight="1">
+    <row r="68" ht="12.75" customHeight="1">
       <c r="A68" s="5" t="s">
         <v>109</v>
       </c>
@@ -3934,7 +3965,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="12.75" customHeight="1">
+    <row r="69" ht="12.75" customHeight="1">
       <c r="A69" s="5" t="s">
         <v>142</v>
       </c>
@@ -3948,7 +3979,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="12.75" customHeight="1">
+    <row r="70" ht="12.75" customHeight="1">
       <c r="A70" s="5" t="s">
         <v>144</v>
       </c>
@@ -3962,7 +3993,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="12.75" customHeight="1">
+    <row r="71" ht="12.75" customHeight="1">
       <c r="A71" s="5" t="s">
         <v>13</v>
       </c>
@@ -3976,7 +4007,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="12.75" customHeight="1">
+    <row r="72" ht="12.75" customHeight="1">
       <c r="A72" s="5" t="s">
         <v>65</v>
       </c>
@@ -3990,7 +4021,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="12.75" customHeight="1">
+    <row r="73" ht="12.75" customHeight="1">
       <c r="A73" s="5" t="s">
         <v>123</v>
       </c>
@@ -4001,7 +4032,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="12.75" customHeight="1">
+    <row r="74" ht="12.75" customHeight="1">
       <c r="A74" s="5" t="s">
         <v>125</v>
       </c>
@@ -4012,7 +4043,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="12.75" customHeight="1">
+    <row r="75" ht="12.75" customHeight="1">
       <c r="A75" s="5" t="s">
         <v>149</v>
       </c>
@@ -4026,7 +4057,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="12.75" customHeight="1">
+    <row r="76" ht="12.75" customHeight="1">
       <c r="A76" s="5" t="s">
         <v>113</v>
       </c>
@@ -4043,7 +4074,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="12.75" customHeight="1">
+    <row r="77" ht="12.75" customHeight="1">
       <c r="A77" s="5" t="s">
         <v>115</v>
       </c>
@@ -4060,7 +4091,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="12.75" customHeight="1">
+    <row r="78" ht="12.75" customHeight="1">
       <c r="A78" s="5" t="s">
         <v>117</v>
       </c>
@@ -4074,7 +4105,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="12.75" customHeight="1">
+    <row r="79" ht="12.75" customHeight="1">
       <c r="A79" s="5" t="s">
         <v>119</v>
       </c>
@@ -4088,7 +4119,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="12.75" customHeight="1"/>
+    <row r="80" ht="12.75" customHeight="1"/>
     <row r="81" ht="12.75" customHeight="1"/>
     <row r="82" ht="12.75" customHeight="1"/>
     <row r="83" ht="12.75" customHeight="1"/>
@@ -4990,35 +5021,33 @@
     <row r="979" ht="12.75" customHeight="1"/>
     <row r="980" ht="12.75" customHeight="1"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BE18"/>
   <sheetViews>
-    <sheetView topLeftCell="AN1" workbookViewId="0">
-      <selection activeCell="AV20" sqref="AV20"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="2" width="16.6640625" customWidth="1"/>
-    <col min="3" max="3" width="32.88671875" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" customWidth="1"/>
-    <col min="5" max="5" width="20.88671875" customWidth="1"/>
-    <col min="6" max="6" width="21.109375" customWidth="1"/>
-    <col min="12" max="12" width="25.21875" customWidth="1"/>
-    <col min="46" max="46" width="25.21875" customWidth="1"/>
-    <col min="48" max="48" width="15.5546875" customWidth="1"/>
+    <col customWidth="1" min="1" max="2" width="16.63"/>
+    <col customWidth="1" min="3" max="3" width="32.88"/>
+    <col customWidth="1" min="4" max="4" width="24.63"/>
+    <col customWidth="1" min="5" max="5" width="20.88"/>
+    <col customWidth="1" min="6" max="6" width="21.13"/>
+    <col customWidth="1" min="12" max="12" width="25.25"/>
+    <col customWidth="1" min="46" max="46" width="25.25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57" ht="14.25" customHeight="1">
+    <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="26" t="s">
         <v>12</v>
       </c>
@@ -5191,7 +5220,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="2" spans="1:57" ht="13.2">
+    <row r="2">
       <c r="A2" s="33" t="s">
         <v>159</v>
       </c>
@@ -5268,7 +5297,7 @@
       <c r="BD2" s="34"/>
       <c r="BE2" s="34"/>
     </row>
-    <row r="3" spans="1:57" ht="13.2">
+    <row r="3">
       <c r="A3" s="33" t="s">
         <v>164</v>
       </c>
@@ -5320,10 +5349,9 @@
       <c r="AS3" s="34"/>
       <c r="AT3" s="34"/>
       <c r="AU3" s="34"/>
-      <c r="AV3" s="102" t="s">
+      <c r="AV3" s="35" t="s">
         <v>166</v>
       </c>
-      <c r="AW3" s="103"/>
       <c r="AX3" s="34"/>
       <c r="AY3" s="34"/>
       <c r="AZ3" s="34"/>
@@ -5341,7 +5369,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="4" spans="1:57" ht="13.2">
+    <row r="4">
       <c r="A4" s="33" t="s">
         <v>170</v>
       </c>
@@ -5457,7 +5485,7 @@
       <c r="AU4" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="AV4" s="104" t="s">
+      <c r="AV4" s="35" t="s">
         <v>172</v>
       </c>
       <c r="AW4" s="35" t="s">
@@ -5480,7 +5508,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="5" spans="1:57" ht="13.2">
+    <row r="5">
       <c r="A5" s="39" t="s">
         <v>174</v>
       </c>
@@ -5541,7 +5569,7 @@
       <c r="BD5" s="40"/>
       <c r="BE5" s="40"/>
     </row>
-    <row r="6" spans="1:57" ht="13.2">
+    <row r="6">
       <c r="A6" s="41" t="s">
         <v>175</v>
       </c>
@@ -5573,7 +5601,7 @@
         <v>180</v>
       </c>
       <c r="K6" s="45">
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="L6" s="43" t="s">
         <v>181</v>
@@ -5588,7 +5616,7 @@
         <v>184</v>
       </c>
       <c r="P6" s="45">
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="Q6" s="42" t="s">
         <v>184</v>
@@ -5606,7 +5634,7 @@
         <v>185</v>
       </c>
       <c r="V6" s="45">
-        <v>80</v>
+        <v>80.0</v>
       </c>
       <c r="W6" s="46" t="s">
         <v>177</v>
@@ -5684,7 +5712,7 @@
         <v>185</v>
       </c>
       <c r="AV6" s="45">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AW6" s="42" t="s">
         <v>192</v>
@@ -5706,7 +5734,7 @@
       <c r="BD6" s="49"/>
       <c r="BE6" s="49"/>
     </row>
-    <row r="7" spans="1:57" ht="13.2">
+    <row r="7">
       <c r="A7" s="41" t="s">
         <v>193</v>
       </c>
@@ -5738,7 +5766,7 @@
         <v>197</v>
       </c>
       <c r="K7" s="45">
-        <v>13</v>
+        <v>13.0</v>
       </c>
       <c r="L7" s="43" t="s">
         <v>198</v>
@@ -5753,7 +5781,7 @@
         <v>184</v>
       </c>
       <c r="P7" s="45">
-        <v>20</v>
+        <v>20.0</v>
       </c>
       <c r="Q7" s="42" t="s">
         <v>184</v>
@@ -5771,7 +5799,7 @@
         <v>185</v>
       </c>
       <c r="V7" s="45">
-        <v>90</v>
+        <v>90.0</v>
       </c>
       <c r="W7" s="46" t="s">
         <v>177</v>
@@ -5849,7 +5877,7 @@
         <v>185</v>
       </c>
       <c r="AV7" s="45">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AW7" s="42" t="s">
         <v>192</v>
@@ -5879,7 +5907,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="8" spans="1:57" ht="13.2">
+    <row r="8">
       <c r="A8" s="51" t="s">
         <v>206</v>
       </c>
@@ -5911,7 +5939,7 @@
         <v>211</v>
       </c>
       <c r="K8" s="52">
-        <v>12</v>
+        <v>12.0</v>
       </c>
       <c r="L8" s="51" t="s">
         <v>212</v>
@@ -5926,7 +5954,7 @@
         <v>184</v>
       </c>
       <c r="P8" s="52">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q8" s="51" t="s">
         <v>184</v>
@@ -5944,7 +5972,7 @@
         <v>185</v>
       </c>
       <c r="V8" s="52">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="W8" s="46" t="s">
         <v>177</v>
@@ -6022,7 +6050,7 @@
         <v>185</v>
       </c>
       <c r="AV8" s="45">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AW8" s="42" t="s">
         <v>192</v>
@@ -6044,7 +6072,7 @@
       <c r="BD8" s="54"/>
       <c r="BE8" s="54"/>
     </row>
-    <row r="9" spans="1:57" ht="13.2">
+    <row r="9">
       <c r="A9" s="41" t="s">
         <v>217</v>
       </c>
@@ -6107,7 +6135,7 @@
       <c r="BD9" s="54"/>
       <c r="BE9" s="54"/>
     </row>
-    <row r="10" spans="1:57" ht="13.2">
+    <row r="10">
       <c r="A10" s="41" t="s">
         <v>218</v>
       </c>
@@ -6170,7 +6198,7 @@
       <c r="BD10" s="54"/>
       <c r="BE10" s="54"/>
     </row>
-    <row r="11" spans="1:57" ht="13.2">
+    <row r="11">
       <c r="A11" s="56"/>
       <c r="B11" s="57"/>
       <c r="C11" s="58"/>
@@ -6229,7 +6257,7 @@
       <c r="BD11" s="60"/>
       <c r="BE11" s="60"/>
     </row>
-    <row r="12" spans="1:57" ht="13.2">
+    <row r="12">
       <c r="A12" s="56"/>
       <c r="B12" s="57"/>
       <c r="C12" s="58"/>
@@ -6288,7 +6316,7 @@
       <c r="BD12" s="60"/>
       <c r="BE12" s="60"/>
     </row>
-    <row r="13" spans="1:57" ht="13.2">
+    <row r="13">
       <c r="A13" s="56"/>
       <c r="B13" s="57"/>
       <c r="C13" s="58"/>
@@ -6347,7 +6375,7 @@
       <c r="BD13" s="60"/>
       <c r="BE13" s="60"/>
     </row>
-    <row r="14" spans="1:57" ht="13.2">
+    <row r="14">
       <c r="A14" s="56"/>
       <c r="B14" s="57"/>
       <c r="C14" s="58"/>
@@ -6406,7 +6434,7 @@
       <c r="BD14" s="60"/>
       <c r="BE14" s="60"/>
     </row>
-    <row r="15" spans="1:57" ht="13.2">
+    <row r="15">
       <c r="A15" s="56"/>
       <c r="B15" s="57"/>
       <c r="C15" s="58"/>
@@ -6465,7 +6493,7 @@
       <c r="BD15" s="60"/>
       <c r="BE15" s="60"/>
     </row>
-    <row r="16" spans="1:57" ht="13.2">
+    <row r="16">
       <c r="A16" s="56"/>
       <c r="B16" s="57"/>
       <c r="C16" s="58"/>
@@ -6524,7 +6552,7 @@
       <c r="BD16" s="60"/>
       <c r="BE16" s="60"/>
     </row>
-    <row r="17" spans="1:57" ht="13.2">
+    <row r="17">
       <c r="A17" s="56"/>
       <c r="B17" s="57"/>
       <c r="C17" s="58"/>
@@ -6583,7 +6611,7 @@
       <c r="BD17" s="60"/>
       <c r="BE17" s="60"/>
     </row>
-    <row r="18" spans="1:57" ht="13.2">
+    <row r="18">
       <c r="A18" s="56"/>
       <c r="B18" s="57"/>
       <c r="C18" s="58"/>
@@ -6646,30 +6674,29 @@
   <mergeCells count="1">
     <mergeCell ref="AV3:AW3"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="20.21875" customWidth="1"/>
-    <col min="2" max="2" width="20.44140625" customWidth="1"/>
-    <col min="3" max="3" width="25.33203125" customWidth="1"/>
-    <col min="4" max="4" width="22.44140625" customWidth="1"/>
-    <col min="5" max="5" width="20.44140625" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="20.25"/>
+    <col customWidth="1" min="2" max="2" width="20.5"/>
+    <col customWidth="1" min="3" max="3" width="25.38"/>
+    <col customWidth="1" min="4" max="4" width="22.5"/>
+    <col customWidth="1" min="5" max="5" width="20.5"/>
+    <col customWidth="1" min="6" max="6" width="12.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1">
       <c r="A1" s="26" t="s">
         <v>122</v>
       </c>
@@ -6686,7 +6713,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2">
       <c r="A2" s="33" t="s">
         <v>159</v>
       </c>
@@ -6699,7 +6726,7 @@
       <c r="D2" s="62"/>
       <c r="E2" s="62"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3">
       <c r="A3" s="33" t="s">
         <v>164</v>
       </c>
@@ -6708,7 +6735,7 @@
       <c r="D3" s="63"/>
       <c r="E3" s="63"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4">
       <c r="A4" s="33" t="s">
         <v>170</v>
       </c>
@@ -6723,7 +6750,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5">
       <c r="A5" s="39" t="s">
         <v>174</v>
       </c>
@@ -6732,7 +6759,7 @@
       <c r="D5" s="65"/>
       <c r="E5" s="40"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6">
       <c r="A6" s="41" t="s">
         <v>224</v>
       </c>
@@ -6749,7 +6776,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7">
       <c r="A7" s="41" t="s">
         <v>224</v>
       </c>
@@ -6766,7 +6793,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8">
       <c r="A8" s="51" t="s">
         <v>227</v>
       </c>
@@ -6777,13 +6804,13 @@
         <v>228</v>
       </c>
       <c r="D8" s="66">
-        <v>44562</v>
+        <v>44562.0</v>
       </c>
       <c r="E8" s="66">
-        <v>45658</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>45658.0</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="51" t="s">
         <v>227</v>
       </c>
@@ -6794,13 +6821,13 @@
         <v>229</v>
       </c>
       <c r="D9" s="66">
-        <v>44562</v>
+        <v>44562.0</v>
       </c>
       <c r="E9" s="66">
-        <v>46023</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>46023.0</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="41" t="s">
         <v>230</v>
       </c>
@@ -6813,7 +6840,7 @@
       <c r="D10" s="54"/>
       <c r="E10" s="54"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11">
       <c r="A11" s="41" t="s">
         <v>230</v>
       </c>
@@ -6826,7 +6853,7 @@
       <c r="D11" s="54"/>
       <c r="E11" s="54"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12">
       <c r="A12" s="41" t="s">
         <v>233</v>
       </c>
@@ -6837,34 +6864,34 @@
         <v>233</v>
       </c>
       <c r="D12" s="67">
-        <v>44927</v>
+        <v>44927.0</v>
       </c>
       <c r="E12" s="67">
-        <v>46388</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>46388.0</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="56"/>
       <c r="B13" s="57"/>
       <c r="C13" s="57"/>
       <c r="D13" s="57"/>
       <c r="E13" s="57"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14">
       <c r="A14" s="56"/>
       <c r="B14" s="57"/>
       <c r="C14" s="57"/>
       <c r="D14" s="57"/>
       <c r="E14" s="57"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15">
       <c r="A15" s="56"/>
       <c r="B15" s="57"/>
       <c r="C15" s="57"/>
       <c r="D15" s="57"/>
       <c r="E15" s="57"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16">
       <c r="A16" s="56"/>
       <c r="B16" s="57"/>
       <c r="C16" s="57"/>
@@ -6872,29 +6899,28 @@
       <c r="E16" s="57"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="20.109375" customWidth="1"/>
-    <col min="2" max="2" width="20.44140625" customWidth="1"/>
-    <col min="3" max="3" width="26.77734375" customWidth="1"/>
-    <col min="4" max="4" width="20.44140625" customWidth="1"/>
-    <col min="5" max="5" width="21.44140625" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="20.13"/>
+    <col customWidth="1" min="2" max="2" width="20.5"/>
+    <col customWidth="1" min="3" max="3" width="26.75"/>
+    <col customWidth="1" min="4" max="4" width="20.5"/>
+    <col customWidth="1" min="5" max="5" width="21.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1">
       <c r="A1" s="26" t="s">
         <v>130</v>
       </c>
@@ -6914,7 +6940,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2">
       <c r="A2" s="33" t="s">
         <v>159</v>
       </c>
@@ -6928,7 +6954,7 @@
       <c r="E2" s="68"/>
       <c r="F2" s="34"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3">
       <c r="A3" s="33" t="s">
         <v>164</v>
       </c>
@@ -6938,7 +6964,7 @@
       <c r="E3" s="34"/>
       <c r="F3" s="34"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4">
       <c r="A4" s="33" t="s">
         <v>170</v>
       </c>
@@ -6956,7 +6982,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5">
       <c r="A5" s="39" t="s">
         <v>174</v>
       </c>
@@ -6966,7 +6992,7 @@
       <c r="E5" s="40"/>
       <c r="F5" s="40"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6">
       <c r="A6" s="41" t="s">
         <v>239</v>
       </c>
@@ -6986,7 +7012,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7">
       <c r="A7" s="41" t="s">
         <v>239</v>
       </c>
@@ -7006,7 +7032,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8">
       <c r="A8" s="51" t="s">
         <v>244</v>
       </c>
@@ -7020,13 +7046,13 @@
         <v>246</v>
       </c>
       <c r="E8" s="66">
-        <v>44562</v>
+        <v>44562.0</v>
       </c>
       <c r="F8" s="66">
-        <v>45658</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>45658.0</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="51" t="s">
         <v>244</v>
       </c>
@@ -7040,13 +7066,13 @@
         <v>248</v>
       </c>
       <c r="E9" s="66">
-        <v>44562</v>
+        <v>44562.0</v>
       </c>
       <c r="F9" s="66">
-        <v>46023</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>46023.0</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="41" t="s">
         <v>249</v>
       </c>
@@ -7060,7 +7086,7 @@
       <c r="E10" s="54"/>
       <c r="F10" s="54"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11">
       <c r="A11" s="41" t="s">
         <v>249</v>
       </c>
@@ -7074,7 +7100,7 @@
       <c r="E11" s="54"/>
       <c r="F11" s="49"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12">
       <c r="A12" s="41" t="s">
         <v>252</v>
       </c>
@@ -7088,35 +7114,34 @@
         <v>253</v>
       </c>
       <c r="E12" s="67">
-        <v>44927</v>
+        <v>44927.0</v>
       </c>
       <c r="F12" s="67">
-        <v>46388</v>
+        <v>46388.0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="22.21875" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="26.109375" customWidth="1"/>
-    <col min="6" max="6" width="20.44140625" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="22.25"/>
+    <col customWidth="1" min="2" max="2" width="15.5"/>
+    <col customWidth="1" min="4" max="4" width="26.13"/>
+    <col customWidth="1" min="6" max="6" width="20.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1">
       <c r="A1" s="26" t="s">
         <v>138</v>
       </c>
@@ -7160,7 +7185,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2">
       <c r="A2" s="33" t="s">
         <v>159</v>
       </c>
@@ -7182,7 +7207,7 @@
       <c r="M2" s="34"/>
       <c r="N2" s="34"/>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3">
       <c r="A3" s="33" t="s">
         <v>164</v>
       </c>
@@ -7202,7 +7227,7 @@
       <c r="M3" s="34"/>
       <c r="N3" s="34"/>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4">
       <c r="A4" s="33" t="s">
         <v>256</v>
       </c>
@@ -7222,33 +7247,26 @@
       <c r="M4" s="70"/>
       <c r="N4" s="70"/>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5">
       <c r="A5" s="33" t="s">
         <v>170</v>
       </c>
       <c r="B5" s="34"/>
       <c r="C5" s="34"/>
-      <c r="D5" s="102" t="s">
+      <c r="D5" s="35" t="s">
         <v>258</v>
       </c>
-      <c r="E5" s="103"/>
-      <c r="F5" s="103"/>
-      <c r="G5" s="103"/>
       <c r="H5" s="38" t="s">
         <v>259</v>
       </c>
       <c r="I5" s="35" t="s">
         <v>260</v>
       </c>
-      <c r="J5" s="102" t="s">
+      <c r="J5" s="38" t="s">
         <v>261</v>
       </c>
-      <c r="K5" s="103"/>
-      <c r="L5" s="103"/>
-      <c r="M5" s="103"/>
-      <c r="N5" s="103"/>
-    </row>
-    <row r="6" spans="1:14">
+    </row>
+    <row r="6">
       <c r="A6" s="39" t="s">
         <v>174</v>
       </c>
@@ -7266,7 +7284,7 @@
       <c r="M6" s="40"/>
       <c r="N6" s="40"/>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7">
       <c r="A7" s="41" t="s">
         <v>262</v>
       </c>
@@ -7274,7 +7292,7 @@
         <v>263</v>
       </c>
       <c r="C7" s="71">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D7" s="42" t="s">
         <v>264</v>
@@ -7310,7 +7328,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8">
       <c r="A8" s="41" t="s">
         <v>262</v>
       </c>
@@ -7318,7 +7336,7 @@
         <v>263</v>
       </c>
       <c r="C8" s="71">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D8" s="42" t="s">
         <v>266</v>
@@ -7354,15 +7372,15 @@
         <v>188</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9">
       <c r="A9" s="51" t="s">
         <v>267</v>
       </c>
       <c r="B9" s="71">
-        <v>1001</v>
+        <v>1001.0</v>
       </c>
       <c r="C9" s="71">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D9" s="47" t="s">
         <v>268</v>
@@ -7377,10 +7395,10 @@
         <v>186</v>
       </c>
       <c r="H9" s="72">
-        <v>44562</v>
+        <v>44562.0</v>
       </c>
       <c r="I9" s="72">
-        <v>45659</v>
+        <v>45659.0</v>
       </c>
       <c r="J9" s="73" t="s">
         <v>185</v>
@@ -7398,15 +7416,15 @@
         <v>188</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10">
       <c r="A10" s="51" t="s">
         <v>267</v>
       </c>
       <c r="B10" s="71">
-        <v>1002</v>
+        <v>1002.0</v>
       </c>
       <c r="C10" s="71">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D10" s="42" t="s">
         <v>269</v>
@@ -7421,10 +7439,10 @@
         <v>186</v>
       </c>
       <c r="H10" s="72">
-        <v>44562</v>
+        <v>44562.0</v>
       </c>
       <c r="I10" s="72">
-        <v>46025</v>
+        <v>46025.0</v>
       </c>
       <c r="J10" s="73" t="s">
         <v>184</v>
@@ -7442,12 +7460,12 @@
         <v>188</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11">
       <c r="A11" s="41" t="s">
         <v>270</v>
       </c>
       <c r="B11" s="71">
-        <v>1003</v>
+        <v>1003.0</v>
       </c>
       <c r="C11" s="54"/>
       <c r="D11" s="42" t="s">
@@ -7468,12 +7486,12 @@
       <c r="M11" s="54"/>
       <c r="N11" s="54"/>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12">
       <c r="A12" s="41" t="s">
         <v>270</v>
       </c>
       <c r="B12" s="71">
-        <v>1004</v>
+        <v>1004.0</v>
       </c>
       <c r="C12" s="49"/>
       <c r="D12" s="42" t="s">
@@ -7494,15 +7512,15 @@
       <c r="M12" s="49"/>
       <c r="N12" s="49"/>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13">
       <c r="A13" s="41" t="s">
         <v>273</v>
       </c>
       <c r="B13" s="71">
-        <v>1005</v>
+        <v>1005.0</v>
       </c>
       <c r="C13" s="71">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D13" s="42" t="s">
         <v>274</v>
@@ -7517,10 +7535,10 @@
         <v>186</v>
       </c>
       <c r="H13" s="67">
-        <v>44927</v>
+        <v>44927.0</v>
       </c>
       <c r="I13" s="67">
-        <v>46390</v>
+        <v>46390.0</v>
       </c>
       <c r="J13" s="43" t="s">
         <v>184</v>
@@ -7538,7 +7556,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14">
       <c r="A14" s="56"/>
       <c r="B14" s="57"/>
       <c r="C14" s="57"/>
@@ -7554,7 +7572,7 @@
       <c r="M14" s="57"/>
       <c r="N14" s="57"/>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15">
       <c r="A15" s="56"/>
       <c r="B15" s="57"/>
       <c r="C15" s="57"/>
@@ -7570,7 +7588,7 @@
       <c r="M15" s="57"/>
       <c r="N15" s="57"/>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16">
       <c r="A16" s="56"/>
       <c r="B16" s="57"/>
       <c r="C16" s="57"/>
@@ -7591,74 +7609,71 @@
     <mergeCell ref="D5:G5"/>
     <mergeCell ref="J5:N5"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BB9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:G6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
-    <col min="2" max="2" width="28" customWidth="1"/>
-    <col min="3" max="3" width="23.44140625" customWidth="1"/>
-    <col min="4" max="4" width="25.33203125" customWidth="1"/>
-    <col min="5" max="5" width="30.88671875" customWidth="1"/>
-    <col min="6" max="6" width="20.88671875" customWidth="1"/>
-    <col min="7" max="7" width="21.109375" customWidth="1"/>
-    <col min="8" max="8" width="6.88671875" customWidth="1"/>
-    <col min="9" max="9" width="9.33203125" customWidth="1"/>
-    <col min="10" max="10" width="7.44140625" customWidth="1"/>
-    <col min="11" max="11" width="9" customWidth="1"/>
-    <col min="12" max="12" width="7.44140625" customWidth="1"/>
-    <col min="13" max="13" width="25.44140625" customWidth="1"/>
-    <col min="14" max="14" width="10.44140625" customWidth="1"/>
-    <col min="15" max="15" width="10.109375" customWidth="1"/>
-    <col min="16" max="16" width="10.21875" customWidth="1"/>
-    <col min="17" max="17" width="11" customWidth="1"/>
-    <col min="18" max="18" width="7.77734375" customWidth="1"/>
-    <col min="19" max="19" width="6.77734375" customWidth="1"/>
-    <col min="20" max="21" width="7.6640625" customWidth="1"/>
-    <col min="22" max="22" width="6.77734375" customWidth="1"/>
-    <col min="23" max="23" width="11.77734375" customWidth="1"/>
-    <col min="24" max="24" width="10.109375" customWidth="1"/>
-    <col min="25" max="25" width="10" customWidth="1"/>
-    <col min="26" max="26" width="6.21875" customWidth="1"/>
-    <col min="27" max="27" width="21.88671875" customWidth="1"/>
-    <col min="28" max="28" width="9.88671875" customWidth="1"/>
-    <col min="29" max="29" width="6.88671875" customWidth="1"/>
-    <col min="30" max="31" width="7.6640625" customWidth="1"/>
-    <col min="32" max="32" width="7.33203125" customWidth="1"/>
-    <col min="33" max="33" width="7.6640625" customWidth="1"/>
-    <col min="34" max="34" width="7.109375" customWidth="1"/>
-    <col min="35" max="37" width="13.44140625" customWidth="1"/>
-    <col min="38" max="38" width="10.88671875" customWidth="1"/>
-    <col min="39" max="39" width="11.109375" customWidth="1"/>
-    <col min="40" max="40" width="10.88671875" customWidth="1"/>
-    <col min="41" max="41" width="7.6640625" customWidth="1"/>
-    <col min="42" max="42" width="10.109375" customWidth="1"/>
-    <col min="43" max="43" width="6.88671875" customWidth="1"/>
-    <col min="44" max="44" width="9" customWidth="1"/>
-    <col min="45" max="45" width="10.21875" customWidth="1"/>
-    <col min="46" max="46" width="9.21875" customWidth="1"/>
-    <col min="47" max="47" width="25.44140625" customWidth="1"/>
-    <col min="48" max="48" width="10.6640625" customWidth="1"/>
-    <col min="49" max="49" width="10.88671875" customWidth="1"/>
-    <col min="50" max="50" width="7.6640625" customWidth="1"/>
-    <col min="51" max="52" width="13.6640625" customWidth="1"/>
-    <col min="53" max="54" width="13.44140625" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="16.63"/>
+    <col customWidth="1" min="2" max="2" width="28.0"/>
+    <col customWidth="1" min="3" max="3" width="23.5"/>
+    <col customWidth="1" min="4" max="4" width="25.38"/>
+    <col customWidth="1" min="5" max="5" width="30.88"/>
+    <col customWidth="1" min="6" max="6" width="20.88"/>
+    <col customWidth="1" min="7" max="7" width="21.13"/>
+    <col customWidth="1" min="8" max="8" width="6.88"/>
+    <col customWidth="1" min="9" max="9" width="9.38"/>
+    <col customWidth="1" min="10" max="10" width="7.5"/>
+    <col customWidth="1" min="11" max="11" width="9.0"/>
+    <col customWidth="1" min="12" max="12" width="7.5"/>
+    <col customWidth="1" min="13" max="13" width="25.5"/>
+    <col customWidth="1" min="14" max="14" width="10.5"/>
+    <col customWidth="1" min="15" max="15" width="10.13"/>
+    <col customWidth="1" min="16" max="16" width="10.25"/>
+    <col customWidth="1" min="17" max="17" width="11.0"/>
+    <col customWidth="1" min="18" max="18" width="7.75"/>
+    <col customWidth="1" min="19" max="19" width="6.75"/>
+    <col customWidth="1" min="20" max="21" width="7.63"/>
+    <col customWidth="1" min="22" max="22" width="6.75"/>
+    <col customWidth="1" min="23" max="23" width="11.75"/>
+    <col customWidth="1" min="24" max="24" width="10.13"/>
+    <col customWidth="1" min="25" max="25" width="10.0"/>
+    <col customWidth="1" min="26" max="26" width="6.25"/>
+    <col customWidth="1" min="27" max="27" width="21.88"/>
+    <col customWidth="1" min="28" max="28" width="9.88"/>
+    <col customWidth="1" min="29" max="29" width="6.88"/>
+    <col customWidth="1" min="30" max="31" width="7.63"/>
+    <col customWidth="1" min="32" max="32" width="7.38"/>
+    <col customWidth="1" min="33" max="33" width="7.63"/>
+    <col customWidth="1" min="34" max="34" width="7.13"/>
+    <col customWidth="1" min="35" max="37" width="13.5"/>
+    <col customWidth="1" min="38" max="38" width="10.88"/>
+    <col customWidth="1" min="39" max="39" width="11.13"/>
+    <col customWidth="1" min="40" max="40" width="10.88"/>
+    <col customWidth="1" min="41" max="41" width="7.63"/>
+    <col customWidth="1" min="42" max="42" width="10.13"/>
+    <col customWidth="1" min="43" max="43" width="6.88"/>
+    <col customWidth="1" min="44" max="44" width="9.0"/>
+    <col customWidth="1" min="45" max="45" width="10.25"/>
+    <col customWidth="1" min="46" max="46" width="9.25"/>
+    <col customWidth="1" min="47" max="47" width="25.5"/>
+    <col customWidth="1" min="48" max="48" width="10.63"/>
+    <col customWidth="1" min="49" max="49" width="10.88"/>
+    <col customWidth="1" min="50" max="50" width="7.63"/>
+    <col customWidth="1" min="51" max="52" width="13.63"/>
+    <col customWidth="1" min="53" max="54" width="13.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54">
+    <row r="1">
       <c r="A1" s="75" t="s">
         <v>12</v>
       </c>
@@ -7822,7 +7837,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="2" spans="1:54">
+    <row r="2">
       <c r="A2" s="82" t="s">
         <v>159</v>
       </c>
@@ -7898,7 +7913,7 @@
       <c r="BA2" s="34"/>
       <c r="BB2" s="34"/>
     </row>
-    <row r="3" spans="1:54">
+    <row r="3">
       <c r="A3" s="82" t="s">
         <v>164</v>
       </c>
@@ -7951,16 +7966,15 @@
       <c r="AT3" s="34"/>
       <c r="AU3" s="34"/>
       <c r="AV3" s="34"/>
-      <c r="AW3" s="102" t="s">
+      <c r="AW3" s="35" t="s">
         <v>166</v>
       </c>
-      <c r="AX3" s="103"/>
       <c r="AY3" s="34"/>
       <c r="AZ3" s="34"/>
       <c r="BA3" s="34"/>
       <c r="BB3" s="34"/>
     </row>
-    <row r="4" spans="1:54">
+    <row r="4">
       <c r="A4" s="82" t="s">
         <v>170</v>
       </c>
@@ -8088,7 +8102,7 @@
       <c r="BA4" s="34"/>
       <c r="BB4" s="34"/>
     </row>
-    <row r="5" spans="1:54">
+    <row r="5">
       <c r="A5" s="85" t="s">
         <v>174</v>
       </c>
@@ -8146,1052 +8160,677 @@
       <c r="BA5" s="86"/>
       <c r="BB5" s="86"/>
     </row>
-    <row r="6" spans="1:54">
-      <c r="A6" s="88" t="s">
+    <row r="6">
+      <c r="A6" s="41" t="s">
         <v>276</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="88" t="s">
         <v>277</v>
       </c>
-      <c r="C6" s="47" t="s">
-        <v>276</v>
-      </c>
-      <c r="D6" s="47" t="s">
+      <c r="C6" s="42" t="s">
+        <v>277</v>
+      </c>
+      <c r="D6" s="42" t="s">
         <v>278</v>
       </c>
-      <c r="E6" s="47" t="s">
+      <c r="E6" s="42" t="s">
         <v>278</v>
       </c>
-      <c r="F6" s="47" t="s">
-        <v>276</v>
-      </c>
-      <c r="G6" s="47" t="s">
-        <v>276</v>
+      <c r="F6" s="42" t="s">
+        <v>277</v>
+      </c>
+      <c r="G6" s="42" t="s">
+        <v>277</v>
       </c>
       <c r="H6" s="43" t="s">
         <v>177</v>
       </c>
-      <c r="I6" s="47" t="s">
+      <c r="I6" s="88" t="s">
         <v>279</v>
       </c>
-      <c r="J6" s="47" t="s">
+      <c r="J6" s="88" t="s">
         <v>280</v>
       </c>
-      <c r="K6" s="47" t="s">
+      <c r="K6" s="42" t="s">
         <v>281</v>
       </c>
-      <c r="L6" s="89">
-        <v>28</v>
-      </c>
-      <c r="M6" s="90"/>
-      <c r="N6" s="47" t="s">
+      <c r="L6" s="45">
+        <v>27.0</v>
+      </c>
+      <c r="M6" s="89" t="s">
         <v>282</v>
       </c>
-      <c r="O6" s="47" t="s">
+      <c r="N6" s="42" t="s">
         <v>283</v>
       </c>
-      <c r="P6" s="47" t="s">
+      <c r="O6" s="42" t="s">
+        <v>284</v>
+      </c>
+      <c r="P6" s="42" t="s">
         <v>185</v>
       </c>
-      <c r="Q6" s="89">
-        <v>40</v>
-      </c>
-      <c r="R6" s="47" t="s">
-        <v>184</v>
-      </c>
-      <c r="S6" s="47" t="s">
-        <v>184</v>
-      </c>
-      <c r="T6" s="47" t="s">
+      <c r="Q6" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="R6" s="42" t="s">
         <v>185</v>
       </c>
-      <c r="U6" s="47" t="s">
-        <v>184</v>
-      </c>
-      <c r="V6" s="47" t="s">
+      <c r="S6" s="42" t="s">
         <v>185</v>
       </c>
-      <c r="W6" s="89">
-        <v>200</v>
-      </c>
-      <c r="X6" s="91" t="s">
+      <c r="T6" s="42" t="s">
+        <v>185</v>
+      </c>
+      <c r="U6" s="42" t="s">
+        <v>185</v>
+      </c>
+      <c r="V6" s="42" t="s">
+        <v>185</v>
+      </c>
+      <c r="W6" s="45">
+        <v>100.0</v>
+      </c>
+      <c r="X6" s="90" t="s">
         <v>177</v>
       </c>
-      <c r="Y6" s="44" t="s">
+      <c r="Y6" s="43" t="s">
         <v>186</v>
       </c>
       <c r="Z6" s="43" t="s">
         <v>177</v>
       </c>
-      <c r="AA6" s="47" t="s">
-        <v>284</v>
+      <c r="AA6" s="42" t="s">
+        <v>285</v>
       </c>
       <c r="AB6" s="42" t="s">
         <v>177</v>
       </c>
-      <c r="AC6" s="47" t="s">
+      <c r="AC6" s="42" t="s">
         <v>185</v>
       </c>
-      <c r="AD6" s="47" t="s">
-        <v>185</v>
-      </c>
-      <c r="AE6" s="47" t="s">
-        <v>185</v>
-      </c>
-      <c r="AF6" s="47" t="s">
-        <v>185</v>
-      </c>
-      <c r="AG6" s="47" t="s">
-        <v>185</v>
-      </c>
-      <c r="AH6" s="47" t="s">
-        <v>185</v>
+      <c r="AD6" s="42" t="s">
+        <v>184</v>
+      </c>
+      <c r="AE6" s="42" t="s">
+        <v>184</v>
+      </c>
+      <c r="AF6" s="42" t="s">
+        <v>184</v>
+      </c>
+      <c r="AG6" s="42" t="s">
+        <v>184</v>
+      </c>
+      <c r="AH6" s="42" t="s">
+        <v>184</v>
       </c>
       <c r="AI6" s="43" t="s">
         <v>186</v>
       </c>
-      <c r="AJ6" s="44" t="s">
+      <c r="AJ6" s="43" t="s">
         <v>188</v>
       </c>
-      <c r="AK6" s="44" t="s">
-        <v>188</v>
-      </c>
-      <c r="AL6" s="92" t="s">
-        <v>285</v>
-      </c>
-      <c r="AM6" s="92" t="s">
-        <v>286</v>
-      </c>
-      <c r="AN6" s="92" t="s">
-        <v>287</v>
+      <c r="AK6" s="43" t="s">
+        <v>177</v>
+      </c>
+      <c r="AL6" s="45">
+        <v>1010115.0</v>
+      </c>
+      <c r="AM6" s="45">
+        <v>6060620.0</v>
+      </c>
+      <c r="AN6" s="45">
+        <v>9090923.0</v>
       </c>
       <c r="AO6" s="42" t="s">
         <v>177</v>
       </c>
-      <c r="AP6" s="59"/>
-      <c r="AQ6" s="44" t="s">
+      <c r="AP6" s="46" t="s">
+        <v>177</v>
+      </c>
+      <c r="AQ6" s="43" t="s">
         <v>185</v>
       </c>
-      <c r="AR6" s="44" t="s">
+      <c r="AR6" s="43" t="s">
         <v>185</v>
       </c>
-      <c r="AS6" s="44" t="s">
+      <c r="AS6" s="43" t="s">
         <v>185</v>
       </c>
-      <c r="AT6" s="44" t="s">
+      <c r="AT6" s="43" t="s">
         <v>185</v>
       </c>
-      <c r="AU6" s="47" t="s">
-        <v>288</v>
-      </c>
-      <c r="AV6" s="47" t="s">
+      <c r="AU6" s="42" t="s">
+        <v>282</v>
+      </c>
+      <c r="AV6" s="42" t="s">
         <v>185</v>
       </c>
-      <c r="AW6" s="89">
-        <v>3</v>
-      </c>
-      <c r="AX6" s="47" t="s">
-        <v>289</v>
-      </c>
-      <c r="AY6" s="44" t="s">
+      <c r="AW6" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="AX6" s="42" t="s">
+        <v>192</v>
+      </c>
+      <c r="AY6" s="43" t="s">
         <v>186</v>
       </c>
-      <c r="AZ6" s="44" t="s">
+      <c r="AZ6" s="43" t="s">
         <v>186</v>
       </c>
-      <c r="BA6" s="44" t="s">
+      <c r="BA6" s="43" t="s">
         <v>188</v>
       </c>
-      <c r="BB6" s="44" t="s">
+      <c r="BB6" s="43" t="s">
         <v>188</v>
-      </c>
-    </row>
-    <row r="8" spans="1:54">
-      <c r="B8" s="93" t="s">
-        <v>290</v>
-      </c>
-      <c r="C8" s="42" t="s">
-        <v>277</v>
-      </c>
-      <c r="D8" s="71" t="s">
-        <v>291</v>
-      </c>
-      <c r="E8" s="42" t="s">
-        <v>291</v>
-      </c>
-      <c r="F8" s="42" t="s">
-        <v>277</v>
-      </c>
-      <c r="G8" s="42" t="s">
-        <v>277</v>
-      </c>
-      <c r="H8" s="43" t="s">
-        <v>177</v>
-      </c>
-      <c r="I8" s="42" t="s">
-        <v>292</v>
-      </c>
-      <c r="J8" s="42" t="s">
-        <v>293</v>
-      </c>
-      <c r="K8" s="42" t="s">
-        <v>294</v>
-      </c>
-      <c r="L8" s="45">
-        <v>27</v>
-      </c>
-      <c r="M8" s="43" t="s">
-        <v>295</v>
-      </c>
-      <c r="N8" s="42" t="s">
-        <v>296</v>
-      </c>
-      <c r="O8" s="42" t="s">
-        <v>297</v>
-      </c>
-      <c r="P8" s="42" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q8" s="45">
-        <v>0</v>
-      </c>
-      <c r="R8" s="42" t="s">
-        <v>185</v>
-      </c>
-      <c r="S8" s="42" t="s">
-        <v>185</v>
-      </c>
-      <c r="T8" s="42" t="s">
-        <v>185</v>
-      </c>
-      <c r="U8" s="42" t="s">
-        <v>185</v>
-      </c>
-      <c r="V8" s="42" t="s">
-        <v>185</v>
-      </c>
-      <c r="W8" s="45">
-        <v>100</v>
-      </c>
-      <c r="X8" s="91" t="s">
-        <v>177</v>
-      </c>
-      <c r="Y8" s="43" t="s">
-        <v>186</v>
-      </c>
-      <c r="Z8" s="43" t="s">
-        <v>177</v>
-      </c>
-      <c r="AA8" s="42" t="s">
-        <v>298</v>
-      </c>
-      <c r="AB8" s="42" t="s">
-        <v>177</v>
-      </c>
-      <c r="AC8" s="42" t="s">
-        <v>185</v>
-      </c>
-      <c r="AD8" s="42" t="s">
-        <v>184</v>
-      </c>
-      <c r="AE8" s="42" t="s">
-        <v>184</v>
-      </c>
-      <c r="AF8" s="42" t="s">
-        <v>184</v>
-      </c>
-      <c r="AG8" s="42" t="s">
-        <v>184</v>
-      </c>
-      <c r="AH8" s="42" t="s">
-        <v>184</v>
-      </c>
-      <c r="AI8" s="43" t="s">
-        <v>186</v>
-      </c>
-      <c r="AJ8" s="43" t="s">
-        <v>188</v>
-      </c>
-      <c r="AK8" s="43" t="s">
-        <v>177</v>
-      </c>
-      <c r="AL8" s="48" t="s">
-        <v>299</v>
-      </c>
-      <c r="AM8" s="48" t="s">
-        <v>300</v>
-      </c>
-      <c r="AN8" s="48" t="s">
-        <v>301</v>
-      </c>
-      <c r="AO8" s="42" t="s">
-        <v>177</v>
-      </c>
-      <c r="AP8" s="91" t="s">
-        <v>177</v>
-      </c>
-      <c r="AQ8" s="43" t="s">
-        <v>185</v>
-      </c>
-      <c r="AR8" s="43" t="s">
-        <v>185</v>
-      </c>
-      <c r="AS8" s="43" t="s">
-        <v>185</v>
-      </c>
-      <c r="AT8" s="43" t="s">
-        <v>185</v>
-      </c>
-      <c r="AU8" s="42" t="s">
-        <v>295</v>
-      </c>
-      <c r="AV8" s="42" t="s">
-        <v>185</v>
-      </c>
-      <c r="AW8" s="45">
-        <v>0</v>
-      </c>
-      <c r="AX8" s="42" t="s">
-        <v>192</v>
-      </c>
-      <c r="AY8" s="43" t="s">
-        <v>186</v>
-      </c>
-      <c r="AZ8" s="43" t="s">
-        <v>186</v>
-      </c>
-      <c r="BA8" s="43" t="s">
-        <v>188</v>
-      </c>
-      <c r="BB8" s="43" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="9" spans="1:54">
-      <c r="C9" s="94" t="b">
-        <f t="shared" ref="C9:BB9" si="0">C6=C8</f>
-        <v>0</v>
-      </c>
-      <c r="D9" s="94" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E9" s="94" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F9" s="94" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G9" s="94" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H9" s="94" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I9" s="94" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J9" s="94" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K9" s="94" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L9" s="94" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M9" s="94" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N9" s="94" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O9" s="94" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P9" s="94" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="Q9" s="94" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R9" s="94" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S9" s="94" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T9" s="94" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="U9" s="94" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V9" s="94" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="W9" s="94" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="X9" s="94" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="Y9" s="94" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="Z9" s="94" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AA9" s="94" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AB9" s="94" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AC9" s="94" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AD9" s="94" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AE9" s="94" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AF9" s="94" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG9" s="94" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AH9" s="94" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AI9" s="94" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AJ9" s="94" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AK9" s="94" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AL9" s="94" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AM9" s="94" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AN9" s="94" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AO9" s="94" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AP9" s="94" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AQ9" s="94" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AR9" s="94" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AS9" s="94" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AT9" s="94" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AU9" s="94" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AV9" s="94" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AW9" s="94" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AX9" s="94" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AY9" s="94" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AZ9" s="94" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="BA9" s="94" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="BB9" s="94" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="AW3:AX3"/>
   </mergeCells>
-  <conditionalFormatting sqref="C9:BB9">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>C6=C8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col min="2" max="2" width="32.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="77.33203125" customWidth="1"/>
+    <col customWidth="1" min="2" max="2" width="27.88"/>
+    <col customWidth="1" min="3" max="3" width="77.38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1">
       <c r="A1" s="28" t="s">
-        <v>302</v>
-      </c>
-      <c r="B1" s="95" t="s">
-        <v>303</v>
-      </c>
-      <c r="C1" s="95" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>286</v>
+      </c>
+      <c r="B1" s="91" t="s">
+        <v>287</v>
+      </c>
+      <c r="C1" s="91" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2" s="42" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="B2" s="42" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="C2" s="42" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" s="42" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="B3" s="42" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="C3" s="42" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" s="42" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="B4" s="42" t="s">
-        <v>310</v>
-      </c>
-      <c r="C4" s="101" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>294</v>
+      </c>
+      <c r="C4" s="42" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="48" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
       <c r="C5" s="42" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="48" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="42" t="s">
+        <v>298</v>
+      </c>
+      <c r="C6" s="42" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="92" t="s">
+        <v>300</v>
+      </c>
+      <c r="B7" s="42" t="s">
+        <v>301</v>
+      </c>
+      <c r="C7" s="42" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="92" t="s">
+        <v>300</v>
+      </c>
+      <c r="B8" s="42" t="s">
+        <v>303</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="92" t="s">
+        <v>300</v>
+      </c>
+      <c r="B9" s="42" t="s">
+        <v>305</v>
+      </c>
+      <c r="C9" s="42" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="92" t="s">
+        <v>300</v>
+      </c>
+      <c r="B10" s="42" t="s">
+        <v>307</v>
+      </c>
+      <c r="C10" s="42" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="92" t="s">
+        <v>300</v>
+      </c>
+      <c r="B11" s="93" t="s">
+        <v>309</v>
+      </c>
+      <c r="C11" s="93" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="92" t="s">
+        <v>300</v>
+      </c>
+      <c r="B12" s="93" t="s">
+        <v>311</v>
+      </c>
+      <c r="C12" s="93" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="92" t="s">
+        <v>300</v>
+      </c>
+      <c r="B13" s="93" t="s">
+        <v>313</v>
+      </c>
+      <c r="C13" s="93" t="s">
         <v>314</v>
       </c>
-      <c r="C6" s="101" t="s">
+    </row>
+    <row r="14">
+      <c r="A14" s="94" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="96" t="s">
+      <c r="B14" s="42" t="s">
         <v>316</v>
       </c>
-      <c r="B7" s="42" t="s">
+      <c r="C14" s="42" t="s">
         <v>317</v>
       </c>
-      <c r="C7" s="42" t="s">
+    </row>
+    <row r="15">
+      <c r="A15" s="94" t="s">
+        <v>315</v>
+      </c>
+      <c r="B15" s="42" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="96" t="s">
-        <v>316</v>
-      </c>
-      <c r="B8" s="42" t="s">
+      <c r="C15" s="42" t="s">
         <v>319</v>
       </c>
-      <c r="C8" s="42" t="s">
+    </row>
+    <row r="16">
+      <c r="A16" s="94" t="s">
+        <v>315</v>
+      </c>
+      <c r="B16" s="42" t="s">
+        <v>305</v>
+      </c>
+      <c r="C16" s="42" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="96" t="s">
-        <v>316</v>
-      </c>
-      <c r="B9" s="42" t="s">
+    <row r="17">
+      <c r="A17" s="94" t="s">
+        <v>315</v>
+      </c>
+      <c r="B17" s="42" t="s">
+        <v>307</v>
+      </c>
+      <c r="C17" s="42" t="s">
         <v>321</v>
       </c>
-      <c r="C9" s="42" t="s">
+    </row>
+    <row r="18">
+      <c r="A18" s="94" t="s">
+        <v>315</v>
+      </c>
+      <c r="B18" s="93" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="96" t="s">
-        <v>316</v>
-      </c>
-      <c r="B10" s="42" t="s">
+      <c r="C18" s="93" t="s">
         <v>323</v>
       </c>
-      <c r="C10" s="42" t="s">
+    </row>
+    <row r="19">
+      <c r="A19" s="94" t="s">
+        <v>315</v>
+      </c>
+      <c r="B19" s="93" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="96" t="s">
-        <v>316</v>
-      </c>
-      <c r="B11" s="97" t="s">
+      <c r="C19" s="93" t="s">
         <v>325</v>
       </c>
-      <c r="C11" s="97" t="s">
+    </row>
+    <row r="20">
+      <c r="A20" s="94" t="s">
+        <v>315</v>
+      </c>
+      <c r="B20" s="93" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="96" t="s">
-        <v>316</v>
-      </c>
-      <c r="B12" s="97" t="s">
+      <c r="C20" s="93" t="s">
         <v>327</v>
       </c>
-      <c r="C12" s="97" t="s">
+    </row>
+    <row r="21">
+      <c r="A21" s="94" t="s">
+        <v>315</v>
+      </c>
+      <c r="B21" s="93" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="96" t="s">
-        <v>316</v>
-      </c>
-      <c r="B13" s="97" t="s">
+      <c r="C21" s="93" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="95" t="s">
         <v>329</v>
       </c>
-      <c r="C13" s="97" t="s">
+      <c r="B22" s="42" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="98" t="s">
+      <c r="C22" s="43" t="s">
         <v>331</v>
       </c>
-      <c r="B14" s="42" t="s">
+    </row>
+    <row r="23">
+      <c r="A23" s="95" t="s">
+        <v>329</v>
+      </c>
+      <c r="B23" s="42" t="s">
         <v>332</v>
       </c>
-      <c r="C14" s="42" t="s">
+      <c r="C23" s="42" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="98" t="s">
-        <v>331</v>
-      </c>
-      <c r="B15" s="42" t="s">
+    <row r="24">
+      <c r="A24" s="95" t="s">
+        <v>329</v>
+      </c>
+      <c r="B24" s="42" t="s">
+        <v>305</v>
+      </c>
+      <c r="C24" s="42" t="s">
         <v>334</v>
       </c>
-      <c r="C15" s="42" t="s">
+    </row>
+    <row r="25">
+      <c r="A25" s="95" t="s">
+        <v>329</v>
+      </c>
+      <c r="B25" s="42" t="s">
+        <v>307</v>
+      </c>
+      <c r="C25" s="42" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="98" t="s">
-        <v>331</v>
-      </c>
-      <c r="B16" s="42" t="s">
-        <v>321</v>
-      </c>
-      <c r="C16" s="42" t="s">
+    <row r="26">
+      <c r="A26" s="95" t="s">
+        <v>329</v>
+      </c>
+      <c r="B26" s="42" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="98" t="s">
-        <v>331</v>
-      </c>
-      <c r="B17" s="42" t="s">
-        <v>323</v>
-      </c>
-      <c r="C17" s="42" t="s">
+      <c r="C26" s="42" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="98" t="s">
-        <v>331</v>
-      </c>
-      <c r="B18" s="97" t="s">
+    <row r="27">
+      <c r="A27" s="95" t="s">
+        <v>329</v>
+      </c>
+      <c r="B27" s="93" t="s">
         <v>338</v>
       </c>
-      <c r="C18" s="97" t="s">
+      <c r="C27" s="93" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="98" t="s">
-        <v>331</v>
-      </c>
-      <c r="B19" s="97" t="s">
+    <row r="28">
+      <c r="A28" s="95" t="s">
+        <v>329</v>
+      </c>
+      <c r="B28" s="93" t="s">
         <v>340</v>
       </c>
-      <c r="C19" s="97" t="s">
+      <c r="C28" s="93" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="98" t="s">
-        <v>331</v>
-      </c>
-      <c r="B20" s="97" t="s">
+    <row r="29">
+      <c r="A29" s="95" t="s">
+        <v>329</v>
+      </c>
+      <c r="B29" s="93" t="s">
         <v>342</v>
       </c>
-      <c r="C20" s="97" t="s">
+      <c r="C29" s="93" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="98" t="s">
-        <v>331</v>
-      </c>
-      <c r="B21" s="97" t="s">
+    <row r="30">
+      <c r="A30" s="95" t="s">
+        <v>329</v>
+      </c>
+      <c r="B30" s="93" t="s">
         <v>344</v>
       </c>
-      <c r="C21" s="97" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="99" t="s">
+      <c r="C30" s="93" t="s">
         <v>345</v>
       </c>
-      <c r="B22" s="42" t="s">
+    </row>
+    <row r="31">
+      <c r="A31" s="42" t="s">
+        <v>289</v>
+      </c>
+      <c r="B31" s="42" t="s">
         <v>346</v>
       </c>
-      <c r="C22" s="43" t="s">
+      <c r="C31" s="42" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="99" t="s">
-        <v>345</v>
-      </c>
-      <c r="B23" s="42" t="s">
+    <row r="32">
+      <c r="A32" s="42" t="s">
+        <v>289</v>
+      </c>
+      <c r="B32" s="42" t="s">
         <v>348</v>
       </c>
-      <c r="C23" s="47" t="s">
+      <c r="C32" s="42" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="99" t="s">
-        <v>345</v>
-      </c>
-      <c r="B24" s="42" t="s">
-        <v>321</v>
-      </c>
-      <c r="C24" s="42" t="s">
+    <row r="33">
+      <c r="A33" s="42" t="s">
+        <v>289</v>
+      </c>
+      <c r="B33" s="42" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="99" t="s">
-        <v>345</v>
-      </c>
-      <c r="B25" s="42" t="s">
-        <v>323</v>
-      </c>
-      <c r="C25" s="42" t="s">
+      <c r="C33" s="42" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="99" t="s">
-        <v>345</v>
-      </c>
-      <c r="B26" s="47" t="s">
+    <row r="34">
+      <c r="A34" s="42" t="s">
+        <v>289</v>
+      </c>
+      <c r="B34" s="42" t="s">
         <v>352</v>
       </c>
-      <c r="C26" s="47" t="s">
+      <c r="C34" s="42" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="99" t="s">
-        <v>345</v>
-      </c>
-      <c r="B27" s="97" t="s">
+    <row r="35">
+      <c r="A35" s="42" t="s">
+        <v>289</v>
+      </c>
+      <c r="B35" s="42" t="s">
         <v>354</v>
       </c>
-      <c r="C27" s="97" t="s">
+      <c r="C35" s="42" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="99" t="s">
-        <v>345</v>
-      </c>
-      <c r="B28" s="97" t="s">
+    <row r="36">
+      <c r="A36" s="42" t="s">
+        <v>289</v>
+      </c>
+      <c r="B36" s="42" t="s">
         <v>356</v>
       </c>
-      <c r="C28" s="97" t="s">
+      <c r="C36" s="42" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="99" t="s">
-        <v>345</v>
-      </c>
-      <c r="B29" s="97" t="s">
+    <row r="37">
+      <c r="A37" s="42" t="s">
+        <v>289</v>
+      </c>
+      <c r="B37" s="42" t="s">
         <v>358</v>
       </c>
-      <c r="C29" s="97" t="s">
+      <c r="C37" s="42" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="99" t="s">
-        <v>345</v>
-      </c>
-      <c r="B30" s="97" t="s">
+    <row r="38">
+      <c r="A38" s="42" t="s">
+        <v>289</v>
+      </c>
+      <c r="B38" s="42" t="s">
         <v>360</v>
       </c>
-      <c r="C30" s="100" t="s">
+      <c r="C38" s="42" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="42" t="s">
-        <v>305</v>
-      </c>
-      <c r="B31" s="42" t="s">
+    <row r="39">
+      <c r="A39" s="42" t="s">
+        <v>289</v>
+      </c>
+      <c r="B39" s="42" t="s">
         <v>362</v>
       </c>
-      <c r="C31" s="42" t="s">
+      <c r="C39" s="42" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="42" t="s">
-        <v>305</v>
-      </c>
-      <c r="B32" s="42" t="s">
+    <row r="40">
+      <c r="A40" s="42" t="s">
+        <v>289</v>
+      </c>
+      <c r="B40" s="42" t="s">
         <v>364</v>
       </c>
-      <c r="C32" s="42" t="s">
+      <c r="C40" s="42" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="42" t="s">
-        <v>305</v>
-      </c>
-      <c r="B33" s="42" t="s">
+    <row r="41">
+      <c r="A41" s="42" t="s">
+        <v>289</v>
+      </c>
+      <c r="B41" s="42" t="s">
         <v>366</v>
       </c>
-      <c r="C33" s="42" t="s">
+      <c r="C41" s="42" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="42" t="s">
-        <v>305</v>
-      </c>
-      <c r="B34" s="42" t="s">
+    <row r="42">
+      <c r="A42" s="42" t="s">
+        <v>289</v>
+      </c>
+      <c r="B42" s="42" t="s">
         <v>368</v>
       </c>
-      <c r="C34" s="42" t="s">
+      <c r="C42" s="42" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="42" t="s">
-        <v>305</v>
-      </c>
-      <c r="B35" s="42" t="s">
+    <row r="43">
+      <c r="A43" s="42" t="s">
+        <v>289</v>
+      </c>
+      <c r="B43" s="42" t="s">
         <v>370</v>
       </c>
-      <c r="C35" s="42" t="s">
+      <c r="C43" s="42" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="42" t="s">
-        <v>305</v>
-      </c>
-      <c r="B36" s="42" t="s">
+    <row r="44">
+      <c r="A44" s="42" t="s">
+        <v>289</v>
+      </c>
+      <c r="B44" s="42" t="s">
         <v>372</v>
       </c>
-      <c r="C36" s="42" t="s">
+      <c r="C44" s="42" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="42" t="s">
-        <v>305</v>
-      </c>
-      <c r="B37" s="42" t="s">
-        <v>374</v>
-      </c>
-      <c r="C37" s="42" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="42" t="s">
-        <v>305</v>
-      </c>
-      <c r="B38" s="42" t="s">
-        <v>376</v>
-      </c>
-      <c r="C38" s="42" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="42" t="s">
-        <v>305</v>
-      </c>
-      <c r="B39" s="42" t="s">
-        <v>378</v>
-      </c>
-      <c r="C39" s="42" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="42" t="s">
-        <v>305</v>
-      </c>
-      <c r="B40" s="42" t="s">
-        <v>380</v>
-      </c>
-      <c r="C40" s="47" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="42" t="s">
-        <v>305</v>
-      </c>
-      <c r="B41" s="42" t="s">
-        <v>382</v>
-      </c>
-      <c r="C41" s="42" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="42" t="s">
-        <v>305</v>
-      </c>
-      <c r="B42" s="42" t="s">
-        <v>384</v>
-      </c>
-      <c r="C42" s="42" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="42" t="s">
-        <v>305</v>
-      </c>
-      <c r="B43" s="42" t="s">
-        <v>386</v>
-      </c>
-      <c r="C43" s="42" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="42" t="s">
-        <v>305</v>
-      </c>
-      <c r="B44" s="42" t="s">
-        <v>388</v>
-      </c>
-      <c r="C44" s="42" t="s">
-        <v>389</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/TNR_JDD/RO/JDD.RO.ACT.xlsx
+++ b/TNR_JDD/RO/JDD.RO.ACT.xlsx
@@ -16,14 +16,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId12" roundtripDataSignature="AMtx7mjxic+QLLr9Qld4wM4FXolcYTKtNQ=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId12" roundtripDataSignature="AMtx7miu0eFHPSgIVnQTxtX+BamxHQsX+w=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="386">
   <si>
     <t>Date</t>
   </si>
@@ -883,6 +883,15 @@
     <t>$VIDE</t>
   </si>
   <si>
+    <t>01010115</t>
+  </si>
+  <si>
+    <t>06060620</t>
+  </si>
+  <si>
+    <t>09090923</t>
+  </si>
+  <si>
     <t>TAB</t>
   </si>
   <si>
@@ -1061,6 +1070,33 @@
   </si>
   <si>
     <t>//div[@id='empFooter']//button[@value='Fermer']</t>
+  </si>
+  <si>
+    <t>005</t>
+  </si>
+  <si>
+    <t>input_ID_COD</t>
+  </si>
+  <si>
+    <t>//input[@id='ID_COD']</t>
+  </si>
+  <si>
+    <t>input_ST_NOMNEW</t>
+  </si>
+  <si>
+    <t>//input[@id='ST_NOMNEW']</t>
+  </si>
+  <si>
+    <t>input_ST_PRENEW</t>
+  </si>
+  <si>
+    <t>//input[@id='ST_PRENEW']</t>
+  </si>
+  <si>
+    <t>button_ValiderCopie</t>
+  </si>
+  <si>
+    <t>//button[@value='Valider']</t>
   </si>
   <si>
     <t>a_Acteur</t>
@@ -1234,7 +1270,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="22">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1361,6 +1397,12 @@
         <bgColor rgb="FFFDE39B"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB6D7A8"/>
+        <bgColor rgb="FFB6D7A8"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border/>
@@ -1388,7 +1430,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="98">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1662,6 +1704,9 @@
     <xf borderId="0" fillId="10" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf quotePrefix="1" borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="19" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1675,6 +1720,9 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="21" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf quotePrefix="1" borderId="0" fillId="22" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -7628,8 +7676,8 @@
     <col customWidth="1" min="3" max="3" width="23.5"/>
     <col customWidth="1" min="4" max="4" width="25.38"/>
     <col customWidth="1" min="5" max="5" width="30.88"/>
-    <col customWidth="1" min="6" max="6" width="20.88"/>
-    <col customWidth="1" min="7" max="7" width="21.13"/>
+    <col customWidth="1" min="6" max="6" width="26.13"/>
+    <col customWidth="1" min="7" max="7" width="28.25"/>
     <col customWidth="1" min="8" max="8" width="6.88"/>
     <col customWidth="1" min="9" max="9" width="9.38"/>
     <col customWidth="1" min="10" max="10" width="7.5"/>
@@ -7670,7 +7718,7 @@
     <col customWidth="1" min="49" max="49" width="10.88"/>
     <col customWidth="1" min="50" max="50" width="7.63"/>
     <col customWidth="1" min="51" max="52" width="13.63"/>
-    <col customWidth="1" min="53" max="54" width="13.5"/>
+    <col customWidth="1" min="53" max="55" width="13.5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -7836,6 +7884,7 @@
       <c r="BB1" s="69" t="s">
         <v>119</v>
       </c>
+      <c r="BC1" s="69"/>
     </row>
     <row r="2">
       <c r="A2" s="82" t="s">
@@ -7912,6 +7961,7 @@
       <c r="AZ2" s="34"/>
       <c r="BA2" s="34"/>
       <c r="BB2" s="34"/>
+      <c r="BC2" s="34"/>
     </row>
     <row r="3">
       <c r="A3" s="82" t="s">
@@ -7973,6 +8023,7 @@
       <c r="AZ3" s="34"/>
       <c r="BA3" s="34"/>
       <c r="BB3" s="34"/>
+      <c r="BC3" s="34"/>
     </row>
     <row r="4">
       <c r="A4" s="82" t="s">
@@ -8101,6 +8152,7 @@
       <c r="AZ4" s="34"/>
       <c r="BA4" s="34"/>
       <c r="BB4" s="34"/>
+      <c r="BC4" s="34"/>
     </row>
     <row r="5">
       <c r="A5" s="85" t="s">
@@ -8159,6 +8211,7 @@
       <c r="AZ5" s="86"/>
       <c r="BA5" s="86"/>
       <c r="BB5" s="86"/>
+      <c r="BC5" s="86"/>
     </row>
     <row r="6">
       <c r="A6" s="41" t="s">
@@ -8168,7 +8221,7 @@
         <v>277</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D6" s="42" t="s">
         <v>278</v>
@@ -8194,8 +8247,8 @@
       <c r="K6" s="42" t="s">
         <v>281</v>
       </c>
-      <c r="L6" s="45">
-        <v>27.0</v>
+      <c r="L6" s="88" t="s">
+        <v>177</v>
       </c>
       <c r="M6" s="89" t="s">
         <v>282</v>
@@ -8272,14 +8325,14 @@
       <c r="AK6" s="43" t="s">
         <v>177</v>
       </c>
-      <c r="AL6" s="45">
-        <v>1010115.0</v>
-      </c>
-      <c r="AM6" s="45">
-        <v>6060620.0</v>
-      </c>
-      <c r="AN6" s="45">
-        <v>9090923.0</v>
+      <c r="AL6" s="91" t="s">
+        <v>286</v>
+      </c>
+      <c r="AM6" s="91" t="s">
+        <v>287</v>
+      </c>
+      <c r="AN6" s="91" t="s">
+        <v>288</v>
       </c>
       <c r="AO6" s="42" t="s">
         <v>177</v>
@@ -8323,6 +8376,7 @@
       <c r="BB6" s="43" t="s">
         <v>188</v>
       </c>
+      <c r="BC6" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8348,46 +8402,46 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="28" t="s">
-        <v>286</v>
-      </c>
-      <c r="B1" s="91" t="s">
-        <v>287</v>
-      </c>
-      <c r="C1" s="91" t="s">
-        <v>288</v>
+        <v>289</v>
+      </c>
+      <c r="B1" s="92" t="s">
+        <v>290</v>
+      </c>
+      <c r="C1" s="92" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="42" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B2" s="42" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="C2" s="42" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="42" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B3" s="42" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C3" s="42" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="42" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B4" s="42" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="5">
@@ -8395,10 +8449,10 @@
         <v>11</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C5" s="42" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6">
@@ -8406,428 +8460,472 @@
         <v>11</v>
       </c>
       <c r="B6" s="42" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="92" t="s">
-        <v>300</v>
+      <c r="A7" s="93" t="s">
+        <v>303</v>
       </c>
       <c r="B7" s="42" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="92" t="s">
-        <v>300</v>
+      <c r="A8" s="93" t="s">
+        <v>303</v>
       </c>
       <c r="B8" s="42" t="s">
+        <v>306</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="93" t="s">
         <v>303</v>
       </c>
-      <c r="C8" s="42" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="92" t="s">
-        <v>300</v>
-      </c>
       <c r="B9" s="42" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="92" t="s">
-        <v>300</v>
+      <c r="A10" s="93" t="s">
+        <v>303</v>
       </c>
       <c r="B10" s="42" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="C10" s="42" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="93" t="s">
+        <v>303</v>
+      </c>
+      <c r="B11" s="94" t="s">
+        <v>312</v>
+      </c>
+      <c r="C11" s="94" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="93" t="s">
+        <v>303</v>
+      </c>
+      <c r="B12" s="94" t="s">
+        <v>314</v>
+      </c>
+      <c r="C12" s="94" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="93" t="s">
+        <v>303</v>
+      </c>
+      <c r="B13" s="94" t="s">
+        <v>316</v>
+      </c>
+      <c r="C13" s="94" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="95" t="s">
+        <v>318</v>
+      </c>
+      <c r="B14" s="42" t="s">
+        <v>319</v>
+      </c>
+      <c r="C14" s="42" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="95" t="s">
+        <v>318</v>
+      </c>
+      <c r="B15" s="42" t="s">
+        <v>321</v>
+      </c>
+      <c r="C15" s="42" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="95" t="s">
+        <v>318</v>
+      </c>
+      <c r="B16" s="42" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="92" t="s">
-        <v>300</v>
-      </c>
-      <c r="B11" s="93" t="s">
-        <v>309</v>
-      </c>
-      <c r="C11" s="93" t="s">
+      <c r="C16" s="42" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="95" t="s">
+        <v>318</v>
+      </c>
+      <c r="B17" s="42" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="92" t="s">
-        <v>300</v>
-      </c>
-      <c r="B12" s="93" t="s">
-        <v>311</v>
-      </c>
-      <c r="C12" s="93" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="92" t="s">
-        <v>300</v>
-      </c>
-      <c r="B13" s="93" t="s">
-        <v>313</v>
-      </c>
-      <c r="C13" s="93" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="94" t="s">
-        <v>315</v>
-      </c>
-      <c r="B14" s="42" t="s">
-        <v>316</v>
-      </c>
-      <c r="C14" s="42" t="s">
+      <c r="C17" s="42" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="95" t="s">
+        <v>318</v>
+      </c>
+      <c r="B18" s="94" t="s">
+        <v>325</v>
+      </c>
+      <c r="C18" s="94" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="95" t="s">
+        <v>318</v>
+      </c>
+      <c r="B19" s="94" t="s">
+        <v>327</v>
+      </c>
+      <c r="C19" s="94" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="95" t="s">
+        <v>318</v>
+      </c>
+      <c r="B20" s="94" t="s">
+        <v>329</v>
+      </c>
+      <c r="C20" s="94" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="95" t="s">
+        <v>318</v>
+      </c>
+      <c r="B21" s="94" t="s">
+        <v>331</v>
+      </c>
+      <c r="C21" s="94" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="94" t="s">
-        <v>315</v>
-      </c>
-      <c r="B15" s="42" t="s">
-        <v>318</v>
-      </c>
-      <c r="C15" s="42" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="94" t="s">
-        <v>315</v>
-      </c>
-      <c r="B16" s="42" t="s">
-        <v>305</v>
-      </c>
-      <c r="C16" s="42" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="94" t="s">
-        <v>315</v>
-      </c>
-      <c r="B17" s="42" t="s">
-        <v>307</v>
-      </c>
-      <c r="C17" s="42" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="94" t="s">
-        <v>315</v>
-      </c>
-      <c r="B18" s="93" t="s">
-        <v>322</v>
-      </c>
-      <c r="C18" s="93" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="94" t="s">
-        <v>315</v>
-      </c>
-      <c r="B19" s="93" t="s">
-        <v>324</v>
-      </c>
-      <c r="C19" s="93" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="94" t="s">
-        <v>315</v>
-      </c>
-      <c r="B20" s="93" t="s">
-        <v>326</v>
-      </c>
-      <c r="C20" s="93" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="94" t="s">
-        <v>315</v>
-      </c>
-      <c r="B21" s="93" t="s">
-        <v>328</v>
-      </c>
-      <c r="C21" s="93" t="s">
-        <v>314</v>
-      </c>
-    </row>
     <row r="22">
-      <c r="A22" s="95" t="s">
-        <v>329</v>
+      <c r="A22" s="96" t="s">
+        <v>332</v>
       </c>
       <c r="B22" s="42" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C22" s="43" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="95" t="s">
-        <v>329</v>
+      <c r="A23" s="96" t="s">
+        <v>332</v>
       </c>
       <c r="B23" s="42" t="s">
+        <v>335</v>
+      </c>
+      <c r="C23" s="42" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="96" t="s">
         <v>332</v>
       </c>
-      <c r="C23" s="42" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="95" t="s">
-        <v>329</v>
-      </c>
       <c r="B24" s="42" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C24" s="42" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="95" t="s">
-        <v>329</v>
+      <c r="A25" s="96" t="s">
+        <v>332</v>
       </c>
       <c r="B25" s="42" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="C25" s="42" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="95" t="s">
-        <v>329</v>
+      <c r="A26" s="96" t="s">
+        <v>332</v>
       </c>
       <c r="B26" s="42" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C26" s="42" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="95" t="s">
-        <v>329</v>
-      </c>
-      <c r="B27" s="93" t="s">
-        <v>338</v>
-      </c>
-      <c r="C27" s="93" t="s">
-        <v>339</v>
+      <c r="A27" s="96" t="s">
+        <v>332</v>
+      </c>
+      <c r="B27" s="94" t="s">
+        <v>341</v>
+      </c>
+      <c r="C27" s="94" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="95" t="s">
-        <v>329</v>
-      </c>
-      <c r="B28" s="93" t="s">
-        <v>340</v>
-      </c>
-      <c r="C28" s="93" t="s">
-        <v>341</v>
+      <c r="A28" s="96" t="s">
+        <v>332</v>
+      </c>
+      <c r="B28" s="94" t="s">
+        <v>343</v>
+      </c>
+      <c r="C28" s="94" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="95" t="s">
-        <v>329</v>
-      </c>
-      <c r="B29" s="93" t="s">
-        <v>342</v>
-      </c>
-      <c r="C29" s="93" t="s">
-        <v>343</v>
+      <c r="A29" s="96" t="s">
+        <v>332</v>
+      </c>
+      <c r="B29" s="94" t="s">
+        <v>345</v>
+      </c>
+      <c r="C29" s="94" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="95" t="s">
-        <v>329</v>
-      </c>
-      <c r="B30" s="93" t="s">
-        <v>344</v>
-      </c>
-      <c r="C30" s="93" t="s">
-        <v>345</v>
+      <c r="A30" s="96" t="s">
+        <v>332</v>
+      </c>
+      <c r="B30" s="94" t="s">
+        <v>347</v>
+      </c>
+      <c r="C30" s="94" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="42" t="s">
-        <v>289</v>
-      </c>
-      <c r="B31" s="42" t="s">
-        <v>346</v>
-      </c>
-      <c r="C31" s="42" t="s">
-        <v>347</v>
+      <c r="A31" s="97" t="s">
+        <v>349</v>
+      </c>
+      <c r="B31" s="47" t="s">
+        <v>350</v>
+      </c>
+      <c r="C31" s="47" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="42" t="s">
-        <v>289</v>
-      </c>
-      <c r="B32" s="42" t="s">
-        <v>348</v>
-      </c>
-      <c r="C32" s="42" t="s">
+      <c r="A32" s="97" t="s">
         <v>349</v>
       </c>
+      <c r="B32" s="47" t="s">
+        <v>352</v>
+      </c>
+      <c r="C32" s="47" t="s">
+        <v>353</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="42" t="s">
-        <v>289</v>
-      </c>
-      <c r="B33" s="42" t="s">
-        <v>350</v>
-      </c>
-      <c r="C33" s="42" t="s">
-        <v>351</v>
+      <c r="A33" s="97" t="s">
+        <v>349</v>
+      </c>
+      <c r="B33" s="47" t="s">
+        <v>354</v>
+      </c>
+      <c r="C33" s="47" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="42" t="s">
-        <v>289</v>
-      </c>
-      <c r="B34" s="42" t="s">
-        <v>352</v>
-      </c>
-      <c r="C34" s="42" t="s">
-        <v>353</v>
+      <c r="A34" s="97" t="s">
+        <v>349</v>
+      </c>
+      <c r="B34" s="47" t="s">
+        <v>356</v>
+      </c>
+      <c r="C34" s="47" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="42" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B35" s="42" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="C35" s="42" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="42" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B36" s="42" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="C36" s="42" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="42" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B37" s="42" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="C37" s="42" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="42" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B38" s="42" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C38" s="42" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="42" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B39" s="42" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="C39" s="42" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="42" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B40" s="42" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="C40" s="42" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="42" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B41" s="42" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="C41" s="42" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="42" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B42" s="42" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="C42" s="42" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="42" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B43" s="42" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="C43" s="42" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="42" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B44" s="42" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="C44" s="42" t="s">
-        <v>373</v>
+        <v>377</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="42" t="s">
+        <v>292</v>
+      </c>
+      <c r="B45" s="42" t="s">
+        <v>378</v>
+      </c>
+      <c r="C45" s="42" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="42" t="s">
+        <v>292</v>
+      </c>
+      <c r="B46" s="42" t="s">
+        <v>380</v>
+      </c>
+      <c r="C46" s="42" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="42" t="s">
+        <v>292</v>
+      </c>
+      <c r="B47" s="42" t="s">
+        <v>382</v>
+      </c>
+      <c r="C47" s="42" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="42" t="s">
+        <v>292</v>
+      </c>
+      <c r="B48" s="42" t="s">
+        <v>384</v>
+      </c>
+      <c r="C48" s="42" t="s">
+        <v>385</v>
       </c>
     </row>
   </sheetData>

--- a/TNR_JDD/RO/JDD.RO.ACT.xlsx
+++ b/TNR_JDD/RO/JDD.RO.ACT.xlsx
@@ -1,19 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
+  <bookViews>
+    <workbookView xWindow="228" yWindow="504" windowWidth="15612" windowHeight="8412" activeTab="2"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Version" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Info" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="001" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="003HAB" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="003MET" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="004EMP" sheetId="6" r:id="rId9"/>
-    <sheet state="visible" name="005" sheetId="7" r:id="rId10"/>
-    <sheet state="visible" name="IHMTO" sheetId="8" r:id="rId11"/>
+    <sheet name="Version" sheetId="1" r:id="rId1"/>
+    <sheet name="Info" sheetId="2" r:id="rId2"/>
+    <sheet name="001" sheetId="3" r:id="rId3"/>
+    <sheet name="003HAB" sheetId="4" r:id="rId4"/>
+    <sheet name="003MET" sheetId="5" r:id="rId5"/>
+    <sheet name="004EMP" sheetId="6" r:id="rId6"/>
+    <sheet name="005" sheetId="7" r:id="rId7"/>
+    <sheet name="IHMTO" sheetId="8" r:id="rId8"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId12" roundtripDataSignature="AMtx7miu0eFHPSgIVnQTxtX+BamxHQsX+w=="/>
@@ -23,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="387">
   <si>
     <t>Date</t>
   </si>
@@ -1181,91 +1184,99 @@
   </si>
   <si>
     <t>//li[@class ='nav-item']//a[@ml-text3='ID_NUMZON' and starts-with(@class,'nav-link active')]</t>
+  </si>
+  <si>
+    <t>checkbox</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
-  </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="15">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
-      <sz val="8.0"/>
+      <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="&quot;Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
@@ -1275,7 +1286,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1405,7 +1416,13 @@
     </fill>
   </fills>
   <borders count="3">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -1419,354 +1436,242 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+  <cellXfs count="101">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="2" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf quotePrefix="1" borderId="2" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="2" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="10" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="11" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="12" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="12" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="12" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="10" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="10" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="12" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="13" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="13" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="14" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="14" fontId="6" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="10" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="14" fontId="12" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf quotePrefix="1" borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="6" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="14" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="11" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="15" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="15" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf quotePrefix="1" borderId="0" fillId="15" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="14" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="14" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="14" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="10" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="11" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="12" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="12" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="12" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="12" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="13" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="15" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="12" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="12" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="15" fontId="12" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="15" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="14" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="9" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="16" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="17" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="10" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="12" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="12" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="12" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="13" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="13" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="10" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="18" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="10" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf quotePrefix="1" borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="19" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="20" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="21" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf quotePrefix="1" borderId="0" fillId="22" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1956,27 +1861,27 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F999"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="2" width="10.63"/>
-    <col customWidth="1" min="3" max="3" width="29.88"/>
-    <col customWidth="1" min="4" max="4" width="10.63"/>
-    <col customWidth="1" min="5" max="5" width="12.13"/>
-    <col customWidth="1" min="6" max="26" width="10.63"/>
+    <col min="1" max="2" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="29.88671875" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" customWidth="1"/>
+    <col min="6" max="26" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.75" customHeight="1">
+    <row r="1" spans="1:6" ht="12.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1993,9 +1898,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="12.75" customHeight="1">
+    <row r="2" spans="1:6" ht="12.75" customHeight="1">
       <c r="A2" s="3">
-        <v>44886.0</v>
+        <v>44886</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>5</v>
@@ -2009,126 +1914,126 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" ht="12.75" customHeight="1">
+    <row r="3" spans="1:6" ht="12.75" customHeight="1">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" ht="12.75" customHeight="1">
+    <row r="4" spans="1:6" ht="12.75" customHeight="1">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" ht="12.75" customHeight="1">
+    <row r="5" spans="1:6" ht="12.75" customHeight="1">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" ht="12.75" customHeight="1">
+    <row r="6" spans="1:6" ht="12.75" customHeight="1">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" ht="12.75" customHeight="1">
+    <row r="7" spans="1:6" ht="12.75" customHeight="1">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" ht="12.75" customHeight="1">
+    <row r="8" spans="1:6" ht="12.75" customHeight="1">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" ht="12.75" customHeight="1">
+    <row r="9" spans="1:6" ht="12.75" customHeight="1">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" ht="12.75" customHeight="1">
+    <row r="10" spans="1:6" ht="12.75" customHeight="1">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" ht="12.75" customHeight="1">
+    <row r="11" spans="1:6" ht="12.75" customHeight="1">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" ht="12.75" customHeight="1">
+    <row r="12" spans="1:6" ht="12.75" customHeight="1">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
     </row>
-    <row r="13" ht="12.75" customHeight="1">
+    <row r="13" spans="1:6" ht="12.75" customHeight="1">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" ht="12.75" customHeight="1">
+    <row r="14" spans="1:6" ht="12.75" customHeight="1">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
     </row>
-    <row r="15" ht="12.75" customHeight="1">
+    <row r="15" spans="1:6" ht="12.75" customHeight="1">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" ht="12.75" customHeight="1">
+    <row r="16" spans="1:6" ht="12.75" customHeight="1">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
     </row>
-    <row r="17" ht="12.75" customHeight="1">
+    <row r="17" spans="1:5" ht="12.75" customHeight="1">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
     </row>
-    <row r="18" ht="12.75" customHeight="1"/>
-    <row r="19" ht="12.75" customHeight="1"/>
-    <row r="20" ht="12.75" customHeight="1"/>
-    <row r="21" ht="12.75" customHeight="1"/>
-    <row r="22" ht="12.75" customHeight="1"/>
-    <row r="23" ht="12.75" customHeight="1"/>
-    <row r="24" ht="12.75" customHeight="1"/>
-    <row r="25" ht="12.75" customHeight="1"/>
-    <row r="26" ht="12.75" customHeight="1"/>
-    <row r="27" ht="12.75" customHeight="1"/>
-    <row r="28" ht="12.75" customHeight="1"/>
-    <row r="29" ht="12.75" customHeight="1"/>
-    <row r="30" ht="12.75" customHeight="1"/>
-    <row r="31" ht="12.75" customHeight="1"/>
-    <row r="32" ht="12.75" customHeight="1"/>
+    <row r="18" spans="1:5" ht="12.75" customHeight="1"/>
+    <row r="19" spans="1:5" ht="12.75" customHeight="1"/>
+    <row r="20" spans="1:5" ht="12.75" customHeight="1"/>
+    <row r="21" spans="1:5" ht="12.75" customHeight="1"/>
+    <row r="22" spans="1:5" ht="12.75" customHeight="1"/>
+    <row r="23" spans="1:5" ht="12.75" customHeight="1"/>
+    <row r="24" spans="1:5" ht="12.75" customHeight="1"/>
+    <row r="25" spans="1:5" ht="12.75" customHeight="1"/>
+    <row r="26" spans="1:5" ht="12.75" customHeight="1"/>
+    <row r="27" spans="1:5" ht="12.75" customHeight="1"/>
+    <row r="28" spans="1:5" ht="12.75" customHeight="1"/>
+    <row r="29" spans="1:5" ht="12.75" customHeight="1"/>
+    <row r="30" spans="1:5" ht="12.75" customHeight="1"/>
+    <row r="31" spans="1:5" ht="12.75" customHeight="1"/>
+    <row r="32" spans="1:5" ht="12.75" customHeight="1"/>
     <row r="33" ht="12.75" customHeight="1"/>
     <row r="34" ht="12.75" customHeight="1"/>
     <row r="35" ht="12.75" customHeight="1"/>
@@ -3097,32 +3002,28 @@
     <row r="998" ht="12.75" customHeight="1"/>
     <row r="999" ht="12.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Z980"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="13.5"/>
-    <col customWidth="1" min="2" max="2" width="61.5"/>
-    <col customWidth="1" min="3" max="3" width="28.0"/>
-    <col customWidth="1" min="4" max="4" width="10.63"/>
-    <col customWidth="1" min="5" max="5" width="11.88"/>
-    <col customWidth="1" min="6" max="26" width="10.63"/>
+    <col min="1" max="1" width="13.44140625" customWidth="1"/>
+    <col min="2" max="2" width="61.44140625" customWidth="1"/>
+    <col min="3" max="3" width="28" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" customWidth="1"/>
+    <col min="6" max="26" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.75" customHeight="1">
+    <row r="1" spans="1:5" ht="12.75" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>8</v>
       </c>
@@ -3135,7 +3036,7 @@
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
     </row>
-    <row r="2" ht="12.75" customHeight="1">
+    <row r="2" spans="1:5" ht="12.75" customHeight="1">
       <c r="A2" s="10" t="s">
         <v>11</v>
       </c>
@@ -3143,12 +3044,12 @@
         <v>12</v>
       </c>
       <c r="C2" s="9">
-        <v>1022.0</v>
+        <v>1022</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
     </row>
-    <row r="3" ht="12.75" customHeight="1">
+    <row r="3" spans="1:5" ht="12.75" customHeight="1">
       <c r="A3" s="12" t="s">
         <v>13</v>
       </c>
@@ -3162,7 +3063,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" ht="12.75" customHeight="1">
+    <row r="4" spans="1:5" ht="12.75" customHeight="1">
       <c r="A4" s="12" t="s">
         <v>17</v>
       </c>
@@ -3176,7 +3077,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" ht="12.75" customHeight="1">
+    <row r="5" spans="1:5" ht="12.75" customHeight="1">
       <c r="A5" s="12" t="s">
         <v>20</v>
       </c>
@@ -3191,7 +3092,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" ht="12.75" customHeight="1">
+    <row r="6" spans="1:5" ht="12.75" customHeight="1">
       <c r="A6" s="12" t="s">
         <v>23</v>
       </c>
@@ -3206,7 +3107,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" ht="12.75" customHeight="1">
+    <row r="7" spans="1:5" ht="12.75" customHeight="1">
       <c r="A7" s="12" t="s">
         <v>25</v>
       </c>
@@ -3221,7 +3122,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" ht="12.75" customHeight="1">
+    <row r="8" spans="1:5" ht="12.75" customHeight="1">
       <c r="A8" s="12" t="s">
         <v>27</v>
       </c>
@@ -3235,7 +3136,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" ht="12.75" customHeight="1">
+    <row r="9" spans="1:5" ht="12.75" customHeight="1">
       <c r="A9" s="12" t="s">
         <v>29</v>
       </c>
@@ -3247,7 +3148,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="12.75" customHeight="1">
+    <row r="10" spans="1:5" ht="12.75" customHeight="1">
       <c r="A10" s="12" t="s">
         <v>31</v>
       </c>
@@ -3259,7 +3160,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" ht="12.75" customHeight="1">
+    <row r="11" spans="1:5" ht="12.75" customHeight="1">
       <c r="A11" s="12" t="s">
         <v>33</v>
       </c>
@@ -3271,7 +3172,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" ht="12.75" customHeight="1">
+    <row r="12" spans="1:5" ht="12.75" customHeight="1">
       <c r="A12" s="13" t="s">
         <v>35</v>
       </c>
@@ -3283,7 +3184,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" ht="12.75" customHeight="1">
+    <row r="13" spans="1:5" ht="12.75" customHeight="1">
       <c r="A13" s="13" t="s">
         <v>37</v>
       </c>
@@ -3297,7 +3198,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" ht="12.75" customHeight="1">
+    <row r="14" spans="1:5" ht="12.75" customHeight="1">
       <c r="A14" s="5" t="s">
         <v>39</v>
       </c>
@@ -3312,7 +3213,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" ht="12.75" customHeight="1">
+    <row r="15" spans="1:5" ht="12.75" customHeight="1">
       <c r="A15" s="13" t="s">
         <v>41</v>
       </c>
@@ -3324,7 +3225,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" ht="12.75" customHeight="1">
+    <row r="16" spans="1:5" ht="12.75" customHeight="1">
       <c r="A16" s="13" t="s">
         <v>43</v>
       </c>
@@ -3336,7 +3237,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" ht="12.75" customHeight="1">
+    <row r="17" spans="1:5" ht="12.75" customHeight="1">
       <c r="A17" s="5" t="s">
         <v>45</v>
       </c>
@@ -3347,7 +3248,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" ht="12.75" customHeight="1">
+    <row r="18" spans="1:5" ht="12.75" customHeight="1">
       <c r="A18" s="5" t="s">
         <v>47</v>
       </c>
@@ -3358,7 +3259,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" ht="12.75" customHeight="1">
+    <row r="19" spans="1:5" ht="12.75" customHeight="1">
       <c r="A19" s="5" t="s">
         <v>49</v>
       </c>
@@ -3369,7 +3270,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" ht="12.75" customHeight="1">
+    <row r="20" spans="1:5" ht="12.75" customHeight="1">
       <c r="A20" s="5" t="s">
         <v>51</v>
       </c>
@@ -3380,7 +3281,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" ht="12.75" customHeight="1">
+    <row r="21" spans="1:5" ht="12.75" customHeight="1">
       <c r="A21" s="5" t="s">
         <v>53</v>
       </c>
@@ -3391,7 +3292,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" ht="12.75" customHeight="1">
+    <row r="22" spans="1:5" ht="12.75" customHeight="1">
       <c r="A22" s="5" t="s">
         <v>55</v>
       </c>
@@ -3402,7 +3303,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" ht="12.75" customHeight="1">
+    <row r="23" spans="1:5" ht="12.75" customHeight="1">
       <c r="A23" s="5" t="s">
         <v>57</v>
       </c>
@@ -3413,7 +3314,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" ht="12.75" customHeight="1">
+    <row r="24" spans="1:5" ht="12.75" customHeight="1">
       <c r="A24" s="5" t="s">
         <v>59</v>
       </c>
@@ -3424,7 +3325,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" ht="12.75" customHeight="1">
+    <row r="25" spans="1:5" ht="12.75" customHeight="1">
       <c r="A25" s="5" t="s">
         <v>61</v>
       </c>
@@ -3435,7 +3336,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" ht="12.75" customHeight="1">
+    <row r="26" spans="1:5" ht="12.75" customHeight="1">
       <c r="A26" s="18" t="s">
         <v>63</v>
       </c>
@@ -3449,7 +3350,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" ht="12.75" customHeight="1">
+    <row r="27" spans="1:5" ht="12.75" customHeight="1">
       <c r="A27" s="5" t="s">
         <v>65</v>
       </c>
@@ -3466,7 +3367,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="28" ht="12.75" customHeight="1">
+    <row r="28" spans="1:5" ht="12.75" customHeight="1">
       <c r="A28" s="5" t="s">
         <v>68</v>
       </c>
@@ -3483,7 +3384,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="29" ht="12.75" customHeight="1">
+    <row r="29" spans="1:5" ht="12.75" customHeight="1">
       <c r="A29" s="5" t="s">
         <v>70</v>
       </c>
@@ -3494,7 +3395,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" ht="12.75" customHeight="1">
+    <row r="30" spans="1:5" ht="12.75" customHeight="1">
       <c r="A30" s="5" t="s">
         <v>72</v>
       </c>
@@ -3505,7 +3406,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" ht="12.75" customHeight="1">
+    <row r="31" spans="1:5" ht="12.75" customHeight="1">
       <c r="A31" s="5" t="s">
         <v>74</v>
       </c>
@@ -3516,7 +3417,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" ht="12.75" customHeight="1">
+    <row r="32" spans="1:5" ht="12.75" customHeight="1">
       <c r="A32" s="5" t="s">
         <v>76</v>
       </c>
@@ -3527,7 +3428,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="33" ht="12.75" customHeight="1">
+    <row r="33" spans="1:5" ht="12.75" customHeight="1">
       <c r="A33" s="5" t="s">
         <v>78</v>
       </c>
@@ -3538,7 +3439,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" ht="12.75" customHeight="1">
+    <row r="34" spans="1:5" ht="12.75" customHeight="1">
       <c r="A34" s="5" t="s">
         <v>80</v>
       </c>
@@ -3549,7 +3450,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" ht="12.75" customHeight="1">
+    <row r="35" spans="1:5" ht="12.75" customHeight="1">
       <c r="A35" s="5" t="s">
         <v>82</v>
       </c>
@@ -3560,7 +3461,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" ht="12.75" customHeight="1">
+    <row r="36" spans="1:5" ht="12.75" customHeight="1">
       <c r="A36" s="5" t="s">
         <v>84</v>
       </c>
@@ -3571,7 +3472,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" ht="12.75" customHeight="1">
+    <row r="37" spans="1:5" ht="12.75" customHeight="1">
       <c r="A37" s="5" t="s">
         <v>86</v>
       </c>
@@ -3588,7 +3489,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="38" ht="12.75" customHeight="1">
+    <row r="38" spans="1:5" ht="12.75" customHeight="1">
       <c r="A38" s="5" t="s">
         <v>88</v>
       </c>
@@ -3602,7 +3503,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="39" ht="12.75" customHeight="1">
+    <row r="39" spans="1:5" ht="12.75" customHeight="1">
       <c r="A39" s="5" t="s">
         <v>90</v>
       </c>
@@ -3616,7 +3517,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" ht="12.75" customHeight="1">
+    <row r="40" spans="1:5" ht="12.75" customHeight="1">
       <c r="A40" s="5" t="s">
         <v>92</v>
       </c>
@@ -3627,7 +3528,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="41" ht="12.75" customHeight="1">
+    <row r="41" spans="1:5" ht="12.75" customHeight="1">
       <c r="A41" s="5" t="s">
         <v>94</v>
       </c>
@@ -3638,7 +3539,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="42" ht="12.75" customHeight="1">
+    <row r="42" spans="1:5" ht="12.75" customHeight="1">
       <c r="A42" s="5" t="s">
         <v>96</v>
       </c>
@@ -3649,7 +3550,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43" ht="12.75" customHeight="1">
+    <row r="43" spans="1:5" ht="12.75" customHeight="1">
       <c r="A43" s="5" t="s">
         <v>98</v>
       </c>
@@ -3661,7 +3562,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="44" ht="12.75" customHeight="1">
+    <row r="44" spans="1:5" ht="12.75" customHeight="1">
       <c r="A44" s="18" t="s">
         <v>100</v>
       </c>
@@ -3675,7 +3576,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="45" ht="12.75" customHeight="1">
+    <row r="45" spans="1:5" ht="12.75" customHeight="1">
       <c r="A45" s="5" t="s">
         <v>101</v>
       </c>
@@ -3689,7 +3590,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="46" ht="12.75" customHeight="1">
+    <row r="46" spans="1:5" ht="12.75" customHeight="1">
       <c r="A46" s="5" t="s">
         <v>103</v>
       </c>
@@ -3703,7 +3604,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="47" ht="12.75" customHeight="1">
+    <row r="47" spans="1:5" ht="12.75" customHeight="1">
       <c r="A47" s="5" t="s">
         <v>105</v>
       </c>
@@ -3717,7 +3618,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="48" ht="12.75" customHeight="1">
+    <row r="48" spans="1:5" ht="12.75" customHeight="1">
       <c r="A48" s="5" t="s">
         <v>107</v>
       </c>
@@ -3731,7 +3632,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="49" ht="12.75" customHeight="1">
+    <row r="49" spans="1:26" ht="12.75" customHeight="1">
       <c r="A49" s="5" t="s">
         <v>109</v>
       </c>
@@ -3742,7 +3643,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="50" ht="12.75" customHeight="1">
+    <row r="50" spans="1:26" ht="12.75" customHeight="1">
       <c r="A50" s="22" t="s">
         <v>111</v>
       </c>
@@ -3778,7 +3679,7 @@
       <c r="Y50" s="23"/>
       <c r="Z50" s="23"/>
     </row>
-    <row r="51" ht="12.75" customHeight="1">
+    <row r="51" spans="1:26" ht="12.75" customHeight="1">
       <c r="A51" s="5" t="s">
         <v>113</v>
       </c>
@@ -3792,7 +3693,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="52" ht="12.75" customHeight="1">
+    <row r="52" spans="1:26" ht="12.75" customHeight="1">
       <c r="A52" s="5" t="s">
         <v>115</v>
       </c>
@@ -3806,7 +3707,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="53" ht="12.75" customHeight="1">
+    <row r="53" spans="1:26" ht="12.75" customHeight="1">
       <c r="A53" s="5" t="s">
         <v>117</v>
       </c>
@@ -3820,7 +3721,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" ht="12.75" customHeight="1">
+    <row r="54" spans="1:26" ht="12.75" customHeight="1">
       <c r="A54" s="5" t="s">
         <v>119</v>
       </c>
@@ -3834,7 +3735,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="55" ht="12.75" customHeight="1">
+    <row r="55" spans="1:26" ht="12.75" customHeight="1">
       <c r="A55" s="9" t="s">
         <v>121</v>
       </c>
@@ -3842,11 +3743,11 @@
         <v>122</v>
       </c>
       <c r="C55" s="9">
-        <v>1083.0</v>
+        <v>1083</v>
       </c>
       <c r="D55" s="9"/>
     </row>
-    <row r="56" ht="12.75" customHeight="1">
+    <row r="56" spans="1:26" ht="12.75" customHeight="1">
       <c r="A56" s="5" t="s">
         <v>123</v>
       </c>
@@ -3857,7 +3758,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="57" ht="12.75" customHeight="1">
+    <row r="57" spans="1:26" ht="12.75" customHeight="1">
       <c r="A57" s="5" t="s">
         <v>125</v>
       </c>
@@ -3868,7 +3769,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="58" ht="12.75" customHeight="1">
+    <row r="58" spans="1:26" ht="12.75" customHeight="1">
       <c r="A58" s="5" t="s">
         <v>127</v>
       </c>
@@ -3882,7 +3783,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="59" ht="12.75" customHeight="1">
+    <row r="59" spans="1:26" ht="12.75" customHeight="1">
       <c r="A59" s="5" t="s">
         <v>13</v>
       </c>
@@ -3896,7 +3797,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="60" ht="12.75" customHeight="1">
+    <row r="60" spans="1:26" ht="12.75" customHeight="1">
       <c r="A60" s="9" t="s">
         <v>129</v>
       </c>
@@ -3904,11 +3805,11 @@
         <v>130</v>
       </c>
       <c r="C60" s="25">
-        <v>1086.0</v>
+        <v>1086</v>
       </c>
       <c r="D60" s="9"/>
     </row>
-    <row r="61" ht="12.75" customHeight="1">
+    <row r="61" spans="1:26" ht="12.75" customHeight="1">
       <c r="A61" s="5" t="s">
         <v>123</v>
       </c>
@@ -3919,7 +3820,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="62" ht="12.75" customHeight="1">
+    <row r="62" spans="1:26" ht="12.75" customHeight="1">
       <c r="A62" s="5" t="s">
         <v>125</v>
       </c>
@@ -3930,7 +3831,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="63" ht="12.75" customHeight="1">
+    <row r="63" spans="1:26" ht="12.75" customHeight="1">
       <c r="A63" s="5" t="s">
         <v>13</v>
       </c>
@@ -3944,7 +3845,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="64" ht="12.75" customHeight="1">
+    <row r="64" spans="1:26" ht="12.75" customHeight="1">
       <c r="A64" s="5" t="s">
         <v>133</v>
       </c>
@@ -3958,7 +3859,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="65" ht="12.75" customHeight="1">
+    <row r="65" spans="1:5" ht="12.75" customHeight="1">
       <c r="A65" s="5" t="s">
         <v>135</v>
       </c>
@@ -3969,7 +3870,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="66" ht="12.75" customHeight="1">
+    <row r="66" spans="1:5" ht="12.75" customHeight="1">
       <c r="A66" s="25" t="s">
         <v>137</v>
       </c>
@@ -3977,11 +3878,11 @@
         <v>138</v>
       </c>
       <c r="C66" s="25">
-        <v>1587.0</v>
+        <v>1587</v>
       </c>
       <c r="D66" s="9"/>
     </row>
-    <row r="67" ht="12.75" customHeight="1">
+    <row r="67" spans="1:5" ht="12.75" customHeight="1">
       <c r="A67" s="5" t="s">
         <v>139</v>
       </c>
@@ -3996,7 +3897,7 @@
       </c>
       <c r="E67" s="17"/>
     </row>
-    <row r="68" ht="12.75" customHeight="1">
+    <row r="68" spans="1:5" ht="12.75" customHeight="1">
       <c r="A68" s="5" t="s">
         <v>109</v>
       </c>
@@ -4013,7 +3914,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="69" ht="12.75" customHeight="1">
+    <row r="69" spans="1:5" ht="12.75" customHeight="1">
       <c r="A69" s="5" t="s">
         <v>142</v>
       </c>
@@ -4027,7 +3928,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="70" ht="12.75" customHeight="1">
+    <row r="70" spans="1:5" ht="12.75" customHeight="1">
       <c r="A70" s="5" t="s">
         <v>144</v>
       </c>
@@ -4041,7 +3942,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="71" ht="12.75" customHeight="1">
+    <row r="71" spans="1:5" ht="12.75" customHeight="1">
       <c r="A71" s="5" t="s">
         <v>13</v>
       </c>
@@ -4055,7 +3956,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="72" ht="12.75" customHeight="1">
+    <row r="72" spans="1:5" ht="12.75" customHeight="1">
       <c r="A72" s="5" t="s">
         <v>65</v>
       </c>
@@ -4069,7 +3970,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="73" ht="12.75" customHeight="1">
+    <row r="73" spans="1:5" ht="12.75" customHeight="1">
       <c r="A73" s="5" t="s">
         <v>123</v>
       </c>
@@ -4080,7 +3981,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="74" ht="12.75" customHeight="1">
+    <row r="74" spans="1:5" ht="12.75" customHeight="1">
       <c r="A74" s="5" t="s">
         <v>125</v>
       </c>
@@ -4091,7 +3992,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="75" ht="12.75" customHeight="1">
+    <row r="75" spans="1:5" ht="12.75" customHeight="1">
       <c r="A75" s="5" t="s">
         <v>149</v>
       </c>
@@ -4105,7 +4006,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="76" ht="12.75" customHeight="1">
+    <row r="76" spans="1:5" ht="12.75" customHeight="1">
       <c r="A76" s="5" t="s">
         <v>113</v>
       </c>
@@ -4122,7 +4023,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="77" ht="12.75" customHeight="1">
+    <row r="77" spans="1:5" ht="12.75" customHeight="1">
       <c r="A77" s="5" t="s">
         <v>115</v>
       </c>
@@ -4139,7 +4040,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="78" ht="12.75" customHeight="1">
+    <row r="78" spans="1:5" ht="12.75" customHeight="1">
       <c r="A78" s="5" t="s">
         <v>117</v>
       </c>
@@ -4153,7 +4054,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="79" ht="12.75" customHeight="1">
+    <row r="79" spans="1:5" ht="12.75" customHeight="1">
       <c r="A79" s="5" t="s">
         <v>119</v>
       </c>
@@ -4167,7 +4068,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="80" ht="12.75" customHeight="1"/>
+    <row r="80" spans="1:5" ht="12.75" customHeight="1"/>
     <row r="81" ht="12.75" customHeight="1"/>
     <row r="82" ht="12.75" customHeight="1"/>
     <row r="83" ht="12.75" customHeight="1"/>
@@ -5069,33 +4970,34 @@
     <row r="979" ht="12.75" customHeight="1"/>
     <row r="980" ht="12.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:BE18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AB12" sqref="AB12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="2" width="16.63"/>
-    <col customWidth="1" min="3" max="3" width="32.88"/>
-    <col customWidth="1" min="4" max="4" width="24.63"/>
-    <col customWidth="1" min="5" max="5" width="20.88"/>
-    <col customWidth="1" min="6" max="6" width="21.13"/>
-    <col customWidth="1" min="12" max="12" width="25.25"/>
-    <col customWidth="1" min="46" max="46" width="25.25"/>
+    <col min="1" max="2" width="16.6640625" customWidth="1"/>
+    <col min="3" max="3" width="32.88671875" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" customWidth="1"/>
+    <col min="5" max="5" width="20.88671875" customWidth="1"/>
+    <col min="6" max="6" width="21.109375" customWidth="1"/>
+    <col min="12" max="12" width="25.21875" customWidth="1"/>
+    <col min="46" max="46" width="25.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
+    <row r="1" spans="1:57" ht="14.25" customHeight="1">
       <c r="A1" s="26" t="s">
         <v>12</v>
       </c>
@@ -5268,7 +5170,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:57" ht="13.2">
       <c r="A2" s="33" t="s">
         <v>159</v>
       </c>
@@ -5345,7 +5247,7 @@
       <c r="BD2" s="34"/>
       <c r="BE2" s="34"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:57" ht="13.2">
       <c r="A3" s="33" t="s">
         <v>164</v>
       </c>
@@ -5397,9 +5299,10 @@
       <c r="AS3" s="34"/>
       <c r="AT3" s="34"/>
       <c r="AU3" s="34"/>
-      <c r="AV3" s="35" t="s">
+      <c r="AV3" s="98" t="s">
         <v>166</v>
       </c>
+      <c r="AW3" s="99"/>
       <c r="AX3" s="34"/>
       <c r="AY3" s="34"/>
       <c r="AZ3" s="34"/>
@@ -5417,7 +5320,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:57" ht="13.2">
       <c r="A4" s="33" t="s">
         <v>170</v>
       </c>
@@ -5485,8 +5388,8 @@
         <v>171</v>
       </c>
       <c r="AA4" s="34"/>
-      <c r="AB4" s="35" t="s">
-        <v>171</v>
+      <c r="AB4" s="100" t="s">
+        <v>386</v>
       </c>
       <c r="AC4" s="35" t="s">
         <v>171</v>
@@ -5556,7 +5459,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:57" ht="13.2">
       <c r="A5" s="39" t="s">
         <v>174</v>
       </c>
@@ -5617,7 +5520,7 @@
       <c r="BD5" s="40"/>
       <c r="BE5" s="40"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:57" ht="13.2">
       <c r="A6" s="41" t="s">
         <v>175</v>
       </c>
@@ -5649,7 +5552,7 @@
         <v>180</v>
       </c>
       <c r="K6" s="45">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="L6" s="43" t="s">
         <v>181</v>
@@ -5664,7 +5567,7 @@
         <v>184</v>
       </c>
       <c r="P6" s="45">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="Q6" s="42" t="s">
         <v>184</v>
@@ -5682,7 +5585,7 @@
         <v>185</v>
       </c>
       <c r="V6" s="45">
-        <v>80.0</v>
+        <v>80</v>
       </c>
       <c r="W6" s="46" t="s">
         <v>177</v>
@@ -5760,7 +5663,7 @@
         <v>185</v>
       </c>
       <c r="AV6" s="45">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AW6" s="42" t="s">
         <v>192</v>
@@ -5782,7 +5685,7 @@
       <c r="BD6" s="49"/>
       <c r="BE6" s="49"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:57" ht="13.2">
       <c r="A7" s="41" t="s">
         <v>193</v>
       </c>
@@ -5814,7 +5717,7 @@
         <v>197</v>
       </c>
       <c r="K7" s="45">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="L7" s="43" t="s">
         <v>198</v>
@@ -5829,7 +5732,7 @@
         <v>184</v>
       </c>
       <c r="P7" s="45">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="Q7" s="42" t="s">
         <v>184</v>
@@ -5847,7 +5750,7 @@
         <v>185</v>
       </c>
       <c r="V7" s="45">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="W7" s="46" t="s">
         <v>177</v>
@@ -5925,7 +5828,7 @@
         <v>185</v>
       </c>
       <c r="AV7" s="45">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AW7" s="42" t="s">
         <v>192</v>
@@ -5955,7 +5858,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:57" ht="13.2">
       <c r="A8" s="51" t="s">
         <v>206</v>
       </c>
@@ -5987,7 +5890,7 @@
         <v>211</v>
       </c>
       <c r="K8" s="52">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="L8" s="51" t="s">
         <v>212</v>
@@ -6002,7 +5905,7 @@
         <v>184</v>
       </c>
       <c r="P8" s="52">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="51" t="s">
         <v>184</v>
@@ -6020,7 +5923,7 @@
         <v>185</v>
       </c>
       <c r="V8" s="52">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W8" s="46" t="s">
         <v>177</v>
@@ -6098,7 +6001,7 @@
         <v>185</v>
       </c>
       <c r="AV8" s="45">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AW8" s="42" t="s">
         <v>192</v>
@@ -6120,7 +6023,7 @@
       <c r="BD8" s="54"/>
       <c r="BE8" s="54"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:57" ht="13.2">
       <c r="A9" s="41" t="s">
         <v>217</v>
       </c>
@@ -6183,7 +6086,7 @@
       <c r="BD9" s="54"/>
       <c r="BE9" s="54"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:57" ht="13.2">
       <c r="A10" s="41" t="s">
         <v>218</v>
       </c>
@@ -6246,7 +6149,7 @@
       <c r="BD10" s="54"/>
       <c r="BE10" s="54"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:57" ht="13.2">
       <c r="A11" s="56"/>
       <c r="B11" s="57"/>
       <c r="C11" s="58"/>
@@ -6305,7 +6208,7 @@
       <c r="BD11" s="60"/>
       <c r="BE11" s="60"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:57" ht="13.2">
       <c r="A12" s="56"/>
       <c r="B12" s="57"/>
       <c r="C12" s="58"/>
@@ -6364,7 +6267,7 @@
       <c r="BD12" s="60"/>
       <c r="BE12" s="60"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:57" ht="13.2">
       <c r="A13" s="56"/>
       <c r="B13" s="57"/>
       <c r="C13" s="58"/>
@@ -6423,7 +6326,7 @@
       <c r="BD13" s="60"/>
       <c r="BE13" s="60"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:57" ht="13.2">
       <c r="A14" s="56"/>
       <c r="B14" s="57"/>
       <c r="C14" s="58"/>
@@ -6482,7 +6385,7 @@
       <c r="BD14" s="60"/>
       <c r="BE14" s="60"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:57" ht="13.2">
       <c r="A15" s="56"/>
       <c r="B15" s="57"/>
       <c r="C15" s="58"/>
@@ -6541,7 +6444,7 @@
       <c r="BD15" s="60"/>
       <c r="BE15" s="60"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:57" ht="13.2">
       <c r="A16" s="56"/>
       <c r="B16" s="57"/>
       <c r="C16" s="58"/>
@@ -6600,7 +6503,7 @@
       <c r="BD16" s="60"/>
       <c r="BE16" s="60"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:57" ht="13.2">
       <c r="A17" s="56"/>
       <c r="B17" s="57"/>
       <c r="C17" s="58"/>
@@ -6659,7 +6562,7 @@
       <c r="BD17" s="60"/>
       <c r="BE17" s="60"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:57" ht="13.2">
       <c r="A18" s="56"/>
       <c r="B18" s="57"/>
       <c r="C18" s="58"/>
@@ -6722,29 +6625,30 @@
   <mergeCells count="1">
     <mergeCell ref="AV3:AW3"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="20.25"/>
-    <col customWidth="1" min="2" max="2" width="20.5"/>
-    <col customWidth="1" min="3" max="3" width="25.38"/>
-    <col customWidth="1" min="4" max="4" width="22.5"/>
-    <col customWidth="1" min="5" max="5" width="20.5"/>
-    <col customWidth="1" min="6" max="6" width="12.5"/>
+    <col min="1" max="1" width="20.21875" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" customWidth="1"/>
+    <col min="3" max="3" width="25.33203125" customWidth="1"/>
+    <col min="4" max="4" width="22.44140625" customWidth="1"/>
+    <col min="5" max="5" width="20.44140625" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5">
       <c r="A1" s="26" t="s">
         <v>122</v>
       </c>
@@ -6761,7 +6665,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5">
       <c r="A2" s="33" t="s">
         <v>159</v>
       </c>
@@ -6774,7 +6678,7 @@
       <c r="D2" s="62"/>
       <c r="E2" s="62"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5">
       <c r="A3" s="33" t="s">
         <v>164</v>
       </c>
@@ -6783,7 +6687,7 @@
       <c r="D3" s="63"/>
       <c r="E3" s="63"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:5">
       <c r="A4" s="33" t="s">
         <v>170</v>
       </c>
@@ -6798,7 +6702,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:5">
       <c r="A5" s="39" t="s">
         <v>174</v>
       </c>
@@ -6807,7 +6711,7 @@
       <c r="D5" s="65"/>
       <c r="E5" s="40"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:5">
       <c r="A6" s="41" t="s">
         <v>224</v>
       </c>
@@ -6824,7 +6728,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:5">
       <c r="A7" s="41" t="s">
         <v>224</v>
       </c>
@@ -6841,7 +6745,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:5">
       <c r="A8" s="51" t="s">
         <v>227</v>
       </c>
@@ -6852,13 +6756,13 @@
         <v>228</v>
       </c>
       <c r="D8" s="66">
-        <v>44562.0</v>
+        <v>44562</v>
       </c>
       <c r="E8" s="66">
-        <v>45658.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>45658</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="51" t="s">
         <v>227</v>
       </c>
@@ -6869,13 +6773,13 @@
         <v>229</v>
       </c>
       <c r="D9" s="66">
-        <v>44562.0</v>
+        <v>44562</v>
       </c>
       <c r="E9" s="66">
-        <v>46023.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>46023</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="41" t="s">
         <v>230</v>
       </c>
@@ -6888,7 +6792,7 @@
       <c r="D10" s="54"/>
       <c r="E10" s="54"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:5">
       <c r="A11" s="41" t="s">
         <v>230</v>
       </c>
@@ -6901,7 +6805,7 @@
       <c r="D11" s="54"/>
       <c r="E11" s="54"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:5">
       <c r="A12" s="41" t="s">
         <v>233</v>
       </c>
@@ -6912,34 +6816,34 @@
         <v>233</v>
       </c>
       <c r="D12" s="67">
-        <v>44927.0</v>
+        <v>44927</v>
       </c>
       <c r="E12" s="67">
-        <v>46388.0</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>46388</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="56"/>
       <c r="B13" s="57"/>
       <c r="C13" s="57"/>
       <c r="D13" s="57"/>
       <c r="E13" s="57"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:5">
       <c r="A14" s="56"/>
       <c r="B14" s="57"/>
       <c r="C14" s="57"/>
       <c r="D14" s="57"/>
       <c r="E14" s="57"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:5">
       <c r="A15" s="56"/>
       <c r="B15" s="57"/>
       <c r="C15" s="57"/>
       <c r="D15" s="57"/>
       <c r="E15" s="57"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:5">
       <c r="A16" s="56"/>
       <c r="B16" s="57"/>
       <c r="C16" s="57"/>
@@ -6947,28 +6851,29 @@
       <c r="E16" s="57"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="20.13"/>
-    <col customWidth="1" min="2" max="2" width="20.5"/>
-    <col customWidth="1" min="3" max="3" width="26.75"/>
-    <col customWidth="1" min="4" max="4" width="20.5"/>
-    <col customWidth="1" min="5" max="5" width="21.5"/>
+    <col min="1" max="1" width="20.109375" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" customWidth="1"/>
+    <col min="3" max="3" width="26.77734375" customWidth="1"/>
+    <col min="4" max="4" width="20.44140625" customWidth="1"/>
+    <col min="5" max="5" width="21.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6">
       <c r="A1" s="26" t="s">
         <v>130</v>
       </c>
@@ -6988,7 +6893,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:6">
       <c r="A2" s="33" t="s">
         <v>159</v>
       </c>
@@ -7002,7 +6907,7 @@
       <c r="E2" s="68"/>
       <c r="F2" s="34"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:6">
       <c r="A3" s="33" t="s">
         <v>164</v>
       </c>
@@ -7012,7 +6917,7 @@
       <c r="E3" s="34"/>
       <c r="F3" s="34"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:6">
       <c r="A4" s="33" t="s">
         <v>170</v>
       </c>
@@ -7030,7 +6935,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:6">
       <c r="A5" s="39" t="s">
         <v>174</v>
       </c>
@@ -7040,7 +6945,7 @@
       <c r="E5" s="40"/>
       <c r="F5" s="40"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:6">
       <c r="A6" s="41" t="s">
         <v>239</v>
       </c>
@@ -7060,7 +6965,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:6">
       <c r="A7" s="41" t="s">
         <v>239</v>
       </c>
@@ -7080,7 +6985,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:6">
       <c r="A8" s="51" t="s">
         <v>244</v>
       </c>
@@ -7094,13 +6999,13 @@
         <v>246</v>
       </c>
       <c r="E8" s="66">
-        <v>44562.0</v>
+        <v>44562</v>
       </c>
       <c r="F8" s="66">
-        <v>45658.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>45658</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="51" t="s">
         <v>244</v>
       </c>
@@ -7114,13 +7019,13 @@
         <v>248</v>
       </c>
       <c r="E9" s="66">
-        <v>44562.0</v>
+        <v>44562</v>
       </c>
       <c r="F9" s="66">
-        <v>46023.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>46023</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="41" t="s">
         <v>249</v>
       </c>
@@ -7134,7 +7039,7 @@
       <c r="E10" s="54"/>
       <c r="F10" s="54"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:6">
       <c r="A11" s="41" t="s">
         <v>249</v>
       </c>
@@ -7148,7 +7053,7 @@
       <c r="E11" s="54"/>
       <c r="F11" s="49"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:6">
       <c r="A12" s="41" t="s">
         <v>252</v>
       </c>
@@ -7162,34 +7067,35 @@
         <v>253</v>
       </c>
       <c r="E12" s="67">
-        <v>44927.0</v>
+        <v>44927</v>
       </c>
       <c r="F12" s="67">
-        <v>46388.0</v>
+        <v>46388</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="22.25"/>
-    <col customWidth="1" min="2" max="2" width="15.5"/>
-    <col customWidth="1" min="4" max="4" width="26.13"/>
-    <col customWidth="1" min="6" max="6" width="20.5"/>
+    <col min="1" max="1" width="22.21875" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="26.109375" customWidth="1"/>
+    <col min="6" max="6" width="20.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:14">
       <c r="A1" s="26" t="s">
         <v>138</v>
       </c>
@@ -7233,7 +7139,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:14">
       <c r="A2" s="33" t="s">
         <v>159</v>
       </c>
@@ -7255,7 +7161,7 @@
       <c r="M2" s="34"/>
       <c r="N2" s="34"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:14">
       <c r="A3" s="33" t="s">
         <v>164</v>
       </c>
@@ -7275,7 +7181,7 @@
       <c r="M3" s="34"/>
       <c r="N3" s="34"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:14">
       <c r="A4" s="33" t="s">
         <v>256</v>
       </c>
@@ -7295,26 +7201,33 @@
       <c r="M4" s="70"/>
       <c r="N4" s="70"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:14">
       <c r="A5" s="33" t="s">
         <v>170</v>
       </c>
       <c r="B5" s="34"/>
       <c r="C5" s="34"/>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="98" t="s">
         <v>258</v>
       </c>
+      <c r="E5" s="99"/>
+      <c r="F5" s="99"/>
+      <c r="G5" s="99"/>
       <c r="H5" s="38" t="s">
         <v>259</v>
       </c>
       <c r="I5" s="35" t="s">
         <v>260</v>
       </c>
-      <c r="J5" s="38" t="s">
+      <c r="J5" s="98" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="6">
+      <c r="K5" s="99"/>
+      <c r="L5" s="99"/>
+      <c r="M5" s="99"/>
+      <c r="N5" s="99"/>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="39" t="s">
         <v>174</v>
       </c>
@@ -7332,7 +7245,7 @@
       <c r="M6" s="40"/>
       <c r="N6" s="40"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:14">
       <c r="A7" s="41" t="s">
         <v>262</v>
       </c>
@@ -7340,7 +7253,7 @@
         <v>263</v>
       </c>
       <c r="C7" s="71">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D7" s="42" t="s">
         <v>264</v>
@@ -7376,7 +7289,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:14">
       <c r="A8" s="41" t="s">
         <v>262</v>
       </c>
@@ -7384,7 +7297,7 @@
         <v>263</v>
       </c>
       <c r="C8" s="71">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D8" s="42" t="s">
         <v>266</v>
@@ -7420,15 +7333,15 @@
         <v>188</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:14">
       <c r="A9" s="51" t="s">
         <v>267</v>
       </c>
       <c r="B9" s="71">
-        <v>1001.0</v>
+        <v>1001</v>
       </c>
       <c r="C9" s="71">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D9" s="47" t="s">
         <v>268</v>
@@ -7443,10 +7356,10 @@
         <v>186</v>
       </c>
       <c r="H9" s="72">
-        <v>44562.0</v>
+        <v>44562</v>
       </c>
       <c r="I9" s="72">
-        <v>45659.0</v>
+        <v>45659</v>
       </c>
       <c r="J9" s="73" t="s">
         <v>185</v>
@@ -7464,15 +7377,15 @@
         <v>188</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:14">
       <c r="A10" s="51" t="s">
         <v>267</v>
       </c>
       <c r="B10" s="71">
-        <v>1002.0</v>
+        <v>1002</v>
       </c>
       <c r="C10" s="71">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D10" s="42" t="s">
         <v>269</v>
@@ -7487,10 +7400,10 @@
         <v>186</v>
       </c>
       <c r="H10" s="72">
-        <v>44562.0</v>
+        <v>44562</v>
       </c>
       <c r="I10" s="72">
-        <v>46025.0</v>
+        <v>46025</v>
       </c>
       <c r="J10" s="73" t="s">
         <v>184</v>
@@ -7508,12 +7421,12 @@
         <v>188</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:14">
       <c r="A11" s="41" t="s">
         <v>270</v>
       </c>
       <c r="B11" s="71">
-        <v>1003.0</v>
+        <v>1003</v>
       </c>
       <c r="C11" s="54"/>
       <c r="D11" s="42" t="s">
@@ -7534,12 +7447,12 @@
       <c r="M11" s="54"/>
       <c r="N11" s="54"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:14">
       <c r="A12" s="41" t="s">
         <v>270</v>
       </c>
       <c r="B12" s="71">
-        <v>1004.0</v>
+        <v>1004</v>
       </c>
       <c r="C12" s="49"/>
       <c r="D12" s="42" t="s">
@@ -7560,15 +7473,15 @@
       <c r="M12" s="49"/>
       <c r="N12" s="49"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:14">
       <c r="A13" s="41" t="s">
         <v>273</v>
       </c>
       <c r="B13" s="71">
-        <v>1005.0</v>
+        <v>1005</v>
       </c>
       <c r="C13" s="71">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D13" s="42" t="s">
         <v>274</v>
@@ -7583,10 +7496,10 @@
         <v>186</v>
       </c>
       <c r="H13" s="67">
-        <v>44927.0</v>
+        <v>44927</v>
       </c>
       <c r="I13" s="67">
-        <v>46390.0</v>
+        <v>46390</v>
       </c>
       <c r="J13" s="43" t="s">
         <v>184</v>
@@ -7604,7 +7517,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:14">
       <c r="A14" s="56"/>
       <c r="B14" s="57"/>
       <c r="C14" s="57"/>
@@ -7620,7 +7533,7 @@
       <c r="M14" s="57"/>
       <c r="N14" s="57"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:14">
       <c r="A15" s="56"/>
       <c r="B15" s="57"/>
       <c r="C15" s="57"/>
@@ -7636,7 +7549,7 @@
       <c r="M15" s="57"/>
       <c r="N15" s="57"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:14">
       <c r="A16" s="56"/>
       <c r="B16" s="57"/>
       <c r="C16" s="57"/>
@@ -7657,71 +7570,72 @@
     <mergeCell ref="D5:G5"/>
     <mergeCell ref="J5:N5"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:BC6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="16.63"/>
-    <col customWidth="1" min="2" max="2" width="28.0"/>
-    <col customWidth="1" min="3" max="3" width="23.5"/>
-    <col customWidth="1" min="4" max="4" width="25.38"/>
-    <col customWidth="1" min="5" max="5" width="30.88"/>
-    <col customWidth="1" min="6" max="6" width="26.13"/>
-    <col customWidth="1" min="7" max="7" width="28.25"/>
-    <col customWidth="1" min="8" max="8" width="6.88"/>
-    <col customWidth="1" min="9" max="9" width="9.38"/>
-    <col customWidth="1" min="10" max="10" width="7.5"/>
-    <col customWidth="1" min="11" max="11" width="9.0"/>
-    <col customWidth="1" min="12" max="12" width="7.5"/>
-    <col customWidth="1" min="13" max="13" width="25.5"/>
-    <col customWidth="1" min="14" max="14" width="10.5"/>
-    <col customWidth="1" min="15" max="15" width="10.13"/>
-    <col customWidth="1" min="16" max="16" width="10.25"/>
-    <col customWidth="1" min="17" max="17" width="11.0"/>
-    <col customWidth="1" min="18" max="18" width="7.75"/>
-    <col customWidth="1" min="19" max="19" width="6.75"/>
-    <col customWidth="1" min="20" max="21" width="7.63"/>
-    <col customWidth="1" min="22" max="22" width="6.75"/>
-    <col customWidth="1" min="23" max="23" width="11.75"/>
-    <col customWidth="1" min="24" max="24" width="10.13"/>
-    <col customWidth="1" min="25" max="25" width="10.0"/>
-    <col customWidth="1" min="26" max="26" width="6.25"/>
-    <col customWidth="1" min="27" max="27" width="21.88"/>
-    <col customWidth="1" min="28" max="28" width="9.88"/>
-    <col customWidth="1" min="29" max="29" width="6.88"/>
-    <col customWidth="1" min="30" max="31" width="7.63"/>
-    <col customWidth="1" min="32" max="32" width="7.38"/>
-    <col customWidth="1" min="33" max="33" width="7.63"/>
-    <col customWidth="1" min="34" max="34" width="7.13"/>
-    <col customWidth="1" min="35" max="37" width="13.5"/>
-    <col customWidth="1" min="38" max="38" width="10.88"/>
-    <col customWidth="1" min="39" max="39" width="11.13"/>
-    <col customWidth="1" min="40" max="40" width="10.88"/>
-    <col customWidth="1" min="41" max="41" width="7.63"/>
-    <col customWidth="1" min="42" max="42" width="10.13"/>
-    <col customWidth="1" min="43" max="43" width="6.88"/>
-    <col customWidth="1" min="44" max="44" width="9.0"/>
-    <col customWidth="1" min="45" max="45" width="10.25"/>
-    <col customWidth="1" min="46" max="46" width="9.25"/>
-    <col customWidth="1" min="47" max="47" width="25.5"/>
-    <col customWidth="1" min="48" max="48" width="10.63"/>
-    <col customWidth="1" min="49" max="49" width="10.88"/>
-    <col customWidth="1" min="50" max="50" width="7.63"/>
-    <col customWidth="1" min="51" max="52" width="13.63"/>
-    <col customWidth="1" min="53" max="55" width="13.5"/>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="28" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" customWidth="1"/>
+    <col min="5" max="5" width="30.88671875" customWidth="1"/>
+    <col min="6" max="6" width="26.109375" customWidth="1"/>
+    <col min="7" max="7" width="28.21875" customWidth="1"/>
+    <col min="8" max="8" width="6.88671875" customWidth="1"/>
+    <col min="9" max="9" width="9.33203125" customWidth="1"/>
+    <col min="10" max="10" width="7.44140625" customWidth="1"/>
+    <col min="11" max="11" width="9" customWidth="1"/>
+    <col min="12" max="12" width="7.44140625" customWidth="1"/>
+    <col min="13" max="13" width="25.44140625" customWidth="1"/>
+    <col min="14" max="14" width="10.44140625" customWidth="1"/>
+    <col min="15" max="15" width="10.109375" customWidth="1"/>
+    <col min="16" max="16" width="10.21875" customWidth="1"/>
+    <col min="17" max="17" width="11" customWidth="1"/>
+    <col min="18" max="18" width="7.77734375" customWidth="1"/>
+    <col min="19" max="19" width="6.77734375" customWidth="1"/>
+    <col min="20" max="21" width="7.6640625" customWidth="1"/>
+    <col min="22" max="22" width="6.77734375" customWidth="1"/>
+    <col min="23" max="23" width="11.77734375" customWidth="1"/>
+    <col min="24" max="24" width="10.109375" customWidth="1"/>
+    <col min="25" max="25" width="10" customWidth="1"/>
+    <col min="26" max="26" width="6.21875" customWidth="1"/>
+    <col min="27" max="27" width="21.88671875" customWidth="1"/>
+    <col min="28" max="28" width="9.88671875" customWidth="1"/>
+    <col min="29" max="29" width="6.88671875" customWidth="1"/>
+    <col min="30" max="31" width="7.6640625" customWidth="1"/>
+    <col min="32" max="32" width="7.33203125" customWidth="1"/>
+    <col min="33" max="33" width="7.6640625" customWidth="1"/>
+    <col min="34" max="34" width="7.109375" customWidth="1"/>
+    <col min="35" max="37" width="13.44140625" customWidth="1"/>
+    <col min="38" max="38" width="10.88671875" customWidth="1"/>
+    <col min="39" max="39" width="11.109375" customWidth="1"/>
+    <col min="40" max="40" width="10.88671875" customWidth="1"/>
+    <col min="41" max="41" width="7.6640625" customWidth="1"/>
+    <col min="42" max="42" width="10.109375" customWidth="1"/>
+    <col min="43" max="43" width="6.88671875" customWidth="1"/>
+    <col min="44" max="44" width="9" customWidth="1"/>
+    <col min="45" max="45" width="10.21875" customWidth="1"/>
+    <col min="46" max="46" width="9.21875" customWidth="1"/>
+    <col min="47" max="47" width="25.44140625" customWidth="1"/>
+    <col min="48" max="48" width="10.6640625" customWidth="1"/>
+    <col min="49" max="49" width="10.88671875" customWidth="1"/>
+    <col min="50" max="50" width="7.6640625" customWidth="1"/>
+    <col min="51" max="52" width="13.6640625" customWidth="1"/>
+    <col min="53" max="55" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:55">
       <c r="A1" s="75" t="s">
         <v>12</v>
       </c>
@@ -7886,7 +7800,7 @@
       </c>
       <c r="BC1" s="69"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:55">
       <c r="A2" s="82" t="s">
         <v>159</v>
       </c>
@@ -7963,7 +7877,7 @@
       <c r="BB2" s="34"/>
       <c r="BC2" s="34"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:55">
       <c r="A3" s="82" t="s">
         <v>164</v>
       </c>
@@ -8016,16 +7930,17 @@
       <c r="AT3" s="34"/>
       <c r="AU3" s="34"/>
       <c r="AV3" s="34"/>
-      <c r="AW3" s="35" t="s">
+      <c r="AW3" s="98" t="s">
         <v>166</v>
       </c>
+      <c r="AX3" s="99"/>
       <c r="AY3" s="34"/>
       <c r="AZ3" s="34"/>
       <c r="BA3" s="34"/>
       <c r="BB3" s="34"/>
       <c r="BC3" s="34"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:55">
       <c r="A4" s="82" t="s">
         <v>170</v>
       </c>
@@ -8154,7 +8069,7 @@
       <c r="BB4" s="34"/>
       <c r="BC4" s="34"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:55">
       <c r="A5" s="85" t="s">
         <v>174</v>
       </c>
@@ -8213,7 +8128,7 @@
       <c r="BB5" s="86"/>
       <c r="BC5" s="86"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:55">
       <c r="A6" s="41" t="s">
         <v>276</v>
       </c>
@@ -8263,7 +8178,7 @@
         <v>185</v>
       </c>
       <c r="Q6" s="45">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="R6" s="42" t="s">
         <v>185</v>
@@ -8281,7 +8196,7 @@
         <v>185</v>
       </c>
       <c r="W6" s="45">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="X6" s="90" t="s">
         <v>177</v>
@@ -8359,7 +8274,7 @@
         <v>185</v>
       </c>
       <c r="AW6" s="45">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AX6" s="42" t="s">
         <v>192</v>
@@ -8382,25 +8297,26 @@
   <mergeCells count="1">
     <mergeCell ref="AW3:AX3"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:C48"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="27.88"/>
-    <col customWidth="1" min="3" max="3" width="77.38"/>
+    <col min="2" max="2" width="27.88671875" customWidth="1"/>
+    <col min="3" max="3" width="77.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3">
       <c r="A1" s="28" t="s">
         <v>289</v>
       </c>
@@ -8411,7 +8327,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3">
       <c r="A2" s="42" t="s">
         <v>292</v>
       </c>
@@ -8422,7 +8338,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3">
       <c r="A3" s="42" t="s">
         <v>292</v>
       </c>
@@ -8433,7 +8349,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3">
       <c r="A4" s="42" t="s">
         <v>292</v>
       </c>
@@ -8444,7 +8360,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3">
       <c r="A5" s="48" t="s">
         <v>11</v>
       </c>
@@ -8455,7 +8371,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3">
       <c r="A6" s="48" t="s">
         <v>11</v>
       </c>
@@ -8466,7 +8382,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:3">
       <c r="A7" s="93" t="s">
         <v>303</v>
       </c>
@@ -8477,7 +8393,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:3">
       <c r="A8" s="93" t="s">
         <v>303</v>
       </c>
@@ -8488,7 +8404,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:3">
       <c r="A9" s="93" t="s">
         <v>303</v>
       </c>
@@ -8499,7 +8415,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:3">
       <c r="A10" s="93" t="s">
         <v>303</v>
       </c>
@@ -8510,7 +8426,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:3">
       <c r="A11" s="93" t="s">
         <v>303</v>
       </c>
@@ -8521,7 +8437,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:3">
       <c r="A12" s="93" t="s">
         <v>303</v>
       </c>
@@ -8532,7 +8448,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:3">
       <c r="A13" s="93" t="s">
         <v>303</v>
       </c>
@@ -8543,7 +8459,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:3">
       <c r="A14" s="95" t="s">
         <v>318</v>
       </c>
@@ -8554,7 +8470,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:3">
       <c r="A15" s="95" t="s">
         <v>318</v>
       </c>
@@ -8565,7 +8481,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:3">
       <c r="A16" s="95" t="s">
         <v>318</v>
       </c>
@@ -8576,7 +8492,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:3">
       <c r="A17" s="95" t="s">
         <v>318</v>
       </c>
@@ -8587,7 +8503,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:3">
       <c r="A18" s="95" t="s">
         <v>318</v>
       </c>
@@ -8598,7 +8514,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:3">
       <c r="A19" s="95" t="s">
         <v>318</v>
       </c>
@@ -8609,7 +8525,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:3">
       <c r="A20" s="95" t="s">
         <v>318</v>
       </c>
@@ -8620,7 +8536,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:3">
       <c r="A21" s="95" t="s">
         <v>318</v>
       </c>
@@ -8631,7 +8547,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:3">
       <c r="A22" s="96" t="s">
         <v>332</v>
       </c>
@@ -8642,7 +8558,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:3">
       <c r="A23" s="96" t="s">
         <v>332</v>
       </c>
@@ -8653,7 +8569,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:3">
       <c r="A24" s="96" t="s">
         <v>332</v>
       </c>
@@ -8664,7 +8580,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:3">
       <c r="A25" s="96" t="s">
         <v>332</v>
       </c>
@@ -8675,7 +8591,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:3">
       <c r="A26" s="96" t="s">
         <v>332</v>
       </c>
@@ -8686,7 +8602,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:3">
       <c r="A27" s="96" t="s">
         <v>332</v>
       </c>
@@ -8697,7 +8613,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:3">
       <c r="A28" s="96" t="s">
         <v>332</v>
       </c>
@@ -8708,7 +8624,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:3">
       <c r="A29" s="96" t="s">
         <v>332</v>
       </c>
@@ -8719,7 +8635,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:3">
       <c r="A30" s="96" t="s">
         <v>332</v>
       </c>
@@ -8730,7 +8646,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:3">
       <c r="A31" s="97" t="s">
         <v>349</v>
       </c>
@@ -8741,7 +8657,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:3">
       <c r="A32" s="97" t="s">
         <v>349</v>
       </c>
@@ -8752,7 +8668,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:3">
       <c r="A33" s="97" t="s">
         <v>349</v>
       </c>
@@ -8763,7 +8679,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:3">
       <c r="A34" s="97" t="s">
         <v>349</v>
       </c>
@@ -8774,7 +8690,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:3">
       <c r="A35" s="42" t="s">
         <v>292</v>
       </c>
@@ -8785,7 +8701,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:3">
       <c r="A36" s="42" t="s">
         <v>292</v>
       </c>
@@ -8796,7 +8712,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:3">
       <c r="A37" s="42" t="s">
         <v>292</v>
       </c>
@@ -8807,7 +8723,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:3">
       <c r="A38" s="42" t="s">
         <v>292</v>
       </c>
@@ -8818,7 +8734,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:3">
       <c r="A39" s="42" t="s">
         <v>292</v>
       </c>
@@ -8829,7 +8745,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:3">
       <c r="A40" s="42" t="s">
         <v>292</v>
       </c>
@@ -8840,7 +8756,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:3">
       <c r="A41" s="42" t="s">
         <v>292</v>
       </c>
@@ -8851,7 +8767,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:3">
       <c r="A42" s="42" t="s">
         <v>292</v>
       </c>
@@ -8862,7 +8778,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:3">
       <c r="A43" s="42" t="s">
         <v>292</v>
       </c>
@@ -8873,7 +8789,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:3">
       <c r="A44" s="42" t="s">
         <v>292</v>
       </c>
@@ -8884,7 +8800,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:3">
       <c r="A45" s="42" t="s">
         <v>292</v>
       </c>
@@ -8895,7 +8811,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:3">
       <c r="A46" s="42" t="s">
         <v>292</v>
       </c>
@@ -8906,7 +8822,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:3">
       <c r="A47" s="42" t="s">
         <v>292</v>
       </c>
@@ -8917,7 +8833,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:3">
       <c r="A48" s="42" t="s">
         <v>292</v>
       </c>
@@ -8929,6 +8845,6 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/TNR_JDD/RO/JDD.RO.ACT.xlsx
+++ b/TNR_JDD/RO/JDD.RO.ACT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="228" yWindow="504" windowWidth="15612" windowHeight="8412" activeTab="2"/>
+    <workbookView xWindow="228" yWindow="504" windowWidth="15612" windowHeight="8412" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Version" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1032" uniqueCount="387">
   <si>
     <t>Date</t>
   </si>
@@ -1449,7 +1449,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1657,10 +1657,13 @@
     <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4982,8 +4985,8 @@
   </sheetPr>
   <dimension ref="A1:BE18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AB12" sqref="AB12"/>
+    <sheetView topLeftCell="AV1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:BA4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -5299,10 +5302,10 @@
       <c r="AS3" s="34"/>
       <c r="AT3" s="34"/>
       <c r="AU3" s="34"/>
-      <c r="AV3" s="98" t="s">
+      <c r="AV3" s="100" t="s">
         <v>166</v>
       </c>
-      <c r="AW3" s="99"/>
+      <c r="AW3" s="101"/>
       <c r="AX3" s="34"/>
       <c r="AY3" s="34"/>
       <c r="AZ3" s="34"/>
@@ -5357,26 +5360,26 @@
       <c r="N4" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="O4" s="35" t="s">
-        <v>171</v>
+      <c r="O4" s="99" t="s">
+        <v>386</v>
       </c>
       <c r="P4" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="Q4" s="35" t="s">
-        <v>171</v>
-      </c>
-      <c r="R4" s="35" t="s">
-        <v>171</v>
-      </c>
-      <c r="S4" s="35" t="s">
-        <v>171</v>
-      </c>
-      <c r="T4" s="35" t="s">
-        <v>171</v>
-      </c>
-      <c r="U4" s="35" t="s">
-        <v>171</v>
+      <c r="Q4" s="99" t="s">
+        <v>386</v>
+      </c>
+      <c r="R4" s="99" t="s">
+        <v>386</v>
+      </c>
+      <c r="S4" s="99" t="s">
+        <v>386</v>
+      </c>
+      <c r="T4" s="99" t="s">
+        <v>386</v>
+      </c>
+      <c r="U4" s="99" t="s">
+        <v>386</v>
       </c>
       <c r="V4" s="35" t="s">
         <v>171</v>
@@ -5388,23 +5391,23 @@
         <v>171</v>
       </c>
       <c r="AA4" s="34"/>
-      <c r="AB4" s="100" t="s">
+      <c r="AB4" s="99" t="s">
         <v>386</v>
       </c>
-      <c r="AC4" s="35" t="s">
-        <v>171</v>
-      </c>
-      <c r="AD4" s="35" t="s">
-        <v>171</v>
-      </c>
-      <c r="AE4" s="35" t="s">
-        <v>171</v>
-      </c>
-      <c r="AF4" s="35" t="s">
-        <v>171</v>
-      </c>
-      <c r="AG4" s="35" t="s">
-        <v>171</v>
+      <c r="AC4" s="99" t="s">
+        <v>386</v>
+      </c>
+      <c r="AD4" s="99" t="s">
+        <v>386</v>
+      </c>
+      <c r="AE4" s="99" t="s">
+        <v>386</v>
+      </c>
+      <c r="AF4" s="99" t="s">
+        <v>386</v>
+      </c>
+      <c r="AG4" s="99" t="s">
+        <v>386</v>
       </c>
       <c r="AH4" s="34"/>
       <c r="AI4" s="34"/>
@@ -5420,21 +5423,23 @@
       </c>
       <c r="AN4" s="34"/>
       <c r="AO4" s="37"/>
-      <c r="AP4" s="34"/>
-      <c r="AQ4" s="35" t="s">
-        <v>171</v>
-      </c>
-      <c r="AR4" s="35" t="s">
-        <v>171</v>
-      </c>
-      <c r="AS4" s="35" t="s">
-        <v>171</v>
+      <c r="AP4" s="99" t="s">
+        <v>386</v>
+      </c>
+      <c r="AQ4" s="99" t="s">
+        <v>386</v>
+      </c>
+      <c r="AR4" s="99" t="s">
+        <v>386</v>
+      </c>
+      <c r="AS4" s="99" t="s">
+        <v>386</v>
       </c>
       <c r="AT4" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="AU4" s="35" t="s">
-        <v>171</v>
+      <c r="AU4" s="99" t="s">
+        <v>386</v>
       </c>
       <c r="AV4" s="35" t="s">
         <v>172</v>
@@ -7207,25 +7212,25 @@
       </c>
       <c r="B5" s="34"/>
       <c r="C5" s="34"/>
-      <c r="D5" s="98" t="s">
+      <c r="D5" s="100" t="s">
         <v>258</v>
       </c>
-      <c r="E5" s="99"/>
-      <c r="F5" s="99"/>
-      <c r="G5" s="99"/>
+      <c r="E5" s="101"/>
+      <c r="F5" s="101"/>
+      <c r="G5" s="101"/>
       <c r="H5" s="38" t="s">
         <v>259</v>
       </c>
       <c r="I5" s="35" t="s">
         <v>260</v>
       </c>
-      <c r="J5" s="98" t="s">
+      <c r="J5" s="100" t="s">
         <v>261</v>
       </c>
-      <c r="K5" s="99"/>
-      <c r="L5" s="99"/>
-      <c r="M5" s="99"/>
-      <c r="N5" s="99"/>
+      <c r="K5" s="101"/>
+      <c r="L5" s="101"/>
+      <c r="M5" s="101"/>
+      <c r="N5" s="101"/>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="39" t="s">
@@ -7581,7 +7586,9 @@
   </sheetPr>
   <dimension ref="A1:BC6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AX18" sqref="AX18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -7930,10 +7937,10 @@
       <c r="AT3" s="34"/>
       <c r="AU3" s="34"/>
       <c r="AV3" s="34"/>
-      <c r="AW3" s="98" t="s">
+      <c r="AW3" s="100" t="s">
         <v>166</v>
       </c>
-      <c r="AX3" s="99"/>
+      <c r="AX3" s="101"/>
       <c r="AY3" s="34"/>
       <c r="AZ3" s="34"/>
       <c r="BA3" s="34"/>
@@ -7945,128 +7952,130 @@
         <v>170</v>
       </c>
       <c r="B4" s="84"/>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="98" t="s">
         <v>171</v>
       </c>
-      <c r="D4" s="34"/>
-      <c r="E4" s="35" t="s">
+      <c r="D4" s="98"/>
+      <c r="E4" s="98" t="s">
         <v>171</v>
       </c>
-      <c r="F4" s="35" t="s">
+      <c r="F4" s="98" t="s">
         <v>171</v>
       </c>
-      <c r="G4" s="35" t="s">
+      <c r="G4" s="98" t="s">
         <v>171</v>
       </c>
-      <c r="H4" s="34"/>
-      <c r="I4" s="35" t="s">
+      <c r="H4" s="98"/>
+      <c r="I4" s="98" t="s">
         <v>171</v>
       </c>
-      <c r="J4" s="35" t="s">
+      <c r="J4" s="98" t="s">
         <v>171</v>
       </c>
-      <c r="K4" s="35" t="s">
+      <c r="K4" s="98" t="s">
         <v>171</v>
       </c>
-      <c r="L4" s="35" t="s">
+      <c r="L4" s="98" t="s">
         <v>171</v>
       </c>
-      <c r="M4" s="34"/>
-      <c r="N4" s="35" t="s">
+      <c r="M4" s="98"/>
+      <c r="N4" s="98" t="s">
         <v>171</v>
       </c>
-      <c r="O4" s="35" t="s">
+      <c r="O4" s="98" t="s">
         <v>171</v>
       </c>
-      <c r="P4" s="35" t="s">
+      <c r="P4" s="99" t="s">
+        <v>386</v>
+      </c>
+      <c r="Q4" s="98" t="s">
         <v>171</v>
       </c>
-      <c r="Q4" s="35" t="s">
+      <c r="R4" s="99" t="s">
+        <v>386</v>
+      </c>
+      <c r="S4" s="99" t="s">
+        <v>386</v>
+      </c>
+      <c r="T4" s="99" t="s">
+        <v>386</v>
+      </c>
+      <c r="U4" s="99" t="s">
+        <v>386</v>
+      </c>
+      <c r="V4" s="99" t="s">
+        <v>386</v>
+      </c>
+      <c r="W4" s="98" t="s">
         <v>171</v>
       </c>
-      <c r="R4" s="35" t="s">
+      <c r="X4" s="37"/>
+      <c r="Y4" s="98"/>
+      <c r="Z4" s="98"/>
+      <c r="AA4" s="98" t="s">
         <v>171</v>
       </c>
-      <c r="S4" s="35" t="s">
+      <c r="AB4" s="98"/>
+      <c r="AC4" s="99" t="s">
+        <v>386</v>
+      </c>
+      <c r="AD4" s="99" t="s">
+        <v>386</v>
+      </c>
+      <c r="AE4" s="99" t="s">
+        <v>386</v>
+      </c>
+      <c r="AF4" s="99" t="s">
+        <v>386</v>
+      </c>
+      <c r="AG4" s="99" t="s">
+        <v>386</v>
+      </c>
+      <c r="AH4" s="99" t="s">
+        <v>386</v>
+      </c>
+      <c r="AI4" s="98"/>
+      <c r="AJ4" s="98"/>
+      <c r="AK4" s="98"/>
+      <c r="AL4" s="98" t="s">
         <v>171</v>
       </c>
-      <c r="T4" s="35" t="s">
+      <c r="AM4" s="98" t="s">
         <v>171</v>
       </c>
-      <c r="U4" s="35" t="s">
+      <c r="AN4" s="98" t="s">
         <v>171</v>
       </c>
-      <c r="V4" s="35" t="s">
+      <c r="AO4" s="98"/>
+      <c r="AP4" s="37"/>
+      <c r="AQ4" s="99" t="s">
+        <v>386</v>
+      </c>
+      <c r="AR4" s="99" t="s">
+        <v>386</v>
+      </c>
+      <c r="AS4" s="99" t="s">
+        <v>386</v>
+      </c>
+      <c r="AT4" s="99" t="s">
+        <v>386</v>
+      </c>
+      <c r="AU4" s="98" t="s">
         <v>171</v>
       </c>
-      <c r="W4" s="35" t="s">
-        <v>171</v>
-      </c>
-      <c r="X4" s="37"/>
-      <c r="Y4" s="34"/>
-      <c r="Z4" s="34"/>
-      <c r="AA4" s="35" t="s">
-        <v>171</v>
-      </c>
-      <c r="AB4" s="34"/>
-      <c r="AC4" s="35" t="s">
-        <v>171</v>
-      </c>
-      <c r="AD4" s="35" t="s">
-        <v>171</v>
-      </c>
-      <c r="AE4" s="35" t="s">
-        <v>171</v>
-      </c>
-      <c r="AF4" s="35" t="s">
-        <v>171</v>
-      </c>
-      <c r="AG4" s="35" t="s">
-        <v>171</v>
-      </c>
-      <c r="AH4" s="35" t="s">
-        <v>171</v>
-      </c>
-      <c r="AI4" s="34"/>
-      <c r="AJ4" s="34"/>
-      <c r="AK4" s="34"/>
-      <c r="AL4" s="35" t="s">
-        <v>171</v>
-      </c>
-      <c r="AM4" s="35" t="s">
-        <v>171</v>
-      </c>
-      <c r="AN4" s="35" t="s">
-        <v>171</v>
-      </c>
-      <c r="AO4" s="34"/>
-      <c r="AP4" s="37"/>
-      <c r="AQ4" s="34"/>
-      <c r="AR4" s="35" t="s">
-        <v>171</v>
-      </c>
-      <c r="AS4" s="35" t="s">
-        <v>171</v>
-      </c>
-      <c r="AT4" s="35" t="s">
-        <v>171</v>
-      </c>
-      <c r="AU4" s="35" t="s">
-        <v>171</v>
-      </c>
-      <c r="AV4" s="35" t="s">
-        <v>171</v>
-      </c>
-      <c r="AW4" s="35" t="s">
+      <c r="AV4" s="99" t="s">
+        <v>386</v>
+      </c>
+      <c r="AW4" s="98" t="s">
         <v>172</v>
       </c>
-      <c r="AX4" s="35" t="s">
+      <c r="AX4" s="98" t="s">
         <v>173</v>
       </c>
-      <c r="AY4" s="34"/>
-      <c r="AZ4" s="34"/>
-      <c r="BA4" s="34"/>
-      <c r="BB4" s="34"/>
+      <c r="AY4" s="98"/>
+      <c r="AZ4" s="98"/>
+      <c r="BA4" s="98"/>
+      <c r="BB4" s="98"/>
       <c r="BC4" s="34"/>
     </row>
     <row r="5" spans="1:55">

--- a/TNR_JDD/RO/JDD.RO.ACT.xlsx
+++ b/TNR_JDD/RO/JDD.RO.ACT.xlsx
@@ -1205,16 +1205,19 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1222,21 +1225,25 @@
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1244,18 +1251,21 @@
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1267,18 +1277,21 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="23">
@@ -1654,10 +1667,10 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="22" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -5360,25 +5373,25 @@
       <c r="N4" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="O4" s="99" t="s">
+      <c r="O4" s="98" t="s">
         <v>386</v>
       </c>
       <c r="P4" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="Q4" s="99" t="s">
+      <c r="Q4" s="98" t="s">
         <v>386</v>
       </c>
-      <c r="R4" s="99" t="s">
+      <c r="R4" s="98" t="s">
         <v>386</v>
       </c>
-      <c r="S4" s="99" t="s">
+      <c r="S4" s="98" t="s">
         <v>386</v>
       </c>
-      <c r="T4" s="99" t="s">
+      <c r="T4" s="98" t="s">
         <v>386</v>
       </c>
-      <c r="U4" s="99" t="s">
+      <c r="U4" s="98" t="s">
         <v>386</v>
       </c>
       <c r="V4" s="35" t="s">
@@ -5391,22 +5404,22 @@
         <v>171</v>
       </c>
       <c r="AA4" s="34"/>
-      <c r="AB4" s="99" t="s">
+      <c r="AB4" s="98" t="s">
         <v>386</v>
       </c>
-      <c r="AC4" s="99" t="s">
+      <c r="AC4" s="98" t="s">
         <v>386</v>
       </c>
-      <c r="AD4" s="99" t="s">
+      <c r="AD4" s="98" t="s">
         <v>386</v>
       </c>
-      <c r="AE4" s="99" t="s">
+      <c r="AE4" s="98" t="s">
         <v>386</v>
       </c>
-      <c r="AF4" s="99" t="s">
+      <c r="AF4" s="98" t="s">
         <v>386</v>
       </c>
-      <c r="AG4" s="99" t="s">
+      <c r="AG4" s="98" t="s">
         <v>386</v>
       </c>
       <c r="AH4" s="34"/>
@@ -5423,22 +5436,22 @@
       </c>
       <c r="AN4" s="34"/>
       <c r="AO4" s="37"/>
-      <c r="AP4" s="99" t="s">
+      <c r="AP4" s="98" t="s">
         <v>386</v>
       </c>
-      <c r="AQ4" s="99" t="s">
+      <c r="AQ4" s="98" t="s">
         <v>386</v>
       </c>
-      <c r="AR4" s="99" t="s">
+      <c r="AR4" s="98" t="s">
         <v>386</v>
       </c>
-      <c r="AS4" s="99" t="s">
+      <c r="AS4" s="98" t="s">
         <v>386</v>
       </c>
       <c r="AT4" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="AU4" s="99" t="s">
+      <c r="AU4" s="98" t="s">
         <v>386</v>
       </c>
       <c r="AV4" s="35" t="s">
@@ -7584,10 +7597,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BC6"/>
+  <dimension ref="A1:BB6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AX18" sqref="AX18"/>
+    <sheetView tabSelected="1" topLeftCell="AX1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:BB4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -7639,10 +7652,10 @@
     <col min="49" max="49" width="10.88671875" customWidth="1"/>
     <col min="50" max="50" width="7.6640625" customWidth="1"/>
     <col min="51" max="52" width="13.6640625" customWidth="1"/>
-    <col min="53" max="55" width="13.44140625" customWidth="1"/>
+    <col min="53" max="54" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55">
+    <row r="1" spans="1:54">
       <c r="A1" s="75" t="s">
         <v>12</v>
       </c>
@@ -7805,9 +7818,8 @@
       <c r="BB1" s="69" t="s">
         <v>119</v>
       </c>
-      <c r="BC1" s="69"/>
-    </row>
-    <row r="2" spans="1:55">
+    </row>
+    <row r="2" spans="1:54">
       <c r="A2" s="82" t="s">
         <v>159</v>
       </c>
@@ -7882,9 +7894,8 @@
       <c r="AZ2" s="34"/>
       <c r="BA2" s="34"/>
       <c r="BB2" s="34"/>
-      <c r="BC2" s="34"/>
-    </row>
-    <row r="3" spans="1:55">
+    </row>
+    <row r="3" spans="1:54">
       <c r="A3" s="82" t="s">
         <v>164</v>
       </c>
@@ -7945,140 +7956,138 @@
       <c r="AZ3" s="34"/>
       <c r="BA3" s="34"/>
       <c r="BB3" s="34"/>
-      <c r="BC3" s="34"/>
-    </row>
-    <row r="4" spans="1:55">
+    </row>
+    <row r="4" spans="1:54">
       <c r="A4" s="82" t="s">
         <v>170</v>
       </c>
       <c r="B4" s="84"/>
-      <c r="C4" s="98" t="s">
+      <c r="C4" s="99" t="s">
         <v>171</v>
       </c>
-      <c r="D4" s="98"/>
-      <c r="E4" s="98" t="s">
+      <c r="D4" s="99"/>
+      <c r="E4" s="99" t="s">
         <v>171</v>
       </c>
-      <c r="F4" s="98" t="s">
+      <c r="F4" s="99" t="s">
         <v>171</v>
       </c>
-      <c r="G4" s="98" t="s">
+      <c r="G4" s="99" t="s">
         <v>171</v>
       </c>
-      <c r="H4" s="98"/>
-      <c r="I4" s="98" t="s">
+      <c r="H4" s="99"/>
+      <c r="I4" s="99" t="s">
         <v>171</v>
       </c>
-      <c r="J4" s="98" t="s">
+      <c r="J4" s="99" t="s">
         <v>171</v>
       </c>
-      <c r="K4" s="98" t="s">
+      <c r="K4" s="99" t="s">
         <v>171</v>
       </c>
-      <c r="L4" s="98" t="s">
+      <c r="L4" s="99" t="s">
         <v>171</v>
       </c>
-      <c r="M4" s="98"/>
-      <c r="N4" s="98" t="s">
+      <c r="M4" s="99"/>
+      <c r="N4" s="99" t="s">
         <v>171</v>
       </c>
-      <c r="O4" s="98" t="s">
+      <c r="O4" s="99" t="s">
         <v>171</v>
       </c>
-      <c r="P4" s="99" t="s">
+      <c r="P4" s="98" t="s">
         <v>386</v>
       </c>
-      <c r="Q4" s="98" t="s">
+      <c r="Q4" s="99" t="s">
         <v>171</v>
       </c>
-      <c r="R4" s="99" t="s">
+      <c r="R4" s="98" t="s">
         <v>386</v>
       </c>
-      <c r="S4" s="99" t="s">
+      <c r="S4" s="98" t="s">
         <v>386</v>
       </c>
-      <c r="T4" s="99" t="s">
+      <c r="T4" s="98" t="s">
         <v>386</v>
       </c>
-      <c r="U4" s="99" t="s">
+      <c r="U4" s="98" t="s">
         <v>386</v>
       </c>
-      <c r="V4" s="99" t="s">
+      <c r="V4" s="98" t="s">
         <v>386</v>
       </c>
-      <c r="W4" s="98" t="s">
+      <c r="W4" s="99" t="s">
         <v>171</v>
       </c>
       <c r="X4" s="37"/>
-      <c r="Y4" s="98"/>
-      <c r="Z4" s="98"/>
-      <c r="AA4" s="98" t="s">
+      <c r="Y4" s="99"/>
+      <c r="Z4" s="99"/>
+      <c r="AA4" s="99" t="s">
         <v>171</v>
       </c>
-      <c r="AB4" s="98"/>
-      <c r="AC4" s="99" t="s">
+      <c r="AB4" s="99"/>
+      <c r="AC4" s="98" t="s">
         <v>386</v>
       </c>
-      <c r="AD4" s="99" t="s">
+      <c r="AD4" s="98" t="s">
         <v>386</v>
       </c>
-      <c r="AE4" s="99" t="s">
+      <c r="AE4" s="98" t="s">
         <v>386</v>
       </c>
-      <c r="AF4" s="99" t="s">
+      <c r="AF4" s="98" t="s">
         <v>386</v>
       </c>
-      <c r="AG4" s="99" t="s">
+      <c r="AG4" s="98" t="s">
         <v>386</v>
       </c>
-      <c r="AH4" s="99" t="s">
+      <c r="AH4" s="98" t="s">
         <v>386</v>
       </c>
-      <c r="AI4" s="98"/>
-      <c r="AJ4" s="98"/>
-      <c r="AK4" s="98"/>
-      <c r="AL4" s="98" t="s">
+      <c r="AI4" s="99"/>
+      <c r="AJ4" s="99"/>
+      <c r="AK4" s="99"/>
+      <c r="AL4" s="99" t="s">
         <v>171</v>
       </c>
-      <c r="AM4" s="98" t="s">
+      <c r="AM4" s="99" t="s">
         <v>171</v>
       </c>
-      <c r="AN4" s="98" t="s">
+      <c r="AN4" s="99" t="s">
         <v>171</v>
       </c>
-      <c r="AO4" s="98"/>
+      <c r="AO4" s="99"/>
       <c r="AP4" s="37"/>
-      <c r="AQ4" s="99" t="s">
+      <c r="AQ4" s="98" t="s">
         <v>386</v>
       </c>
-      <c r="AR4" s="99" t="s">
+      <c r="AR4" s="98" t="s">
         <v>386</v>
       </c>
-      <c r="AS4" s="99" t="s">
+      <c r="AS4" s="98" t="s">
         <v>386</v>
       </c>
-      <c r="AT4" s="99" t="s">
+      <c r="AT4" s="98" t="s">
         <v>386</v>
       </c>
-      <c r="AU4" s="98" t="s">
+      <c r="AU4" s="99" t="s">
         <v>171</v>
       </c>
-      <c r="AV4" s="99" t="s">
+      <c r="AV4" s="98" t="s">
         <v>386</v>
       </c>
-      <c r="AW4" s="98" t="s">
+      <c r="AW4" s="99" t="s">
         <v>172</v>
       </c>
-      <c r="AX4" s="98" t="s">
+      <c r="AX4" s="99" t="s">
         <v>173</v>
       </c>
-      <c r="AY4" s="98"/>
-      <c r="AZ4" s="98"/>
-      <c r="BA4" s="98"/>
-      <c r="BB4" s="98"/>
-      <c r="BC4" s="34"/>
-    </row>
-    <row r="5" spans="1:55">
+      <c r="AY4" s="99"/>
+      <c r="AZ4" s="99"/>
+      <c r="BA4" s="99"/>
+      <c r="BB4" s="99"/>
+    </row>
+    <row r="5" spans="1:54">
       <c r="A5" s="85" t="s">
         <v>174</v>
       </c>
@@ -8135,9 +8144,8 @@
       <c r="AZ5" s="86"/>
       <c r="BA5" s="86"/>
       <c r="BB5" s="86"/>
-      <c r="BC5" s="86"/>
-    </row>
-    <row r="6" spans="1:55">
+    </row>
+    <row r="6" spans="1:54">
       <c r="A6" s="41" t="s">
         <v>276</v>
       </c>
@@ -8300,13 +8308,13 @@
       <c r="BB6" s="43" t="s">
         <v>188</v>
       </c>
-      <c r="BC6" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="AW3:AX3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/TNR_JDD/RO/JDD.RO.ACT.xlsx
+++ b/TNR_JDD/RO/JDD.RO.ACT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="228" yWindow="504" windowWidth="15612" windowHeight="8412" activeTab="6"/>
+    <workbookView xWindow="228" yWindow="504" windowWidth="15612" windowHeight="8412" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Version" sheetId="1" r:id="rId1"/>
@@ -1462,7 +1462,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1677,6 +1677,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4998,8 +5001,8 @@
   </sheetPr>
   <dimension ref="A1:BE18"/>
   <sheetViews>
-    <sheetView topLeftCell="AV1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:BA4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AS31" sqref="AS30:AS31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -7599,8 +7602,8 @@
   </sheetPr>
   <dimension ref="A1:BB6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AX1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:BB4"/>
+    <sheetView topLeftCell="AR1" workbookViewId="0">
+      <selection activeCell="AW3" sqref="AW3:AX3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -7948,7 +7951,7 @@
       <c r="AT3" s="34"/>
       <c r="AU3" s="34"/>
       <c r="AV3" s="34"/>
-      <c r="AW3" s="100" t="s">
+      <c r="AW3" s="102" t="s">
         <v>166</v>
       </c>
       <c r="AX3" s="101"/>

--- a/TNR_JDD/RO/JDD.RO.ACT.xlsx
+++ b/TNR_JDD/RO/JDD.RO.ACT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="228" yWindow="504" windowWidth="15612" windowHeight="8412" activeTab="2"/>
+    <workbookView xWindow="516" yWindow="624" windowWidth="18108" windowHeight="8148" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Version" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   <calcPr calcId="125725"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId12" roundtripDataSignature="AMtx7miu0eFHPSgIVnQTxtX+BamxHQsX+w=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId12" roundtripDataSignature="AMtx7mgApWwIILJRa+TeZZ3CgmVvDJcSow=="/>
     </ext>
   </extLst>
 </workbook>
@@ -544,6 +544,9 @@
     <t>input</t>
   </si>
   <si>
+    <t>checkbox</t>
+  </si>
+  <si>
     <t>//input[@id='ST_CODZON']</t>
   </si>
   <si>
@@ -859,12 +862,12 @@
     <t>RO.ACT.005.FON.01</t>
   </si>
   <si>
+    <t>RO.ACT.005.FON.01.SRC.........</t>
+  </si>
+  <si>
     <t>RO.ACT.005.FON.01.SRC</t>
   </si>
   <si>
-    <t>RO.ACT.005.FON.01.SRC.........</t>
-  </si>
-  <si>
     <t>PABOCOU</t>
   </si>
   <si>
@@ -1184,9 +1187,6 @@
   </si>
   <si>
     <t>//li[@class ='nav-item']//a[@ml-text3='ID_NUMZON' and starts-with(@class,'nav-link active')]</t>
-  </si>
-  <si>
-    <t>checkbox</t>
   </si>
 </sst>
 </file>
@@ -1205,19 +1205,16 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1225,25 +1222,21 @@
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1251,21 +1244,18 @@
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1277,21 +1267,18 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="23">
@@ -1387,14 +1374,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00FF00"/>
-        <bgColor rgb="FF00FF00"/>
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FFFF0000"/>
+        <fgColor rgb="FF00FF00"/>
+        <bgColor rgb="FF00FF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -1462,7 +1449,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1562,6 +1549,12 @@
     <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1623,20 +1616,20 @@
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1667,10 +1660,7 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="22" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3030,7 +3020,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z980"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B27" sqref="B27:D28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -5001,8 +4993,8 @@
   </sheetPr>
   <dimension ref="A1:BE18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AS31" sqref="AS30:AS31"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="W34" sqref="W34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -5020,7 +5012,7 @@
       <c r="A1" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="100" t="s">
         <v>13</v>
       </c>
       <c r="C1" s="28" t="s">
@@ -5227,7 +5219,7 @@
       <c r="W2" s="36" t="s">
         <v>163</v>
       </c>
-      <c r="X2" s="34"/>
+      <c r="X2" s="103"/>
       <c r="Y2" s="34"/>
       <c r="Z2" s="34"/>
       <c r="AA2" s="34"/>
@@ -5318,10 +5310,10 @@
       <c r="AS3" s="34"/>
       <c r="AT3" s="34"/>
       <c r="AU3" s="34"/>
-      <c r="AV3" s="100" t="s">
+      <c r="AV3" s="101" t="s">
         <v>166</v>
       </c>
-      <c r="AW3" s="101"/>
+      <c r="AW3" s="102"/>
       <c r="AX3" s="34"/>
       <c r="AY3" s="34"/>
       <c r="AZ3" s="34"/>
@@ -5343,130 +5335,130 @@
       <c r="A4" s="33" t="s">
         <v>170</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="38" t="s">
         <v>171</v>
       </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="35" t="s">
+      <c r="C4" s="39"/>
+      <c r="D4" s="38" t="s">
         <v>171</v>
       </c>
-      <c r="E4" s="35" t="s">
+      <c r="E4" s="38" t="s">
         <v>171</v>
       </c>
-      <c r="F4" s="35" t="s">
+      <c r="F4" s="38" t="s">
         <v>171</v>
       </c>
-      <c r="G4" s="34"/>
-      <c r="H4" s="35" t="s">
+      <c r="G4" s="39"/>
+      <c r="H4" s="38" t="s">
         <v>171</v>
       </c>
-      <c r="I4" s="35" t="s">
+      <c r="I4" s="38" t="s">
         <v>171</v>
       </c>
-      <c r="J4" s="35" t="s">
+      <c r="J4" s="38" t="s">
         <v>171</v>
       </c>
-      <c r="K4" s="35" t="s">
+      <c r="K4" s="38" t="s">
         <v>171</v>
       </c>
-      <c r="L4" s="34"/>
-      <c r="M4" s="35" t="s">
+      <c r="L4" s="39"/>
+      <c r="M4" s="38" t="s">
         <v>171</v>
       </c>
-      <c r="N4" s="35" t="s">
+      <c r="N4" s="38" t="s">
         <v>171</v>
       </c>
-      <c r="O4" s="98" t="s">
-        <v>386</v>
-      </c>
-      <c r="P4" s="35" t="s">
+      <c r="O4" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="P4" s="38" t="s">
         <v>171</v>
       </c>
-      <c r="Q4" s="98" t="s">
-        <v>386</v>
-      </c>
-      <c r="R4" s="98" t="s">
-        <v>386</v>
-      </c>
-      <c r="S4" s="98" t="s">
-        <v>386</v>
-      </c>
-      <c r="T4" s="98" t="s">
-        <v>386</v>
-      </c>
-      <c r="U4" s="98" t="s">
-        <v>386</v>
-      </c>
-      <c r="V4" s="35" t="s">
+      <c r="Q4" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="R4" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="S4" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="T4" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="U4" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="V4" s="38" t="s">
         <v>171</v>
       </c>
-      <c r="W4" s="37"/>
-      <c r="X4" s="34"/>
-      <c r="Y4" s="34"/>
-      <c r="Z4" s="35" t="s">
+      <c r="W4" s="40"/>
+      <c r="X4" s="39"/>
+      <c r="Y4" s="39"/>
+      <c r="Z4" s="38" t="s">
         <v>171</v>
       </c>
-      <c r="AA4" s="34"/>
-      <c r="AB4" s="98" t="s">
-        <v>386</v>
-      </c>
-      <c r="AC4" s="98" t="s">
-        <v>386</v>
-      </c>
-      <c r="AD4" s="98" t="s">
-        <v>386</v>
-      </c>
-      <c r="AE4" s="98" t="s">
-        <v>386</v>
-      </c>
-      <c r="AF4" s="98" t="s">
-        <v>386</v>
-      </c>
-      <c r="AG4" s="98" t="s">
-        <v>386</v>
-      </c>
-      <c r="AH4" s="34"/>
-      <c r="AI4" s="34"/>
-      <c r="AJ4" s="34"/>
-      <c r="AK4" s="35" t="s">
+      <c r="AA4" s="39"/>
+      <c r="AB4" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="AC4" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="AD4" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="AE4" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="AF4" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG4" s="101" t="s">
+        <v>172</v>
+      </c>
+      <c r="AH4" s="102"/>
+      <c r="AI4" s="39"/>
+      <c r="AJ4" s="39"/>
+      <c r="AK4" s="38" t="s">
         <v>171</v>
       </c>
-      <c r="AL4" s="35" t="s">
+      <c r="AL4" s="38" t="s">
         <v>171</v>
       </c>
-      <c r="AM4" s="35" t="s">
+      <c r="AM4" s="38" t="s">
         <v>171</v>
       </c>
-      <c r="AN4" s="34"/>
-      <c r="AO4" s="37"/>
-      <c r="AP4" s="98" t="s">
-        <v>386</v>
-      </c>
-      <c r="AQ4" s="98" t="s">
-        <v>386</v>
-      </c>
-      <c r="AR4" s="98" t="s">
-        <v>386</v>
-      </c>
-      <c r="AS4" s="98" t="s">
-        <v>386</v>
-      </c>
-      <c r="AT4" s="35" t="s">
+      <c r="AN4" s="39"/>
+      <c r="AO4" s="40"/>
+      <c r="AP4" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="AQ4" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="AR4" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="AS4" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="AT4" s="38" t="s">
         <v>171</v>
       </c>
-      <c r="AU4" s="98" t="s">
-        <v>386</v>
-      </c>
-      <c r="AV4" s="35" t="s">
+      <c r="AU4" s="38" t="s">
         <v>172</v>
       </c>
-      <c r="AW4" s="35" t="s">
+      <c r="AV4" s="38" t="s">
         <v>173</v>
       </c>
-      <c r="AX4" s="34"/>
-      <c r="AY4" s="34"/>
-      <c r="AZ4" s="34"/>
-      <c r="BA4" s="34"/>
+      <c r="AW4" s="38" t="s">
+        <v>174</v>
+      </c>
+      <c r="AX4" s="39"/>
+      <c r="AY4" s="39"/>
+      <c r="AZ4" s="39"/>
+      <c r="BA4" s="39"/>
       <c r="BB4" s="35" t="s">
         <v>171</v>
       </c>
@@ -5481,1170 +5473,1171 @@
       </c>
     </row>
     <row r="5" spans="1:57" ht="13.2">
-      <c r="A5" s="39" t="s">
-        <v>174</v>
-      </c>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="40"/>
-      <c r="O5" s="40"/>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="40"/>
-      <c r="R5" s="40"/>
-      <c r="S5" s="40"/>
-      <c r="T5" s="40"/>
-      <c r="U5" s="40"/>
-      <c r="V5" s="40"/>
-      <c r="W5" s="40"/>
-      <c r="X5" s="40"/>
-      <c r="Y5" s="40"/>
-      <c r="Z5" s="40"/>
-      <c r="AA5" s="40"/>
-      <c r="AB5" s="40"/>
-      <c r="AC5" s="40"/>
-      <c r="AD5" s="40"/>
-      <c r="AE5" s="40"/>
-      <c r="AF5" s="40"/>
-      <c r="AG5" s="40"/>
-      <c r="AH5" s="40"/>
-      <c r="AI5" s="40"/>
-      <c r="AJ5" s="40"/>
-      <c r="AK5" s="40"/>
-      <c r="AL5" s="40"/>
-      <c r="AM5" s="40"/>
-      <c r="AN5" s="40"/>
-      <c r="AO5" s="40"/>
-      <c r="AP5" s="40"/>
-      <c r="AQ5" s="40"/>
-      <c r="AR5" s="40"/>
-      <c r="AS5" s="40"/>
-      <c r="AT5" s="40"/>
-      <c r="AU5" s="40"/>
-      <c r="AV5" s="40"/>
-      <c r="AW5" s="40"/>
-      <c r="AX5" s="40"/>
-      <c r="AY5" s="40"/>
-      <c r="AZ5" s="40"/>
-      <c r="BA5" s="40"/>
-      <c r="BB5" s="40"/>
-      <c r="BC5" s="40"/>
-      <c r="BD5" s="40"/>
-      <c r="BE5" s="40"/>
+      <c r="A5" s="41" t="s">
+        <v>175</v>
+      </c>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="42"/>
+      <c r="P5" s="42"/>
+      <c r="Q5" s="42"/>
+      <c r="R5" s="42"/>
+      <c r="S5" s="42"/>
+      <c r="T5" s="42"/>
+      <c r="U5" s="42"/>
+      <c r="V5" s="42"/>
+      <c r="W5" s="42"/>
+      <c r="X5" s="42"/>
+      <c r="Y5" s="42"/>
+      <c r="Z5" s="42"/>
+      <c r="AA5" s="42"/>
+      <c r="AB5" s="42"/>
+      <c r="AC5" s="42"/>
+      <c r="AD5" s="42"/>
+      <c r="AE5" s="42"/>
+      <c r="AF5" s="42"/>
+      <c r="AG5" s="42"/>
+      <c r="AH5" s="42"/>
+      <c r="AI5" s="42"/>
+      <c r="AJ5" s="42"/>
+      <c r="AK5" s="42"/>
+      <c r="AL5" s="42"/>
+      <c r="AM5" s="42"/>
+      <c r="AN5" s="42"/>
+      <c r="AO5" s="42"/>
+      <c r="AP5" s="42"/>
+      <c r="AQ5" s="42"/>
+      <c r="AR5" s="42"/>
+      <c r="AS5" s="42"/>
+      <c r="AT5" s="42"/>
+      <c r="AU5" s="42"/>
+      <c r="AV5" s="42"/>
+      <c r="AW5" s="42"/>
+      <c r="AX5" s="42"/>
+      <c r="AY5" s="42"/>
+      <c r="AZ5" s="42"/>
+      <c r="BA5" s="42"/>
+      <c r="BB5" s="42"/>
+      <c r="BC5" s="42"/>
+      <c r="BD5" s="42"/>
+      <c r="BE5" s="42"/>
     </row>
     <row r="6" spans="1:57" ht="13.2">
-      <c r="A6" s="41" t="s">
-        <v>175</v>
-      </c>
-      <c r="B6" s="42" t="s">
-        <v>175</v>
-      </c>
-      <c r="C6" s="43" t="s">
+      <c r="A6" s="43" t="s">
         <v>176</v>
       </c>
-      <c r="D6" s="42" t="s">
+      <c r="B6" s="44" t="s">
         <v>176</v>
       </c>
-      <c r="E6" s="42" t="s">
-        <v>175</v>
-      </c>
-      <c r="F6" s="42" t="s">
-        <v>175</v>
-      </c>
-      <c r="G6" s="44" t="s">
+      <c r="C6" s="45" t="s">
         <v>177</v>
       </c>
-      <c r="H6" s="42" t="s">
+      <c r="D6" s="44" t="s">
+        <v>177</v>
+      </c>
+      <c r="E6" s="44" t="s">
+        <v>176</v>
+      </c>
+      <c r="F6" s="44" t="s">
+        <v>176</v>
+      </c>
+      <c r="G6" s="46" t="s">
         <v>178</v>
       </c>
-      <c r="I6" s="42" t="s">
+      <c r="H6" s="44" t="s">
         <v>179</v>
       </c>
-      <c r="J6" s="42" t="s">
+      <c r="I6" s="44" t="s">
         <v>180</v>
       </c>
-      <c r="K6" s="45">
+      <c r="J6" s="44" t="s">
+        <v>181</v>
+      </c>
+      <c r="K6" s="47">
         <v>10</v>
       </c>
-      <c r="L6" s="43" t="s">
-        <v>181</v>
-      </c>
-      <c r="M6" s="42" t="s">
+      <c r="L6" s="45" t="s">
         <v>182</v>
       </c>
-      <c r="N6" s="42" t="s">
+      <c r="M6" s="44" t="s">
         <v>183</v>
       </c>
-      <c r="O6" s="42" t="s">
+      <c r="N6" s="44" t="s">
         <v>184</v>
       </c>
-      <c r="P6" s="45">
+      <c r="O6" s="44" t="s">
+        <v>185</v>
+      </c>
+      <c r="P6" s="47">
         <v>10</v>
       </c>
-      <c r="Q6" s="42" t="s">
-        <v>184</v>
-      </c>
-      <c r="R6" s="42" t="s">
-        <v>184</v>
-      </c>
-      <c r="S6" s="42" t="s">
+      <c r="Q6" s="44" t="s">
         <v>185</v>
       </c>
-      <c r="T6" s="42" t="s">
-        <v>184</v>
-      </c>
-      <c r="U6" s="42" t="s">
+      <c r="R6" s="44" t="s">
         <v>185</v>
       </c>
-      <c r="V6" s="45">
+      <c r="S6" s="44" t="s">
+        <v>186</v>
+      </c>
+      <c r="T6" s="44" t="s">
+        <v>185</v>
+      </c>
+      <c r="U6" s="44" t="s">
+        <v>186</v>
+      </c>
+      <c r="V6" s="47">
         <v>80</v>
       </c>
-      <c r="W6" s="46" t="s">
-        <v>177</v>
-      </c>
-      <c r="X6" s="43" t="s">
+      <c r="W6" s="48" t="s">
+        <v>178</v>
+      </c>
+      <c r="X6" s="45" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y6" s="46" t="s">
+        <v>178</v>
+      </c>
+      <c r="Z6" s="44" t="s">
+        <v>188</v>
+      </c>
+      <c r="AA6" s="49" t="s">
+        <v>178</v>
+      </c>
+      <c r="AB6" s="44" t="s">
         <v>186</v>
       </c>
-      <c r="Y6" s="44" t="s">
-        <v>177</v>
-      </c>
-      <c r="Z6" s="42" t="s">
+      <c r="AC6" s="44" t="s">
+        <v>185</v>
+      </c>
+      <c r="AD6" s="44" t="s">
+        <v>185</v>
+      </c>
+      <c r="AE6" s="44" t="s">
+        <v>185</v>
+      </c>
+      <c r="AF6" s="44" t="s">
+        <v>185</v>
+      </c>
+      <c r="AG6" s="44" t="s">
+        <v>185</v>
+      </c>
+      <c r="AH6" s="45" t="s">
         <v>187</v>
       </c>
-      <c r="AA6" s="47" t="s">
-        <v>177</v>
-      </c>
-      <c r="AB6" s="42" t="s">
+      <c r="AI6" s="45" t="s">
+        <v>189</v>
+      </c>
+      <c r="AJ6" s="45" t="s">
+        <v>178</v>
+      </c>
+      <c r="AK6" s="50" t="s">
+        <v>190</v>
+      </c>
+      <c r="AL6" s="50" t="s">
+        <v>191</v>
+      </c>
+      <c r="AM6" s="50" t="s">
+        <v>192</v>
+      </c>
+      <c r="AN6" s="49" t="s">
+        <v>178</v>
+      </c>
+      <c r="AO6" s="48" t="s">
+        <v>178</v>
+      </c>
+      <c r="AP6" s="45" t="s">
+        <v>186</v>
+      </c>
+      <c r="AQ6" s="45" t="s">
+        <v>186</v>
+      </c>
+      <c r="AR6" s="45" t="s">
+        <v>186</v>
+      </c>
+      <c r="AS6" s="45" t="s">
+        <v>186</v>
+      </c>
+      <c r="AT6" s="49" t="s">
+        <v>182</v>
+      </c>
+      <c r="AU6" s="44" t="s">
+        <v>186</v>
+      </c>
+      <c r="AV6" s="47">
+        <v>0</v>
+      </c>
+      <c r="AW6" s="44" t="s">
+        <v>193</v>
+      </c>
+      <c r="AX6" s="45" t="s">
+        <v>187</v>
+      </c>
+      <c r="AY6" s="45" t="s">
+        <v>178</v>
+      </c>
+      <c r="AZ6" s="45" t="s">
+        <v>189</v>
+      </c>
+      <c r="BA6" s="45" t="s">
+        <v>178</v>
+      </c>
+      <c r="BB6" s="51"/>
+      <c r="BC6" s="51"/>
+      <c r="BD6" s="51"/>
+      <c r="BE6" s="51"/>
+    </row>
+    <row r="7" spans="1:57" ht="13.2">
+      <c r="A7" s="43" t="s">
+        <v>194</v>
+      </c>
+      <c r="B7" s="44" t="s">
+        <v>194</v>
+      </c>
+      <c r="C7" s="45" t="s">
+        <v>195</v>
+      </c>
+      <c r="D7" s="44" t="s">
+        <v>195</v>
+      </c>
+      <c r="E7" s="44" t="s">
+        <v>194</v>
+      </c>
+      <c r="F7" s="44" t="s">
+        <v>194</v>
+      </c>
+      <c r="G7" s="46" t="s">
+        <v>178</v>
+      </c>
+      <c r="H7" s="44" t="s">
+        <v>196</v>
+      </c>
+      <c r="I7" s="44" t="s">
+        <v>197</v>
+      </c>
+      <c r="J7" s="44" t="s">
+        <v>198</v>
+      </c>
+      <c r="K7" s="47">
+        <v>13</v>
+      </c>
+      <c r="L7" s="45" t="s">
+        <v>199</v>
+      </c>
+      <c r="M7" s="44" t="s">
+        <v>200</v>
+      </c>
+      <c r="N7" s="44" t="s">
+        <v>201</v>
+      </c>
+      <c r="O7" s="44" t="s">
         <v>185</v>
       </c>
-      <c r="AC6" s="42" t="s">
-        <v>184</v>
-      </c>
-      <c r="AD6" s="42" t="s">
-        <v>184</v>
-      </c>
-      <c r="AE6" s="42" t="s">
-        <v>184</v>
-      </c>
-      <c r="AF6" s="42" t="s">
-        <v>184</v>
-      </c>
-      <c r="AG6" s="42" t="s">
-        <v>184</v>
-      </c>
-      <c r="AH6" s="43" t="s">
+      <c r="P7" s="47">
+        <v>20</v>
+      </c>
+      <c r="Q7" s="44" t="s">
+        <v>185</v>
+      </c>
+      <c r="R7" s="44" t="s">
+        <v>185</v>
+      </c>
+      <c r="S7" s="44" t="s">
         <v>186</v>
       </c>
-      <c r="AI6" s="43" t="s">
-        <v>188</v>
-      </c>
-      <c r="AJ6" s="43" t="s">
-        <v>177</v>
-      </c>
-      <c r="AK6" s="48" t="s">
+      <c r="T7" s="44" t="s">
+        <v>185</v>
+      </c>
+      <c r="U7" s="44" t="s">
+        <v>186</v>
+      </c>
+      <c r="V7" s="47">
+        <v>90</v>
+      </c>
+      <c r="W7" s="48" t="s">
+        <v>178</v>
+      </c>
+      <c r="X7" s="45" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y7" s="46" t="s">
+        <v>178</v>
+      </c>
+      <c r="Z7" s="44" t="s">
+        <v>202</v>
+      </c>
+      <c r="AA7" s="49" t="s">
+        <v>178</v>
+      </c>
+      <c r="AB7" s="44" t="s">
+        <v>186</v>
+      </c>
+      <c r="AC7" s="44" t="s">
+        <v>185</v>
+      </c>
+      <c r="AD7" s="44" t="s">
+        <v>185</v>
+      </c>
+      <c r="AE7" s="44" t="s">
+        <v>185</v>
+      </c>
+      <c r="AF7" s="44" t="s">
+        <v>185</v>
+      </c>
+      <c r="AG7" s="44" t="s">
+        <v>185</v>
+      </c>
+      <c r="AH7" s="45" t="s">
+        <v>187</v>
+      </c>
+      <c r="AI7" s="45" t="s">
         <v>189</v>
       </c>
-      <c r="AL6" s="48" t="s">
-        <v>190</v>
-      </c>
-      <c r="AM6" s="48" t="s">
-        <v>191</v>
-      </c>
-      <c r="AN6" s="47" t="s">
-        <v>177</v>
-      </c>
-      <c r="AO6" s="46" t="s">
-        <v>177</v>
-      </c>
-      <c r="AP6" s="43" t="s">
+      <c r="AJ7" s="45" t="s">
+        <v>189</v>
+      </c>
+      <c r="AK7" s="50" t="s">
+        <v>203</v>
+      </c>
+      <c r="AL7" s="50" t="s">
+        <v>204</v>
+      </c>
+      <c r="AM7" s="50" t="s">
+        <v>205</v>
+      </c>
+      <c r="AN7" s="49" t="s">
+        <v>178</v>
+      </c>
+      <c r="AO7" s="48" t="s">
+        <v>178</v>
+      </c>
+      <c r="AP7" s="45" t="s">
+        <v>186</v>
+      </c>
+      <c r="AQ7" s="45" t="s">
+        <v>186</v>
+      </c>
+      <c r="AR7" s="45" t="s">
+        <v>186</v>
+      </c>
+      <c r="AS7" s="45" t="s">
+        <v>186</v>
+      </c>
+      <c r="AT7" s="44" t="s">
+        <v>199</v>
+      </c>
+      <c r="AU7" s="44" t="s">
+        <v>186</v>
+      </c>
+      <c r="AV7" s="47">
+        <v>0</v>
+      </c>
+      <c r="AW7" s="44" t="s">
+        <v>193</v>
+      </c>
+      <c r="AX7" s="45" t="s">
+        <v>187</v>
+      </c>
+      <c r="AY7" s="45" t="s">
+        <v>187</v>
+      </c>
+      <c r="AZ7" s="45" t="s">
+        <v>189</v>
+      </c>
+      <c r="BA7" s="45" t="s">
+        <v>189</v>
+      </c>
+      <c r="BB7" s="52" t="s">
+        <v>194</v>
+      </c>
+      <c r="BC7" s="52" t="s">
+        <v>206</v>
+      </c>
+      <c r="BD7" s="52" t="s">
+        <v>194</v>
+      </c>
+      <c r="BE7" s="52" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="8" spans="1:57" ht="13.2">
+      <c r="A8" s="53" t="s">
+        <v>207</v>
+      </c>
+      <c r="B8" s="44" t="s">
+        <v>207</v>
+      </c>
+      <c r="C8" s="53" t="s">
+        <v>208</v>
+      </c>
+      <c r="D8" s="53" t="s">
+        <v>208</v>
+      </c>
+      <c r="E8" s="53" t="s">
+        <v>209</v>
+      </c>
+      <c r="F8" s="53" t="s">
+        <v>209</v>
+      </c>
+      <c r="G8" s="46" t="s">
+        <v>178</v>
+      </c>
+      <c r="H8" s="53" t="s">
+        <v>210</v>
+      </c>
+      <c r="I8" s="53" t="s">
+        <v>211</v>
+      </c>
+      <c r="J8" s="53" t="s">
+        <v>212</v>
+      </c>
+      <c r="K8" s="54">
+        <v>12</v>
+      </c>
+      <c r="L8" s="53" t="s">
+        <v>213</v>
+      </c>
+      <c r="M8" s="53" t="s">
+        <v>214</v>
+      </c>
+      <c r="N8" s="53" t="s">
+        <v>215</v>
+      </c>
+      <c r="O8" s="53" t="s">
         <v>185</v>
       </c>
-      <c r="AQ6" s="43" t="s">
+      <c r="P8" s="54">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="53" t="s">
         <v>185</v>
       </c>
-      <c r="AR6" s="43" t="s">
+      <c r="R8" s="53" t="s">
         <v>185</v>
       </c>
-      <c r="AS6" s="43" t="s">
+      <c r="S8" s="44" t="s">
+        <v>186</v>
+      </c>
+      <c r="T8" s="53" t="s">
         <v>185</v>
       </c>
-      <c r="AT6" s="47" t="s">
-        <v>181</v>
-      </c>
-      <c r="AU6" s="42" t="s">
-        <v>185</v>
-      </c>
-      <c r="AV6" s="45">
+      <c r="U8" s="53" t="s">
+        <v>186</v>
+      </c>
+      <c r="V8" s="54">
         <v>0</v>
       </c>
-      <c r="AW6" s="42" t="s">
-        <v>192</v>
-      </c>
-      <c r="AX6" s="43" t="s">
+      <c r="W8" s="48" t="s">
+        <v>178</v>
+      </c>
+      <c r="X8" s="45" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y8" s="46" t="s">
+        <v>178</v>
+      </c>
+      <c r="Z8" s="53" t="s">
+        <v>216</v>
+      </c>
+      <c r="AA8" s="49" t="s">
+        <v>178</v>
+      </c>
+      <c r="AB8" s="44" t="s">
         <v>186</v>
       </c>
-      <c r="AY6" s="43" t="s">
-        <v>177</v>
-      </c>
-      <c r="AZ6" s="43" t="s">
-        <v>188</v>
-      </c>
-      <c r="BA6" s="43" t="s">
-        <v>177</v>
-      </c>
-      <c r="BB6" s="49"/>
-      <c r="BC6" s="49"/>
-      <c r="BD6" s="49"/>
-      <c r="BE6" s="49"/>
-    </row>
-    <row r="7" spans="1:57" ht="13.2">
-      <c r="A7" s="41" t="s">
+      <c r="AC8" s="53" t="s">
+        <v>186</v>
+      </c>
+      <c r="AD8" s="53" t="s">
+        <v>186</v>
+      </c>
+      <c r="AE8" s="53" t="s">
+        <v>186</v>
+      </c>
+      <c r="AF8" s="53" t="s">
+        <v>186</v>
+      </c>
+      <c r="AG8" s="53" t="s">
+        <v>186</v>
+      </c>
+      <c r="AH8" s="45" t="s">
+        <v>187</v>
+      </c>
+      <c r="AI8" s="45" t="s">
+        <v>189</v>
+      </c>
+      <c r="AJ8" s="45" t="s">
+        <v>189</v>
+      </c>
+      <c r="AK8" s="55" t="s">
+        <v>217</v>
+      </c>
+      <c r="AL8" s="55" t="s">
+        <v>217</v>
+      </c>
+      <c r="AM8" s="55" t="s">
+        <v>217</v>
+      </c>
+      <c r="AN8" s="49" t="s">
+        <v>178</v>
+      </c>
+      <c r="AO8" s="48" t="s">
+        <v>178</v>
+      </c>
+      <c r="AP8" s="45" t="s">
+        <v>186</v>
+      </c>
+      <c r="AQ8" s="45" t="s">
+        <v>186</v>
+      </c>
+      <c r="AR8" s="45" t="s">
+        <v>186</v>
+      </c>
+      <c r="AS8" s="45" t="s">
+        <v>186</v>
+      </c>
+      <c r="AT8" s="53" t="s">
+        <v>213</v>
+      </c>
+      <c r="AU8" s="44" t="s">
+        <v>186</v>
+      </c>
+      <c r="AV8" s="47">
+        <v>0</v>
+      </c>
+      <c r="AW8" s="44" t="s">
         <v>193</v>
       </c>
-      <c r="B7" s="42" t="s">
-        <v>193</v>
-      </c>
-      <c r="C7" s="43" t="s">
-        <v>194</v>
-      </c>
-      <c r="D7" s="42" t="s">
-        <v>194</v>
-      </c>
-      <c r="E7" s="42" t="s">
-        <v>193</v>
-      </c>
-      <c r="F7" s="42" t="s">
-        <v>193</v>
-      </c>
-      <c r="G7" s="44" t="s">
-        <v>177</v>
-      </c>
-      <c r="H7" s="42" t="s">
-        <v>195</v>
-      </c>
-      <c r="I7" s="42" t="s">
-        <v>196</v>
-      </c>
-      <c r="J7" s="42" t="s">
-        <v>197</v>
-      </c>
-      <c r="K7" s="45">
-        <v>13</v>
-      </c>
-      <c r="L7" s="43" t="s">
-        <v>198</v>
-      </c>
-      <c r="M7" s="42" t="s">
-        <v>199</v>
-      </c>
-      <c r="N7" s="42" t="s">
-        <v>200</v>
-      </c>
-      <c r="O7" s="42" t="s">
-        <v>184</v>
-      </c>
-      <c r="P7" s="45">
-        <v>20</v>
-      </c>
-      <c r="Q7" s="42" t="s">
-        <v>184</v>
-      </c>
-      <c r="R7" s="42" t="s">
-        <v>184</v>
-      </c>
-      <c r="S7" s="42" t="s">
-        <v>185</v>
-      </c>
-      <c r="T7" s="42" t="s">
-        <v>184</v>
-      </c>
-      <c r="U7" s="42" t="s">
-        <v>185</v>
-      </c>
-      <c r="V7" s="45">
-        <v>90</v>
-      </c>
-      <c r="W7" s="46" t="s">
-        <v>177</v>
-      </c>
-      <c r="X7" s="43" t="s">
-        <v>186</v>
-      </c>
-      <c r="Y7" s="44" t="s">
-        <v>177</v>
-      </c>
-      <c r="Z7" s="42" t="s">
-        <v>201</v>
-      </c>
-      <c r="AA7" s="47" t="s">
-        <v>177</v>
-      </c>
-      <c r="AB7" s="42" t="s">
-        <v>185</v>
-      </c>
-      <c r="AC7" s="42" t="s">
-        <v>184</v>
-      </c>
-      <c r="AD7" s="42" t="s">
-        <v>184</v>
-      </c>
-      <c r="AE7" s="42" t="s">
-        <v>184</v>
-      </c>
-      <c r="AF7" s="42" t="s">
-        <v>184</v>
-      </c>
-      <c r="AG7" s="42" t="s">
-        <v>184</v>
-      </c>
-      <c r="AH7" s="43" t="s">
-        <v>186</v>
-      </c>
-      <c r="AI7" s="43" t="s">
-        <v>188</v>
-      </c>
-      <c r="AJ7" s="43" t="s">
-        <v>188</v>
-      </c>
-      <c r="AK7" s="48" t="s">
-        <v>202</v>
-      </c>
-      <c r="AL7" s="48" t="s">
-        <v>203</v>
-      </c>
-      <c r="AM7" s="48" t="s">
-        <v>204</v>
-      </c>
-      <c r="AN7" s="47" t="s">
-        <v>177</v>
-      </c>
-      <c r="AO7" s="46" t="s">
-        <v>177</v>
-      </c>
-      <c r="AP7" s="43" t="s">
-        <v>185</v>
-      </c>
-      <c r="AQ7" s="43" t="s">
-        <v>185</v>
-      </c>
-      <c r="AR7" s="43" t="s">
-        <v>185</v>
-      </c>
-      <c r="AS7" s="43" t="s">
-        <v>185</v>
-      </c>
-      <c r="AT7" s="42" t="s">
-        <v>198</v>
-      </c>
-      <c r="AU7" s="42" t="s">
-        <v>185</v>
-      </c>
-      <c r="AV7" s="45">
-        <v>0</v>
-      </c>
-      <c r="AW7" s="42" t="s">
-        <v>192</v>
-      </c>
-      <c r="AX7" s="43" t="s">
-        <v>186</v>
-      </c>
-      <c r="AY7" s="43" t="s">
-        <v>186</v>
-      </c>
-      <c r="AZ7" s="43" t="s">
-        <v>188</v>
-      </c>
-      <c r="BA7" s="43" t="s">
-        <v>188</v>
-      </c>
-      <c r="BB7" s="50" t="s">
-        <v>193</v>
-      </c>
-      <c r="BC7" s="50" t="s">
-        <v>205</v>
-      </c>
-      <c r="BD7" s="50" t="s">
-        <v>193</v>
-      </c>
-      <c r="BE7" s="50" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="8" spans="1:57" ht="13.2">
-      <c r="A8" s="51" t="s">
-        <v>206</v>
-      </c>
-      <c r="B8" s="42" t="s">
-        <v>206</v>
-      </c>
-      <c r="C8" s="51" t="s">
-        <v>207</v>
-      </c>
-      <c r="D8" s="51" t="s">
-        <v>207</v>
-      </c>
-      <c r="E8" s="51" t="s">
-        <v>208</v>
-      </c>
-      <c r="F8" s="51" t="s">
-        <v>208</v>
-      </c>
-      <c r="G8" s="44" t="s">
-        <v>177</v>
-      </c>
-      <c r="H8" s="51" t="s">
-        <v>209</v>
-      </c>
-      <c r="I8" s="51" t="s">
-        <v>210</v>
-      </c>
-      <c r="J8" s="51" t="s">
-        <v>211</v>
-      </c>
-      <c r="K8" s="52">
-        <v>12</v>
-      </c>
-      <c r="L8" s="51" t="s">
-        <v>212</v>
-      </c>
-      <c r="M8" s="51" t="s">
-        <v>213</v>
-      </c>
-      <c r="N8" s="51" t="s">
-        <v>214</v>
-      </c>
-      <c r="O8" s="51" t="s">
-        <v>184</v>
-      </c>
-      <c r="P8" s="52">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="51" t="s">
-        <v>184</v>
-      </c>
-      <c r="R8" s="51" t="s">
-        <v>184</v>
-      </c>
-      <c r="S8" s="42" t="s">
-        <v>185</v>
-      </c>
-      <c r="T8" s="51" t="s">
-        <v>184</v>
-      </c>
-      <c r="U8" s="51" t="s">
-        <v>185</v>
-      </c>
-      <c r="V8" s="52">
-        <v>0</v>
-      </c>
-      <c r="W8" s="46" t="s">
-        <v>177</v>
-      </c>
-      <c r="X8" s="43" t="s">
-        <v>186</v>
-      </c>
-      <c r="Y8" s="44" t="s">
-        <v>177</v>
-      </c>
-      <c r="Z8" s="51" t="s">
-        <v>215</v>
-      </c>
-      <c r="AA8" s="47" t="s">
-        <v>177</v>
-      </c>
-      <c r="AB8" s="42" t="s">
-        <v>185</v>
-      </c>
-      <c r="AC8" s="51" t="s">
-        <v>185</v>
-      </c>
-      <c r="AD8" s="51" t="s">
-        <v>185</v>
-      </c>
-      <c r="AE8" s="51" t="s">
-        <v>185</v>
-      </c>
-      <c r="AF8" s="51" t="s">
-        <v>185</v>
-      </c>
-      <c r="AG8" s="51" t="s">
-        <v>185</v>
-      </c>
-      <c r="AH8" s="43" t="s">
-        <v>186</v>
-      </c>
-      <c r="AI8" s="43" t="s">
-        <v>188</v>
-      </c>
-      <c r="AJ8" s="43" t="s">
-        <v>188</v>
-      </c>
-      <c r="AK8" s="53" t="s">
-        <v>216</v>
-      </c>
-      <c r="AL8" s="53" t="s">
-        <v>216</v>
-      </c>
-      <c r="AM8" s="53" t="s">
-        <v>216</v>
-      </c>
-      <c r="AN8" s="47" t="s">
-        <v>177</v>
-      </c>
-      <c r="AO8" s="46" t="s">
-        <v>177</v>
-      </c>
-      <c r="AP8" s="43" t="s">
-        <v>185</v>
-      </c>
-      <c r="AQ8" s="43" t="s">
-        <v>185</v>
-      </c>
-      <c r="AR8" s="43" t="s">
-        <v>185</v>
-      </c>
-      <c r="AS8" s="43" t="s">
-        <v>185</v>
-      </c>
-      <c r="AT8" s="51" t="s">
-        <v>212</v>
-      </c>
-      <c r="AU8" s="42" t="s">
-        <v>185</v>
-      </c>
-      <c r="AV8" s="45">
-        <v>0</v>
-      </c>
-      <c r="AW8" s="42" t="s">
-        <v>192</v>
-      </c>
-      <c r="AX8" s="43" t="s">
-        <v>186</v>
-      </c>
-      <c r="AY8" s="43" t="s">
-        <v>186</v>
-      </c>
-      <c r="AZ8" s="43" t="s">
-        <v>188</v>
-      </c>
-      <c r="BA8" s="43" t="s">
-        <v>188</v>
-      </c>
-      <c r="BB8" s="54"/>
-      <c r="BC8" s="54"/>
-      <c r="BD8" s="54"/>
-      <c r="BE8" s="54"/>
+      <c r="AX8" s="45" t="s">
+        <v>187</v>
+      </c>
+      <c r="AY8" s="45" t="s">
+        <v>187</v>
+      </c>
+      <c r="AZ8" s="45" t="s">
+        <v>189</v>
+      </c>
+      <c r="BA8" s="45" t="s">
+        <v>189</v>
+      </c>
+      <c r="BB8" s="56"/>
+      <c r="BC8" s="56"/>
+      <c r="BD8" s="56"/>
+      <c r="BE8" s="56"/>
     </row>
     <row r="9" spans="1:57" ht="13.2">
-      <c r="A9" s="41" t="s">
-        <v>217</v>
-      </c>
-      <c r="B9" s="42" t="s">
-        <v>217</v>
-      </c>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="55"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="54"/>
-      <c r="N9" s="54"/>
-      <c r="O9" s="54"/>
-      <c r="P9" s="55"/>
-      <c r="Q9" s="54"/>
-      <c r="R9" s="54"/>
-      <c r="S9" s="54"/>
-      <c r="T9" s="54"/>
-      <c r="U9" s="54"/>
-      <c r="V9" s="55"/>
-      <c r="W9" s="49"/>
-      <c r="X9" s="54"/>
-      <c r="Y9" s="54"/>
-      <c r="Z9" s="54"/>
-      <c r="AA9" s="54"/>
-      <c r="AB9" s="54"/>
-      <c r="AC9" s="54"/>
-      <c r="AD9" s="54"/>
-      <c r="AE9" s="54"/>
-      <c r="AF9" s="54"/>
-      <c r="AG9" s="54"/>
-      <c r="AH9" s="54"/>
-      <c r="AI9" s="54"/>
-      <c r="AJ9" s="54"/>
-      <c r="AK9" s="54"/>
-      <c r="AL9" s="54"/>
-      <c r="AM9" s="54"/>
-      <c r="AN9" s="54"/>
-      <c r="AO9" s="49"/>
-      <c r="AP9" s="54"/>
-      <c r="AQ9" s="54"/>
-      <c r="AR9" s="54"/>
-      <c r="AS9" s="54"/>
-      <c r="AT9" s="54"/>
-      <c r="AU9" s="54"/>
-      <c r="AV9" s="54"/>
-      <c r="AW9" s="54"/>
-      <c r="AX9" s="54"/>
-      <c r="AY9" s="54"/>
-      <c r="AZ9" s="54"/>
-      <c r="BA9" s="54"/>
-      <c r="BB9" s="54"/>
-      <c r="BC9" s="54"/>
-      <c r="BD9" s="54"/>
-      <c r="BE9" s="54"/>
+      <c r="A9" s="43" t="s">
+        <v>218</v>
+      </c>
+      <c r="B9" s="44" t="s">
+        <v>218</v>
+      </c>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="56"/>
+      <c r="M9" s="56"/>
+      <c r="N9" s="56"/>
+      <c r="O9" s="56"/>
+      <c r="P9" s="57"/>
+      <c r="Q9" s="56"/>
+      <c r="R9" s="56"/>
+      <c r="S9" s="56"/>
+      <c r="T9" s="56"/>
+      <c r="U9" s="56"/>
+      <c r="V9" s="57"/>
+      <c r="W9" s="51"/>
+      <c r="X9" s="56"/>
+      <c r="Y9" s="56"/>
+      <c r="Z9" s="56"/>
+      <c r="AA9" s="56"/>
+      <c r="AB9" s="56"/>
+      <c r="AC9" s="56"/>
+      <c r="AD9" s="56"/>
+      <c r="AE9" s="56"/>
+      <c r="AF9" s="56"/>
+      <c r="AG9" s="56"/>
+      <c r="AH9" s="56"/>
+      <c r="AI9" s="56"/>
+      <c r="AJ9" s="56"/>
+      <c r="AK9" s="56"/>
+      <c r="AL9" s="56"/>
+      <c r="AM9" s="56"/>
+      <c r="AN9" s="56"/>
+      <c r="AO9" s="51"/>
+      <c r="AP9" s="56"/>
+      <c r="AQ9" s="56"/>
+      <c r="AR9" s="56"/>
+      <c r="AS9" s="56"/>
+      <c r="AT9" s="56"/>
+      <c r="AU9" s="56"/>
+      <c r="AV9" s="56"/>
+      <c r="AW9" s="56"/>
+      <c r="AX9" s="56"/>
+      <c r="AY9" s="56"/>
+      <c r="AZ9" s="56"/>
+      <c r="BA9" s="56"/>
+      <c r="BB9" s="56"/>
+      <c r="BC9" s="56"/>
+      <c r="BD9" s="56"/>
+      <c r="BE9" s="56"/>
     </row>
     <row r="10" spans="1:57" ht="13.2">
-      <c r="A10" s="41" t="s">
-        <v>218</v>
-      </c>
-      <c r="B10" s="42" t="s">
-        <v>218</v>
-      </c>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="54"/>
-      <c r="K10" s="55"/>
-      <c r="L10" s="54"/>
-      <c r="M10" s="54"/>
-      <c r="N10" s="54"/>
-      <c r="O10" s="54"/>
-      <c r="P10" s="55"/>
-      <c r="Q10" s="54"/>
-      <c r="R10" s="54"/>
-      <c r="S10" s="54"/>
-      <c r="T10" s="54"/>
-      <c r="U10" s="54"/>
-      <c r="V10" s="55"/>
-      <c r="W10" s="49"/>
-      <c r="X10" s="54"/>
-      <c r="Y10" s="54"/>
-      <c r="Z10" s="54"/>
-      <c r="AA10" s="54"/>
-      <c r="AB10" s="54"/>
-      <c r="AC10" s="54"/>
-      <c r="AD10" s="54"/>
-      <c r="AE10" s="54"/>
-      <c r="AF10" s="54"/>
-      <c r="AG10" s="54"/>
-      <c r="AH10" s="54"/>
-      <c r="AI10" s="54"/>
-      <c r="AJ10" s="54"/>
-      <c r="AK10" s="54"/>
-      <c r="AL10" s="54"/>
-      <c r="AM10" s="54"/>
-      <c r="AN10" s="54"/>
-      <c r="AO10" s="49"/>
-      <c r="AP10" s="54"/>
-      <c r="AQ10" s="54"/>
-      <c r="AR10" s="54"/>
-      <c r="AS10" s="54"/>
-      <c r="AT10" s="54"/>
-      <c r="AU10" s="54"/>
-      <c r="AV10" s="54"/>
-      <c r="AW10" s="54"/>
-      <c r="AX10" s="54"/>
-      <c r="AY10" s="54"/>
-      <c r="AZ10" s="54"/>
-      <c r="BA10" s="54"/>
-      <c r="BB10" s="54"/>
-      <c r="BC10" s="54"/>
-      <c r="BD10" s="54"/>
-      <c r="BE10" s="54"/>
+      <c r="A10" s="43" t="s">
+        <v>219</v>
+      </c>
+      <c r="B10" s="44" t="s">
+        <v>219</v>
+      </c>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="56"/>
+      <c r="M10" s="56"/>
+      <c r="N10" s="56"/>
+      <c r="O10" s="56"/>
+      <c r="P10" s="57"/>
+      <c r="Q10" s="56"/>
+      <c r="R10" s="56"/>
+      <c r="S10" s="56"/>
+      <c r="T10" s="56"/>
+      <c r="U10" s="56"/>
+      <c r="V10" s="57"/>
+      <c r="W10" s="51"/>
+      <c r="X10" s="56"/>
+      <c r="Y10" s="56"/>
+      <c r="Z10" s="56"/>
+      <c r="AA10" s="56"/>
+      <c r="AB10" s="56"/>
+      <c r="AC10" s="56"/>
+      <c r="AD10" s="56"/>
+      <c r="AE10" s="56"/>
+      <c r="AF10" s="56"/>
+      <c r="AG10" s="56"/>
+      <c r="AH10" s="56"/>
+      <c r="AI10" s="56"/>
+      <c r="AJ10" s="56"/>
+      <c r="AK10" s="56"/>
+      <c r="AL10" s="56"/>
+      <c r="AM10" s="56"/>
+      <c r="AN10" s="56"/>
+      <c r="AO10" s="51"/>
+      <c r="AP10" s="56"/>
+      <c r="AQ10" s="56"/>
+      <c r="AR10" s="56"/>
+      <c r="AS10" s="56"/>
+      <c r="AT10" s="56"/>
+      <c r="AU10" s="56"/>
+      <c r="AV10" s="56"/>
+      <c r="AW10" s="56"/>
+      <c r="AX10" s="56"/>
+      <c r="AY10" s="56"/>
+      <c r="AZ10" s="56"/>
+      <c r="BA10" s="56"/>
+      <c r="BB10" s="56"/>
+      <c r="BC10" s="56"/>
+      <c r="BD10" s="56"/>
+      <c r="BE10" s="56"/>
     </row>
     <row r="11" spans="1:57" ht="13.2">
-      <c r="A11" s="56"/>
-      <c r="B11" s="57"/>
-      <c r="C11" s="58"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="58"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="57"/>
-      <c r="O11" s="57"/>
-      <c r="P11" s="57"/>
-      <c r="Q11" s="57"/>
-      <c r="R11" s="57"/>
-      <c r="S11" s="57"/>
-      <c r="T11" s="57"/>
-      <c r="U11" s="57"/>
-      <c r="V11" s="57"/>
-      <c r="W11" s="59"/>
-      <c r="X11" s="58"/>
-      <c r="Y11" s="58"/>
-      <c r="Z11" s="57"/>
-      <c r="AA11" s="57"/>
-      <c r="AB11" s="57"/>
-      <c r="AC11" s="57"/>
-      <c r="AD11" s="57"/>
-      <c r="AE11" s="57"/>
-      <c r="AF11" s="57"/>
-      <c r="AG11" s="57"/>
-      <c r="AH11" s="58"/>
-      <c r="AI11" s="58"/>
-      <c r="AJ11" s="58"/>
-      <c r="AK11" s="57"/>
-      <c r="AL11" s="57"/>
-      <c r="AM11" s="57"/>
-      <c r="AN11" s="57"/>
-      <c r="AO11" s="59"/>
-      <c r="AP11" s="58"/>
-      <c r="AQ11" s="58"/>
-      <c r="AR11" s="58"/>
-      <c r="AS11" s="58"/>
-      <c r="AT11" s="57"/>
-      <c r="AU11" s="57"/>
-      <c r="AV11" s="57"/>
-      <c r="AW11" s="57"/>
-      <c r="AX11" s="58"/>
-      <c r="AY11" s="58"/>
-      <c r="AZ11" s="58"/>
-      <c r="BA11" s="58"/>
-      <c r="BB11" s="60"/>
-      <c r="BC11" s="60"/>
-      <c r="BD11" s="60"/>
-      <c r="BE11" s="60"/>
+      <c r="A11" s="58"/>
+      <c r="B11" s="59"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="59"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="59"/>
+      <c r="L11" s="60"/>
+      <c r="M11" s="59"/>
+      <c r="N11" s="59"/>
+      <c r="O11" s="59"/>
+      <c r="P11" s="59"/>
+      <c r="Q11" s="59"/>
+      <c r="R11" s="59"/>
+      <c r="S11" s="59"/>
+      <c r="T11" s="59"/>
+      <c r="U11" s="59"/>
+      <c r="V11" s="59"/>
+      <c r="W11" s="61"/>
+      <c r="X11" s="60"/>
+      <c r="Y11" s="60"/>
+      <c r="Z11" s="59"/>
+      <c r="AA11" s="59"/>
+      <c r="AB11" s="59"/>
+      <c r="AC11" s="59"/>
+      <c r="AD11" s="59"/>
+      <c r="AE11" s="59"/>
+      <c r="AF11" s="59"/>
+      <c r="AG11" s="59"/>
+      <c r="AH11" s="60"/>
+      <c r="AI11" s="60"/>
+      <c r="AJ11" s="60"/>
+      <c r="AK11" s="59"/>
+      <c r="AL11" s="59"/>
+      <c r="AM11" s="59"/>
+      <c r="AN11" s="59"/>
+      <c r="AO11" s="61"/>
+      <c r="AP11" s="60"/>
+      <c r="AQ11" s="60"/>
+      <c r="AR11" s="60"/>
+      <c r="AS11" s="60"/>
+      <c r="AT11" s="59"/>
+      <c r="AU11" s="59"/>
+      <c r="AV11" s="59"/>
+      <c r="AW11" s="59"/>
+      <c r="AX11" s="60"/>
+      <c r="AY11" s="60"/>
+      <c r="AZ11" s="60"/>
+      <c r="BA11" s="60"/>
+      <c r="BB11" s="62"/>
+      <c r="BC11" s="62"/>
+      <c r="BD11" s="62"/>
+      <c r="BE11" s="62"/>
     </row>
     <row r="12" spans="1:57" ht="13.2">
-      <c r="A12" s="56"/>
-      <c r="B12" s="57"/>
-      <c r="C12" s="58"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="57"/>
-      <c r="L12" s="58"/>
-      <c r="M12" s="57"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="57"/>
-      <c r="P12" s="57"/>
-      <c r="Q12" s="57"/>
-      <c r="R12" s="57"/>
-      <c r="S12" s="57"/>
-      <c r="T12" s="57"/>
-      <c r="U12" s="57"/>
-      <c r="V12" s="57"/>
-      <c r="W12" s="59"/>
-      <c r="X12" s="58"/>
-      <c r="Y12" s="58"/>
-      <c r="Z12" s="57"/>
-      <c r="AA12" s="57"/>
-      <c r="AB12" s="57"/>
-      <c r="AC12" s="57"/>
-      <c r="AD12" s="57"/>
-      <c r="AE12" s="57"/>
-      <c r="AF12" s="57"/>
-      <c r="AG12" s="57"/>
-      <c r="AH12" s="58"/>
-      <c r="AI12" s="58"/>
-      <c r="AJ12" s="58"/>
-      <c r="AK12" s="57"/>
-      <c r="AL12" s="57"/>
-      <c r="AM12" s="57"/>
-      <c r="AN12" s="57"/>
-      <c r="AO12" s="59"/>
-      <c r="AP12" s="58"/>
-      <c r="AQ12" s="58"/>
-      <c r="AR12" s="58"/>
-      <c r="AS12" s="58"/>
-      <c r="AT12" s="57"/>
-      <c r="AU12" s="57"/>
-      <c r="AV12" s="57"/>
-      <c r="AW12" s="57"/>
-      <c r="AX12" s="58"/>
-      <c r="AY12" s="58"/>
-      <c r="AZ12" s="58"/>
-      <c r="BA12" s="58"/>
-      <c r="BB12" s="60"/>
-      <c r="BC12" s="60"/>
-      <c r="BD12" s="60"/>
-      <c r="BE12" s="60"/>
+      <c r="A12" s="58"/>
+      <c r="B12" s="59"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="59"/>
+      <c r="J12" s="59"/>
+      <c r="K12" s="59"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="59"/>
+      <c r="N12" s="59"/>
+      <c r="O12" s="59"/>
+      <c r="P12" s="59"/>
+      <c r="Q12" s="59"/>
+      <c r="R12" s="59"/>
+      <c r="S12" s="59"/>
+      <c r="T12" s="59"/>
+      <c r="U12" s="59"/>
+      <c r="V12" s="59"/>
+      <c r="W12" s="61"/>
+      <c r="X12" s="60"/>
+      <c r="Y12" s="60"/>
+      <c r="Z12" s="59"/>
+      <c r="AA12" s="59"/>
+      <c r="AB12" s="59"/>
+      <c r="AC12" s="59"/>
+      <c r="AD12" s="59"/>
+      <c r="AE12" s="59"/>
+      <c r="AF12" s="59"/>
+      <c r="AG12" s="59"/>
+      <c r="AH12" s="60"/>
+      <c r="AI12" s="60"/>
+      <c r="AJ12" s="60"/>
+      <c r="AK12" s="59"/>
+      <c r="AL12" s="59"/>
+      <c r="AM12" s="59"/>
+      <c r="AN12" s="59"/>
+      <c r="AO12" s="61"/>
+      <c r="AP12" s="60"/>
+      <c r="AQ12" s="60"/>
+      <c r="AR12" s="60"/>
+      <c r="AS12" s="60"/>
+      <c r="AT12" s="59"/>
+      <c r="AU12" s="59"/>
+      <c r="AV12" s="59"/>
+      <c r="AW12" s="59"/>
+      <c r="AX12" s="60"/>
+      <c r="AY12" s="60"/>
+      <c r="AZ12" s="60"/>
+      <c r="BA12" s="60"/>
+      <c r="BB12" s="62"/>
+      <c r="BC12" s="62"/>
+      <c r="BD12" s="62"/>
+      <c r="BE12" s="62"/>
     </row>
     <row r="13" spans="1:57" ht="13.2">
-      <c r="A13" s="56"/>
-      <c r="B13" s="57"/>
-      <c r="C13" s="58"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="57"/>
-      <c r="K13" s="57"/>
-      <c r="L13" s="58"/>
-      <c r="M13" s="57"/>
-      <c r="N13" s="57"/>
-      <c r="O13" s="57"/>
-      <c r="P13" s="57"/>
-      <c r="Q13" s="57"/>
-      <c r="R13" s="57"/>
-      <c r="S13" s="57"/>
-      <c r="T13" s="57"/>
-      <c r="U13" s="57"/>
-      <c r="V13" s="57"/>
-      <c r="W13" s="59"/>
-      <c r="X13" s="58"/>
-      <c r="Y13" s="58"/>
-      <c r="Z13" s="57"/>
-      <c r="AA13" s="57"/>
-      <c r="AB13" s="57"/>
-      <c r="AC13" s="57"/>
-      <c r="AD13" s="57"/>
-      <c r="AE13" s="57"/>
-      <c r="AF13" s="57"/>
-      <c r="AG13" s="57"/>
-      <c r="AH13" s="58"/>
-      <c r="AI13" s="58"/>
-      <c r="AJ13" s="58"/>
-      <c r="AK13" s="57"/>
-      <c r="AL13" s="57"/>
-      <c r="AM13" s="57"/>
-      <c r="AN13" s="57"/>
-      <c r="AO13" s="59"/>
-      <c r="AP13" s="58"/>
-      <c r="AQ13" s="58"/>
-      <c r="AR13" s="58"/>
-      <c r="AS13" s="58"/>
-      <c r="AT13" s="57"/>
-      <c r="AU13" s="57"/>
-      <c r="AV13" s="57"/>
-      <c r="AW13" s="57"/>
-      <c r="AX13" s="58"/>
-      <c r="AY13" s="58"/>
-      <c r="AZ13" s="58"/>
-      <c r="BA13" s="58"/>
-      <c r="BB13" s="60"/>
-      <c r="BC13" s="60"/>
-      <c r="BD13" s="60"/>
-      <c r="BE13" s="60"/>
+      <c r="A13" s="58"/>
+      <c r="B13" s="59"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="60"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="59"/>
+      <c r="O13" s="59"/>
+      <c r="P13" s="59"/>
+      <c r="Q13" s="59"/>
+      <c r="R13" s="59"/>
+      <c r="S13" s="59"/>
+      <c r="T13" s="59"/>
+      <c r="U13" s="59"/>
+      <c r="V13" s="59"/>
+      <c r="W13" s="61"/>
+      <c r="X13" s="60"/>
+      <c r="Y13" s="60"/>
+      <c r="Z13" s="59"/>
+      <c r="AA13" s="59"/>
+      <c r="AB13" s="59"/>
+      <c r="AC13" s="59"/>
+      <c r="AD13" s="59"/>
+      <c r="AE13" s="59"/>
+      <c r="AF13" s="59"/>
+      <c r="AG13" s="59"/>
+      <c r="AH13" s="60"/>
+      <c r="AI13" s="60"/>
+      <c r="AJ13" s="60"/>
+      <c r="AK13" s="59"/>
+      <c r="AL13" s="59"/>
+      <c r="AM13" s="59"/>
+      <c r="AN13" s="59"/>
+      <c r="AO13" s="61"/>
+      <c r="AP13" s="60"/>
+      <c r="AQ13" s="60"/>
+      <c r="AR13" s="60"/>
+      <c r="AS13" s="60"/>
+      <c r="AT13" s="59"/>
+      <c r="AU13" s="59"/>
+      <c r="AV13" s="59"/>
+      <c r="AW13" s="59"/>
+      <c r="AX13" s="60"/>
+      <c r="AY13" s="60"/>
+      <c r="AZ13" s="60"/>
+      <c r="BA13" s="60"/>
+      <c r="BB13" s="62"/>
+      <c r="BC13" s="62"/>
+      <c r="BD13" s="62"/>
+      <c r="BE13" s="62"/>
     </row>
     <row r="14" spans="1:57" ht="13.2">
-      <c r="A14" s="56"/>
-      <c r="B14" s="57"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="57"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="57"/>
-      <c r="L14" s="58"/>
-      <c r="M14" s="57"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="57"/>
-      <c r="P14" s="57"/>
-      <c r="Q14" s="57"/>
-      <c r="R14" s="57"/>
-      <c r="S14" s="57"/>
-      <c r="T14" s="57"/>
-      <c r="U14" s="57"/>
-      <c r="V14" s="57"/>
-      <c r="W14" s="59"/>
-      <c r="X14" s="58"/>
-      <c r="Y14" s="58"/>
-      <c r="Z14" s="57"/>
-      <c r="AA14" s="57"/>
-      <c r="AB14" s="57"/>
-      <c r="AC14" s="57"/>
-      <c r="AD14" s="57"/>
-      <c r="AE14" s="57"/>
-      <c r="AF14" s="57"/>
-      <c r="AG14" s="57"/>
-      <c r="AH14" s="58"/>
-      <c r="AI14" s="58"/>
-      <c r="AJ14" s="58"/>
-      <c r="AK14" s="57"/>
-      <c r="AL14" s="57"/>
-      <c r="AM14" s="57"/>
-      <c r="AN14" s="57"/>
-      <c r="AO14" s="59"/>
-      <c r="AP14" s="58"/>
-      <c r="AQ14" s="58"/>
-      <c r="AR14" s="58"/>
-      <c r="AS14" s="58"/>
-      <c r="AT14" s="57"/>
-      <c r="AU14" s="57"/>
-      <c r="AV14" s="57"/>
-      <c r="AW14" s="57"/>
-      <c r="AX14" s="58"/>
-      <c r="AY14" s="58"/>
-      <c r="AZ14" s="58"/>
-      <c r="BA14" s="58"/>
-      <c r="BB14" s="60"/>
-      <c r="BC14" s="60"/>
-      <c r="BD14" s="60"/>
-      <c r="BE14" s="60"/>
+      <c r="A14" s="58"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="59"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="59"/>
+      <c r="N14" s="59"/>
+      <c r="O14" s="59"/>
+      <c r="P14" s="59"/>
+      <c r="Q14" s="59"/>
+      <c r="R14" s="59"/>
+      <c r="S14" s="59"/>
+      <c r="T14" s="59"/>
+      <c r="U14" s="59"/>
+      <c r="V14" s="59"/>
+      <c r="W14" s="61"/>
+      <c r="X14" s="60"/>
+      <c r="Y14" s="60"/>
+      <c r="Z14" s="59"/>
+      <c r="AA14" s="59"/>
+      <c r="AB14" s="59"/>
+      <c r="AC14" s="59"/>
+      <c r="AD14" s="59"/>
+      <c r="AE14" s="59"/>
+      <c r="AF14" s="59"/>
+      <c r="AG14" s="59"/>
+      <c r="AH14" s="60"/>
+      <c r="AI14" s="60"/>
+      <c r="AJ14" s="60"/>
+      <c r="AK14" s="59"/>
+      <c r="AL14" s="59"/>
+      <c r="AM14" s="59"/>
+      <c r="AN14" s="59"/>
+      <c r="AO14" s="61"/>
+      <c r="AP14" s="60"/>
+      <c r="AQ14" s="60"/>
+      <c r="AR14" s="60"/>
+      <c r="AS14" s="60"/>
+      <c r="AT14" s="59"/>
+      <c r="AU14" s="59"/>
+      <c r="AV14" s="59"/>
+      <c r="AW14" s="59"/>
+      <c r="AX14" s="60"/>
+      <c r="AY14" s="60"/>
+      <c r="AZ14" s="60"/>
+      <c r="BA14" s="60"/>
+      <c r="BB14" s="62"/>
+      <c r="BC14" s="62"/>
+      <c r="BD14" s="62"/>
+      <c r="BE14" s="62"/>
     </row>
     <row r="15" spans="1:57" ht="13.2">
-      <c r="A15" s="56"/>
-      <c r="B15" s="57"/>
-      <c r="C15" s="58"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="58"/>
-      <c r="H15" s="57"/>
-      <c r="I15" s="57"/>
-      <c r="J15" s="57"/>
-      <c r="K15" s="57"/>
-      <c r="L15" s="58"/>
-      <c r="M15" s="57"/>
-      <c r="N15" s="57"/>
-      <c r="O15" s="57"/>
-      <c r="P15" s="57"/>
-      <c r="Q15" s="57"/>
-      <c r="R15" s="57"/>
-      <c r="S15" s="57"/>
-      <c r="T15" s="57"/>
-      <c r="U15" s="57"/>
-      <c r="V15" s="57"/>
-      <c r="W15" s="59"/>
-      <c r="X15" s="58"/>
-      <c r="Y15" s="58"/>
-      <c r="Z15" s="57"/>
-      <c r="AA15" s="57"/>
-      <c r="AB15" s="57"/>
-      <c r="AC15" s="57"/>
-      <c r="AD15" s="57"/>
-      <c r="AE15" s="57"/>
-      <c r="AF15" s="57"/>
-      <c r="AG15" s="57"/>
-      <c r="AH15" s="58"/>
-      <c r="AI15" s="58"/>
-      <c r="AJ15" s="58"/>
-      <c r="AK15" s="57"/>
-      <c r="AL15" s="57"/>
-      <c r="AM15" s="57"/>
-      <c r="AN15" s="57"/>
-      <c r="AO15" s="59"/>
-      <c r="AP15" s="58"/>
-      <c r="AQ15" s="58"/>
-      <c r="AR15" s="58"/>
-      <c r="AS15" s="58"/>
-      <c r="AT15" s="57"/>
-      <c r="AU15" s="57"/>
-      <c r="AV15" s="57"/>
-      <c r="AW15" s="57"/>
-      <c r="AX15" s="58"/>
-      <c r="AY15" s="58"/>
-      <c r="AZ15" s="58"/>
-      <c r="BA15" s="58"/>
-      <c r="BB15" s="60"/>
-      <c r="BC15" s="60"/>
-      <c r="BD15" s="60"/>
-      <c r="BE15" s="60"/>
+      <c r="A15" s="58"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="60"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="59"/>
+      <c r="O15" s="59"/>
+      <c r="P15" s="59"/>
+      <c r="Q15" s="59"/>
+      <c r="R15" s="59"/>
+      <c r="S15" s="59"/>
+      <c r="T15" s="59"/>
+      <c r="U15" s="59"/>
+      <c r="V15" s="59"/>
+      <c r="W15" s="61"/>
+      <c r="X15" s="60"/>
+      <c r="Y15" s="60"/>
+      <c r="Z15" s="59"/>
+      <c r="AA15" s="59"/>
+      <c r="AB15" s="59"/>
+      <c r="AC15" s="59"/>
+      <c r="AD15" s="59"/>
+      <c r="AE15" s="59"/>
+      <c r="AF15" s="59"/>
+      <c r="AG15" s="59"/>
+      <c r="AH15" s="60"/>
+      <c r="AI15" s="60"/>
+      <c r="AJ15" s="60"/>
+      <c r="AK15" s="59"/>
+      <c r="AL15" s="59"/>
+      <c r="AM15" s="59"/>
+      <c r="AN15" s="59"/>
+      <c r="AO15" s="61"/>
+      <c r="AP15" s="60"/>
+      <c r="AQ15" s="60"/>
+      <c r="AR15" s="60"/>
+      <c r="AS15" s="60"/>
+      <c r="AT15" s="59"/>
+      <c r="AU15" s="59"/>
+      <c r="AV15" s="59"/>
+      <c r="AW15" s="59"/>
+      <c r="AX15" s="60"/>
+      <c r="AY15" s="60"/>
+      <c r="AZ15" s="60"/>
+      <c r="BA15" s="60"/>
+      <c r="BB15" s="62"/>
+      <c r="BC15" s="62"/>
+      <c r="BD15" s="62"/>
+      <c r="BE15" s="62"/>
     </row>
     <row r="16" spans="1:57" ht="13.2">
-      <c r="A16" s="56"/>
-      <c r="B16" s="57"/>
-      <c r="C16" s="58"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="57"/>
-      <c r="I16" s="57"/>
-      <c r="J16" s="57"/>
-      <c r="K16" s="57"/>
-      <c r="L16" s="58"/>
-      <c r="M16" s="57"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="57"/>
-      <c r="P16" s="57"/>
-      <c r="Q16" s="57"/>
-      <c r="R16" s="57"/>
-      <c r="S16" s="57"/>
-      <c r="T16" s="57"/>
-      <c r="U16" s="57"/>
-      <c r="V16" s="57"/>
-      <c r="W16" s="59"/>
-      <c r="X16" s="58"/>
-      <c r="Y16" s="58"/>
-      <c r="Z16" s="57"/>
-      <c r="AA16" s="57"/>
-      <c r="AB16" s="57"/>
-      <c r="AC16" s="57"/>
-      <c r="AD16" s="57"/>
-      <c r="AE16" s="57"/>
-      <c r="AF16" s="57"/>
-      <c r="AG16" s="57"/>
-      <c r="AH16" s="58"/>
-      <c r="AI16" s="58"/>
-      <c r="AJ16" s="58"/>
-      <c r="AK16" s="57"/>
-      <c r="AL16" s="57"/>
-      <c r="AM16" s="57"/>
-      <c r="AN16" s="57"/>
-      <c r="AO16" s="59"/>
-      <c r="AP16" s="58"/>
-      <c r="AQ16" s="58"/>
-      <c r="AR16" s="58"/>
-      <c r="AS16" s="58"/>
-      <c r="AT16" s="57"/>
-      <c r="AU16" s="57"/>
-      <c r="AV16" s="57"/>
-      <c r="AW16" s="57"/>
-      <c r="AX16" s="58"/>
-      <c r="AY16" s="58"/>
-      <c r="AZ16" s="58"/>
-      <c r="BA16" s="58"/>
-      <c r="BB16" s="60"/>
-      <c r="BC16" s="60"/>
-      <c r="BD16" s="60"/>
-      <c r="BE16" s="60"/>
+      <c r="A16" s="58"/>
+      <c r="B16" s="59"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="59"/>
+      <c r="J16" s="59"/>
+      <c r="K16" s="59"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="59"/>
+      <c r="N16" s="59"/>
+      <c r="O16" s="59"/>
+      <c r="P16" s="59"/>
+      <c r="Q16" s="59"/>
+      <c r="R16" s="59"/>
+      <c r="S16" s="59"/>
+      <c r="T16" s="59"/>
+      <c r="U16" s="59"/>
+      <c r="V16" s="59"/>
+      <c r="W16" s="61"/>
+      <c r="X16" s="60"/>
+      <c r="Y16" s="60"/>
+      <c r="Z16" s="59"/>
+      <c r="AA16" s="59"/>
+      <c r="AB16" s="59"/>
+      <c r="AC16" s="59"/>
+      <c r="AD16" s="59"/>
+      <c r="AE16" s="59"/>
+      <c r="AF16" s="59"/>
+      <c r="AG16" s="59"/>
+      <c r="AH16" s="60"/>
+      <c r="AI16" s="60"/>
+      <c r="AJ16" s="60"/>
+      <c r="AK16" s="59"/>
+      <c r="AL16" s="59"/>
+      <c r="AM16" s="59"/>
+      <c r="AN16" s="59"/>
+      <c r="AO16" s="61"/>
+      <c r="AP16" s="60"/>
+      <c r="AQ16" s="60"/>
+      <c r="AR16" s="60"/>
+      <c r="AS16" s="60"/>
+      <c r="AT16" s="59"/>
+      <c r="AU16" s="59"/>
+      <c r="AV16" s="59"/>
+      <c r="AW16" s="59"/>
+      <c r="AX16" s="60"/>
+      <c r="AY16" s="60"/>
+      <c r="AZ16" s="60"/>
+      <c r="BA16" s="60"/>
+      <c r="BB16" s="62"/>
+      <c r="BC16" s="62"/>
+      <c r="BD16" s="62"/>
+      <c r="BE16" s="62"/>
     </row>
     <row r="17" spans="1:57" ht="13.2">
-      <c r="A17" s="56"/>
-      <c r="B17" s="57"/>
-      <c r="C17" s="58"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="57"/>
-      <c r="I17" s="57"/>
-      <c r="J17" s="57"/>
-      <c r="K17" s="57"/>
-      <c r="L17" s="58"/>
-      <c r="M17" s="57"/>
-      <c r="N17" s="57"/>
-      <c r="O17" s="57"/>
-      <c r="P17" s="57"/>
-      <c r="Q17" s="57"/>
-      <c r="R17" s="57"/>
-      <c r="S17" s="57"/>
-      <c r="T17" s="57"/>
-      <c r="U17" s="57"/>
-      <c r="V17" s="57"/>
-      <c r="W17" s="59"/>
-      <c r="X17" s="58"/>
-      <c r="Y17" s="58"/>
-      <c r="Z17" s="57"/>
-      <c r="AA17" s="57"/>
-      <c r="AB17" s="57"/>
-      <c r="AC17" s="57"/>
-      <c r="AD17" s="57"/>
-      <c r="AE17" s="57"/>
-      <c r="AF17" s="57"/>
-      <c r="AG17" s="57"/>
-      <c r="AH17" s="58"/>
-      <c r="AI17" s="58"/>
-      <c r="AJ17" s="58"/>
-      <c r="AK17" s="57"/>
-      <c r="AL17" s="57"/>
-      <c r="AM17" s="57"/>
-      <c r="AN17" s="57"/>
-      <c r="AO17" s="59"/>
-      <c r="AP17" s="58"/>
-      <c r="AQ17" s="58"/>
-      <c r="AR17" s="58"/>
-      <c r="AS17" s="58"/>
-      <c r="AT17" s="57"/>
-      <c r="AU17" s="57"/>
-      <c r="AV17" s="57"/>
-      <c r="AW17" s="57"/>
-      <c r="AX17" s="58"/>
-      <c r="AY17" s="58"/>
-      <c r="AZ17" s="58"/>
-      <c r="BA17" s="58"/>
-      <c r="BB17" s="60"/>
-      <c r="BC17" s="60"/>
-      <c r="BD17" s="60"/>
-      <c r="BE17" s="60"/>
+      <c r="A17" s="58"/>
+      <c r="B17" s="59"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="60"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="59"/>
+      <c r="O17" s="59"/>
+      <c r="P17" s="59"/>
+      <c r="Q17" s="59"/>
+      <c r="R17" s="59"/>
+      <c r="S17" s="59"/>
+      <c r="T17" s="59"/>
+      <c r="U17" s="59"/>
+      <c r="V17" s="59"/>
+      <c r="W17" s="61"/>
+      <c r="X17" s="60"/>
+      <c r="Y17" s="60"/>
+      <c r="Z17" s="59"/>
+      <c r="AA17" s="59"/>
+      <c r="AB17" s="59"/>
+      <c r="AC17" s="59"/>
+      <c r="AD17" s="59"/>
+      <c r="AE17" s="59"/>
+      <c r="AF17" s="59"/>
+      <c r="AG17" s="59"/>
+      <c r="AH17" s="60"/>
+      <c r="AI17" s="60"/>
+      <c r="AJ17" s="60"/>
+      <c r="AK17" s="59"/>
+      <c r="AL17" s="59"/>
+      <c r="AM17" s="59"/>
+      <c r="AN17" s="59"/>
+      <c r="AO17" s="61"/>
+      <c r="AP17" s="60"/>
+      <c r="AQ17" s="60"/>
+      <c r="AR17" s="60"/>
+      <c r="AS17" s="60"/>
+      <c r="AT17" s="59"/>
+      <c r="AU17" s="59"/>
+      <c r="AV17" s="59"/>
+      <c r="AW17" s="59"/>
+      <c r="AX17" s="60"/>
+      <c r="AY17" s="60"/>
+      <c r="AZ17" s="60"/>
+      <c r="BA17" s="60"/>
+      <c r="BB17" s="62"/>
+      <c r="BC17" s="62"/>
+      <c r="BD17" s="62"/>
+      <c r="BE17" s="62"/>
     </row>
     <row r="18" spans="1:57" ht="13.2">
-      <c r="A18" s="56"/>
-      <c r="B18" s="57"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="58"/>
-      <c r="H18" s="57"/>
-      <c r="I18" s="57"/>
-      <c r="J18" s="57"/>
-      <c r="K18" s="57"/>
-      <c r="L18" s="58"/>
-      <c r="M18" s="57"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="57"/>
-      <c r="P18" s="57"/>
-      <c r="Q18" s="57"/>
-      <c r="R18" s="57"/>
-      <c r="S18" s="57"/>
-      <c r="T18" s="57"/>
-      <c r="U18" s="57"/>
-      <c r="V18" s="57"/>
-      <c r="W18" s="59"/>
-      <c r="X18" s="58"/>
-      <c r="Y18" s="58"/>
-      <c r="Z18" s="57"/>
-      <c r="AA18" s="57"/>
-      <c r="AB18" s="57"/>
-      <c r="AC18" s="57"/>
-      <c r="AD18" s="57"/>
-      <c r="AE18" s="57"/>
-      <c r="AF18" s="57"/>
-      <c r="AG18" s="57"/>
-      <c r="AH18" s="58"/>
-      <c r="AI18" s="58"/>
-      <c r="AJ18" s="58"/>
-      <c r="AK18" s="57"/>
-      <c r="AL18" s="57"/>
-      <c r="AM18" s="57"/>
-      <c r="AN18" s="57"/>
-      <c r="AO18" s="59"/>
-      <c r="AP18" s="58"/>
-      <c r="AQ18" s="58"/>
-      <c r="AR18" s="58"/>
-      <c r="AS18" s="58"/>
-      <c r="AT18" s="57"/>
-      <c r="AU18" s="57"/>
-      <c r="AV18" s="57"/>
-      <c r="AW18" s="57"/>
-      <c r="AX18" s="58"/>
-      <c r="AY18" s="58"/>
-      <c r="AZ18" s="58"/>
-      <c r="BA18" s="58"/>
-      <c r="BB18" s="60"/>
-      <c r="BC18" s="60"/>
-      <c r="BD18" s="60"/>
-      <c r="BE18" s="60"/>
+      <c r="A18" s="58"/>
+      <c r="B18" s="59"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="59"/>
+      <c r="K18" s="59"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="59"/>
+      <c r="N18" s="59"/>
+      <c r="O18" s="59"/>
+      <c r="P18" s="59"/>
+      <c r="Q18" s="59"/>
+      <c r="R18" s="59"/>
+      <c r="S18" s="59"/>
+      <c r="T18" s="59"/>
+      <c r="U18" s="59"/>
+      <c r="V18" s="59"/>
+      <c r="W18" s="61"/>
+      <c r="X18" s="60"/>
+      <c r="Y18" s="60"/>
+      <c r="Z18" s="59"/>
+      <c r="AA18" s="59"/>
+      <c r="AB18" s="59"/>
+      <c r="AC18" s="59"/>
+      <c r="AD18" s="59"/>
+      <c r="AE18" s="59"/>
+      <c r="AF18" s="59"/>
+      <c r="AG18" s="59"/>
+      <c r="AH18" s="60"/>
+      <c r="AI18" s="60"/>
+      <c r="AJ18" s="60"/>
+      <c r="AK18" s="59"/>
+      <c r="AL18" s="59"/>
+      <c r="AM18" s="59"/>
+      <c r="AN18" s="59"/>
+      <c r="AO18" s="61"/>
+      <c r="AP18" s="60"/>
+      <c r="AQ18" s="60"/>
+      <c r="AR18" s="60"/>
+      <c r="AS18" s="60"/>
+      <c r="AT18" s="59"/>
+      <c r="AU18" s="59"/>
+      <c r="AV18" s="59"/>
+      <c r="AW18" s="59"/>
+      <c r="AX18" s="60"/>
+      <c r="AY18" s="60"/>
+      <c r="AZ18" s="60"/>
+      <c r="BA18" s="60"/>
+      <c r="BB18" s="62"/>
+      <c r="BC18" s="62"/>
+      <c r="BD18" s="62"/>
+      <c r="BE18" s="62"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="AV3:AW3"/>
+    <mergeCell ref="AG4:AH4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6690,186 +6683,186 @@
       <c r="A2" s="33" t="s">
         <v>159</v>
       </c>
-      <c r="B2" s="61" t="s">
-        <v>219</v>
-      </c>
-      <c r="C2" s="61" t="s">
+      <c r="B2" s="63" t="s">
         <v>220</v>
       </c>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
+      <c r="C2" s="63" t="s">
+        <v>221</v>
+      </c>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="33" t="s">
         <v>164</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="33" t="s">
         <v>170</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="64" t="s">
-        <v>221</v>
-      </c>
-      <c r="D4" s="64" t="s">
+      <c r="B4" s="64"/>
+      <c r="C4" s="66" t="s">
         <v>222</v>
       </c>
-      <c r="E4" s="64" t="s">
+      <c r="D4" s="66" t="s">
         <v>223</v>
       </c>
+      <c r="E4" s="66" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="39" t="s">
-        <v>174</v>
-      </c>
-      <c r="B5" s="65"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="40"/>
+      <c r="A5" s="41" t="s">
+        <v>175</v>
+      </c>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="42"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="41" t="s">
-        <v>224</v>
-      </c>
-      <c r="B6" s="43" t="s">
-        <v>224</v>
-      </c>
-      <c r="C6" s="42" t="s">
+      <c r="A6" s="43" t="s">
         <v>225</v>
       </c>
-      <c r="D6" s="42" t="s">
-        <v>177</v>
-      </c>
-      <c r="E6" s="42" t="s">
-        <v>177</v>
+      <c r="B6" s="45" t="s">
+        <v>225</v>
+      </c>
+      <c r="C6" s="44" t="s">
+        <v>226</v>
+      </c>
+      <c r="D6" s="44" t="s">
+        <v>178</v>
+      </c>
+      <c r="E6" s="44" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="41" t="s">
-        <v>224</v>
-      </c>
-      <c r="B7" s="43" t="s">
-        <v>224</v>
-      </c>
-      <c r="C7" s="42" t="s">
-        <v>226</v>
-      </c>
-      <c r="D7" s="42" t="s">
-        <v>177</v>
-      </c>
-      <c r="E7" s="42" t="s">
-        <v>177</v>
+      <c r="A7" s="43" t="s">
+        <v>225</v>
+      </c>
+      <c r="B7" s="45" t="s">
+        <v>225</v>
+      </c>
+      <c r="C7" s="44" t="s">
+        <v>227</v>
+      </c>
+      <c r="D7" s="44" t="s">
+        <v>178</v>
+      </c>
+      <c r="E7" s="44" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="51" t="s">
-        <v>227</v>
-      </c>
-      <c r="B8" s="43" t="s">
-        <v>227</v>
-      </c>
-      <c r="C8" s="42" t="s">
+      <c r="A8" s="53" t="s">
         <v>228</v>
       </c>
-      <c r="D8" s="66">
+      <c r="B8" s="45" t="s">
+        <v>228</v>
+      </c>
+      <c r="C8" s="44" t="s">
+        <v>229</v>
+      </c>
+      <c r="D8" s="68">
         <v>44562</v>
       </c>
-      <c r="E8" s="66">
+      <c r="E8" s="68">
         <v>45658</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="51" t="s">
-        <v>227</v>
-      </c>
-      <c r="B9" s="43" t="s">
-        <v>227</v>
-      </c>
-      <c r="C9" s="42" t="s">
-        <v>229</v>
-      </c>
-      <c r="D9" s="66">
+      <c r="A9" s="53" t="s">
+        <v>228</v>
+      </c>
+      <c r="B9" s="45" t="s">
+        <v>228</v>
+      </c>
+      <c r="C9" s="44" t="s">
+        <v>230</v>
+      </c>
+      <c r="D9" s="68">
         <v>44562</v>
       </c>
-      <c r="E9" s="66">
+      <c r="E9" s="68">
         <v>46023</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="41" t="s">
-        <v>230</v>
-      </c>
-      <c r="B10" s="43" t="s">
-        <v>230</v>
-      </c>
-      <c r="C10" s="42" t="s">
+      <c r="A10" s="43" t="s">
         <v>231</v>
       </c>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
+      <c r="B10" s="45" t="s">
+        <v>231</v>
+      </c>
+      <c r="C10" s="44" t="s">
+        <v>232</v>
+      </c>
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="41" t="s">
-        <v>230</v>
-      </c>
-      <c r="B11" s="43" t="s">
-        <v>230</v>
-      </c>
-      <c r="C11" s="42" t="s">
-        <v>232</v>
-      </c>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
+      <c r="A11" s="43" t="s">
+        <v>231</v>
+      </c>
+      <c r="B11" s="45" t="s">
+        <v>231</v>
+      </c>
+      <c r="C11" s="44" t="s">
+        <v>233</v>
+      </c>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="41" t="s">
-        <v>233</v>
-      </c>
-      <c r="B12" s="43" t="s">
-        <v>233</v>
-      </c>
-      <c r="C12" s="42" t="s">
-        <v>233</v>
-      </c>
-      <c r="D12" s="67">
+      <c r="A12" s="43" t="s">
+        <v>234</v>
+      </c>
+      <c r="B12" s="45" t="s">
+        <v>234</v>
+      </c>
+      <c r="C12" s="44" t="s">
+        <v>234</v>
+      </c>
+      <c r="D12" s="69">
         <v>44927</v>
       </c>
-      <c r="E12" s="67">
+      <c r="E12" s="69">
         <v>46388</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="56"/>
-      <c r="B13" s="57"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
+      <c r="A13" s="58"/>
+      <c r="B13" s="59"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="56"/>
-      <c r="B14" s="57"/>
-      <c r="C14" s="57"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
+      <c r="A14" s="58"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="56"/>
-      <c r="B15" s="57"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
+      <c r="A15" s="58"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="56"/>
-      <c r="B16" s="57"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
+      <c r="A16" s="58"/>
+      <c r="B16" s="59"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6918,14 +6911,14 @@
       <c r="A2" s="33" t="s">
         <v>159</v>
       </c>
-      <c r="B2" s="61" t="s">
-        <v>219</v>
+      <c r="B2" s="63" t="s">
+        <v>220</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>234</v>
-      </c>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
+        <v>235</v>
+      </c>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
       <c r="F2" s="34"/>
     </row>
     <row r="3" spans="1:6">
@@ -6943,154 +6936,154 @@
         <v>170</v>
       </c>
       <c r="B4" s="34"/>
-      <c r="C4" s="64" t="s">
-        <v>235</v>
-      </c>
-      <c r="D4" s="64" t="s">
+      <c r="C4" s="66" t="s">
         <v>236</v>
       </c>
-      <c r="E4" s="64" t="s">
+      <c r="D4" s="66" t="s">
         <v>237</v>
       </c>
-      <c r="F4" s="64" t="s">
+      <c r="E4" s="66" t="s">
         <v>238</v>
       </c>
+      <c r="F4" s="66" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="39" t="s">
-        <v>174</v>
-      </c>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
+      <c r="A5" s="41" t="s">
+        <v>175</v>
+      </c>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="41" t="s">
-        <v>239</v>
-      </c>
-      <c r="B6" s="43" t="s">
-        <v>239</v>
-      </c>
-      <c r="C6" s="42" t="s">
+      <c r="A6" s="43" t="s">
         <v>240</v>
       </c>
-      <c r="D6" s="42" t="s">
+      <c r="B6" s="45" t="s">
+        <v>240</v>
+      </c>
+      <c r="C6" s="44" t="s">
         <v>241</v>
       </c>
-      <c r="E6" s="42" t="s">
-        <v>177</v>
-      </c>
-      <c r="F6" s="42" t="s">
-        <v>177</v>
+      <c r="D6" s="44" t="s">
+        <v>242</v>
+      </c>
+      <c r="E6" s="44" t="s">
+        <v>178</v>
+      </c>
+      <c r="F6" s="44" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="41" t="s">
-        <v>239</v>
-      </c>
-      <c r="B7" s="43" t="s">
-        <v>239</v>
-      </c>
-      <c r="C7" s="42" t="s">
-        <v>242</v>
-      </c>
-      <c r="D7" s="42" t="s">
+      <c r="A7" s="43" t="s">
+        <v>240</v>
+      </c>
+      <c r="B7" s="45" t="s">
+        <v>240</v>
+      </c>
+      <c r="C7" s="44" t="s">
         <v>243</v>
       </c>
-      <c r="E7" s="42" t="s">
-        <v>177</v>
-      </c>
-      <c r="F7" s="42" t="s">
-        <v>177</v>
+      <c r="D7" s="44" t="s">
+        <v>244</v>
+      </c>
+      <c r="E7" s="44" t="s">
+        <v>178</v>
+      </c>
+      <c r="F7" s="44" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="51" t="s">
-        <v>244</v>
-      </c>
-      <c r="B8" s="43" t="s">
-        <v>244</v>
-      </c>
-      <c r="C8" s="42" t="s">
+      <c r="A8" s="53" t="s">
         <v>245</v>
       </c>
-      <c r="D8" s="42" t="s">
+      <c r="B8" s="45" t="s">
+        <v>245</v>
+      </c>
+      <c r="C8" s="44" t="s">
         <v>246</v>
       </c>
-      <c r="E8" s="66">
+      <c r="D8" s="44" t="s">
+        <v>247</v>
+      </c>
+      <c r="E8" s="68">
         <v>44562</v>
       </c>
-      <c r="F8" s="66">
+      <c r="F8" s="68">
         <v>45658</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="51" t="s">
-        <v>244</v>
-      </c>
-      <c r="B9" s="43" t="s">
-        <v>244</v>
-      </c>
-      <c r="C9" s="42" t="s">
-        <v>247</v>
-      </c>
-      <c r="D9" s="42" t="s">
+      <c r="A9" s="53" t="s">
+        <v>245</v>
+      </c>
+      <c r="B9" s="45" t="s">
+        <v>245</v>
+      </c>
+      <c r="C9" s="44" t="s">
         <v>248</v>
       </c>
-      <c r="E9" s="66">
+      <c r="D9" s="44" t="s">
+        <v>249</v>
+      </c>
+      <c r="E9" s="68">
         <v>44562</v>
       </c>
-      <c r="F9" s="66">
+      <c r="F9" s="68">
         <v>46023</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="41" t="s">
-        <v>249</v>
-      </c>
-      <c r="B10" s="43" t="s">
-        <v>249</v>
-      </c>
-      <c r="C10" s="42" t="s">
+      <c r="A10" s="43" t="s">
         <v>250</v>
       </c>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
+      <c r="B10" s="45" t="s">
+        <v>250</v>
+      </c>
+      <c r="C10" s="44" t="s">
+        <v>251</v>
+      </c>
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="41" t="s">
-        <v>249</v>
-      </c>
-      <c r="B11" s="43" t="s">
-        <v>249</v>
-      </c>
-      <c r="C11" s="42" t="s">
-        <v>251</v>
-      </c>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="49"/>
+      <c r="A11" s="43" t="s">
+        <v>250</v>
+      </c>
+      <c r="B11" s="45" t="s">
+        <v>250</v>
+      </c>
+      <c r="C11" s="44" t="s">
+        <v>252</v>
+      </c>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="51"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="41" t="s">
-        <v>252</v>
-      </c>
-      <c r="B12" s="43" t="s">
-        <v>252</v>
-      </c>
-      <c r="C12" s="42" t="s">
-        <v>252</v>
-      </c>
-      <c r="D12" s="42" t="s">
+      <c r="A12" s="43" t="s">
         <v>253</v>
       </c>
-      <c r="E12" s="67">
+      <c r="B12" s="45" t="s">
+        <v>253</v>
+      </c>
+      <c r="C12" s="44" t="s">
+        <v>253</v>
+      </c>
+      <c r="D12" s="44" t="s">
+        <v>254</v>
+      </c>
+      <c r="E12" s="69">
         <v>44927</v>
       </c>
-      <c r="F12" s="67">
+      <c r="F12" s="69">
         <v>46388</v>
       </c>
     </row>
@@ -7144,7 +7137,7 @@
       <c r="I1" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="J1" s="69" t="s">
+      <c r="J1" s="71" t="s">
         <v>149</v>
       </c>
       <c r="K1" s="28" t="s">
@@ -7154,10 +7147,10 @@
         <v>115</v>
       </c>
       <c r="M1" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="N1" s="28" t="s">
         <v>119</v>
-      </c>
-      <c r="N1" s="28" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -7167,11 +7160,11 @@
       <c r="B2" s="34"/>
       <c r="C2" s="34"/>
       <c r="D2" s="35" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E2" s="34"/>
       <c r="F2" s="35" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G2" s="34"/>
       <c r="H2" s="34"/>
@@ -7189,7 +7182,7 @@
       <c r="B3" s="34"/>
       <c r="C3" s="34"/>
       <c r="D3" s="35" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E3" s="34"/>
       <c r="F3" s="34"/>
@@ -7204,23 +7197,23 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="33" t="s">
-        <v>256</v>
-      </c>
-      <c r="B4" s="61" t="s">
         <v>257</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70"/>
-      <c r="K4" s="70"/>
-      <c r="L4" s="70"/>
-      <c r="M4" s="70"/>
-      <c r="N4" s="70"/>
+      <c r="B4" s="63" t="s">
+        <v>258</v>
+      </c>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="72"/>
+      <c r="L4" s="72"/>
+      <c r="M4" s="72"/>
+      <c r="N4" s="72"/>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="33" t="s">
@@ -7228,368 +7221,367 @@
       </c>
       <c r="B5" s="34"/>
       <c r="C5" s="34"/>
-      <c r="D5" s="100" t="s">
-        <v>258</v>
-      </c>
-      <c r="E5" s="101"/>
-      <c r="F5" s="101"/>
-      <c r="G5" s="101"/>
+      <c r="D5" s="101" t="s">
+        <v>259</v>
+      </c>
+      <c r="E5" s="102"/>
+      <c r="F5" s="102"/>
+      <c r="G5" s="102"/>
       <c r="H5" s="38" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I5" s="35" t="s">
-        <v>260</v>
-      </c>
-      <c r="J5" s="100" t="s">
         <v>261</v>
       </c>
-      <c r="K5" s="101"/>
-      <c r="L5" s="101"/>
-      <c r="M5" s="101"/>
-      <c r="N5" s="101"/>
+      <c r="J5" s="38" t="s">
+        <v>262</v>
+      </c>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="38"/>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="39" t="s">
-        <v>174</v>
-      </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="40"/>
+      <c r="A6" s="41" t="s">
+        <v>175</v>
+      </c>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="42"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="41" t="s">
-        <v>262</v>
-      </c>
-      <c r="B7" s="43" t="s">
+      <c r="A7" s="43" t="s">
         <v>263</v>
       </c>
-      <c r="C7" s="71">
+      <c r="B7" s="45" t="s">
+        <v>264</v>
+      </c>
+      <c r="C7" s="73">
         <v>0</v>
       </c>
-      <c r="D7" s="42" t="s">
+      <c r="D7" s="44" t="s">
+        <v>265</v>
+      </c>
+      <c r="E7" s="45" t="s">
+        <v>266</v>
+      </c>
+      <c r="F7" s="44" t="s">
+        <v>263</v>
+      </c>
+      <c r="G7" s="45" t="s">
+        <v>187</v>
+      </c>
+      <c r="H7" s="44" t="s">
+        <v>178</v>
+      </c>
+      <c r="I7" s="44" t="s">
+        <v>178</v>
+      </c>
+      <c r="J7" s="45" t="s">
+        <v>185</v>
+      </c>
+      <c r="K7" s="45" t="s">
+        <v>187</v>
+      </c>
+      <c r="L7" s="45" t="s">
+        <v>187</v>
+      </c>
+      <c r="M7" s="45" t="s">
+        <v>189</v>
+      </c>
+      <c r="N7" s="45" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="43" t="s">
+        <v>263</v>
+      </c>
+      <c r="B8" s="45" t="s">
         <v>264</v>
       </c>
-      <c r="E7" s="43" t="s">
-        <v>265</v>
-      </c>
-      <c r="F7" s="42" t="s">
-        <v>262</v>
-      </c>
-      <c r="G7" s="43" t="s">
+      <c r="C8" s="73">
+        <v>0</v>
+      </c>
+      <c r="D8" s="44" t="s">
+        <v>267</v>
+      </c>
+      <c r="E8" s="45" t="s">
+        <v>266</v>
+      </c>
+      <c r="F8" s="44" t="s">
+        <v>263</v>
+      </c>
+      <c r="G8" s="45" t="s">
+        <v>187</v>
+      </c>
+      <c r="H8" s="44" t="s">
+        <v>178</v>
+      </c>
+      <c r="I8" s="44" t="s">
+        <v>178</v>
+      </c>
+      <c r="J8" s="45" t="s">
         <v>186</v>
       </c>
-      <c r="H7" s="42" t="s">
-        <v>177</v>
-      </c>
-      <c r="I7" s="42" t="s">
-        <v>177</v>
-      </c>
-      <c r="J7" s="43" t="s">
-        <v>184</v>
-      </c>
-      <c r="K7" s="43" t="s">
+      <c r="K8" s="45" t="s">
+        <v>187</v>
+      </c>
+      <c r="L8" s="45" t="s">
+        <v>187</v>
+      </c>
+      <c r="M8" s="45" t="s">
+        <v>189</v>
+      </c>
+      <c r="N8" s="45" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="53" t="s">
+        <v>268</v>
+      </c>
+      <c r="B9" s="73">
+        <v>1001</v>
+      </c>
+      <c r="C9" s="73">
+        <v>0</v>
+      </c>
+      <c r="D9" s="49" t="s">
+        <v>269</v>
+      </c>
+      <c r="E9" s="45" t="s">
+        <v>266</v>
+      </c>
+      <c r="F9" s="44" t="s">
+        <v>268</v>
+      </c>
+      <c r="G9" s="45" t="s">
+        <v>187</v>
+      </c>
+      <c r="H9" s="74">
+        <v>44562</v>
+      </c>
+      <c r="I9" s="74">
+        <v>45659</v>
+      </c>
+      <c r="J9" s="75" t="s">
         <v>186</v>
       </c>
-      <c r="L7" s="43" t="s">
+      <c r="K9" s="45" t="s">
+        <v>187</v>
+      </c>
+      <c r="L9" s="45" t="s">
+        <v>187</v>
+      </c>
+      <c r="M9" s="45" t="s">
+        <v>189</v>
+      </c>
+      <c r="N9" s="45" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="53" t="s">
+        <v>268</v>
+      </c>
+      <c r="B10" s="73">
+        <v>1002</v>
+      </c>
+      <c r="C10" s="73">
+        <v>0</v>
+      </c>
+      <c r="D10" s="44" t="s">
+        <v>270</v>
+      </c>
+      <c r="E10" s="45" t="s">
+        <v>266</v>
+      </c>
+      <c r="F10" s="44" t="s">
+        <v>268</v>
+      </c>
+      <c r="G10" s="45" t="s">
+        <v>187</v>
+      </c>
+      <c r="H10" s="74">
+        <v>44562</v>
+      </c>
+      <c r="I10" s="74">
+        <v>46025</v>
+      </c>
+      <c r="J10" s="75" t="s">
+        <v>185</v>
+      </c>
+      <c r="K10" s="45" t="s">
+        <v>187</v>
+      </c>
+      <c r="L10" s="45" t="s">
+        <v>187</v>
+      </c>
+      <c r="M10" s="45" t="s">
+        <v>189</v>
+      </c>
+      <c r="N10" s="45" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="43" t="s">
+        <v>271</v>
+      </c>
+      <c r="B11" s="73">
+        <v>1003</v>
+      </c>
+      <c r="C11" s="56"/>
+      <c r="D11" s="44" t="s">
+        <v>272</v>
+      </c>
+      <c r="E11" s="56"/>
+      <c r="F11" s="44" t="s">
+        <v>271</v>
+      </c>
+      <c r="G11" s="56"/>
+      <c r="H11" s="76"/>
+      <c r="I11" s="76"/>
+      <c r="J11" s="45" t="s">
+        <v>185</v>
+      </c>
+      <c r="K11" s="56"/>
+      <c r="L11" s="56"/>
+      <c r="M11" s="56"/>
+      <c r="N11" s="56"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="43" t="s">
+        <v>271</v>
+      </c>
+      <c r="B12" s="73">
+        <v>1004</v>
+      </c>
+      <c r="C12" s="51"/>
+      <c r="D12" s="44" t="s">
+        <v>273</v>
+      </c>
+      <c r="E12" s="51"/>
+      <c r="F12" s="44" t="s">
+        <v>271</v>
+      </c>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="45" t="s">
         <v>186</v>
       </c>
-      <c r="M7" s="43" t="s">
-        <v>188</v>
-      </c>
-      <c r="N7" s="43" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="41" t="s">
-        <v>262</v>
-      </c>
-      <c r="B8" s="43" t="s">
-        <v>263</v>
-      </c>
-      <c r="C8" s="71">
+      <c r="K12" s="51"/>
+      <c r="L12" s="51"/>
+      <c r="M12" s="51"/>
+      <c r="N12" s="51"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="43" t="s">
+        <v>274</v>
+      </c>
+      <c r="B13" s="73">
+        <v>1005</v>
+      </c>
+      <c r="C13" s="73">
         <v>0</v>
       </c>
-      <c r="D8" s="42" t="s">
+      <c r="D13" s="44" t="s">
+        <v>275</v>
+      </c>
+      <c r="E13" s="45" t="s">
         <v>266</v>
       </c>
-      <c r="E8" s="43" t="s">
-        <v>265</v>
-      </c>
-      <c r="F8" s="42" t="s">
-        <v>262</v>
-      </c>
-      <c r="G8" s="43" t="s">
-        <v>186</v>
-      </c>
-      <c r="H8" s="42" t="s">
-        <v>177</v>
-      </c>
-      <c r="I8" s="42" t="s">
-        <v>177</v>
-      </c>
-      <c r="J8" s="43" t="s">
+      <c r="F13" s="44" t="s">
+        <v>274</v>
+      </c>
+      <c r="G13" s="45" t="s">
+        <v>187</v>
+      </c>
+      <c r="H13" s="69">
+        <v>44927</v>
+      </c>
+      <c r="I13" s="69">
+        <v>46390</v>
+      </c>
+      <c r="J13" s="45" t="s">
         <v>185</v>
       </c>
-      <c r="K8" s="43" t="s">
-        <v>186</v>
-      </c>
-      <c r="L8" s="43" t="s">
-        <v>186</v>
-      </c>
-      <c r="M8" s="43" t="s">
-        <v>188</v>
-      </c>
-      <c r="N8" s="43" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="51" t="s">
-        <v>267</v>
-      </c>
-      <c r="B9" s="71">
-        <v>1001</v>
-      </c>
-      <c r="C9" s="71">
-        <v>0</v>
-      </c>
-      <c r="D9" s="47" t="s">
-        <v>268</v>
-      </c>
-      <c r="E9" s="43" t="s">
-        <v>265</v>
-      </c>
-      <c r="F9" s="42" t="s">
-        <v>267</v>
-      </c>
-      <c r="G9" s="43" t="s">
-        <v>186</v>
-      </c>
-      <c r="H9" s="72">
-        <v>44562</v>
-      </c>
-      <c r="I9" s="72">
-        <v>45659</v>
-      </c>
-      <c r="J9" s="73" t="s">
-        <v>185</v>
-      </c>
-      <c r="K9" s="43" t="s">
-        <v>186</v>
-      </c>
-      <c r="L9" s="43" t="s">
-        <v>186</v>
-      </c>
-      <c r="M9" s="43" t="s">
-        <v>188</v>
-      </c>
-      <c r="N9" s="43" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="51" t="s">
-        <v>267</v>
-      </c>
-      <c r="B10" s="71">
-        <v>1002</v>
-      </c>
-      <c r="C10" s="71">
-        <v>0</v>
-      </c>
-      <c r="D10" s="42" t="s">
-        <v>269</v>
-      </c>
-      <c r="E10" s="43" t="s">
-        <v>265</v>
-      </c>
-      <c r="F10" s="42" t="s">
-        <v>267</v>
-      </c>
-      <c r="G10" s="43" t="s">
-        <v>186</v>
-      </c>
-      <c r="H10" s="72">
-        <v>44562</v>
-      </c>
-      <c r="I10" s="72">
-        <v>46025</v>
-      </c>
-      <c r="J10" s="73" t="s">
-        <v>184</v>
-      </c>
-      <c r="K10" s="43" t="s">
-        <v>186</v>
-      </c>
-      <c r="L10" s="43" t="s">
-        <v>186</v>
-      </c>
-      <c r="M10" s="43" t="s">
-        <v>188</v>
-      </c>
-      <c r="N10" s="43" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11" s="41" t="s">
-        <v>270</v>
-      </c>
-      <c r="B11" s="71">
-        <v>1003</v>
-      </c>
-      <c r="C11" s="54"/>
-      <c r="D11" s="42" t="s">
-        <v>271</v>
-      </c>
-      <c r="E11" s="54"/>
-      <c r="F11" s="42" t="s">
-        <v>270</v>
-      </c>
-      <c r="G11" s="54"/>
-      <c r="H11" s="74"/>
-      <c r="I11" s="74"/>
-      <c r="J11" s="43" t="s">
-        <v>184</v>
-      </c>
-      <c r="K11" s="54"/>
-      <c r="L11" s="54"/>
-      <c r="M11" s="54"/>
-      <c r="N11" s="54"/>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12" s="41" t="s">
-        <v>270</v>
-      </c>
-      <c r="B12" s="71">
-        <v>1004</v>
-      </c>
-      <c r="C12" s="49"/>
-      <c r="D12" s="42" t="s">
-        <v>272</v>
-      </c>
-      <c r="E12" s="49"/>
-      <c r="F12" s="42" t="s">
-        <v>270</v>
-      </c>
-      <c r="G12" s="49"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="43" t="s">
-        <v>185</v>
-      </c>
-      <c r="K12" s="49"/>
-      <c r="L12" s="49"/>
-      <c r="M12" s="49"/>
-      <c r="N12" s="49"/>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="A13" s="41" t="s">
-        <v>273</v>
-      </c>
-      <c r="B13" s="71">
-        <v>1005</v>
-      </c>
-      <c r="C13" s="71">
-        <v>0</v>
-      </c>
-      <c r="D13" s="42" t="s">
-        <v>274</v>
-      </c>
-      <c r="E13" s="43" t="s">
-        <v>265</v>
-      </c>
-      <c r="F13" s="42" t="s">
-        <v>273</v>
-      </c>
-      <c r="G13" s="43" t="s">
-        <v>186</v>
-      </c>
-      <c r="H13" s="67">
-        <v>44927</v>
-      </c>
-      <c r="I13" s="67">
-        <v>46390</v>
-      </c>
-      <c r="J13" s="43" t="s">
-        <v>184</v>
-      </c>
-      <c r="K13" s="43" t="s">
-        <v>186</v>
-      </c>
-      <c r="L13" s="43" t="s">
-        <v>186</v>
-      </c>
-      <c r="M13" s="43" t="s">
-        <v>188</v>
-      </c>
-      <c r="N13" s="43" t="s">
-        <v>188</v>
+      <c r="K13" s="45" t="s">
+        <v>187</v>
+      </c>
+      <c r="L13" s="45" t="s">
+        <v>187</v>
+      </c>
+      <c r="M13" s="45" t="s">
+        <v>189</v>
+      </c>
+      <c r="N13" s="45" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="56"/>
-      <c r="B14" s="57"/>
-      <c r="C14" s="57"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="57"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="57"/>
-      <c r="L14" s="57"/>
-      <c r="M14" s="57"/>
-      <c r="N14" s="57"/>
+      <c r="A14" s="58"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="59"/>
+      <c r="L14" s="59"/>
+      <c r="M14" s="59"/>
+      <c r="N14" s="59"/>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="56"/>
-      <c r="B15" s="57"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="57"/>
-      <c r="H15" s="57"/>
-      <c r="I15" s="57"/>
-      <c r="J15" s="57"/>
-      <c r="K15" s="57"/>
-      <c r="L15" s="57"/>
-      <c r="M15" s="57"/>
-      <c r="N15" s="57"/>
+      <c r="A15" s="58"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="59"/>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="56"/>
-      <c r="B16" s="57"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="57"/>
-      <c r="H16" s="57"/>
-      <c r="I16" s="57"/>
-      <c r="J16" s="57"/>
-      <c r="K16" s="57"/>
-      <c r="L16" s="57"/>
-      <c r="M16" s="57"/>
-      <c r="N16" s="57"/>
+      <c r="A16" s="58"/>
+      <c r="B16" s="59"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="59"/>
+      <c r="J16" s="59"/>
+      <c r="K16" s="59"/>
+      <c r="L16" s="59"/>
+      <c r="M16" s="59"/>
+      <c r="N16" s="59"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="D5:G5"/>
-    <mergeCell ref="J5:N5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7602,254 +7594,251 @@
   </sheetPr>
   <dimension ref="A1:BB6"/>
   <sheetViews>
-    <sheetView topLeftCell="AR1" workbookViewId="0">
-      <selection activeCell="AW3" sqref="AW3:AX3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
-    <col min="2" max="2" width="28" customWidth="1"/>
-    <col min="3" max="3" width="23.44140625" customWidth="1"/>
-    <col min="4" max="4" width="25.33203125" customWidth="1"/>
-    <col min="5" max="5" width="30.88671875" customWidth="1"/>
-    <col min="6" max="6" width="26.109375" customWidth="1"/>
-    <col min="7" max="7" width="28.21875" customWidth="1"/>
-    <col min="8" max="8" width="6.88671875" customWidth="1"/>
-    <col min="9" max="9" width="9.33203125" customWidth="1"/>
-    <col min="10" max="10" width="7.44140625" customWidth="1"/>
-    <col min="11" max="11" width="9" customWidth="1"/>
-    <col min="12" max="12" width="7.44140625" customWidth="1"/>
-    <col min="13" max="13" width="25.44140625" customWidth="1"/>
-    <col min="14" max="14" width="10.44140625" customWidth="1"/>
-    <col min="15" max="15" width="10.109375" customWidth="1"/>
-    <col min="16" max="16" width="10.21875" customWidth="1"/>
-    <col min="17" max="17" width="11" customWidth="1"/>
-    <col min="18" max="18" width="7.77734375" customWidth="1"/>
-    <col min="19" max="19" width="6.77734375" customWidth="1"/>
-    <col min="20" max="21" width="7.6640625" customWidth="1"/>
-    <col min="22" max="22" width="6.77734375" customWidth="1"/>
-    <col min="23" max="23" width="11.77734375" customWidth="1"/>
-    <col min="24" max="24" width="10.109375" customWidth="1"/>
-    <col min="25" max="25" width="10" customWidth="1"/>
-    <col min="26" max="26" width="6.21875" customWidth="1"/>
-    <col min="27" max="27" width="21.88671875" customWidth="1"/>
-    <col min="28" max="28" width="9.88671875" customWidth="1"/>
-    <col min="29" max="29" width="6.88671875" customWidth="1"/>
-    <col min="30" max="31" width="7.6640625" customWidth="1"/>
-    <col min="32" max="32" width="7.33203125" customWidth="1"/>
-    <col min="33" max="33" width="7.6640625" customWidth="1"/>
-    <col min="34" max="34" width="7.109375" customWidth="1"/>
-    <col min="35" max="37" width="13.44140625" customWidth="1"/>
-    <col min="38" max="38" width="10.88671875" customWidth="1"/>
-    <col min="39" max="39" width="11.109375" customWidth="1"/>
-    <col min="40" max="40" width="10.88671875" customWidth="1"/>
-    <col min="41" max="41" width="7.6640625" customWidth="1"/>
-    <col min="42" max="42" width="10.109375" customWidth="1"/>
-    <col min="43" max="43" width="6.88671875" customWidth="1"/>
-    <col min="44" max="44" width="9" customWidth="1"/>
-    <col min="45" max="45" width="10.21875" customWidth="1"/>
-    <col min="46" max="46" width="9.21875" customWidth="1"/>
-    <col min="47" max="47" width="25.44140625" customWidth="1"/>
-    <col min="48" max="48" width="10.6640625" customWidth="1"/>
-    <col min="49" max="49" width="10.88671875" customWidth="1"/>
-    <col min="50" max="50" width="7.6640625" customWidth="1"/>
-    <col min="51" max="52" width="13.6640625" customWidth="1"/>
-    <col min="53" max="54" width="13.44140625" customWidth="1"/>
+    <col min="1" max="1" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.44140625" customWidth="1"/>
+    <col min="3" max="3" width="25.33203125" customWidth="1"/>
+    <col min="4" max="4" width="30.88671875" customWidth="1"/>
+    <col min="5" max="5" width="26.109375" customWidth="1"/>
+    <col min="6" max="6" width="28.21875" customWidth="1"/>
+    <col min="7" max="7" width="6.88671875" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" customWidth="1"/>
+    <col min="9" max="9" width="7.44140625" customWidth="1"/>
+    <col min="10" max="10" width="9" customWidth="1"/>
+    <col min="11" max="11" width="7.44140625" customWidth="1"/>
+    <col min="12" max="12" width="25.44140625" customWidth="1"/>
+    <col min="13" max="13" width="10.44140625" customWidth="1"/>
+    <col min="14" max="14" width="10.109375" customWidth="1"/>
+    <col min="15" max="15" width="10.21875" customWidth="1"/>
+    <col min="16" max="16" width="11" customWidth="1"/>
+    <col min="17" max="17" width="7.77734375" customWidth="1"/>
+    <col min="18" max="18" width="6.77734375" customWidth="1"/>
+    <col min="19" max="20" width="7.6640625" customWidth="1"/>
+    <col min="21" max="21" width="6.77734375" customWidth="1"/>
+    <col min="22" max="22" width="11.77734375" customWidth="1"/>
+    <col min="23" max="23" width="10.109375" customWidth="1"/>
+    <col min="24" max="24" width="10" customWidth="1"/>
+    <col min="25" max="25" width="6.21875" customWidth="1"/>
+    <col min="26" max="26" width="21.88671875" customWidth="1"/>
+    <col min="27" max="27" width="9.88671875" customWidth="1"/>
+    <col min="28" max="28" width="6.88671875" customWidth="1"/>
+    <col min="29" max="30" width="7.6640625" customWidth="1"/>
+    <col min="31" max="31" width="7.33203125" customWidth="1"/>
+    <col min="32" max="32" width="7.6640625" customWidth="1"/>
+    <col min="33" max="33" width="7.109375" customWidth="1"/>
+    <col min="34" max="36" width="13.44140625" customWidth="1"/>
+    <col min="37" max="37" width="10.88671875" customWidth="1"/>
+    <col min="38" max="38" width="11.109375" customWidth="1"/>
+    <col min="39" max="39" width="10.88671875" customWidth="1"/>
+    <col min="40" max="40" width="7.6640625" customWidth="1"/>
+    <col min="41" max="41" width="10.109375" customWidth="1"/>
+    <col min="42" max="42" width="6.88671875" customWidth="1"/>
+    <col min="43" max="43" width="9" customWidth="1"/>
+    <col min="44" max="44" width="10.21875" customWidth="1"/>
+    <col min="45" max="45" width="9.21875" customWidth="1"/>
+    <col min="46" max="46" width="25.44140625" customWidth="1"/>
+    <col min="47" max="47" width="10.6640625" customWidth="1"/>
+    <col min="48" max="48" width="10.88671875" customWidth="1"/>
+    <col min="49" max="49" width="7.6640625" customWidth="1"/>
+    <col min="50" max="51" width="13.6640625" customWidth="1"/>
+    <col min="52" max="54" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:54">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="76" t="s">
-        <v>275</v>
-      </c>
-      <c r="C1" s="77" t="s">
+      <c r="B1" s="100" t="s">
         <v>13</v>
       </c>
+      <c r="C1" s="79" t="s">
+        <v>17</v>
+      </c>
       <c r="D1" s="78" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="77" t="s">
+      <c r="E1" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="77" t="s">
+      <c r="F1" s="78" t="s">
         <v>25</v>
       </c>
+      <c r="G1" s="79" t="s">
+        <v>27</v>
+      </c>
       <c r="H1" s="78" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="77" t="s">
+      <c r="I1" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="77" t="s">
+      <c r="J1" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="L1" s="77" t="s">
+      <c r="K1" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="M1" s="79" t="s">
+      <c r="L1" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="N1" s="77" t="s">
+      <c r="M1" s="78" t="s">
         <v>41</v>
       </c>
-      <c r="O1" s="77" t="s">
+      <c r="N1" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="P1" s="80" t="s">
+      <c r="O1" s="81" t="s">
         <v>45</v>
       </c>
-      <c r="Q1" s="80" t="s">
+      <c r="P1" s="81" t="s">
         <v>47</v>
       </c>
-      <c r="R1" s="80" t="s">
+      <c r="Q1" s="81" t="s">
         <v>49</v>
       </c>
-      <c r="S1" s="80" t="s">
+      <c r="R1" s="81" t="s">
         <v>51</v>
       </c>
-      <c r="T1" s="80" t="s">
+      <c r="S1" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="U1" s="80" t="s">
+      <c r="T1" s="81" t="s">
         <v>55</v>
       </c>
-      <c r="V1" s="80" t="s">
+      <c r="U1" s="81" t="s">
         <v>57</v>
       </c>
-      <c r="W1" s="80" t="s">
+      <c r="V1" s="81" t="s">
         <v>61</v>
       </c>
-      <c r="X1" s="81" t="s">
+      <c r="W1" s="82" t="s">
         <v>63</v>
       </c>
-      <c r="Y1" s="69" t="s">
+      <c r="X1" s="71" t="s">
         <v>65</v>
       </c>
-      <c r="Z1" s="69" t="s">
+      <c r="Y1" s="71" t="s">
         <v>68</v>
       </c>
-      <c r="AA1" s="80" t="s">
+      <c r="Z1" s="81" t="s">
         <v>70</v>
       </c>
-      <c r="AB1" s="80" t="s">
+      <c r="AA1" s="81" t="s">
         <v>72</v>
       </c>
-      <c r="AC1" s="80" t="s">
+      <c r="AB1" s="81" t="s">
         <v>74</v>
       </c>
-      <c r="AD1" s="80" t="s">
+      <c r="AC1" s="81" t="s">
         <v>76</v>
       </c>
-      <c r="AE1" s="80" t="s">
+      <c r="AD1" s="81" t="s">
         <v>78</v>
       </c>
-      <c r="AF1" s="80" t="s">
+      <c r="AE1" s="81" t="s">
         <v>80</v>
       </c>
-      <c r="AG1" s="80" t="s">
+      <c r="AF1" s="81" t="s">
         <v>82</v>
       </c>
-      <c r="AH1" s="80" t="s">
+      <c r="AG1" s="81" t="s">
         <v>84</v>
       </c>
-      <c r="AI1" s="69" t="s">
+      <c r="AH1" s="71" t="s">
         <v>86</v>
       </c>
-      <c r="AJ1" s="69" t="s">
+      <c r="AI1" s="71" t="s">
         <v>88</v>
       </c>
-      <c r="AK1" s="69" t="s">
+      <c r="AJ1" s="71" t="s">
         <v>90</v>
       </c>
-      <c r="AL1" s="80" t="s">
+      <c r="AK1" s="81" t="s">
         <v>92</v>
       </c>
-      <c r="AM1" s="80" t="s">
+      <c r="AL1" s="81" t="s">
         <v>94</v>
       </c>
-      <c r="AN1" s="80" t="s">
+      <c r="AM1" s="81" t="s">
         <v>96</v>
       </c>
-      <c r="AO1" s="80" t="s">
+      <c r="AN1" s="81" t="s">
         <v>98</v>
       </c>
-      <c r="AP1" s="81" t="s">
+      <c r="AO1" s="82" t="s">
         <v>100</v>
       </c>
-      <c r="AQ1" s="69" t="s">
+      <c r="AP1" s="71" t="s">
         <v>101</v>
       </c>
-      <c r="AR1" s="69" t="s">
+      <c r="AQ1" s="71" t="s">
         <v>103</v>
       </c>
-      <c r="AS1" s="69" t="s">
+      <c r="AR1" s="71" t="s">
         <v>105</v>
       </c>
-      <c r="AT1" s="69" t="s">
+      <c r="AS1" s="71" t="s">
         <v>107</v>
       </c>
-      <c r="AU1" s="80" t="s">
+      <c r="AT1" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="AV1" s="80" t="s">
+      <c r="AU1" s="81" t="s">
         <v>59</v>
       </c>
-      <c r="AW1" s="80" t="s">
+      <c r="AV1" s="81" t="s">
         <v>109</v>
       </c>
-      <c r="AX1" s="80" t="s">
+      <c r="AW1" s="81" t="s">
         <v>111</v>
       </c>
-      <c r="AY1" s="69" t="s">
+      <c r="AX1" s="71" t="s">
         <v>113</v>
       </c>
-      <c r="AZ1" s="69" t="s">
+      <c r="AY1" s="71" t="s">
         <v>115</v>
       </c>
-      <c r="BA1" s="69" t="s">
+      <c r="AZ1" s="71" t="s">
         <v>117</v>
       </c>
-      <c r="BB1" s="69" t="s">
+      <c r="BA1" s="71" t="s">
         <v>119</v>
       </c>
+      <c r="BB1" s="83" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="2" spans="1:54">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="84" t="s">
         <v>159</v>
       </c>
-      <c r="B2" s="83" t="s">
-        <v>219</v>
-      </c>
-      <c r="C2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="35" t="s">
+        <v>160</v>
+      </c>
       <c r="D2" s="35" t="s">
         <v>160</v>
       </c>
       <c r="E2" s="35" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F2" s="35" t="s">
-        <v>161</v>
-      </c>
-      <c r="G2" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="H2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="34"/>
       <c r="I2" s="34"/>
       <c r="J2" s="34"/>
       <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="35" t="s">
+      <c r="L2" s="35" t="s">
         <v>160</v>
       </c>
+      <c r="M2" s="34"/>
       <c r="N2" s="34"/>
       <c r="O2" s="34"/>
       <c r="P2" s="34"/>
@@ -7859,10 +7848,10 @@
       <c r="T2" s="34"/>
       <c r="U2" s="34"/>
       <c r="V2" s="34"/>
-      <c r="W2" s="34"/>
-      <c r="X2" s="36" t="s">
+      <c r="W2" s="36" t="s">
         <v>163</v>
       </c>
+      <c r="X2" s="34"/>
       <c r="Y2" s="34"/>
       <c r="Z2" s="34"/>
       <c r="AA2" s="34"/>
@@ -7879,34 +7868,36 @@
       <c r="AL2" s="34"/>
       <c r="AM2" s="34"/>
       <c r="AN2" s="34"/>
-      <c r="AO2" s="34"/>
-      <c r="AP2" s="36" t="s">
+      <c r="AO2" s="36" t="s">
         <v>163</v>
       </c>
+      <c r="AP2" s="34"/>
       <c r="AQ2" s="34"/>
       <c r="AR2" s="34"/>
       <c r="AS2" s="34"/>
-      <c r="AT2" s="34"/>
-      <c r="AU2" s="35" t="s">
+      <c r="AT2" s="35" t="s">
         <v>160</v>
       </c>
-      <c r="AV2" s="68"/>
+      <c r="AU2" s="70"/>
+      <c r="AV2" s="34"/>
       <c r="AW2" s="34"/>
       <c r="AX2" s="34"/>
       <c r="AY2" s="34"/>
       <c r="AZ2" s="34"/>
       <c r="BA2" s="34"/>
-      <c r="BB2" s="34"/>
+      <c r="BB2" s="85" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="3" spans="1:54">
-      <c r="A3" s="82" t="s">
+      <c r="A3" s="84" t="s">
         <v>164</v>
       </c>
-      <c r="B3" s="84"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="35" t="s">
+      <c r="B3" s="34"/>
+      <c r="C3" s="35" t="s">
         <v>165</v>
       </c>
+      <c r="D3" s="34"/>
       <c r="E3" s="34"/>
       <c r="F3" s="34"/>
       <c r="G3" s="34"/>
@@ -7925,8 +7916,8 @@
       <c r="T3" s="34"/>
       <c r="U3" s="34"/>
       <c r="V3" s="34"/>
-      <c r="W3" s="34"/>
-      <c r="X3" s="37"/>
+      <c r="W3" s="37"/>
+      <c r="X3" s="34"/>
       <c r="Y3" s="34"/>
       <c r="Z3" s="34"/>
       <c r="AA3" s="34"/>
@@ -7943,381 +7934,381 @@
       <c r="AL3" s="34"/>
       <c r="AM3" s="34"/>
       <c r="AN3" s="34"/>
-      <c r="AO3" s="34"/>
-      <c r="AP3" s="37"/>
+      <c r="AO3" s="37"/>
+      <c r="AP3" s="34"/>
       <c r="AQ3" s="34"/>
       <c r="AR3" s="34"/>
       <c r="AS3" s="34"/>
       <c r="AT3" s="34"/>
       <c r="AU3" s="34"/>
-      <c r="AV3" s="34"/>
-      <c r="AW3" s="102" t="s">
+      <c r="AV3" s="101" t="s">
         <v>166</v>
       </c>
-      <c r="AX3" s="101"/>
+      <c r="AW3" s="102"/>
+      <c r="AX3" s="34"/>
       <c r="AY3" s="34"/>
       <c r="AZ3" s="34"/>
       <c r="BA3" s="34"/>
-      <c r="BB3" s="34"/>
+      <c r="BB3" s="86"/>
     </row>
     <row r="4" spans="1:54">
-      <c r="A4" s="82" t="s">
+      <c r="A4" s="84" t="s">
         <v>170</v>
       </c>
-      <c r="B4" s="84"/>
-      <c r="C4" s="99" t="s">
+      <c r="B4" s="38" t="s">
         <v>171</v>
       </c>
-      <c r="D4" s="99"/>
-      <c r="E4" s="99" t="s">
+      <c r="C4" s="39"/>
+      <c r="D4" s="38" t="s">
         <v>171</v>
       </c>
-      <c r="F4" s="99" t="s">
+      <c r="E4" s="38" t="s">
         <v>171</v>
       </c>
-      <c r="G4" s="99" t="s">
+      <c r="F4" s="38" t="s">
         <v>171</v>
       </c>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99" t="s">
+      <c r="G4" s="39"/>
+      <c r="H4" s="38" t="s">
         <v>171</v>
       </c>
-      <c r="J4" s="99" t="s">
+      <c r="I4" s="38" t="s">
         <v>171</v>
       </c>
-      <c r="K4" s="99" t="s">
+      <c r="J4" s="38" t="s">
         <v>171</v>
       </c>
-      <c r="L4" s="99" t="s">
+      <c r="K4" s="38" t="s">
         <v>171</v>
       </c>
-      <c r="M4" s="99"/>
-      <c r="N4" s="99" t="s">
+      <c r="L4" s="39"/>
+      <c r="M4" s="38" t="s">
         <v>171</v>
       </c>
-      <c r="O4" s="99" t="s">
+      <c r="N4" s="38" t="s">
         <v>171</v>
       </c>
-      <c r="P4" s="98" t="s">
-        <v>386</v>
-      </c>
-      <c r="Q4" s="99" t="s">
+      <c r="O4" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="P4" s="38" t="s">
         <v>171</v>
       </c>
-      <c r="R4" s="98" t="s">
-        <v>386</v>
-      </c>
-      <c r="S4" s="98" t="s">
-        <v>386</v>
-      </c>
-      <c r="T4" s="98" t="s">
-        <v>386</v>
-      </c>
-      <c r="U4" s="98" t="s">
-        <v>386</v>
-      </c>
-      <c r="V4" s="98" t="s">
-        <v>386</v>
-      </c>
-      <c r="W4" s="99" t="s">
+      <c r="Q4" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="R4" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="S4" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="T4" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="U4" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="V4" s="38" t="s">
         <v>171</v>
       </c>
-      <c r="X4" s="37"/>
-      <c r="Y4" s="99"/>
-      <c r="Z4" s="99"/>
-      <c r="AA4" s="99" t="s">
+      <c r="W4" s="40"/>
+      <c r="X4" s="39"/>
+      <c r="Y4" s="39"/>
+      <c r="Z4" s="38" t="s">
         <v>171</v>
       </c>
-      <c r="AB4" s="99"/>
-      <c r="AC4" s="98" t="s">
-        <v>386</v>
-      </c>
-      <c r="AD4" s="98" t="s">
-        <v>386</v>
-      </c>
-      <c r="AE4" s="98" t="s">
-        <v>386</v>
-      </c>
-      <c r="AF4" s="98" t="s">
-        <v>386</v>
-      </c>
-      <c r="AG4" s="98" t="s">
-        <v>386</v>
-      </c>
-      <c r="AH4" s="98" t="s">
-        <v>386</v>
-      </c>
-      <c r="AI4" s="99"/>
-      <c r="AJ4" s="99"/>
-      <c r="AK4" s="99"/>
-      <c r="AL4" s="99" t="s">
+      <c r="AA4" s="39"/>
+      <c r="AB4" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="AC4" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="AD4" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="AE4" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="AF4" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG4" s="101" t="s">
+        <v>172</v>
+      </c>
+      <c r="AH4" s="102"/>
+      <c r="AI4" s="39"/>
+      <c r="AJ4" s="39"/>
+      <c r="AK4" s="38" t="s">
         <v>171</v>
       </c>
-      <c r="AM4" s="99" t="s">
+      <c r="AL4" s="38" t="s">
         <v>171</v>
       </c>
-      <c r="AN4" s="99" t="s">
+      <c r="AM4" s="38" t="s">
         <v>171</v>
       </c>
-      <c r="AO4" s="99"/>
-      <c r="AP4" s="37"/>
-      <c r="AQ4" s="98" t="s">
-        <v>386</v>
-      </c>
-      <c r="AR4" s="98" t="s">
-        <v>386</v>
-      </c>
-      <c r="AS4" s="98" t="s">
-        <v>386</v>
-      </c>
-      <c r="AT4" s="98" t="s">
-        <v>386</v>
-      </c>
-      <c r="AU4" s="99" t="s">
+      <c r="AN4" s="39"/>
+      <c r="AO4" s="40"/>
+      <c r="AP4" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="AQ4" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="AR4" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="AS4" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="AT4" s="38" t="s">
         <v>171</v>
       </c>
-      <c r="AV4" s="98" t="s">
-        <v>386</v>
-      </c>
-      <c r="AW4" s="99" t="s">
+      <c r="AU4" s="38" t="s">
         <v>172</v>
       </c>
-      <c r="AX4" s="99" t="s">
+      <c r="AV4" s="38" t="s">
         <v>173</v>
       </c>
-      <c r="AY4" s="99"/>
-      <c r="AZ4" s="99"/>
-      <c r="BA4" s="99"/>
-      <c r="BB4" s="99"/>
+      <c r="AW4" s="38" t="s">
+        <v>174</v>
+      </c>
+      <c r="AX4" s="39"/>
+      <c r="AY4" s="39"/>
+      <c r="AZ4" s="39"/>
+      <c r="BA4" s="39"/>
+      <c r="BB4" s="86"/>
     </row>
     <row r="5" spans="1:54">
-      <c r="A5" s="85" t="s">
-        <v>174</v>
-      </c>
-      <c r="B5" s="86"/>
-      <c r="C5" s="86"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="86"/>
-      <c r="G5" s="86"/>
-      <c r="H5" s="86"/>
-      <c r="I5" s="86"/>
-      <c r="J5" s="86"/>
-      <c r="K5" s="86"/>
-      <c r="L5" s="86"/>
-      <c r="M5" s="86"/>
-      <c r="N5" s="86"/>
-      <c r="O5" s="86"/>
-      <c r="P5" s="86"/>
-      <c r="Q5" s="86"/>
-      <c r="R5" s="86"/>
-      <c r="S5" s="86"/>
-      <c r="T5" s="86"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
-      <c r="W5" s="86"/>
-      <c r="X5" s="87"/>
-      <c r="Y5" s="86"/>
-      <c r="Z5" s="86"/>
-      <c r="AA5" s="86"/>
-      <c r="AB5" s="86"/>
-      <c r="AC5" s="86"/>
-      <c r="AD5" s="86"/>
-      <c r="AE5" s="86"/>
-      <c r="AF5" s="86"/>
-      <c r="AG5" s="86"/>
-      <c r="AH5" s="86"/>
-      <c r="AI5" s="86"/>
-      <c r="AJ5" s="86"/>
-      <c r="AK5" s="86"/>
-      <c r="AL5" s="86"/>
-      <c r="AM5" s="86"/>
-      <c r="AN5" s="86"/>
-      <c r="AO5" s="86"/>
-      <c r="AP5" s="87"/>
-      <c r="AQ5" s="86"/>
-      <c r="AR5" s="86"/>
-      <c r="AS5" s="86"/>
-      <c r="AT5" s="86"/>
-      <c r="AU5" s="86"/>
-      <c r="AV5" s="86"/>
-      <c r="AW5" s="86"/>
-      <c r="AX5" s="86"/>
-      <c r="AY5" s="86"/>
-      <c r="AZ5" s="86"/>
-      <c r="BA5" s="86"/>
-      <c r="BB5" s="86"/>
+      <c r="A5" s="87" t="s">
+        <v>175</v>
+      </c>
+      <c r="B5" s="88"/>
+      <c r="C5" s="88"/>
+      <c r="D5" s="88"/>
+      <c r="E5" s="88"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="88"/>
+      <c r="H5" s="88"/>
+      <c r="I5" s="88"/>
+      <c r="J5" s="88"/>
+      <c r="K5" s="88"/>
+      <c r="L5" s="88"/>
+      <c r="M5" s="88"/>
+      <c r="N5" s="88"/>
+      <c r="O5" s="88"/>
+      <c r="P5" s="88"/>
+      <c r="Q5" s="88"/>
+      <c r="R5" s="88"/>
+      <c r="S5" s="88"/>
+      <c r="T5" s="88"/>
+      <c r="U5" s="88"/>
+      <c r="V5" s="88"/>
+      <c r="W5" s="89"/>
+      <c r="X5" s="88"/>
+      <c r="Y5" s="88"/>
+      <c r="Z5" s="88"/>
+      <c r="AA5" s="88"/>
+      <c r="AB5" s="88"/>
+      <c r="AC5" s="88"/>
+      <c r="AD5" s="88"/>
+      <c r="AE5" s="88"/>
+      <c r="AF5" s="88"/>
+      <c r="AG5" s="88"/>
+      <c r="AH5" s="88"/>
+      <c r="AI5" s="88"/>
+      <c r="AJ5" s="88"/>
+      <c r="AK5" s="88"/>
+      <c r="AL5" s="88"/>
+      <c r="AM5" s="88"/>
+      <c r="AN5" s="88"/>
+      <c r="AO5" s="89"/>
+      <c r="AP5" s="88"/>
+      <c r="AQ5" s="88"/>
+      <c r="AR5" s="88"/>
+      <c r="AS5" s="88"/>
+      <c r="AT5" s="88"/>
+      <c r="AU5" s="88"/>
+      <c r="AV5" s="88"/>
+      <c r="AW5" s="88"/>
+      <c r="AX5" s="88"/>
+      <c r="AY5" s="88"/>
+      <c r="AZ5" s="88"/>
+      <c r="BA5" s="88"/>
+      <c r="BB5" s="88"/>
     </row>
     <row r="6" spans="1:54">
-      <c r="A6" s="41" t="s">
-        <v>276</v>
-      </c>
-      <c r="B6" s="88" t="s">
+      <c r="A6" s="43" t="s">
         <v>277</v>
       </c>
-      <c r="C6" s="42" t="s">
-        <v>276</v>
-      </c>
-      <c r="D6" s="42" t="s">
+      <c r="B6" s="44" t="s">
+        <v>277</v>
+      </c>
+      <c r="C6" s="44" t="s">
         <v>278</v>
       </c>
-      <c r="E6" s="42" t="s">
+      <c r="D6" s="44" t="s">
         <v>278</v>
       </c>
-      <c r="F6" s="42" t="s">
-        <v>277</v>
-      </c>
-      <c r="G6" s="42" t="s">
-        <v>277</v>
-      </c>
-      <c r="H6" s="43" t="s">
-        <v>177</v>
-      </c>
-      <c r="I6" s="88" t="s">
+      <c r="E6" s="44" t="s">
         <v>279</v>
       </c>
-      <c r="J6" s="88" t="s">
+      <c r="F6" s="44" t="s">
+        <v>279</v>
+      </c>
+      <c r="G6" s="45" t="s">
+        <v>178</v>
+      </c>
+      <c r="H6" s="90" t="s">
         <v>280</v>
       </c>
-      <c r="K6" s="42" t="s">
+      <c r="I6" s="90" t="s">
         <v>281</v>
       </c>
-      <c r="L6" s="88" t="s">
-        <v>177</v>
-      </c>
-      <c r="M6" s="89" t="s">
+      <c r="J6" s="44" t="s">
         <v>282</v>
       </c>
-      <c r="N6" s="42" t="s">
+      <c r="K6" s="90" t="s">
+        <v>178</v>
+      </c>
+      <c r="L6" s="91" t="s">
         <v>283</v>
       </c>
-      <c r="O6" s="42" t="s">
+      <c r="M6" s="44" t="s">
         <v>284</v>
       </c>
-      <c r="P6" s="42" t="s">
+      <c r="N6" s="44" t="s">
+        <v>285</v>
+      </c>
+      <c r="O6" s="44" t="s">
+        <v>186</v>
+      </c>
+      <c r="P6" s="47">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="44" t="s">
+        <v>186</v>
+      </c>
+      <c r="R6" s="44" t="s">
+        <v>186</v>
+      </c>
+      <c r="S6" s="44" t="s">
+        <v>186</v>
+      </c>
+      <c r="T6" s="44" t="s">
+        <v>186</v>
+      </c>
+      <c r="U6" s="44" t="s">
+        <v>186</v>
+      </c>
+      <c r="V6" s="47">
+        <v>100</v>
+      </c>
+      <c r="W6" s="92" t="s">
+        <v>178</v>
+      </c>
+      <c r="X6" s="45" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y6" s="45" t="s">
+        <v>178</v>
+      </c>
+      <c r="Z6" s="44" t="s">
+        <v>286</v>
+      </c>
+      <c r="AA6" s="44" t="s">
+        <v>178</v>
+      </c>
+      <c r="AB6" s="44" t="s">
+        <v>186</v>
+      </c>
+      <c r="AC6" s="44" t="s">
         <v>185</v>
       </c>
-      <c r="Q6" s="45">
+      <c r="AD6" s="44" t="s">
+        <v>185</v>
+      </c>
+      <c r="AE6" s="44" t="s">
+        <v>185</v>
+      </c>
+      <c r="AF6" s="44" t="s">
+        <v>185</v>
+      </c>
+      <c r="AG6" s="44" t="s">
+        <v>185</v>
+      </c>
+      <c r="AH6" s="45" t="s">
+        <v>187</v>
+      </c>
+      <c r="AI6" s="45" t="s">
+        <v>189</v>
+      </c>
+      <c r="AJ6" s="45" t="s">
+        <v>178</v>
+      </c>
+      <c r="AK6" s="93" t="s">
+        <v>287</v>
+      </c>
+      <c r="AL6" s="93" t="s">
+        <v>288</v>
+      </c>
+      <c r="AM6" s="93" t="s">
+        <v>289</v>
+      </c>
+      <c r="AN6" s="44" t="s">
+        <v>178</v>
+      </c>
+      <c r="AO6" s="48" t="s">
+        <v>178</v>
+      </c>
+      <c r="AP6" s="45" t="s">
+        <v>186</v>
+      </c>
+      <c r="AQ6" s="45" t="s">
+        <v>186</v>
+      </c>
+      <c r="AR6" s="45" t="s">
+        <v>186</v>
+      </c>
+      <c r="AS6" s="45" t="s">
+        <v>186</v>
+      </c>
+      <c r="AT6" s="44" t="s">
+        <v>283</v>
+      </c>
+      <c r="AU6" s="44" t="s">
+        <v>186</v>
+      </c>
+      <c r="AV6" s="47">
         <v>0</v>
       </c>
-      <c r="R6" s="42" t="s">
-        <v>185</v>
-      </c>
-      <c r="S6" s="42" t="s">
-        <v>185</v>
-      </c>
-      <c r="T6" s="42" t="s">
-        <v>185</v>
-      </c>
-      <c r="U6" s="42" t="s">
-        <v>185</v>
-      </c>
-      <c r="V6" s="42" t="s">
-        <v>185</v>
-      </c>
-      <c r="W6" s="45">
-        <v>100</v>
-      </c>
-      <c r="X6" s="90" t="s">
-        <v>177</v>
-      </c>
-      <c r="Y6" s="43" t="s">
-        <v>186</v>
-      </c>
-      <c r="Z6" s="43" t="s">
-        <v>177</v>
-      </c>
-      <c r="AA6" s="42" t="s">
-        <v>285</v>
-      </c>
-      <c r="AB6" s="42" t="s">
-        <v>177</v>
-      </c>
-      <c r="AC6" s="42" t="s">
-        <v>185</v>
-      </c>
-      <c r="AD6" s="42" t="s">
-        <v>184</v>
-      </c>
-      <c r="AE6" s="42" t="s">
-        <v>184</v>
-      </c>
-      <c r="AF6" s="42" t="s">
-        <v>184</v>
-      </c>
-      <c r="AG6" s="42" t="s">
-        <v>184</v>
-      </c>
-      <c r="AH6" s="42" t="s">
-        <v>184</v>
-      </c>
-      <c r="AI6" s="43" t="s">
-        <v>186</v>
-      </c>
-      <c r="AJ6" s="43" t="s">
-        <v>188</v>
-      </c>
-      <c r="AK6" s="43" t="s">
-        <v>177</v>
-      </c>
-      <c r="AL6" s="91" t="s">
-        <v>286</v>
-      </c>
-      <c r="AM6" s="91" t="s">
-        <v>287</v>
-      </c>
-      <c r="AN6" s="91" t="s">
-        <v>288</v>
-      </c>
-      <c r="AO6" s="42" t="s">
-        <v>177</v>
-      </c>
-      <c r="AP6" s="46" t="s">
-        <v>177</v>
-      </c>
-      <c r="AQ6" s="43" t="s">
-        <v>185</v>
-      </c>
-      <c r="AR6" s="43" t="s">
-        <v>185</v>
-      </c>
-      <c r="AS6" s="43" t="s">
-        <v>185</v>
-      </c>
-      <c r="AT6" s="43" t="s">
-        <v>185</v>
-      </c>
-      <c r="AU6" s="42" t="s">
-        <v>282</v>
-      </c>
-      <c r="AV6" s="42" t="s">
-        <v>185</v>
-      </c>
-      <c r="AW6" s="45">
-        <v>0</v>
-      </c>
-      <c r="AX6" s="42" t="s">
-        <v>192</v>
-      </c>
-      <c r="AY6" s="43" t="s">
-        <v>186</v>
-      </c>
-      <c r="AZ6" s="43" t="s">
-        <v>186</v>
-      </c>
-      <c r="BA6" s="43" t="s">
-        <v>188</v>
-      </c>
-      <c r="BB6" s="43" t="s">
-        <v>188</v>
+      <c r="AW6" s="44" t="s">
+        <v>193</v>
+      </c>
+      <c r="AX6" s="45" t="s">
+        <v>187</v>
+      </c>
+      <c r="AY6" s="45" t="s">
+        <v>187</v>
+      </c>
+      <c r="AZ6" s="45" t="s">
+        <v>189</v>
+      </c>
+      <c r="BA6" s="45" t="s">
+        <v>189</v>
+      </c>
+      <c r="BB6" s="90" t="s">
+        <v>279</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="AW3:AX3"/>
+  <mergeCells count="2">
+    <mergeCell ref="AV3:AW3"/>
+    <mergeCell ref="AG4:AH4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8338,530 +8329,530 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="28" t="s">
-        <v>289</v>
-      </c>
-      <c r="B1" s="92" t="s">
         <v>290</v>
       </c>
-      <c r="C1" s="92" t="s">
+      <c r="B1" s="94" t="s">
         <v>291</v>
       </c>
+      <c r="C1" s="94" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="42" t="s">
-        <v>292</v>
-      </c>
-      <c r="B2" s="42" t="s">
+      <c r="A2" s="44" t="s">
         <v>293</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="B2" s="44" t="s">
         <v>294</v>
       </c>
+      <c r="C2" s="44" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="42" t="s">
-        <v>292</v>
-      </c>
-      <c r="B3" s="42" t="s">
-        <v>295</v>
-      </c>
-      <c r="C3" s="42" t="s">
+      <c r="A3" s="44" t="s">
+        <v>293</v>
+      </c>
+      <c r="B3" s="44" t="s">
         <v>296</v>
       </c>
+      <c r="C3" s="44" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="42" t="s">
-        <v>292</v>
-      </c>
-      <c r="B4" s="42" t="s">
-        <v>297</v>
-      </c>
-      <c r="C4" s="42" t="s">
+      <c r="A4" s="44" t="s">
+        <v>293</v>
+      </c>
+      <c r="B4" s="44" t="s">
         <v>298</v>
       </c>
+      <c r="C4" s="44" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="42" t="s">
-        <v>299</v>
-      </c>
-      <c r="C5" s="42" t="s">
+      <c r="B5" s="44" t="s">
         <v>300</v>
       </c>
+      <c r="C5" s="44" t="s">
+        <v>301</v>
+      </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="42" t="s">
-        <v>301</v>
-      </c>
-      <c r="C6" s="42" t="s">
+      <c r="B6" s="44" t="s">
         <v>302</v>
       </c>
+      <c r="C6" s="44" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="93" t="s">
-        <v>303</v>
-      </c>
-      <c r="B7" s="42" t="s">
+      <c r="A7" s="95" t="s">
         <v>304</v>
       </c>
-      <c r="C7" s="42" t="s">
+      <c r="B7" s="44" t="s">
         <v>305</v>
       </c>
+      <c r="C7" s="44" t="s">
+        <v>306</v>
+      </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="93" t="s">
-        <v>303</v>
-      </c>
-      <c r="B8" s="42" t="s">
-        <v>306</v>
-      </c>
-      <c r="C8" s="42" t="s">
+      <c r="A8" s="95" t="s">
+        <v>304</v>
+      </c>
+      <c r="B8" s="44" t="s">
         <v>307</v>
       </c>
+      <c r="C8" s="44" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="93" t="s">
-        <v>303</v>
-      </c>
-      <c r="B9" s="42" t="s">
-        <v>308</v>
-      </c>
-      <c r="C9" s="42" t="s">
+      <c r="A9" s="95" t="s">
+        <v>304</v>
+      </c>
+      <c r="B9" s="44" t="s">
         <v>309</v>
       </c>
+      <c r="C9" s="44" t="s">
+        <v>310</v>
+      </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="93" t="s">
-        <v>303</v>
-      </c>
-      <c r="B10" s="42" t="s">
-        <v>310</v>
-      </c>
-      <c r="C10" s="42" t="s">
+      <c r="A10" s="95" t="s">
+        <v>304</v>
+      </c>
+      <c r="B10" s="44" t="s">
         <v>311</v>
       </c>
+      <c r="C10" s="44" t="s">
+        <v>312</v>
+      </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="93" t="s">
-        <v>303</v>
-      </c>
-      <c r="B11" s="94" t="s">
-        <v>312</v>
-      </c>
-      <c r="C11" s="94" t="s">
+      <c r="A11" s="95" t="s">
+        <v>304</v>
+      </c>
+      <c r="B11" s="96" t="s">
         <v>313</v>
       </c>
+      <c r="C11" s="96" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="93" t="s">
-        <v>303</v>
-      </c>
-      <c r="B12" s="94" t="s">
-        <v>314</v>
-      </c>
-      <c r="C12" s="94" t="s">
+      <c r="A12" s="95" t="s">
+        <v>304</v>
+      </c>
+      <c r="B12" s="96" t="s">
         <v>315</v>
       </c>
+      <c r="C12" s="96" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="93" t="s">
-        <v>303</v>
-      </c>
-      <c r="B13" s="94" t="s">
-        <v>316</v>
-      </c>
-      <c r="C13" s="94" t="s">
+      <c r="A13" s="95" t="s">
+        <v>304</v>
+      </c>
+      <c r="B13" s="96" t="s">
         <v>317</v>
       </c>
+      <c r="C13" s="96" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="95" t="s">
+      <c r="A14" s="97" t="s">
+        <v>319</v>
+      </c>
+      <c r="B14" s="44" t="s">
+        <v>320</v>
+      </c>
+      <c r="C14" s="44" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="97" t="s">
+        <v>319</v>
+      </c>
+      <c r="B15" s="44" t="s">
+        <v>322</v>
+      </c>
+      <c r="C15" s="44" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="97" t="s">
+        <v>319</v>
+      </c>
+      <c r="B16" s="44" t="s">
+        <v>309</v>
+      </c>
+      <c r="C16" s="44" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="97" t="s">
+        <v>319</v>
+      </c>
+      <c r="B17" s="44" t="s">
+        <v>311</v>
+      </c>
+      <c r="C17" s="44" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="97" t="s">
+        <v>319</v>
+      </c>
+      <c r="B18" s="96" t="s">
+        <v>326</v>
+      </c>
+      <c r="C18" s="96" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="97" t="s">
+        <v>319</v>
+      </c>
+      <c r="B19" s="96" t="s">
+        <v>328</v>
+      </c>
+      <c r="C19" s="96" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="97" t="s">
+        <v>319</v>
+      </c>
+      <c r="B20" s="96" t="s">
+        <v>330</v>
+      </c>
+      <c r="C20" s="96" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="97" t="s">
+        <v>319</v>
+      </c>
+      <c r="B21" s="96" t="s">
+        <v>332</v>
+      </c>
+      <c r="C21" s="96" t="s">
         <v>318</v>
       </c>
-      <c r="B14" s="42" t="s">
-        <v>319</v>
-      </c>
-      <c r="C14" s="42" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="95" t="s">
-        <v>318</v>
-      </c>
-      <c r="B15" s="42" t="s">
-        <v>321</v>
-      </c>
-      <c r="C15" s="42" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="95" t="s">
-        <v>318</v>
-      </c>
-      <c r="B16" s="42" t="s">
-        <v>308</v>
-      </c>
-      <c r="C16" s="42" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="95" t="s">
-        <v>318</v>
-      </c>
-      <c r="B17" s="42" t="s">
-        <v>310</v>
-      </c>
-      <c r="C17" s="42" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="95" t="s">
-        <v>318</v>
-      </c>
-      <c r="B18" s="94" t="s">
-        <v>325</v>
-      </c>
-      <c r="C18" s="94" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="95" t="s">
-        <v>318</v>
-      </c>
-      <c r="B19" s="94" t="s">
-        <v>327</v>
-      </c>
-      <c r="C19" s="94" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="95" t="s">
-        <v>318</v>
-      </c>
-      <c r="B20" s="94" t="s">
-        <v>329</v>
-      </c>
-      <c r="C20" s="94" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="95" t="s">
-        <v>318</v>
-      </c>
-      <c r="B21" s="94" t="s">
-        <v>331</v>
-      </c>
-      <c r="C21" s="94" t="s">
-        <v>317</v>
-      </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="96" t="s">
-        <v>332</v>
-      </c>
-      <c r="B22" s="42" t="s">
+      <c r="A22" s="98" t="s">
         <v>333</v>
       </c>
-      <c r="C22" s="43" t="s">
+      <c r="B22" s="44" t="s">
         <v>334</v>
       </c>
+      <c r="C22" s="45" t="s">
+        <v>335</v>
+      </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="96" t="s">
-        <v>332</v>
-      </c>
-      <c r="B23" s="42" t="s">
-        <v>335</v>
-      </c>
-      <c r="C23" s="42" t="s">
+      <c r="A23" s="98" t="s">
+        <v>333</v>
+      </c>
+      <c r="B23" s="44" t="s">
         <v>336</v>
       </c>
+      <c r="C23" s="44" t="s">
+        <v>337</v>
+      </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="96" t="s">
-        <v>332</v>
-      </c>
-      <c r="B24" s="42" t="s">
-        <v>308</v>
-      </c>
-      <c r="C24" s="42" t="s">
-        <v>337</v>
+      <c r="A24" s="98" t="s">
+        <v>333</v>
+      </c>
+      <c r="B24" s="44" t="s">
+        <v>309</v>
+      </c>
+      <c r="C24" s="44" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="96" t="s">
-        <v>332</v>
-      </c>
-      <c r="B25" s="42" t="s">
-        <v>310</v>
-      </c>
-      <c r="C25" s="42" t="s">
-        <v>338</v>
+      <c r="A25" s="98" t="s">
+        <v>333</v>
+      </c>
+      <c r="B25" s="44" t="s">
+        <v>311</v>
+      </c>
+      <c r="C25" s="44" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="96" t="s">
-        <v>332</v>
-      </c>
-      <c r="B26" s="42" t="s">
-        <v>339</v>
-      </c>
-      <c r="C26" s="42" t="s">
+      <c r="A26" s="98" t="s">
+        <v>333</v>
+      </c>
+      <c r="B26" s="44" t="s">
         <v>340</v>
       </c>
+      <c r="C26" s="44" t="s">
+        <v>341</v>
+      </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="96" t="s">
-        <v>332</v>
-      </c>
-      <c r="B27" s="94" t="s">
-        <v>341</v>
-      </c>
-      <c r="C27" s="94" t="s">
+      <c r="A27" s="98" t="s">
+        <v>333</v>
+      </c>
+      <c r="B27" s="96" t="s">
         <v>342</v>
       </c>
+      <c r="C27" s="96" t="s">
+        <v>343</v>
+      </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="96" t="s">
-        <v>332</v>
-      </c>
-      <c r="B28" s="94" t="s">
-        <v>343</v>
-      </c>
-      <c r="C28" s="94" t="s">
+      <c r="A28" s="98" t="s">
+        <v>333</v>
+      </c>
+      <c r="B28" s="96" t="s">
         <v>344</v>
       </c>
+      <c r="C28" s="96" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="96" t="s">
-        <v>332</v>
-      </c>
-      <c r="B29" s="94" t="s">
-        <v>345</v>
-      </c>
-      <c r="C29" s="94" t="s">
+      <c r="A29" s="98" t="s">
+        <v>333</v>
+      </c>
+      <c r="B29" s="96" t="s">
         <v>346</v>
       </c>
+      <c r="C29" s="96" t="s">
+        <v>347</v>
+      </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="96" t="s">
-        <v>332</v>
-      </c>
-      <c r="B30" s="94" t="s">
-        <v>347</v>
-      </c>
-      <c r="C30" s="94" t="s">
+      <c r="A30" s="98" t="s">
+        <v>333</v>
+      </c>
+      <c r="B30" s="96" t="s">
         <v>348</v>
       </c>
+      <c r="C30" s="96" t="s">
+        <v>349</v>
+      </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="97" t="s">
-        <v>349</v>
-      </c>
-      <c r="B31" s="47" t="s">
+      <c r="A31" s="99" t="s">
         <v>350</v>
       </c>
-      <c r="C31" s="47" t="s">
+      <c r="B31" s="49" t="s">
         <v>351</v>
       </c>
+      <c r="C31" s="49" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="97" t="s">
-        <v>349</v>
-      </c>
-      <c r="B32" s="47" t="s">
-        <v>352</v>
-      </c>
-      <c r="C32" s="47" t="s">
+      <c r="A32" s="99" t="s">
+        <v>350</v>
+      </c>
+      <c r="B32" s="49" t="s">
         <v>353</v>
       </c>
+      <c r="C32" s="49" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="97" t="s">
-        <v>349</v>
-      </c>
-      <c r="B33" s="47" t="s">
-        <v>354</v>
-      </c>
-      <c r="C33" s="47" t="s">
+      <c r="A33" s="99" t="s">
+        <v>350</v>
+      </c>
+      <c r="B33" s="49" t="s">
         <v>355</v>
       </c>
+      <c r="C33" s="49" t="s">
+        <v>356</v>
+      </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="97" t="s">
-        <v>349</v>
-      </c>
-      <c r="B34" s="47" t="s">
-        <v>356</v>
-      </c>
-      <c r="C34" s="47" t="s">
+      <c r="A34" s="99" t="s">
+        <v>350</v>
+      </c>
+      <c r="B34" s="49" t="s">
         <v>357</v>
       </c>
+      <c r="C34" s="49" t="s">
+        <v>358</v>
+      </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="42" t="s">
-        <v>292</v>
-      </c>
-      <c r="B35" s="42" t="s">
-        <v>358</v>
-      </c>
-      <c r="C35" s="42" t="s">
+      <c r="A35" s="44" t="s">
+        <v>293</v>
+      </c>
+      <c r="B35" s="44" t="s">
         <v>359</v>
       </c>
+      <c r="C35" s="44" t="s">
+        <v>360</v>
+      </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="42" t="s">
-        <v>292</v>
-      </c>
-      <c r="B36" s="42" t="s">
-        <v>360</v>
-      </c>
-      <c r="C36" s="42" t="s">
+      <c r="A36" s="44" t="s">
+        <v>293</v>
+      </c>
+      <c r="B36" s="44" t="s">
         <v>361</v>
       </c>
+      <c r="C36" s="44" t="s">
+        <v>362</v>
+      </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="42" t="s">
-        <v>292</v>
-      </c>
-      <c r="B37" s="42" t="s">
-        <v>362</v>
-      </c>
-      <c r="C37" s="42" t="s">
+      <c r="A37" s="44" t="s">
+        <v>293</v>
+      </c>
+      <c r="B37" s="44" t="s">
         <v>363</v>
       </c>
+      <c r="C37" s="44" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="42" t="s">
-        <v>292</v>
-      </c>
-      <c r="B38" s="42" t="s">
-        <v>364</v>
-      </c>
-      <c r="C38" s="42" t="s">
+      <c r="A38" s="44" t="s">
+        <v>293</v>
+      </c>
+      <c r="B38" s="44" t="s">
         <v>365</v>
       </c>
+      <c r="C38" s="44" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="42" t="s">
-        <v>292</v>
-      </c>
-      <c r="B39" s="42" t="s">
-        <v>366</v>
-      </c>
-      <c r="C39" s="42" t="s">
+      <c r="A39" s="44" t="s">
+        <v>293</v>
+      </c>
+      <c r="B39" s="44" t="s">
         <v>367</v>
       </c>
+      <c r="C39" s="44" t="s">
+        <v>368</v>
+      </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="42" t="s">
-        <v>292</v>
-      </c>
-      <c r="B40" s="42" t="s">
-        <v>368</v>
-      </c>
-      <c r="C40" s="42" t="s">
+      <c r="A40" s="44" t="s">
+        <v>293</v>
+      </c>
+      <c r="B40" s="44" t="s">
         <v>369</v>
       </c>
+      <c r="C40" s="44" t="s">
+        <v>370</v>
+      </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="42" t="s">
-        <v>292</v>
-      </c>
-      <c r="B41" s="42" t="s">
-        <v>370</v>
-      </c>
-      <c r="C41" s="42" t="s">
+      <c r="A41" s="44" t="s">
+        <v>293</v>
+      </c>
+      <c r="B41" s="44" t="s">
         <v>371</v>
       </c>
+      <c r="C41" s="44" t="s">
+        <v>372</v>
+      </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="42" t="s">
-        <v>292</v>
-      </c>
-      <c r="B42" s="42" t="s">
-        <v>372</v>
-      </c>
-      <c r="C42" s="42" t="s">
+      <c r="A42" s="44" t="s">
+        <v>293</v>
+      </c>
+      <c r="B42" s="44" t="s">
         <v>373</v>
       </c>
+      <c r="C42" s="44" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="42" t="s">
-        <v>292</v>
-      </c>
-      <c r="B43" s="42" t="s">
-        <v>374</v>
-      </c>
-      <c r="C43" s="42" t="s">
+      <c r="A43" s="44" t="s">
+        <v>293</v>
+      </c>
+      <c r="B43" s="44" t="s">
         <v>375</v>
       </c>
+      <c r="C43" s="44" t="s">
+        <v>376</v>
+      </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="42" t="s">
-        <v>292</v>
-      </c>
-      <c r="B44" s="42" t="s">
-        <v>376</v>
-      </c>
-      <c r="C44" s="42" t="s">
+      <c r="A44" s="44" t="s">
+        <v>293</v>
+      </c>
+      <c r="B44" s="44" t="s">
         <v>377</v>
       </c>
+      <c r="C44" s="44" t="s">
+        <v>378</v>
+      </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="42" t="s">
-        <v>292</v>
-      </c>
-      <c r="B45" s="42" t="s">
-        <v>378</v>
-      </c>
-      <c r="C45" s="42" t="s">
+      <c r="A45" s="44" t="s">
+        <v>293</v>
+      </c>
+      <c r="B45" s="44" t="s">
         <v>379</v>
       </c>
+      <c r="C45" s="44" t="s">
+        <v>380</v>
+      </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="42" t="s">
-        <v>292</v>
-      </c>
-      <c r="B46" s="42" t="s">
-        <v>380</v>
-      </c>
-      <c r="C46" s="42" t="s">
+      <c r="A46" s="44" t="s">
+        <v>293</v>
+      </c>
+      <c r="B46" s="44" t="s">
         <v>381</v>
       </c>
+      <c r="C46" s="44" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="42" t="s">
-        <v>292</v>
-      </c>
-      <c r="B47" s="42" t="s">
-        <v>382</v>
-      </c>
-      <c r="C47" s="42" t="s">
+      <c r="A47" s="44" t="s">
+        <v>293</v>
+      </c>
+      <c r="B47" s="44" t="s">
         <v>383</v>
       </c>
+      <c r="C47" s="44" t="s">
+        <v>384</v>
+      </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="42" t="s">
-        <v>292</v>
-      </c>
-      <c r="B48" s="42" t="s">
-        <v>384</v>
-      </c>
-      <c r="C48" s="42" t="s">
+      <c r="A48" s="44" t="s">
+        <v>293</v>
+      </c>
+      <c r="B48" s="44" t="s">
         <v>385</v>
+      </c>
+      <c r="C48" s="44" t="s">
+        <v>386</v>
       </c>
     </row>
   </sheetData>

--- a/TNR_JDD/RO/JDD.RO.ACT.xlsx
+++ b/TNR_JDD/RO/JDD.RO.ACT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="516" yWindow="624" windowWidth="18108" windowHeight="8148" activeTab="2"/>
+    <workbookView xWindow="516" yWindow="624" windowWidth="18108" windowHeight="8148" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Version" sheetId="1" r:id="rId1"/>
@@ -1108,85 +1108,85 @@
     <t>a_Acteur</t>
   </si>
   <si>
-    <t>//li[@class ='nav-item']//a[@ml-text3='ID_CODINT']</t>
-  </si>
-  <si>
     <t>a_ActeurSelected</t>
   </si>
   <si>
-    <t>//li[@class ='nav-item']//a[@ml-text3='ID_CODINT' and starts-with(@class,'nav-link active')]</t>
-  </si>
-  <si>
     <t>a_Affectation</t>
   </si>
   <si>
-    <t>//li[@class ='nav-item']//a[@ml-text3='affectation']</t>
-  </si>
-  <si>
     <t>a_AffectationSelected</t>
   </si>
   <si>
-    <t>//li[@class ='nav-item']//a[@ml-text3='affectation' and starts-with(@class,'nav-link active')]</t>
-  </si>
-  <si>
     <t>a_Role</t>
   </si>
   <si>
-    <t>//li[@class ='nav-item']//a[@ml-text3='role']</t>
-  </si>
-  <si>
     <t>a_RoleSelected</t>
   </si>
   <si>
-    <t>//li[@class ='nav-item']//a[@ml-text3='role' and starts-with(@class,'nav-link active')]</t>
-  </si>
-  <si>
     <t>a_Preventif</t>
   </si>
   <si>
-    <t>//li[@class ='nav-item']//a[@ml-text3='preventif']</t>
-  </si>
-  <si>
     <t>a_PreventifSelected</t>
   </si>
   <si>
-    <t>//li[@class ='nav-item']//a[@ml-text3='preventif' and starts-with(@class,'nav-link active')]</t>
-  </si>
-  <si>
     <t>a_Habilitation</t>
   </si>
   <si>
-    <t>//li[@class ='nav-item']//a[@ml-text3='ID_CODHAB']</t>
-  </si>
-  <si>
     <t>a_HabilitationSelected</t>
   </si>
   <si>
-    <t>//li[@class ='nav-item']//a[@ml-text3='ID_CODHAB' and starts-with(@class,'nav-link active')]</t>
-  </si>
-  <si>
     <t>a_Metier</t>
   </si>
   <si>
-    <t>//li[@class ='nav-item']//a[@ml-text3='ID_CODMET']</t>
-  </si>
-  <si>
     <t>a_MetierSelected</t>
   </si>
   <si>
-    <t>//li[@class ='nav-item']//a[@ml-text3='ID_CODMET' and starts-with(@class,'nav-link active')]</t>
-  </si>
-  <si>
     <t>a_Zone</t>
   </si>
   <si>
-    <t>//li[@class ='nav-item']//a[@ml-text3='ID_NUMZON']</t>
-  </si>
-  <si>
     <t>a_ZoneSelected</t>
   </si>
   <si>
-    <t>//li[@class ='nav-item']//a[@ml-text3='ID_NUMZON' and starts-with(@class,'nav-link active')]</t>
+    <t>$TAB$ID_CODINT</t>
+  </si>
+  <si>
+    <t>$TAB$affectation</t>
+  </si>
+  <si>
+    <t>$TAB$role</t>
+  </si>
+  <si>
+    <t>$TAB$preventif</t>
+  </si>
+  <si>
+    <t>$TAB$ID_CODHAB</t>
+  </si>
+  <si>
+    <t>$TAB$ID_CODMET</t>
+  </si>
+  <si>
+    <t>$TAB$ID_NUMZON</t>
+  </si>
+  <si>
+    <t>$TABSELECTED$ID_CODINT</t>
+  </si>
+  <si>
+    <t>$TABSELECTED$affectation</t>
+  </si>
+  <si>
+    <t>$TABSELECTED$role</t>
+  </si>
+  <si>
+    <t>$TABSELECTED$preventif</t>
+  </si>
+  <si>
+    <t>$TABSELECTED$ID_CODHAB</t>
+  </si>
+  <si>
+    <t>$TABSELECTED$ID_CODMET</t>
+  </si>
+  <si>
+    <t>$TABSELECTED$ID_NUMZON</t>
   </si>
 </sst>
 </file>
@@ -1449,7 +1449,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1663,13 +1663,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4993,8 +4994,8 @@
   </sheetPr>
   <dimension ref="A1:BE18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="W34" sqref="W34"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="S26" sqref="S26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -5219,7 +5220,7 @@
       <c r="W2" s="36" t="s">
         <v>163</v>
       </c>
-      <c r="X2" s="103"/>
+      <c r="X2" s="101"/>
       <c r="Y2" s="34"/>
       <c r="Z2" s="34"/>
       <c r="AA2" s="34"/>
@@ -5310,10 +5311,10 @@
       <c r="AS3" s="34"/>
       <c r="AT3" s="34"/>
       <c r="AU3" s="34"/>
-      <c r="AV3" s="101" t="s">
+      <c r="AV3" s="102" t="s">
         <v>166</v>
       </c>
-      <c r="AW3" s="102"/>
+      <c r="AW3" s="103"/>
       <c r="AX3" s="34"/>
       <c r="AY3" s="34"/>
       <c r="AZ3" s="34"/>
@@ -5414,10 +5415,10 @@
       <c r="AF4" s="38" t="s">
         <v>172</v>
       </c>
-      <c r="AG4" s="101" t="s">
+      <c r="AG4" s="102" t="s">
         <v>172</v>
       </c>
-      <c r="AH4" s="102"/>
+      <c r="AH4" s="103"/>
       <c r="AI4" s="39"/>
       <c r="AJ4" s="39"/>
       <c r="AK4" s="38" t="s">
@@ -7221,12 +7222,12 @@
       </c>
       <c r="B5" s="34"/>
       <c r="C5" s="34"/>
-      <c r="D5" s="101" t="s">
+      <c r="D5" s="102" t="s">
         <v>259</v>
       </c>
-      <c r="E5" s="102"/>
-      <c r="F5" s="102"/>
-      <c r="G5" s="102"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="103"/>
+      <c r="G5" s="103"/>
       <c r="H5" s="38" t="s">
         <v>260</v>
       </c>
@@ -7941,10 +7942,10 @@
       <c r="AS3" s="34"/>
       <c r="AT3" s="34"/>
       <c r="AU3" s="34"/>
-      <c r="AV3" s="101" t="s">
+      <c r="AV3" s="102" t="s">
         <v>166</v>
       </c>
-      <c r="AW3" s="102"/>
+      <c r="AW3" s="103"/>
       <c r="AX3" s="34"/>
       <c r="AY3" s="34"/>
       <c r="AZ3" s="34"/>
@@ -8034,10 +8035,10 @@
       <c r="AF4" s="38" t="s">
         <v>172</v>
       </c>
-      <c r="AG4" s="101" t="s">
+      <c r="AG4" s="102" t="s">
         <v>172</v>
       </c>
-      <c r="AH4" s="102"/>
+      <c r="AH4" s="103"/>
       <c r="AI4" s="39"/>
       <c r="AJ4" s="39"/>
       <c r="AK4" s="38" t="s">
@@ -8319,7 +8320,9 @@
   </sheetPr>
   <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -8708,8 +8711,8 @@
       <c r="B35" s="44" t="s">
         <v>359</v>
       </c>
-      <c r="C35" s="44" t="s">
-        <v>360</v>
+      <c r="C35" s="104" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -8717,10 +8720,10 @@
         <v>293</v>
       </c>
       <c r="B36" s="44" t="s">
-        <v>361</v>
-      </c>
-      <c r="C36" s="44" t="s">
-        <v>362</v>
+        <v>360</v>
+      </c>
+      <c r="C36" s="104" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -8728,10 +8731,10 @@
         <v>293</v>
       </c>
       <c r="B37" s="44" t="s">
-        <v>363</v>
-      </c>
-      <c r="C37" s="44" t="s">
-        <v>364</v>
+        <v>361</v>
+      </c>
+      <c r="C37" s="59" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -8739,10 +8742,10 @@
         <v>293</v>
       </c>
       <c r="B38" s="44" t="s">
-        <v>365</v>
-      </c>
-      <c r="C38" s="44" t="s">
-        <v>366</v>
+        <v>362</v>
+      </c>
+      <c r="C38" s="104" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -8750,10 +8753,10 @@
         <v>293</v>
       </c>
       <c r="B39" s="44" t="s">
-        <v>367</v>
-      </c>
-      <c r="C39" s="44" t="s">
-        <v>368</v>
+        <v>363</v>
+      </c>
+      <c r="C39" s="59" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -8761,10 +8764,10 @@
         <v>293</v>
       </c>
       <c r="B40" s="44" t="s">
-        <v>369</v>
-      </c>
-      <c r="C40" s="44" t="s">
-        <v>370</v>
+        <v>364</v>
+      </c>
+      <c r="C40" s="104" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -8772,10 +8775,10 @@
         <v>293</v>
       </c>
       <c r="B41" s="44" t="s">
-        <v>371</v>
-      </c>
-      <c r="C41" s="44" t="s">
-        <v>372</v>
+        <v>365</v>
+      </c>
+      <c r="C41" s="59" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -8783,10 +8786,10 @@
         <v>293</v>
       </c>
       <c r="B42" s="44" t="s">
-        <v>373</v>
-      </c>
-      <c r="C42" s="44" t="s">
-        <v>374</v>
+        <v>366</v>
+      </c>
+      <c r="C42" s="104" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -8794,10 +8797,10 @@
         <v>293</v>
       </c>
       <c r="B43" s="44" t="s">
-        <v>375</v>
-      </c>
-      <c r="C43" s="44" t="s">
-        <v>376</v>
+        <v>367</v>
+      </c>
+      <c r="C43" s="59" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -8805,10 +8808,10 @@
         <v>293</v>
       </c>
       <c r="B44" s="44" t="s">
-        <v>377</v>
-      </c>
-      <c r="C44" s="44" t="s">
-        <v>378</v>
+        <v>368</v>
+      </c>
+      <c r="C44" s="104" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -8816,10 +8819,10 @@
         <v>293</v>
       </c>
       <c r="B45" s="44" t="s">
-        <v>379</v>
-      </c>
-      <c r="C45" s="44" t="s">
-        <v>380</v>
+        <v>369</v>
+      </c>
+      <c r="C45" s="59" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -8827,10 +8830,10 @@
         <v>293</v>
       </c>
       <c r="B46" s="44" t="s">
-        <v>381</v>
-      </c>
-      <c r="C46" s="44" t="s">
-        <v>382</v>
+        <v>370</v>
+      </c>
+      <c r="C46" s="104" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -8838,10 +8841,10 @@
         <v>293</v>
       </c>
       <c r="B47" s="44" t="s">
-        <v>383</v>
-      </c>
-      <c r="C47" s="44" t="s">
-        <v>384</v>
+        <v>371</v>
+      </c>
+      <c r="C47" s="59" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -8849,9 +8852,9 @@
         <v>293</v>
       </c>
       <c r="B48" s="44" t="s">
-        <v>385</v>
-      </c>
-      <c r="C48" s="44" t="s">
+        <v>372</v>
+      </c>
+      <c r="C48" s="104" t="s">
         <v>386</v>
       </c>
     </row>

--- a/TNR_JDD/RO/JDD.RO.ACT.xlsx
+++ b/TNR_JDD/RO/JDD.RO.ACT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="516" yWindow="624" windowWidth="18108" windowHeight="8148" activeTab="7"/>
+    <workbookView xWindow="516" yWindow="624" windowWidth="18108" windowHeight="8148" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Version" sheetId="1" r:id="rId1"/>
@@ -535,9 +535,6 @@
     <t>ST_DES*CAT*ID_CODCAT</t>
   </si>
   <si>
-    <t>ST_DES*CAL*ID_CODCAL = CAL.ID_CODCAL</t>
-  </si>
-  <si>
     <t>LOCATOR</t>
   </si>
   <si>
@@ -1187,6 +1184,9 @@
   </si>
   <si>
     <t>$TABSELECTED$ID_NUMZON</t>
+  </si>
+  <si>
+    <t>ST_DES*CAL*ID_CODCAL</t>
   </si>
 </sst>
 </file>
@@ -1666,11 +1666,11 @@
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4994,8 +4994,8 @@
   </sheetPr>
   <dimension ref="A1:BE18"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="S26" sqref="S26"/>
+    <sheetView tabSelected="1" topLeftCell="AS1" workbookViewId="0">
+      <selection activeCell="BE4" sqref="BE4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -5007,6 +5007,9 @@
     <col min="6" max="6" width="21.109375" customWidth="1"/>
     <col min="12" max="12" width="25.21875" customWidth="1"/>
     <col min="46" max="46" width="25.21875" customWidth="1"/>
+    <col min="54" max="55" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="41.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:57" ht="14.25" customHeight="1">
@@ -5311,10 +5314,10 @@
       <c r="AS3" s="34"/>
       <c r="AT3" s="34"/>
       <c r="AU3" s="34"/>
-      <c r="AV3" s="102" t="s">
+      <c r="AV3" s="103" t="s">
         <v>166</v>
       </c>
-      <c r="AW3" s="103"/>
+      <c r="AW3" s="104"/>
       <c r="AX3" s="34"/>
       <c r="AY3" s="34"/>
       <c r="AZ3" s="34"/>
@@ -5328,154 +5331,154 @@
       <c r="BD3" s="38" t="s">
         <v>168</v>
       </c>
-      <c r="BE3" s="38" t="s">
-        <v>169</v>
+      <c r="BE3" s="101" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="4" spans="1:57" ht="13.2">
       <c r="A4" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="B4" s="38" t="s">
         <v>170</v>
-      </c>
-      <c r="B4" s="38" t="s">
-        <v>171</v>
       </c>
       <c r="C4" s="39"/>
       <c r="D4" s="38" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E4" s="38" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F4" s="38" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G4" s="39"/>
       <c r="H4" s="38" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I4" s="38" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J4" s="38" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K4" s="38" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L4" s="39"/>
       <c r="M4" s="38" t="s">
+        <v>170</v>
+      </c>
+      <c r="N4" s="38" t="s">
+        <v>170</v>
+      </c>
+      <c r="O4" s="38" t="s">
         <v>171</v>
       </c>
-      <c r="N4" s="38" t="s">
+      <c r="P4" s="38" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q4" s="38" t="s">
         <v>171</v>
       </c>
-      <c r="O4" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="P4" s="38" t="s">
+      <c r="R4" s="38" t="s">
         <v>171</v>
       </c>
-      <c r="Q4" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="R4" s="38" t="s">
-        <v>172</v>
-      </c>
       <c r="S4" s="38" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="T4" s="38" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="U4" s="38" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="V4" s="38" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="W4" s="40"/>
       <c r="X4" s="39"/>
       <c r="Y4" s="39"/>
       <c r="Z4" s="38" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AA4" s="39"/>
       <c r="AB4" s="38" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AC4" s="38" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AD4" s="38" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AE4" s="38" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AF4" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="AG4" s="102" t="s">
-        <v>172</v>
-      </c>
-      <c r="AH4" s="103"/>
+        <v>171</v>
+      </c>
+      <c r="AG4" s="103" t="s">
+        <v>171</v>
+      </c>
+      <c r="AH4" s="104"/>
       <c r="AI4" s="39"/>
       <c r="AJ4" s="39"/>
       <c r="AK4" s="38" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AL4" s="38" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AM4" s="38" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AN4" s="39"/>
       <c r="AO4" s="40"/>
       <c r="AP4" s="38" t="s">
+        <v>171</v>
+      </c>
+      <c r="AQ4" s="38" t="s">
+        <v>171</v>
+      </c>
+      <c r="AR4" s="38" t="s">
+        <v>171</v>
+      </c>
+      <c r="AS4" s="38" t="s">
+        <v>171</v>
+      </c>
+      <c r="AT4" s="38" t="s">
+        <v>170</v>
+      </c>
+      <c r="AU4" s="38" t="s">
+        <v>171</v>
+      </c>
+      <c r="AV4" s="38" t="s">
         <v>172</v>
       </c>
-      <c r="AQ4" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="AR4" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="AS4" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="AT4" s="38" t="s">
-        <v>171</v>
-      </c>
-      <c r="AU4" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="AV4" s="38" t="s">
+      <c r="AW4" s="38" t="s">
         <v>173</v>
-      </c>
-      <c r="AW4" s="38" t="s">
-        <v>174</v>
       </c>
       <c r="AX4" s="39"/>
       <c r="AY4" s="39"/>
       <c r="AZ4" s="39"/>
       <c r="BA4" s="39"/>
       <c r="BB4" s="35" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="BC4" s="35" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="BD4" s="35" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="BE4" s="35" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:57" ht="13.2">
       <c r="A5" s="41" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B5" s="42"/>
       <c r="C5" s="42"/>
@@ -5536,163 +5539,163 @@
     </row>
     <row r="6" spans="1:57" ht="13.2">
       <c r="A6" s="43" t="s">
+        <v>175</v>
+      </c>
+      <c r="B6" s="44" t="s">
+        <v>175</v>
+      </c>
+      <c r="C6" s="45" t="s">
         <v>176</v>
       </c>
-      <c r="B6" s="44" t="s">
+      <c r="D6" s="44" t="s">
         <v>176</v>
       </c>
-      <c r="C6" s="45" t="s">
+      <c r="E6" s="44" t="s">
+        <v>175</v>
+      </c>
+      <c r="F6" s="44" t="s">
+        <v>175</v>
+      </c>
+      <c r="G6" s="46" t="s">
         <v>177</v>
       </c>
-      <c r="D6" s="44" t="s">
-        <v>177</v>
-      </c>
-      <c r="E6" s="44" t="s">
-        <v>176</v>
-      </c>
-      <c r="F6" s="44" t="s">
-        <v>176</v>
-      </c>
-      <c r="G6" s="46" t="s">
+      <c r="H6" s="44" t="s">
         <v>178</v>
       </c>
-      <c r="H6" s="44" t="s">
+      <c r="I6" s="44" t="s">
         <v>179</v>
       </c>
-      <c r="I6" s="44" t="s">
+      <c r="J6" s="44" t="s">
         <v>180</v>
-      </c>
-      <c r="J6" s="44" t="s">
-        <v>181</v>
       </c>
       <c r="K6" s="47">
         <v>10</v>
       </c>
       <c r="L6" s="45" t="s">
+        <v>181</v>
+      </c>
+      <c r="M6" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="M6" s="44" t="s">
+      <c r="N6" s="44" t="s">
         <v>183</v>
       </c>
-      <c r="N6" s="44" t="s">
+      <c r="O6" s="44" t="s">
         <v>184</v>
-      </c>
-      <c r="O6" s="44" t="s">
-        <v>185</v>
       </c>
       <c r="P6" s="47">
         <v>10</v>
       </c>
       <c r="Q6" s="44" t="s">
+        <v>184</v>
+      </c>
+      <c r="R6" s="44" t="s">
+        <v>184</v>
+      </c>
+      <c r="S6" s="44" t="s">
         <v>185</v>
       </c>
-      <c r="R6" s="44" t="s">
+      <c r="T6" s="44" t="s">
+        <v>184</v>
+      </c>
+      <c r="U6" s="44" t="s">
         <v>185</v>
-      </c>
-      <c r="S6" s="44" t="s">
-        <v>186</v>
-      </c>
-      <c r="T6" s="44" t="s">
-        <v>185</v>
-      </c>
-      <c r="U6" s="44" t="s">
-        <v>186</v>
       </c>
       <c r="V6" s="47">
         <v>80</v>
       </c>
       <c r="W6" s="48" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="X6" s="45" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y6" s="46" t="s">
+        <v>177</v>
+      </c>
+      <c r="Z6" s="44" t="s">
         <v>187</v>
       </c>
-      <c r="Y6" s="46" t="s">
-        <v>178</v>
-      </c>
-      <c r="Z6" s="44" t="s">
+      <c r="AA6" s="49" t="s">
+        <v>177</v>
+      </c>
+      <c r="AB6" s="44" t="s">
+        <v>185</v>
+      </c>
+      <c r="AC6" s="44" t="s">
+        <v>184</v>
+      </c>
+      <c r="AD6" s="44" t="s">
+        <v>184</v>
+      </c>
+      <c r="AE6" s="44" t="s">
+        <v>184</v>
+      </c>
+      <c r="AF6" s="44" t="s">
+        <v>184</v>
+      </c>
+      <c r="AG6" s="44" t="s">
+        <v>184</v>
+      </c>
+      <c r="AH6" s="45" t="s">
+        <v>186</v>
+      </c>
+      <c r="AI6" s="45" t="s">
         <v>188</v>
       </c>
-      <c r="AA6" s="49" t="s">
-        <v>178</v>
-      </c>
-      <c r="AB6" s="44" t="s">
-        <v>186</v>
-      </c>
-      <c r="AC6" s="44" t="s">
+      <c r="AJ6" s="45" t="s">
+        <v>177</v>
+      </c>
+      <c r="AK6" s="50" t="s">
+        <v>189</v>
+      </c>
+      <c r="AL6" s="50" t="s">
+        <v>190</v>
+      </c>
+      <c r="AM6" s="50" t="s">
+        <v>191</v>
+      </c>
+      <c r="AN6" s="49" t="s">
+        <v>177</v>
+      </c>
+      <c r="AO6" s="48" t="s">
+        <v>177</v>
+      </c>
+      <c r="AP6" s="45" t="s">
         <v>185</v>
       </c>
-      <c r="AD6" s="44" t="s">
+      <c r="AQ6" s="45" t="s">
         <v>185</v>
       </c>
-      <c r="AE6" s="44" t="s">
+      <c r="AR6" s="45" t="s">
         <v>185</v>
       </c>
-      <c r="AF6" s="44" t="s">
+      <c r="AS6" s="45" t="s">
         <v>185</v>
       </c>
-      <c r="AG6" s="44" t="s">
+      <c r="AT6" s="49" t="s">
+        <v>181</v>
+      </c>
+      <c r="AU6" s="44" t="s">
         <v>185</v>
-      </c>
-      <c r="AH6" s="45" t="s">
-        <v>187</v>
-      </c>
-      <c r="AI6" s="45" t="s">
-        <v>189</v>
-      </c>
-      <c r="AJ6" s="45" t="s">
-        <v>178</v>
-      </c>
-      <c r="AK6" s="50" t="s">
-        <v>190</v>
-      </c>
-      <c r="AL6" s="50" t="s">
-        <v>191</v>
-      </c>
-      <c r="AM6" s="50" t="s">
-        <v>192</v>
-      </c>
-      <c r="AN6" s="49" t="s">
-        <v>178</v>
-      </c>
-      <c r="AO6" s="48" t="s">
-        <v>178</v>
-      </c>
-      <c r="AP6" s="45" t="s">
-        <v>186</v>
-      </c>
-      <c r="AQ6" s="45" t="s">
-        <v>186</v>
-      </c>
-      <c r="AR6" s="45" t="s">
-        <v>186</v>
-      </c>
-      <c r="AS6" s="45" t="s">
-        <v>186</v>
-      </c>
-      <c r="AT6" s="49" t="s">
-        <v>182</v>
-      </c>
-      <c r="AU6" s="44" t="s">
-        <v>186</v>
       </c>
       <c r="AV6" s="47">
         <v>0</v>
       </c>
       <c r="AW6" s="44" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AX6" s="45" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AY6" s="45" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AZ6" s="45" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="BA6" s="45" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="BB6" s="51"/>
       <c r="BC6" s="51"/>
@@ -5701,336 +5704,336 @@
     </row>
     <row r="7" spans="1:57" ht="13.2">
       <c r="A7" s="43" t="s">
+        <v>193</v>
+      </c>
+      <c r="B7" s="44" t="s">
+        <v>193</v>
+      </c>
+      <c r="C7" s="45" t="s">
         <v>194</v>
       </c>
-      <c r="B7" s="44" t="s">
+      <c r="D7" s="44" t="s">
         <v>194</v>
       </c>
-      <c r="C7" s="45" t="s">
+      <c r="E7" s="44" t="s">
+        <v>193</v>
+      </c>
+      <c r="F7" s="44" t="s">
+        <v>193</v>
+      </c>
+      <c r="G7" s="46" t="s">
+        <v>177</v>
+      </c>
+      <c r="H7" s="44" t="s">
         <v>195</v>
       </c>
-      <c r="D7" s="44" t="s">
-        <v>195</v>
-      </c>
-      <c r="E7" s="44" t="s">
-        <v>194</v>
-      </c>
-      <c r="F7" s="44" t="s">
-        <v>194</v>
-      </c>
-      <c r="G7" s="46" t="s">
-        <v>178</v>
-      </c>
-      <c r="H7" s="44" t="s">
+      <c r="I7" s="44" t="s">
         <v>196</v>
       </c>
-      <c r="I7" s="44" t="s">
+      <c r="J7" s="44" t="s">
         <v>197</v>
-      </c>
-      <c r="J7" s="44" t="s">
-        <v>198</v>
       </c>
       <c r="K7" s="47">
         <v>13</v>
       </c>
       <c r="L7" s="45" t="s">
+        <v>198</v>
+      </c>
+      <c r="M7" s="44" t="s">
         <v>199</v>
       </c>
-      <c r="M7" s="44" t="s">
+      <c r="N7" s="44" t="s">
         <v>200</v>
       </c>
-      <c r="N7" s="44" t="s">
-        <v>201</v>
-      </c>
       <c r="O7" s="44" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P7" s="47">
         <v>20</v>
       </c>
       <c r="Q7" s="44" t="s">
+        <v>184</v>
+      </c>
+      <c r="R7" s="44" t="s">
+        <v>184</v>
+      </c>
+      <c r="S7" s="44" t="s">
         <v>185</v>
       </c>
-      <c r="R7" s="44" t="s">
+      <c r="T7" s="44" t="s">
+        <v>184</v>
+      </c>
+      <c r="U7" s="44" t="s">
         <v>185</v>
-      </c>
-      <c r="S7" s="44" t="s">
-        <v>186</v>
-      </c>
-      <c r="T7" s="44" t="s">
-        <v>185</v>
-      </c>
-      <c r="U7" s="44" t="s">
-        <v>186</v>
       </c>
       <c r="V7" s="47">
         <v>90</v>
       </c>
       <c r="W7" s="48" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="X7" s="45" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Y7" s="46" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="Z7" s="44" t="s">
+        <v>201</v>
+      </c>
+      <c r="AA7" s="49" t="s">
+        <v>177</v>
+      </c>
+      <c r="AB7" s="44" t="s">
+        <v>185</v>
+      </c>
+      <c r="AC7" s="44" t="s">
+        <v>184</v>
+      </c>
+      <c r="AD7" s="44" t="s">
+        <v>184</v>
+      </c>
+      <c r="AE7" s="44" t="s">
+        <v>184</v>
+      </c>
+      <c r="AF7" s="44" t="s">
+        <v>184</v>
+      </c>
+      <c r="AG7" s="44" t="s">
+        <v>184</v>
+      </c>
+      <c r="AH7" s="45" t="s">
+        <v>186</v>
+      </c>
+      <c r="AI7" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="AJ7" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="AK7" s="50" t="s">
         <v>202</v>
       </c>
-      <c r="AA7" s="49" t="s">
-        <v>178</v>
-      </c>
-      <c r="AB7" s="44" t="s">
-        <v>186</v>
-      </c>
-      <c r="AC7" s="44" t="s">
+      <c r="AL7" s="50" t="s">
+        <v>203</v>
+      </c>
+      <c r="AM7" s="50" t="s">
+        <v>204</v>
+      </c>
+      <c r="AN7" s="49" t="s">
+        <v>177</v>
+      </c>
+      <c r="AO7" s="48" t="s">
+        <v>177</v>
+      </c>
+      <c r="AP7" s="45" t="s">
         <v>185</v>
       </c>
-      <c r="AD7" s="44" t="s">
+      <c r="AQ7" s="45" t="s">
         <v>185</v>
       </c>
-      <c r="AE7" s="44" t="s">
+      <c r="AR7" s="45" t="s">
         <v>185</v>
       </c>
-      <c r="AF7" s="44" t="s">
+      <c r="AS7" s="45" t="s">
         <v>185</v>
       </c>
-      <c r="AG7" s="44" t="s">
+      <c r="AT7" s="44" t="s">
+        <v>198</v>
+      </c>
+      <c r="AU7" s="44" t="s">
         <v>185</v>
-      </c>
-      <c r="AH7" s="45" t="s">
-        <v>187</v>
-      </c>
-      <c r="AI7" s="45" t="s">
-        <v>189</v>
-      </c>
-      <c r="AJ7" s="45" t="s">
-        <v>189</v>
-      </c>
-      <c r="AK7" s="50" t="s">
-        <v>203</v>
-      </c>
-      <c r="AL7" s="50" t="s">
-        <v>204</v>
-      </c>
-      <c r="AM7" s="50" t="s">
-        <v>205</v>
-      </c>
-      <c r="AN7" s="49" t="s">
-        <v>178</v>
-      </c>
-      <c r="AO7" s="48" t="s">
-        <v>178</v>
-      </c>
-      <c r="AP7" s="45" t="s">
-        <v>186</v>
-      </c>
-      <c r="AQ7" s="45" t="s">
-        <v>186</v>
-      </c>
-      <c r="AR7" s="45" t="s">
-        <v>186</v>
-      </c>
-      <c r="AS7" s="45" t="s">
-        <v>186</v>
-      </c>
-      <c r="AT7" s="44" t="s">
-        <v>199</v>
-      </c>
-      <c r="AU7" s="44" t="s">
-        <v>186</v>
       </c>
       <c r="AV7" s="47">
         <v>0</v>
       </c>
       <c r="AW7" s="44" t="s">
+        <v>192</v>
+      </c>
+      <c r="AX7" s="45" t="s">
+        <v>186</v>
+      </c>
+      <c r="AY7" s="45" t="s">
+        <v>186</v>
+      </c>
+      <c r="AZ7" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="BA7" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="BB7" s="52" t="s">
         <v>193</v>
       </c>
-      <c r="AX7" s="45" t="s">
-        <v>187</v>
-      </c>
-      <c r="AY7" s="45" t="s">
-        <v>187</v>
-      </c>
-      <c r="AZ7" s="45" t="s">
-        <v>189</v>
-      </c>
-      <c r="BA7" s="45" t="s">
-        <v>189</v>
-      </c>
-      <c r="BB7" s="52" t="s">
-        <v>194</v>
-      </c>
       <c r="BC7" s="52" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BD7" s="52" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="BE7" s="52" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:57" ht="13.2">
       <c r="A8" s="53" t="s">
+        <v>206</v>
+      </c>
+      <c r="B8" s="44" t="s">
+        <v>206</v>
+      </c>
+      <c r="C8" s="53" t="s">
         <v>207</v>
       </c>
-      <c r="B8" s="44" t="s">
+      <c r="D8" s="53" t="s">
         <v>207</v>
       </c>
-      <c r="C8" s="53" t="s">
+      <c r="E8" s="53" t="s">
         <v>208</v>
       </c>
-      <c r="D8" s="53" t="s">
+      <c r="F8" s="53" t="s">
         <v>208</v>
       </c>
-      <c r="E8" s="53" t="s">
+      <c r="G8" s="46" t="s">
+        <v>177</v>
+      </c>
+      <c r="H8" s="53" t="s">
         <v>209</v>
       </c>
-      <c r="F8" s="53" t="s">
-        <v>209</v>
-      </c>
-      <c r="G8" s="46" t="s">
-        <v>178</v>
-      </c>
-      <c r="H8" s="53" t="s">
+      <c r="I8" s="53" t="s">
         <v>210</v>
       </c>
-      <c r="I8" s="53" t="s">
+      <c r="J8" s="53" t="s">
         <v>211</v>
-      </c>
-      <c r="J8" s="53" t="s">
-        <v>212</v>
       </c>
       <c r="K8" s="54">
         <v>12</v>
       </c>
       <c r="L8" s="53" t="s">
+        <v>212</v>
+      </c>
+      <c r="M8" s="53" t="s">
         <v>213</v>
       </c>
-      <c r="M8" s="53" t="s">
+      <c r="N8" s="53" t="s">
         <v>214</v>
       </c>
-      <c r="N8" s="53" t="s">
-        <v>215</v>
-      </c>
       <c r="O8" s="53" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P8" s="54">
         <v>0</v>
       </c>
       <c r="Q8" s="53" t="s">
+        <v>184</v>
+      </c>
+      <c r="R8" s="53" t="s">
+        <v>184</v>
+      </c>
+      <c r="S8" s="44" t="s">
         <v>185</v>
       </c>
-      <c r="R8" s="53" t="s">
+      <c r="T8" s="53" t="s">
+        <v>184</v>
+      </c>
+      <c r="U8" s="53" t="s">
         <v>185</v>
-      </c>
-      <c r="S8" s="44" t="s">
-        <v>186</v>
-      </c>
-      <c r="T8" s="53" t="s">
-        <v>185</v>
-      </c>
-      <c r="U8" s="53" t="s">
-        <v>186</v>
       </c>
       <c r="V8" s="54">
         <v>0</v>
       </c>
       <c r="W8" s="48" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="X8" s="45" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Y8" s="46" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="Z8" s="53" t="s">
+        <v>215</v>
+      </c>
+      <c r="AA8" s="49" t="s">
+        <v>177</v>
+      </c>
+      <c r="AB8" s="44" t="s">
+        <v>185</v>
+      </c>
+      <c r="AC8" s="53" t="s">
+        <v>185</v>
+      </c>
+      <c r="AD8" s="53" t="s">
+        <v>185</v>
+      </c>
+      <c r="AE8" s="53" t="s">
+        <v>185</v>
+      </c>
+      <c r="AF8" s="53" t="s">
+        <v>185</v>
+      </c>
+      <c r="AG8" s="53" t="s">
+        <v>185</v>
+      </c>
+      <c r="AH8" s="45" t="s">
+        <v>186</v>
+      </c>
+      <c r="AI8" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="AJ8" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="AK8" s="55" t="s">
         <v>216</v>
       </c>
-      <c r="AA8" s="49" t="s">
-        <v>178</v>
-      </c>
-      <c r="AB8" s="44" t="s">
-        <v>186</v>
-      </c>
-      <c r="AC8" s="53" t="s">
-        <v>186</v>
-      </c>
-      <c r="AD8" s="53" t="s">
-        <v>186</v>
-      </c>
-      <c r="AE8" s="53" t="s">
-        <v>186</v>
-      </c>
-      <c r="AF8" s="53" t="s">
-        <v>186</v>
-      </c>
-      <c r="AG8" s="53" t="s">
-        <v>186</v>
-      </c>
-      <c r="AH8" s="45" t="s">
-        <v>187</v>
-      </c>
-      <c r="AI8" s="45" t="s">
-        <v>189</v>
-      </c>
-      <c r="AJ8" s="45" t="s">
-        <v>189</v>
-      </c>
-      <c r="AK8" s="55" t="s">
-        <v>217</v>
-      </c>
       <c r="AL8" s="55" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AM8" s="55" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AN8" s="49" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AO8" s="48" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AP8" s="45" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AQ8" s="45" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AR8" s="45" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AS8" s="45" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AT8" s="53" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AU8" s="44" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AV8" s="47">
         <v>0</v>
       </c>
       <c r="AW8" s="44" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AX8" s="45" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AY8" s="45" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AZ8" s="45" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="BA8" s="45" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="BB8" s="56"/>
       <c r="BC8" s="56"/>
@@ -6039,10 +6042,10 @@
     </row>
     <row r="9" spans="1:57" ht="13.2">
       <c r="A9" s="43" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B9" s="44" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C9" s="56"/>
       <c r="D9" s="56"/>
@@ -6102,10 +6105,10 @@
     </row>
     <row r="10" spans="1:57" ht="13.2">
       <c r="A10" s="43" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B10" s="44" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C10" s="56"/>
       <c r="D10" s="56"/>
@@ -6685,10 +6688,10 @@
         <v>159</v>
       </c>
       <c r="B2" s="63" t="s">
+        <v>219</v>
+      </c>
+      <c r="C2" s="63" t="s">
         <v>220</v>
-      </c>
-      <c r="C2" s="63" t="s">
-        <v>221</v>
       </c>
       <c r="D2" s="64"/>
       <c r="E2" s="64"/>
@@ -6704,22 +6707,22 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="33" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B4" s="64"/>
       <c r="C4" s="66" t="s">
+        <v>221</v>
+      </c>
+      <c r="D4" s="66" t="s">
         <v>222</v>
       </c>
-      <c r="D4" s="66" t="s">
+      <c r="E4" s="66" t="s">
         <v>223</v>
-      </c>
-      <c r="E4" s="66" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="41" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B5" s="67"/>
       <c r="C5" s="67"/>
@@ -6728,47 +6731,47 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="43" t="s">
+        <v>224</v>
+      </c>
+      <c r="B6" s="45" t="s">
+        <v>224</v>
+      </c>
+      <c r="C6" s="44" t="s">
         <v>225</v>
       </c>
-      <c r="B6" s="45" t="s">
-        <v>225</v>
-      </c>
-      <c r="C6" s="44" t="s">
-        <v>226</v>
-      </c>
       <c r="D6" s="44" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E6" s="44" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="43" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B7" s="45" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C7" s="44" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D7" s="44" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E7" s="44" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="53" t="s">
+        <v>227</v>
+      </c>
+      <c r="B8" s="45" t="s">
+        <v>227</v>
+      </c>
+      <c r="C8" s="44" t="s">
         <v>228</v>
-      </c>
-      <c r="B8" s="45" t="s">
-        <v>228</v>
-      </c>
-      <c r="C8" s="44" t="s">
-        <v>229</v>
       </c>
       <c r="D8" s="68">
         <v>44562</v>
@@ -6779,13 +6782,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="53" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B9" s="45" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C9" s="44" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D9" s="68">
         <v>44562</v>
@@ -6796,39 +6799,39 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="43" t="s">
+        <v>230</v>
+      </c>
+      <c r="B10" s="45" t="s">
+        <v>230</v>
+      </c>
+      <c r="C10" s="44" t="s">
         <v>231</v>
-      </c>
-      <c r="B10" s="45" t="s">
-        <v>231</v>
-      </c>
-      <c r="C10" s="44" t="s">
-        <v>232</v>
       </c>
       <c r="D10" s="56"/>
       <c r="E10" s="56"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="43" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B11" s="45" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C11" s="44" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D11" s="56"/>
       <c r="E11" s="56"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="43" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B12" s="45" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C12" s="44" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D12" s="69">
         <v>44927</v>
@@ -6913,10 +6916,10 @@
         <v>159</v>
       </c>
       <c r="B2" s="63" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D2" s="70"/>
       <c r="E2" s="70"/>
@@ -6934,25 +6937,25 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="33" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B4" s="34"/>
       <c r="C4" s="66" t="s">
+        <v>235</v>
+      </c>
+      <c r="D4" s="66" t="s">
         <v>236</v>
       </c>
-      <c r="D4" s="66" t="s">
+      <c r="E4" s="66" t="s">
         <v>237</v>
       </c>
-      <c r="E4" s="66" t="s">
+      <c r="F4" s="66" t="s">
         <v>238</v>
-      </c>
-      <c r="F4" s="66" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="41" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B5" s="42"/>
       <c r="C5" s="42"/>
@@ -6962,56 +6965,56 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="43" t="s">
+        <v>239</v>
+      </c>
+      <c r="B6" s="45" t="s">
+        <v>239</v>
+      </c>
+      <c r="C6" s="44" t="s">
         <v>240</v>
       </c>
-      <c r="B6" s="45" t="s">
-        <v>240</v>
-      </c>
-      <c r="C6" s="44" t="s">
+      <c r="D6" s="44" t="s">
         <v>241</v>
       </c>
-      <c r="D6" s="44" t="s">
-        <v>242</v>
-      </c>
       <c r="E6" s="44" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F6" s="44" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="43" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B7" s="45" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C7" s="44" t="s">
+        <v>242</v>
+      </c>
+      <c r="D7" s="44" t="s">
         <v>243</v>
       </c>
-      <c r="D7" s="44" t="s">
-        <v>244</v>
-      </c>
       <c r="E7" s="44" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F7" s="44" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="53" t="s">
+        <v>244</v>
+      </c>
+      <c r="B8" s="45" t="s">
+        <v>244</v>
+      </c>
+      <c r="C8" s="44" t="s">
         <v>245</v>
       </c>
-      <c r="B8" s="45" t="s">
-        <v>245</v>
-      </c>
-      <c r="C8" s="44" t="s">
+      <c r="D8" s="44" t="s">
         <v>246</v>
-      </c>
-      <c r="D8" s="44" t="s">
-        <v>247</v>
       </c>
       <c r="E8" s="68">
         <v>44562</v>
@@ -7022,16 +7025,16 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="53" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B9" s="45" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C9" s="44" t="s">
+        <v>247</v>
+      </c>
+      <c r="D9" s="44" t="s">
         <v>248</v>
-      </c>
-      <c r="D9" s="44" t="s">
-        <v>249</v>
       </c>
       <c r="E9" s="68">
         <v>44562</v>
@@ -7042,13 +7045,13 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="43" t="s">
+        <v>249</v>
+      </c>
+      <c r="B10" s="45" t="s">
+        <v>249</v>
+      </c>
+      <c r="C10" s="44" t="s">
         <v>250</v>
-      </c>
-      <c r="B10" s="45" t="s">
-        <v>250</v>
-      </c>
-      <c r="C10" s="44" t="s">
-        <v>251</v>
       </c>
       <c r="D10" s="56"/>
       <c r="E10" s="56"/>
@@ -7056,13 +7059,13 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="43" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B11" s="45" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C11" s="44" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D11" s="56"/>
       <c r="E11" s="56"/>
@@ -7070,16 +7073,16 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="43" t="s">
+        <v>252</v>
+      </c>
+      <c r="B12" s="45" t="s">
+        <v>252</v>
+      </c>
+      <c r="C12" s="44" t="s">
+        <v>252</v>
+      </c>
+      <c r="D12" s="44" t="s">
         <v>253</v>
-      </c>
-      <c r="B12" s="45" t="s">
-        <v>253</v>
-      </c>
-      <c r="C12" s="44" t="s">
-        <v>253</v>
-      </c>
-      <c r="D12" s="44" t="s">
-        <v>254</v>
       </c>
       <c r="E12" s="69">
         <v>44927</v>
@@ -7161,11 +7164,11 @@
       <c r="B2" s="34"/>
       <c r="C2" s="34"/>
       <c r="D2" s="35" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E2" s="34"/>
       <c r="F2" s="35" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G2" s="34"/>
       <c r="H2" s="34"/>
@@ -7183,7 +7186,7 @@
       <c r="B3" s="34"/>
       <c r="C3" s="34"/>
       <c r="D3" s="35" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E3" s="34"/>
       <c r="F3" s="34"/>
@@ -7198,10 +7201,10 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="33" t="s">
+        <v>256</v>
+      </c>
+      <c r="B4" s="63" t="s">
         <v>257</v>
-      </c>
-      <c r="B4" s="63" t="s">
-        <v>258</v>
       </c>
       <c r="C4" s="72"/>
       <c r="D4" s="72"/>
@@ -7218,24 +7221,24 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="33" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B5" s="34"/>
       <c r="C5" s="34"/>
-      <c r="D5" s="102" t="s">
+      <c r="D5" s="103" t="s">
+        <v>258</v>
+      </c>
+      <c r="E5" s="104"/>
+      <c r="F5" s="104"/>
+      <c r="G5" s="104"/>
+      <c r="H5" s="38" t="s">
         <v>259</v>
       </c>
-      <c r="E5" s="103"/>
-      <c r="F5" s="103"/>
-      <c r="G5" s="103"/>
-      <c r="H5" s="38" t="s">
+      <c r="I5" s="35" t="s">
         <v>260</v>
       </c>
-      <c r="I5" s="35" t="s">
+      <c r="J5" s="38" t="s">
         <v>261</v>
-      </c>
-      <c r="J5" s="38" t="s">
-        <v>262</v>
       </c>
       <c r="K5" s="38"/>
       <c r="L5" s="38"/>
@@ -7244,7 +7247,7 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="41" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B6" s="42"/>
       <c r="C6" s="42"/>
@@ -7262,95 +7265,95 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="43" t="s">
+        <v>262</v>
+      </c>
+      <c r="B7" s="45" t="s">
         <v>263</v>
-      </c>
-      <c r="B7" s="45" t="s">
-        <v>264</v>
       </c>
       <c r="C7" s="73">
         <v>0</v>
       </c>
       <c r="D7" s="44" t="s">
+        <v>264</v>
+      </c>
+      <c r="E7" s="45" t="s">
         <v>265</v>
       </c>
-      <c r="E7" s="45" t="s">
-        <v>266</v>
-      </c>
       <c r="F7" s="44" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G7" s="45" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H7" s="44" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I7" s="44" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J7" s="45" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K7" s="45" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L7" s="45" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M7" s="45" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N7" s="45" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="43" t="s">
+        <v>262</v>
+      </c>
+      <c r="B8" s="45" t="s">
         <v>263</v>
-      </c>
-      <c r="B8" s="45" t="s">
-        <v>264</v>
       </c>
       <c r="C8" s="73">
         <v>0</v>
       </c>
       <c r="D8" s="44" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E8" s="45" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F8" s="44" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G8" s="45" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H8" s="44" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I8" s="44" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J8" s="45" t="s">
+        <v>185</v>
+      </c>
+      <c r="K8" s="45" t="s">
         <v>186</v>
       </c>
-      <c r="K8" s="45" t="s">
-        <v>187</v>
-      </c>
       <c r="L8" s="45" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M8" s="45" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N8" s="45" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="53" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B9" s="73">
         <v>1001</v>
@@ -7359,16 +7362,16 @@
         <v>0</v>
       </c>
       <c r="D9" s="49" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E9" s="45" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F9" s="44" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G9" s="45" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H9" s="74">
         <v>44562</v>
@@ -7377,24 +7380,24 @@
         <v>45659</v>
       </c>
       <c r="J9" s="75" t="s">
+        <v>185</v>
+      </c>
+      <c r="K9" s="45" t="s">
         <v>186</v>
       </c>
-      <c r="K9" s="45" t="s">
-        <v>187</v>
-      </c>
       <c r="L9" s="45" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M9" s="45" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N9" s="45" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="53" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B10" s="73">
         <v>1002</v>
@@ -7403,16 +7406,16 @@
         <v>0</v>
       </c>
       <c r="D10" s="44" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E10" s="45" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F10" s="44" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G10" s="45" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H10" s="74">
         <v>44562</v>
@@ -7421,41 +7424,41 @@
         <v>46025</v>
       </c>
       <c r="J10" s="75" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K10" s="45" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L10" s="45" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M10" s="45" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N10" s="45" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="43" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B11" s="73">
         <v>1003</v>
       </c>
       <c r="C11" s="56"/>
       <c r="D11" s="44" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E11" s="56"/>
       <c r="F11" s="44" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G11" s="56"/>
       <c r="H11" s="76"/>
       <c r="I11" s="76"/>
       <c r="J11" s="45" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K11" s="56"/>
       <c r="L11" s="56"/>
@@ -7464,24 +7467,24 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="43" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B12" s="73">
         <v>1004</v>
       </c>
       <c r="C12" s="51"/>
       <c r="D12" s="44" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E12" s="51"/>
       <c r="F12" s="44" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G12" s="51"/>
       <c r="H12" s="51"/>
       <c r="I12" s="51"/>
       <c r="J12" s="45" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K12" s="51"/>
       <c r="L12" s="51"/>
@@ -7490,7 +7493,7 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="43" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B13" s="73">
         <v>1005</v>
@@ -7499,16 +7502,16 @@
         <v>0</v>
       </c>
       <c r="D13" s="44" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E13" s="45" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F13" s="44" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G13" s="45" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H13" s="69">
         <v>44927</v>
@@ -7517,19 +7520,19 @@
         <v>46390</v>
       </c>
       <c r="J13" s="45" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K13" s="45" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L13" s="45" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M13" s="45" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N13" s="45" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -7811,7 +7814,7 @@
         <v>119</v>
       </c>
       <c r="BB1" s="83" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="2" spans="1:54">
@@ -7887,7 +7890,7 @@
       <c r="AZ2" s="34"/>
       <c r="BA2" s="34"/>
       <c r="BB2" s="85" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="3" spans="1:54">
@@ -7942,10 +7945,10 @@
       <c r="AS3" s="34"/>
       <c r="AT3" s="34"/>
       <c r="AU3" s="34"/>
-      <c r="AV3" s="102" t="s">
+      <c r="AV3" s="103" t="s">
         <v>166</v>
       </c>
-      <c r="AW3" s="103"/>
+      <c r="AW3" s="104"/>
       <c r="AX3" s="34"/>
       <c r="AY3" s="34"/>
       <c r="AZ3" s="34"/>
@@ -7954,127 +7957,127 @@
     </row>
     <row r="4" spans="1:54">
       <c r="A4" s="84" t="s">
+        <v>169</v>
+      </c>
+      <c r="B4" s="38" t="s">
         <v>170</v>
-      </c>
-      <c r="B4" s="38" t="s">
-        <v>171</v>
       </c>
       <c r="C4" s="39"/>
       <c r="D4" s="38" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E4" s="38" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F4" s="38" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G4" s="39"/>
       <c r="H4" s="38" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I4" s="38" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J4" s="38" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K4" s="38" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L4" s="39"/>
       <c r="M4" s="38" t="s">
+        <v>170</v>
+      </c>
+      <c r="N4" s="38" t="s">
+        <v>170</v>
+      </c>
+      <c r="O4" s="38" t="s">
         <v>171</v>
       </c>
-      <c r="N4" s="38" t="s">
+      <c r="P4" s="38" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q4" s="38" t="s">
         <v>171</v>
       </c>
-      <c r="O4" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="P4" s="38" t="s">
+      <c r="R4" s="38" t="s">
         <v>171</v>
       </c>
-      <c r="Q4" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="R4" s="38" t="s">
-        <v>172</v>
-      </c>
       <c r="S4" s="38" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="T4" s="38" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="U4" s="38" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="V4" s="38" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="W4" s="40"/>
       <c r="X4" s="39"/>
       <c r="Y4" s="39"/>
       <c r="Z4" s="38" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AA4" s="39"/>
       <c r="AB4" s="38" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AC4" s="38" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AD4" s="38" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AE4" s="38" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AF4" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="AG4" s="102" t="s">
-        <v>172</v>
-      </c>
-      <c r="AH4" s="103"/>
+        <v>171</v>
+      </c>
+      <c r="AG4" s="103" t="s">
+        <v>171</v>
+      </c>
+      <c r="AH4" s="104"/>
       <c r="AI4" s="39"/>
       <c r="AJ4" s="39"/>
       <c r="AK4" s="38" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AL4" s="38" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AM4" s="38" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AN4" s="39"/>
       <c r="AO4" s="40"/>
       <c r="AP4" s="38" t="s">
+        <v>171</v>
+      </c>
+      <c r="AQ4" s="38" t="s">
+        <v>171</v>
+      </c>
+      <c r="AR4" s="38" t="s">
+        <v>171</v>
+      </c>
+      <c r="AS4" s="38" t="s">
+        <v>171</v>
+      </c>
+      <c r="AT4" s="38" t="s">
+        <v>170</v>
+      </c>
+      <c r="AU4" s="38" t="s">
+        <v>171</v>
+      </c>
+      <c r="AV4" s="38" t="s">
         <v>172</v>
       </c>
-      <c r="AQ4" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="AR4" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="AS4" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="AT4" s="38" t="s">
-        <v>171</v>
-      </c>
-      <c r="AU4" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="AV4" s="38" t="s">
+      <c r="AW4" s="38" t="s">
         <v>173</v>
-      </c>
-      <c r="AW4" s="38" t="s">
-        <v>174</v>
       </c>
       <c r="AX4" s="39"/>
       <c r="AY4" s="39"/>
@@ -8084,7 +8087,7 @@
     </row>
     <row r="5" spans="1:54">
       <c r="A5" s="87" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B5" s="88"/>
       <c r="C5" s="88"/>
@@ -8142,166 +8145,166 @@
     </row>
     <row r="6" spans="1:54">
       <c r="A6" s="43" t="s">
+        <v>276</v>
+      </c>
+      <c r="B6" s="44" t="s">
+        <v>276</v>
+      </c>
+      <c r="C6" s="44" t="s">
         <v>277</v>
       </c>
-      <c r="B6" s="44" t="s">
+      <c r="D6" s="44" t="s">
         <v>277</v>
       </c>
-      <c r="C6" s="44" t="s">
+      <c r="E6" s="44" t="s">
         <v>278</v>
       </c>
-      <c r="D6" s="44" t="s">
+      <c r="F6" s="44" t="s">
         <v>278</v>
       </c>
-      <c r="E6" s="44" t="s">
+      <c r="G6" s="45" t="s">
+        <v>177</v>
+      </c>
+      <c r="H6" s="90" t="s">
         <v>279</v>
       </c>
-      <c r="F6" s="44" t="s">
-        <v>279</v>
-      </c>
-      <c r="G6" s="45" t="s">
-        <v>178</v>
-      </c>
-      <c r="H6" s="90" t="s">
+      <c r="I6" s="90" t="s">
         <v>280</v>
       </c>
-      <c r="I6" s="90" t="s">
+      <c r="J6" s="44" t="s">
         <v>281</v>
       </c>
-      <c r="J6" s="44" t="s">
+      <c r="K6" s="90" t="s">
+        <v>177</v>
+      </c>
+      <c r="L6" s="91" t="s">
         <v>282</v>
       </c>
-      <c r="K6" s="90" t="s">
-        <v>178</v>
-      </c>
-      <c r="L6" s="91" t="s">
+      <c r="M6" s="44" t="s">
         <v>283</v>
       </c>
-      <c r="M6" s="44" t="s">
+      <c r="N6" s="44" t="s">
         <v>284</v>
       </c>
-      <c r="N6" s="44" t="s">
-        <v>285</v>
-      </c>
       <c r="O6" s="44" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P6" s="47">
         <v>0</v>
       </c>
       <c r="Q6" s="44" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="R6" s="44" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="S6" s="44" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="T6" s="44" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U6" s="44" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="V6" s="47">
         <v>100</v>
       </c>
       <c r="W6" s="92" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="X6" s="45" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Y6" s="45" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="Z6" s="44" t="s">
+        <v>285</v>
+      </c>
+      <c r="AA6" s="44" t="s">
+        <v>177</v>
+      </c>
+      <c r="AB6" s="44" t="s">
+        <v>185</v>
+      </c>
+      <c r="AC6" s="44" t="s">
+        <v>184</v>
+      </c>
+      <c r="AD6" s="44" t="s">
+        <v>184</v>
+      </c>
+      <c r="AE6" s="44" t="s">
+        <v>184</v>
+      </c>
+      <c r="AF6" s="44" t="s">
+        <v>184</v>
+      </c>
+      <c r="AG6" s="44" t="s">
+        <v>184</v>
+      </c>
+      <c r="AH6" s="45" t="s">
+        <v>186</v>
+      </c>
+      <c r="AI6" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="AJ6" s="45" t="s">
+        <v>177</v>
+      </c>
+      <c r="AK6" s="93" t="s">
         <v>286</v>
       </c>
-      <c r="AA6" s="44" t="s">
-        <v>178</v>
-      </c>
-      <c r="AB6" s="44" t="s">
-        <v>186</v>
-      </c>
-      <c r="AC6" s="44" t="s">
+      <c r="AL6" s="93" t="s">
+        <v>287</v>
+      </c>
+      <c r="AM6" s="93" t="s">
+        <v>288</v>
+      </c>
+      <c r="AN6" s="44" t="s">
+        <v>177</v>
+      </c>
+      <c r="AO6" s="48" t="s">
+        <v>177</v>
+      </c>
+      <c r="AP6" s="45" t="s">
         <v>185</v>
       </c>
-      <c r="AD6" s="44" t="s">
+      <c r="AQ6" s="45" t="s">
         <v>185</v>
       </c>
-      <c r="AE6" s="44" t="s">
+      <c r="AR6" s="45" t="s">
         <v>185</v>
       </c>
-      <c r="AF6" s="44" t="s">
+      <c r="AS6" s="45" t="s">
         <v>185</v>
       </c>
-      <c r="AG6" s="44" t="s">
+      <c r="AT6" s="44" t="s">
+        <v>282</v>
+      </c>
+      <c r="AU6" s="44" t="s">
         <v>185</v>
-      </c>
-      <c r="AH6" s="45" t="s">
-        <v>187</v>
-      </c>
-      <c r="AI6" s="45" t="s">
-        <v>189</v>
-      </c>
-      <c r="AJ6" s="45" t="s">
-        <v>178</v>
-      </c>
-      <c r="AK6" s="93" t="s">
-        <v>287</v>
-      </c>
-      <c r="AL6" s="93" t="s">
-        <v>288</v>
-      </c>
-      <c r="AM6" s="93" t="s">
-        <v>289</v>
-      </c>
-      <c r="AN6" s="44" t="s">
-        <v>178</v>
-      </c>
-      <c r="AO6" s="48" t="s">
-        <v>178</v>
-      </c>
-      <c r="AP6" s="45" t="s">
-        <v>186</v>
-      </c>
-      <c r="AQ6" s="45" t="s">
-        <v>186</v>
-      </c>
-      <c r="AR6" s="45" t="s">
-        <v>186</v>
-      </c>
-      <c r="AS6" s="45" t="s">
-        <v>186</v>
-      </c>
-      <c r="AT6" s="44" t="s">
-        <v>283</v>
-      </c>
-      <c r="AU6" s="44" t="s">
-        <v>186</v>
       </c>
       <c r="AV6" s="47">
         <v>0</v>
       </c>
       <c r="AW6" s="44" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AX6" s="45" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AY6" s="45" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AZ6" s="45" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="BA6" s="45" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="BB6" s="90" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -8320,7 +8323,7 @@
   </sheetPr>
   <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
@@ -8332,46 +8335,46 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="28" t="s">
+        <v>289</v>
+      </c>
+      <c r="B1" s="94" t="s">
         <v>290</v>
       </c>
-      <c r="B1" s="94" t="s">
+      <c r="C1" s="94" t="s">
         <v>291</v>
-      </c>
-      <c r="C1" s="94" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="44" t="s">
+        <v>292</v>
+      </c>
+      <c r="B2" s="44" t="s">
         <v>293</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="C2" s="44" t="s">
         <v>294</v>
-      </c>
-      <c r="C2" s="44" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="44" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B3" s="44" t="s">
+        <v>295</v>
+      </c>
+      <c r="C3" s="44" t="s">
         <v>296</v>
-      </c>
-      <c r="C3" s="44" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="44" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B4" s="44" t="s">
+        <v>297</v>
+      </c>
+      <c r="C4" s="44" t="s">
         <v>298</v>
-      </c>
-      <c r="C4" s="44" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -8379,10 +8382,10 @@
         <v>11</v>
       </c>
       <c r="B5" s="44" t="s">
+        <v>299</v>
+      </c>
+      <c r="C5" s="44" t="s">
         <v>300</v>
-      </c>
-      <c r="C5" s="44" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -8390,472 +8393,472 @@
         <v>11</v>
       </c>
       <c r="B6" s="44" t="s">
+        <v>301</v>
+      </c>
+      <c r="C6" s="44" t="s">
         <v>302</v>
-      </c>
-      <c r="C6" s="44" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="95" t="s">
+        <v>303</v>
+      </c>
+      <c r="B7" s="44" t="s">
         <v>304</v>
       </c>
-      <c r="B7" s="44" t="s">
+      <c r="C7" s="44" t="s">
         <v>305</v>
-      </c>
-      <c r="C7" s="44" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="95" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B8" s="44" t="s">
+        <v>306</v>
+      </c>
+      <c r="C8" s="44" t="s">
         <v>307</v>
-      </c>
-      <c r="C8" s="44" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="95" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B9" s="44" t="s">
+        <v>308</v>
+      </c>
+      <c r="C9" s="44" t="s">
         <v>309</v>
-      </c>
-      <c r="C9" s="44" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="95" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B10" s="44" t="s">
+        <v>310</v>
+      </c>
+      <c r="C10" s="44" t="s">
         <v>311</v>
-      </c>
-      <c r="C10" s="44" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="95" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B11" s="96" t="s">
+        <v>312</v>
+      </c>
+      <c r="C11" s="96" t="s">
         <v>313</v>
-      </c>
-      <c r="C11" s="96" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="95" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B12" s="96" t="s">
+        <v>314</v>
+      </c>
+      <c r="C12" s="96" t="s">
         <v>315</v>
-      </c>
-      <c r="C12" s="96" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="95" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B13" s="96" t="s">
+        <v>316</v>
+      </c>
+      <c r="C13" s="96" t="s">
         <v>317</v>
-      </c>
-      <c r="C13" s="96" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="97" t="s">
+        <v>318</v>
+      </c>
+      <c r="B14" s="44" t="s">
         <v>319</v>
       </c>
-      <c r="B14" s="44" t="s">
+      <c r="C14" s="44" t="s">
         <v>320</v>
-      </c>
-      <c r="C14" s="44" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="97" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B15" s="44" t="s">
+        <v>321</v>
+      </c>
+      <c r="C15" s="44" t="s">
         <v>322</v>
-      </c>
-      <c r="C15" s="44" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="97" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B16" s="44" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C16" s="44" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="97" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B17" s="44" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C17" s="44" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="97" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B18" s="96" t="s">
+        <v>325</v>
+      </c>
+      <c r="C18" s="96" t="s">
         <v>326</v>
-      </c>
-      <c r="C18" s="96" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="97" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B19" s="96" t="s">
+        <v>327</v>
+      </c>
+      <c r="C19" s="96" t="s">
         <v>328</v>
-      </c>
-      <c r="C19" s="96" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="97" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B20" s="96" t="s">
+        <v>329</v>
+      </c>
+      <c r="C20" s="96" t="s">
         <v>330</v>
-      </c>
-      <c r="C20" s="96" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="97" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B21" s="96" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C21" s="96" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="98" t="s">
+        <v>332</v>
+      </c>
+      <c r="B22" s="44" t="s">
         <v>333</v>
       </c>
-      <c r="B22" s="44" t="s">
+      <c r="C22" s="45" t="s">
         <v>334</v>
-      </c>
-      <c r="C22" s="45" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="98" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B23" s="44" t="s">
+        <v>335</v>
+      </c>
+      <c r="C23" s="44" t="s">
         <v>336</v>
-      </c>
-      <c r="C23" s="44" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="98" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B24" s="44" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C24" s="44" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="98" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B25" s="44" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C25" s="44" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="98" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B26" s="44" t="s">
+        <v>339</v>
+      </c>
+      <c r="C26" s="44" t="s">
         <v>340</v>
-      </c>
-      <c r="C26" s="44" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="98" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B27" s="96" t="s">
+        <v>341</v>
+      </c>
+      <c r="C27" s="96" t="s">
         <v>342</v>
-      </c>
-      <c r="C27" s="96" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="98" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B28" s="96" t="s">
+        <v>343</v>
+      </c>
+      <c r="C28" s="96" t="s">
         <v>344</v>
-      </c>
-      <c r="C28" s="96" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="98" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B29" s="96" t="s">
+        <v>345</v>
+      </c>
+      <c r="C29" s="96" t="s">
         <v>346</v>
-      </c>
-      <c r="C29" s="96" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="98" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B30" s="96" t="s">
+        <v>347</v>
+      </c>
+      <c r="C30" s="96" t="s">
         <v>348</v>
-      </c>
-      <c r="C30" s="96" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="99" t="s">
+        <v>349</v>
+      </c>
+      <c r="B31" s="49" t="s">
         <v>350</v>
       </c>
-      <c r="B31" s="49" t="s">
+      <c r="C31" s="49" t="s">
         <v>351</v>
-      </c>
-      <c r="C31" s="49" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="99" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B32" s="49" t="s">
+        <v>352</v>
+      </c>
+      <c r="C32" s="49" t="s">
         <v>353</v>
-      </c>
-      <c r="C32" s="49" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="99" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B33" s="49" t="s">
+        <v>354</v>
+      </c>
+      <c r="C33" s="49" t="s">
         <v>355</v>
-      </c>
-      <c r="C33" s="49" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="99" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B34" s="49" t="s">
+        <v>356</v>
+      </c>
+      <c r="C34" s="49" t="s">
         <v>357</v>
-      </c>
-      <c r="C34" s="49" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="44" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B35" s="44" t="s">
-        <v>359</v>
-      </c>
-      <c r="C35" s="104" t="s">
-        <v>373</v>
+        <v>358</v>
+      </c>
+      <c r="C35" s="102" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="44" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B36" s="44" t="s">
-        <v>360</v>
-      </c>
-      <c r="C36" s="104" t="s">
-        <v>380</v>
+        <v>359</v>
+      </c>
+      <c r="C36" s="102" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="44" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B37" s="44" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C37" s="59" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="44" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B38" s="44" t="s">
-        <v>362</v>
-      </c>
-      <c r="C38" s="104" t="s">
-        <v>381</v>
+        <v>361</v>
+      </c>
+      <c r="C38" s="102" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="44" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B39" s="44" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C39" s="59" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="44" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B40" s="44" t="s">
-        <v>364</v>
-      </c>
-      <c r="C40" s="104" t="s">
-        <v>382</v>
+        <v>363</v>
+      </c>
+      <c r="C40" s="102" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="44" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B41" s="44" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C41" s="59" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="44" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B42" s="44" t="s">
-        <v>366</v>
-      </c>
-      <c r="C42" s="104" t="s">
-        <v>383</v>
+        <v>365</v>
+      </c>
+      <c r="C42" s="102" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="44" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B43" s="44" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C43" s="59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="44" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B44" s="44" t="s">
-        <v>368</v>
-      </c>
-      <c r="C44" s="104" t="s">
-        <v>384</v>
+        <v>367</v>
+      </c>
+      <c r="C44" s="102" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="44" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B45" s="44" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C45" s="59" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="44" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B46" s="44" t="s">
-        <v>370</v>
-      </c>
-      <c r="C46" s="104" t="s">
-        <v>385</v>
+        <v>369</v>
+      </c>
+      <c r="C46" s="102" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="44" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B47" s="44" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C47" s="59" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="44" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B48" s="44" t="s">
-        <v>372</v>
-      </c>
-      <c r="C48" s="104" t="s">
-        <v>386</v>
+        <v>371</v>
+      </c>
+      <c r="C48" s="102" t="s">
+        <v>385</v>
       </c>
     </row>
   </sheetData>

--- a/TNR_JDD/RO/JDD.RO.ACT.xlsx
+++ b/TNR_JDD/RO/JDD.RO.ACT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="516" yWindow="624" windowWidth="18108" windowHeight="8148" activeTab="2"/>
+    <workbookView xWindow="516" yWindow="624" windowWidth="18108" windowHeight="8148" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Version" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1032" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="387">
   <si>
     <t>Date</t>
   </si>
@@ -853,9 +853,6 @@
     <t>RO.ACT.004EMP.SRL.01..........</t>
   </si>
   <si>
-    <t>SOURCE</t>
-  </si>
-  <si>
     <t>RO.ACT.005.FON.01</t>
   </si>
   <si>
@@ -1187,6 +1184,9 @@
   </si>
   <si>
     <t>ST_DES*CAL*ID_CODCAL</t>
+  </si>
+  <si>
+    <t>ID_CODINT_SRC</t>
   </si>
 </sst>
 </file>
@@ -1627,9 +1627,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1671,6 +1668,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4992,15 +4992,16 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BE18"/>
+  <dimension ref="A1:BE17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AS1" workbookViewId="0">
-      <selection activeCell="BE4" sqref="BE4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="22.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32.88671875" customWidth="1"/>
     <col min="4" max="4" width="24.6640625" customWidth="1"/>
     <col min="5" max="5" width="20.88671875" customWidth="1"/>
@@ -5016,7 +5017,7 @@
       <c r="A1" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="100" t="s">
+      <c r="B1" s="99" t="s">
         <v>13</v>
       </c>
       <c r="C1" s="28" t="s">
@@ -5189,7 +5190,9 @@
       <c r="A2" s="33" t="s">
         <v>159</v>
       </c>
-      <c r="B2" s="34"/>
+      <c r="B2" s="65" t="s">
+        <v>219</v>
+      </c>
       <c r="C2" s="35" t="s">
         <v>160</v>
       </c>
@@ -5223,7 +5226,7 @@
       <c r="W2" s="36" t="s">
         <v>163</v>
       </c>
-      <c r="X2" s="101"/>
+      <c r="X2" s="100"/>
       <c r="Y2" s="34"/>
       <c r="Z2" s="34"/>
       <c r="AA2" s="34"/>
@@ -5314,10 +5317,10 @@
       <c r="AS3" s="34"/>
       <c r="AT3" s="34"/>
       <c r="AU3" s="34"/>
-      <c r="AV3" s="103" t="s">
+      <c r="AV3" s="102" t="s">
         <v>166</v>
       </c>
-      <c r="AW3" s="104"/>
+      <c r="AW3" s="103"/>
       <c r="AX3" s="34"/>
       <c r="AY3" s="34"/>
       <c r="AZ3" s="34"/>
@@ -5331,8 +5334,8 @@
       <c r="BD3" s="38" t="s">
         <v>168</v>
       </c>
-      <c r="BE3" s="101" t="s">
-        <v>386</v>
+      <c r="BE3" s="100" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="4" spans="1:57" ht="13.2">
@@ -5418,10 +5421,10 @@
       <c r="AF4" s="38" t="s">
         <v>171</v>
       </c>
-      <c r="AG4" s="103" t="s">
+      <c r="AG4" s="102" t="s">
         <v>171</v>
       </c>
-      <c r="AH4" s="104"/>
+      <c r="AH4" s="103"/>
       <c r="AI4" s="39"/>
       <c r="AJ4" s="39"/>
       <c r="AK4" s="38" t="s">
@@ -6579,65 +6582,6 @@
       <c r="BD17" s="62"/>
       <c r="BE17" s="62"/>
     </row>
-    <row r="18" spans="1:57" ht="13.2">
-      <c r="A18" s="58"/>
-      <c r="B18" s="59"/>
-      <c r="C18" s="60"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="59"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="59"/>
-      <c r="K18" s="59"/>
-      <c r="L18" s="60"/>
-      <c r="M18" s="59"/>
-      <c r="N18" s="59"/>
-      <c r="O18" s="59"/>
-      <c r="P18" s="59"/>
-      <c r="Q18" s="59"/>
-      <c r="R18" s="59"/>
-      <c r="S18" s="59"/>
-      <c r="T18" s="59"/>
-      <c r="U18" s="59"/>
-      <c r="V18" s="59"/>
-      <c r="W18" s="61"/>
-      <c r="X18" s="60"/>
-      <c r="Y18" s="60"/>
-      <c r="Z18" s="59"/>
-      <c r="AA18" s="59"/>
-      <c r="AB18" s="59"/>
-      <c r="AC18" s="59"/>
-      <c r="AD18" s="59"/>
-      <c r="AE18" s="59"/>
-      <c r="AF18" s="59"/>
-      <c r="AG18" s="59"/>
-      <c r="AH18" s="60"/>
-      <c r="AI18" s="60"/>
-      <c r="AJ18" s="60"/>
-      <c r="AK18" s="59"/>
-      <c r="AL18" s="59"/>
-      <c r="AM18" s="59"/>
-      <c r="AN18" s="59"/>
-      <c r="AO18" s="61"/>
-      <c r="AP18" s="60"/>
-      <c r="AQ18" s="60"/>
-      <c r="AR18" s="60"/>
-      <c r="AS18" s="60"/>
-      <c r="AT18" s="59"/>
-      <c r="AU18" s="59"/>
-      <c r="AV18" s="59"/>
-      <c r="AW18" s="59"/>
-      <c r="AX18" s="60"/>
-      <c r="AY18" s="60"/>
-      <c r="AZ18" s="60"/>
-      <c r="BA18" s="60"/>
-      <c r="BB18" s="62"/>
-      <c r="BC18" s="62"/>
-      <c r="BD18" s="62"/>
-      <c r="BE18" s="62"/>
-    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="AV3:AW3"/>
@@ -6659,7 +6603,7 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="20.21875" customWidth="1"/>
-    <col min="2" max="2" width="20.44140625" customWidth="1"/>
+    <col min="2" max="2" width="24" customWidth="1"/>
     <col min="3" max="3" width="25.33203125" customWidth="1"/>
     <col min="4" max="4" width="22.44140625" customWidth="1"/>
     <col min="5" max="5" width="20.44140625" customWidth="1"/>
@@ -6667,7 +6611,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="77" t="s">
         <v>122</v>
       </c>
       <c r="B1" s="28" t="s">
@@ -7225,12 +7169,12 @@
       </c>
       <c r="B5" s="34"/>
       <c r="C5" s="34"/>
-      <c r="D5" s="103" t="s">
+      <c r="D5" s="102" t="s">
         <v>258</v>
       </c>
-      <c r="E5" s="104"/>
-      <c r="F5" s="104"/>
-      <c r="G5" s="104"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="103"/>
+      <c r="G5" s="103"/>
       <c r="H5" s="38" t="s">
         <v>259</v>
       </c>
@@ -7598,8 +7542,8 @@
   </sheetPr>
   <dimension ref="A1:BB6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AX9" sqref="AX9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -7650,14 +7594,15 @@
     <col min="48" max="48" width="10.88671875" customWidth="1"/>
     <col min="49" max="49" width="7.6640625" customWidth="1"/>
     <col min="50" max="51" width="13.6640625" customWidth="1"/>
-    <col min="52" max="54" width="13.44140625" customWidth="1"/>
+    <col min="52" max="53" width="13.44140625" customWidth="1"/>
+    <col min="54" max="54" width="22.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:54">
       <c r="A1" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="100" t="s">
+      <c r="B1" s="99" t="s">
         <v>13</v>
       </c>
       <c r="C1" s="79" t="s">
@@ -7813,12 +7758,12 @@
       <c r="BA1" s="71" t="s">
         <v>119</v>
       </c>
-      <c r="BB1" s="83" t="s">
-        <v>275</v>
+      <c r="BB1" s="104" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="2" spans="1:54">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="83" t="s">
         <v>159</v>
       </c>
       <c r="B2" s="34"/>
@@ -7889,12 +7834,12 @@
       <c r="AY2" s="34"/>
       <c r="AZ2" s="34"/>
       <c r="BA2" s="34"/>
-      <c r="BB2" s="85" t="s">
+      <c r="BB2" s="84" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="3" spans="1:54">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="83" t="s">
         <v>164</v>
       </c>
       <c r="B3" s="34"/>
@@ -7945,18 +7890,18 @@
       <c r="AS3" s="34"/>
       <c r="AT3" s="34"/>
       <c r="AU3" s="34"/>
-      <c r="AV3" s="103" t="s">
+      <c r="AV3" s="102" t="s">
         <v>166</v>
       </c>
-      <c r="AW3" s="104"/>
+      <c r="AW3" s="103"/>
       <c r="AX3" s="34"/>
       <c r="AY3" s="34"/>
       <c r="AZ3" s="34"/>
       <c r="BA3" s="34"/>
-      <c r="BB3" s="86"/>
+      <c r="BB3" s="85"/>
     </row>
     <row r="4" spans="1:54">
-      <c r="A4" s="84" t="s">
+      <c r="A4" s="83" t="s">
         <v>169</v>
       </c>
       <c r="B4" s="38" t="s">
@@ -8038,10 +7983,10 @@
       <c r="AF4" s="38" t="s">
         <v>171</v>
       </c>
-      <c r="AG4" s="103" t="s">
+      <c r="AG4" s="102" t="s">
         <v>171</v>
       </c>
-      <c r="AH4" s="104"/>
+      <c r="AH4" s="103"/>
       <c r="AI4" s="39"/>
       <c r="AJ4" s="39"/>
       <c r="AK4" s="38" t="s">
@@ -8083,108 +8028,108 @@
       <c r="AY4" s="39"/>
       <c r="AZ4" s="39"/>
       <c r="BA4" s="39"/>
-      <c r="BB4" s="86"/>
+      <c r="BB4" s="85"/>
     </row>
     <row r="5" spans="1:54">
-      <c r="A5" s="87" t="s">
+      <c r="A5" s="86" t="s">
         <v>174</v>
       </c>
-      <c r="B5" s="88"/>
-      <c r="C5" s="88"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="88"/>
-      <c r="G5" s="88"/>
-      <c r="H5" s="88"/>
-      <c r="I5" s="88"/>
-      <c r="J5" s="88"/>
-      <c r="K5" s="88"/>
-      <c r="L5" s="88"/>
-      <c r="M5" s="88"/>
-      <c r="N5" s="88"/>
-      <c r="O5" s="88"/>
-      <c r="P5" s="88"/>
-      <c r="Q5" s="88"/>
-      <c r="R5" s="88"/>
-      <c r="S5" s="88"/>
-      <c r="T5" s="88"/>
-      <c r="U5" s="88"/>
-      <c r="V5" s="88"/>
-      <c r="W5" s="89"/>
-      <c r="X5" s="88"/>
-      <c r="Y5" s="88"/>
-      <c r="Z5" s="88"/>
-      <c r="AA5" s="88"/>
-      <c r="AB5" s="88"/>
-      <c r="AC5" s="88"/>
-      <c r="AD5" s="88"/>
-      <c r="AE5" s="88"/>
-      <c r="AF5" s="88"/>
-      <c r="AG5" s="88"/>
-      <c r="AH5" s="88"/>
-      <c r="AI5" s="88"/>
-      <c r="AJ5" s="88"/>
-      <c r="AK5" s="88"/>
-      <c r="AL5" s="88"/>
-      <c r="AM5" s="88"/>
-      <c r="AN5" s="88"/>
-      <c r="AO5" s="89"/>
-      <c r="AP5" s="88"/>
-      <c r="AQ5" s="88"/>
-      <c r="AR5" s="88"/>
-      <c r="AS5" s="88"/>
-      <c r="AT5" s="88"/>
-      <c r="AU5" s="88"/>
-      <c r="AV5" s="88"/>
-      <c r="AW5" s="88"/>
-      <c r="AX5" s="88"/>
-      <c r="AY5" s="88"/>
-      <c r="AZ5" s="88"/>
-      <c r="BA5" s="88"/>
-      <c r="BB5" s="88"/>
+      <c r="B5" s="87"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="87"/>
+      <c r="I5" s="87"/>
+      <c r="J5" s="87"/>
+      <c r="K5" s="87"/>
+      <c r="L5" s="87"/>
+      <c r="M5" s="87"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="87"/>
+      <c r="P5" s="87"/>
+      <c r="Q5" s="87"/>
+      <c r="R5" s="87"/>
+      <c r="S5" s="87"/>
+      <c r="T5" s="87"/>
+      <c r="U5" s="87"/>
+      <c r="V5" s="87"/>
+      <c r="W5" s="88"/>
+      <c r="X5" s="87"/>
+      <c r="Y5" s="87"/>
+      <c r="Z5" s="87"/>
+      <c r="AA5" s="87"/>
+      <c r="AB5" s="87"/>
+      <c r="AC5" s="87"/>
+      <c r="AD5" s="87"/>
+      <c r="AE5" s="87"/>
+      <c r="AF5" s="87"/>
+      <c r="AG5" s="87"/>
+      <c r="AH5" s="87"/>
+      <c r="AI5" s="87"/>
+      <c r="AJ5" s="87"/>
+      <c r="AK5" s="87"/>
+      <c r="AL5" s="87"/>
+      <c r="AM5" s="87"/>
+      <c r="AN5" s="87"/>
+      <c r="AO5" s="88"/>
+      <c r="AP5" s="87"/>
+      <c r="AQ5" s="87"/>
+      <c r="AR5" s="87"/>
+      <c r="AS5" s="87"/>
+      <c r="AT5" s="87"/>
+      <c r="AU5" s="87"/>
+      <c r="AV5" s="87"/>
+      <c r="AW5" s="87"/>
+      <c r="AX5" s="87"/>
+      <c r="AY5" s="87"/>
+      <c r="AZ5" s="87"/>
+      <c r="BA5" s="87"/>
+      <c r="BB5" s="87"/>
     </row>
     <row r="6" spans="1:54">
       <c r="A6" s="43" t="s">
+        <v>275</v>
+      </c>
+      <c r="B6" s="44" t="s">
+        <v>275</v>
+      </c>
+      <c r="C6" s="44" t="s">
         <v>276</v>
       </c>
-      <c r="B6" s="44" t="s">
+      <c r="D6" s="44" t="s">
         <v>276</v>
       </c>
-      <c r="C6" s="44" t="s">
+      <c r="E6" s="44" t="s">
         <v>277</v>
       </c>
-      <c r="D6" s="44" t="s">
+      <c r="F6" s="44" t="s">
         <v>277</v>
-      </c>
-      <c r="E6" s="44" t="s">
-        <v>278</v>
-      </c>
-      <c r="F6" s="44" t="s">
-        <v>278</v>
       </c>
       <c r="G6" s="45" t="s">
         <v>177</v>
       </c>
-      <c r="H6" s="90" t="s">
+      <c r="H6" s="89" t="s">
+        <v>278</v>
+      </c>
+      <c r="I6" s="89" t="s">
         <v>279</v>
       </c>
-      <c r="I6" s="90" t="s">
+      <c r="J6" s="44" t="s">
         <v>280</v>
       </c>
-      <c r="J6" s="44" t="s">
+      <c r="K6" s="89" t="s">
+        <v>177</v>
+      </c>
+      <c r="L6" s="90" t="s">
         <v>281</v>
       </c>
-      <c r="K6" s="90" t="s">
-        <v>177</v>
-      </c>
-      <c r="L6" s="91" t="s">
+      <c r="M6" s="44" t="s">
         <v>282</v>
       </c>
-      <c r="M6" s="44" t="s">
+      <c r="N6" s="44" t="s">
         <v>283</v>
-      </c>
-      <c r="N6" s="44" t="s">
-        <v>284</v>
       </c>
       <c r="O6" s="44" t="s">
         <v>185</v>
@@ -8210,7 +8155,7 @@
       <c r="V6" s="47">
         <v>100</v>
       </c>
-      <c r="W6" s="92" t="s">
+      <c r="W6" s="91" t="s">
         <v>177</v>
       </c>
       <c r="X6" s="45" t="s">
@@ -8220,7 +8165,7 @@
         <v>177</v>
       </c>
       <c r="Z6" s="44" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AA6" s="44" t="s">
         <v>177</v>
@@ -8252,14 +8197,14 @@
       <c r="AJ6" s="45" t="s">
         <v>177</v>
       </c>
-      <c r="AK6" s="93" t="s">
+      <c r="AK6" s="92" t="s">
+        <v>285</v>
+      </c>
+      <c r="AL6" s="92" t="s">
         <v>286</v>
       </c>
-      <c r="AL6" s="93" t="s">
+      <c r="AM6" s="92" t="s">
         <v>287</v>
-      </c>
-      <c r="AM6" s="93" t="s">
-        <v>288</v>
       </c>
       <c r="AN6" s="44" t="s">
         <v>177</v>
@@ -8280,7 +8225,7 @@
         <v>185</v>
       </c>
       <c r="AT6" s="44" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AU6" s="44" t="s">
         <v>185</v>
@@ -8303,8 +8248,8 @@
       <c r="BA6" s="45" t="s">
         <v>188</v>
       </c>
-      <c r="BB6" s="90" t="s">
-        <v>278</v>
+      <c r="BB6" s="89" t="s">
+        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -8335,46 +8280,46 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="28" t="s">
+        <v>288</v>
+      </c>
+      <c r="B1" s="93" t="s">
         <v>289</v>
       </c>
-      <c r="B1" s="94" t="s">
+      <c r="C1" s="93" t="s">
         <v>290</v>
-      </c>
-      <c r="C1" s="94" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="44" t="s">
+        <v>291</v>
+      </c>
+      <c r="B2" s="44" t="s">
         <v>292</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="C2" s="44" t="s">
         <v>293</v>
-      </c>
-      <c r="C2" s="44" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="44" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B3" s="44" t="s">
+        <v>294</v>
+      </c>
+      <c r="C3" s="44" t="s">
         <v>295</v>
-      </c>
-      <c r="C3" s="44" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="44" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B4" s="44" t="s">
+        <v>296</v>
+      </c>
+      <c r="C4" s="44" t="s">
         <v>297</v>
-      </c>
-      <c r="C4" s="44" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -8382,10 +8327,10 @@
         <v>11</v>
       </c>
       <c r="B5" s="44" t="s">
+        <v>298</v>
+      </c>
+      <c r="C5" s="44" t="s">
         <v>299</v>
-      </c>
-      <c r="C5" s="44" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -8393,472 +8338,472 @@
         <v>11</v>
       </c>
       <c r="B6" s="44" t="s">
+        <v>300</v>
+      </c>
+      <c r="C6" s="44" t="s">
         <v>301</v>
       </c>
-      <c r="C6" s="44" t="s">
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="94" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="95" t="s">
+      <c r="B7" s="44" t="s">
         <v>303</v>
       </c>
-      <c r="B7" s="44" t="s">
+      <c r="C7" s="44" t="s">
         <v>304</v>
       </c>
-      <c r="C7" s="44" t="s">
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="94" t="s">
+        <v>302</v>
+      </c>
+      <c r="B8" s="44" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="95" t="s">
-        <v>303</v>
-      </c>
-      <c r="B8" s="44" t="s">
+      <c r="C8" s="44" t="s">
         <v>306</v>
       </c>
-      <c r="C8" s="44" t="s">
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="94" t="s">
+        <v>302</v>
+      </c>
+      <c r="B9" s="44" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="95" t="s">
-        <v>303</v>
-      </c>
-      <c r="B9" s="44" t="s">
+      <c r="C9" s="44" t="s">
         <v>308</v>
       </c>
-      <c r="C9" s="44" t="s">
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="94" t="s">
+        <v>302</v>
+      </c>
+      <c r="B10" s="44" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="95" t="s">
-        <v>303</v>
-      </c>
-      <c r="B10" s="44" t="s">
+      <c r="C10" s="44" t="s">
         <v>310</v>
       </c>
-      <c r="C10" s="44" t="s">
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="94" t="s">
+        <v>302</v>
+      </c>
+      <c r="B11" s="95" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="95" t="s">
-        <v>303</v>
-      </c>
-      <c r="B11" s="96" t="s">
+      <c r="C11" s="95" t="s">
         <v>312</v>
       </c>
-      <c r="C11" s="96" t="s">
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="94" t="s">
+        <v>302</v>
+      </c>
+      <c r="B12" s="95" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="95" t="s">
-        <v>303</v>
-      </c>
-      <c r="B12" s="96" t="s">
+      <c r="C12" s="95" t="s">
         <v>314</v>
       </c>
-      <c r="C12" s="96" t="s">
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="94" t="s">
+        <v>302</v>
+      </c>
+      <c r="B13" s="95" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="95" t="s">
-        <v>303</v>
-      </c>
-      <c r="B13" s="96" t="s">
+      <c r="C13" s="95" t="s">
         <v>316</v>
       </c>
-      <c r="C13" s="96" t="s">
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="96" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="97" t="s">
+      <c r="B14" s="44" t="s">
         <v>318</v>
       </c>
-      <c r="B14" s="44" t="s">
+      <c r="C14" s="44" t="s">
         <v>319</v>
       </c>
-      <c r="C14" s="44" t="s">
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="96" t="s">
+        <v>317</v>
+      </c>
+      <c r="B15" s="44" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="97" t="s">
-        <v>318</v>
-      </c>
-      <c r="B15" s="44" t="s">
+      <c r="C15" s="44" t="s">
         <v>321</v>
       </c>
-      <c r="C15" s="44" t="s">
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="96" t="s">
+        <v>317</v>
+      </c>
+      <c r="B16" s="44" t="s">
+        <v>307</v>
+      </c>
+      <c r="C16" s="44" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="97" t="s">
-        <v>318</v>
-      </c>
-      <c r="B16" s="44" t="s">
-        <v>308</v>
-      </c>
-      <c r="C16" s="44" t="s">
+    <row r="17" spans="1:3">
+      <c r="A17" s="96" t="s">
+        <v>317</v>
+      </c>
+      <c r="B17" s="44" t="s">
+        <v>309</v>
+      </c>
+      <c r="C17" s="44" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="97" t="s">
-        <v>318</v>
-      </c>
-      <c r="B17" s="44" t="s">
-        <v>310</v>
-      </c>
-      <c r="C17" s="44" t="s">
+    <row r="18" spans="1:3">
+      <c r="A18" s="96" t="s">
+        <v>317</v>
+      </c>
+      <c r="B18" s="95" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="97" t="s">
-        <v>318</v>
-      </c>
-      <c r="B18" s="96" t="s">
+      <c r="C18" s="95" t="s">
         <v>325</v>
       </c>
-      <c r="C18" s="96" t="s">
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="96" t="s">
+        <v>317</v>
+      </c>
+      <c r="B19" s="95" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="97" t="s">
-        <v>318</v>
-      </c>
-      <c r="B19" s="96" t="s">
+      <c r="C19" s="95" t="s">
         <v>327</v>
       </c>
-      <c r="C19" s="96" t="s">
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="96" t="s">
+        <v>317</v>
+      </c>
+      <c r="B20" s="95" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="97" t="s">
-        <v>318</v>
-      </c>
-      <c r="B20" s="96" t="s">
+      <c r="C20" s="95" t="s">
         <v>329</v>
       </c>
-      <c r="C20" s="96" t="s">
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="96" t="s">
+        <v>317</v>
+      </c>
+      <c r="B21" s="95" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="97" t="s">
-        <v>318</v>
-      </c>
-      <c r="B21" s="96" t="s">
+      <c r="C21" s="95" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="97" t="s">
         <v>331</v>
       </c>
-      <c r="C21" s="96" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="98" t="s">
+      <c r="B22" s="44" t="s">
         <v>332</v>
       </c>
-      <c r="B22" s="44" t="s">
+      <c r="C22" s="45" t="s">
         <v>333</v>
       </c>
-      <c r="C22" s="45" t="s">
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="97" t="s">
+        <v>331</v>
+      </c>
+      <c r="B23" s="44" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="98" t="s">
-        <v>332</v>
-      </c>
-      <c r="B23" s="44" t="s">
+      <c r="C23" s="44" t="s">
         <v>335</v>
       </c>
-      <c r="C23" s="44" t="s">
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="97" t="s">
+        <v>331</v>
+      </c>
+      <c r="B24" s="44" t="s">
+        <v>307</v>
+      </c>
+      <c r="C24" s="44" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="98" t="s">
-        <v>332</v>
-      </c>
-      <c r="B24" s="44" t="s">
-        <v>308</v>
-      </c>
-      <c r="C24" s="44" t="s">
+    <row r="25" spans="1:3">
+      <c r="A25" s="97" t="s">
+        <v>331</v>
+      </c>
+      <c r="B25" s="44" t="s">
+        <v>309</v>
+      </c>
+      <c r="C25" s="44" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="98" t="s">
-        <v>332</v>
-      </c>
-      <c r="B25" s="44" t="s">
-        <v>310</v>
-      </c>
-      <c r="C25" s="44" t="s">
+    <row r="26" spans="1:3">
+      <c r="A26" s="97" t="s">
+        <v>331</v>
+      </c>
+      <c r="B26" s="44" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="98" t="s">
-        <v>332</v>
-      </c>
-      <c r="B26" s="44" t="s">
+      <c r="C26" s="44" t="s">
         <v>339</v>
       </c>
-      <c r="C26" s="44" t="s">
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="97" t="s">
+        <v>331</v>
+      </c>
+      <c r="B27" s="95" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="98" t="s">
-        <v>332</v>
-      </c>
-      <c r="B27" s="96" t="s">
+      <c r="C27" s="95" t="s">
         <v>341</v>
       </c>
-      <c r="C27" s="96" t="s">
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="97" t="s">
+        <v>331</v>
+      </c>
+      <c r="B28" s="95" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="98" t="s">
-        <v>332</v>
-      </c>
-      <c r="B28" s="96" t="s">
+      <c r="C28" s="95" t="s">
         <v>343</v>
       </c>
-      <c r="C28" s="96" t="s">
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="97" t="s">
+        <v>331</v>
+      </c>
+      <c r="B29" s="95" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="98" t="s">
-        <v>332</v>
-      </c>
-      <c r="B29" s="96" t="s">
+      <c r="C29" s="95" t="s">
         <v>345</v>
       </c>
-      <c r="C29" s="96" t="s">
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="97" t="s">
+        <v>331</v>
+      </c>
+      <c r="B30" s="95" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="98" t="s">
-        <v>332</v>
-      </c>
-      <c r="B30" s="96" t="s">
+      <c r="C30" s="95" t="s">
         <v>347</v>
       </c>
-      <c r="C30" s="96" t="s">
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="98" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="99" t="s">
+      <c r="B31" s="49" t="s">
         <v>349</v>
       </c>
-      <c r="B31" s="49" t="s">
+      <c r="C31" s="49" t="s">
         <v>350</v>
       </c>
-      <c r="C31" s="49" t="s">
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="98" t="s">
+        <v>348</v>
+      </c>
+      <c r="B32" s="49" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="99" t="s">
-        <v>349</v>
-      </c>
-      <c r="B32" s="49" t="s">
+      <c r="C32" s="49" t="s">
         <v>352</v>
       </c>
-      <c r="C32" s="49" t="s">
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="98" t="s">
+        <v>348</v>
+      </c>
+      <c r="B33" s="49" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="99" t="s">
-        <v>349</v>
-      </c>
-      <c r="B33" s="49" t="s">
+      <c r="C33" s="49" t="s">
         <v>354</v>
       </c>
-      <c r="C33" s="49" t="s">
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="98" t="s">
+        <v>348</v>
+      </c>
+      <c r="B34" s="49" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="99" t="s">
-        <v>349</v>
-      </c>
-      <c r="B34" s="49" t="s">
+      <c r="C34" s="49" t="s">
         <v>356</v>
-      </c>
-      <c r="C34" s="49" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="44" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B35" s="44" t="s">
-        <v>358</v>
-      </c>
-      <c r="C35" s="102" t="s">
-        <v>372</v>
+        <v>357</v>
+      </c>
+      <c r="C35" s="101" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="44" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B36" s="44" t="s">
-        <v>359</v>
-      </c>
-      <c r="C36" s="102" t="s">
-        <v>379</v>
+        <v>358</v>
+      </c>
+      <c r="C36" s="101" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="44" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B37" s="44" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C37" s="59" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="44" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B38" s="44" t="s">
-        <v>361</v>
-      </c>
-      <c r="C38" s="102" t="s">
-        <v>380</v>
+        <v>360</v>
+      </c>
+      <c r="C38" s="101" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="44" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B39" s="44" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C39" s="59" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="44" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B40" s="44" t="s">
-        <v>363</v>
-      </c>
-      <c r="C40" s="102" t="s">
-        <v>381</v>
+        <v>362</v>
+      </c>
+      <c r="C40" s="101" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="44" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B41" s="44" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C41" s="59" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="44" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B42" s="44" t="s">
-        <v>365</v>
-      </c>
-      <c r="C42" s="102" t="s">
-        <v>382</v>
+        <v>364</v>
+      </c>
+      <c r="C42" s="101" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="44" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B43" s="44" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C43" s="59" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="44" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B44" s="44" t="s">
-        <v>367</v>
-      </c>
-      <c r="C44" s="102" t="s">
-        <v>383</v>
+        <v>366</v>
+      </c>
+      <c r="C44" s="101" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="44" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B45" s="44" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C45" s="59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="44" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B46" s="44" t="s">
-        <v>369</v>
-      </c>
-      <c r="C46" s="102" t="s">
-        <v>384</v>
+        <v>368</v>
+      </c>
+      <c r="C46" s="101" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="44" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B47" s="44" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C47" s="59" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="44" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B48" s="44" t="s">
-        <v>371</v>
-      </c>
-      <c r="C48" s="102" t="s">
-        <v>385</v>
+        <v>370</v>
+      </c>
+      <c r="C48" s="101" t="s">
+        <v>384</v>
       </c>
     </row>
   </sheetData>

--- a/TNR_JDD/RO/JDD.RO.ACT.xlsx
+++ b/TNR_JDD/RO/JDD.RO.ACT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="516" yWindow="624" windowWidth="18108" windowHeight="8148" activeTab="6"/>
+    <workbookView xWindow="516" yWindow="624" windowWidth="15768" windowHeight="7704" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Version" sheetId="1" r:id="rId1"/>
@@ -17,16 +17,11 @@
     <sheet name="IHMTO" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId12" roundtripDataSignature="AMtx7mgApWwIILJRa+TeZZ3CgmVvDJcSow=="/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="385">
   <si>
     <t>Date</t>
   </si>
@@ -916,24 +911,6 @@
     <t>//button[@id='DeleteE39']</t>
   </si>
   <si>
-    <t>a_Resultat_ID</t>
-  </si>
-  <si>
-    <t>//tr[1]/td[@class='clMaintaConfirmTableData']//a</t>
-  </si>
-  <si>
-    <t>input_Filtre_Acteur</t>
-  </si>
-  <si>
-    <t>//input[@name='SEARCH_ID_CODINT']</t>
-  </si>
-  <si>
-    <t>td_Grille_Acteur</t>
-  </si>
-  <si>
-    <t>//div[@id='v-dbtdhtmlxGRID']/table/tbody//td[4][text()='${ID_CODINT}']</t>
-  </si>
-  <si>
     <t>003HAB</t>
   </si>
   <si>
@@ -1187,17 +1164,36 @@
   </si>
   <si>
     <t>ID_CODINT_SRC</t>
+  </si>
+  <si>
+    <t>input_Filtre_Grille</t>
+  </si>
+  <si>
+    <t>td_Grille</t>
+  </si>
+  <si>
+    <t>$FILTREGRILLE$ID_CODINT</t>
+  </si>
+  <si>
+    <t>$TDGRILLE$ID_CODINT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="15">
+  <fonts count="18">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1279,6 +1275,19 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="23">
@@ -1446,234 +1455,265 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="7" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="6" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="13" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="16">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 10" xfId="12"/>
+    <cellStyle name="Normal 11" xfId="13"/>
+    <cellStyle name="Normal 12" xfId="1"/>
+    <cellStyle name="Normal 13" xfId="14"/>
+    <cellStyle name="Normal 14" xfId="15"/>
+    <cellStyle name="Normal 2" xfId="4"/>
+    <cellStyle name="Normal 2 2" xfId="7"/>
+    <cellStyle name="Normal 3" xfId="3"/>
+    <cellStyle name="Normal 3 2" xfId="8"/>
+    <cellStyle name="Normal 4" xfId="2"/>
+    <cellStyle name="Normal 5" xfId="5"/>
+    <cellStyle name="Normal 6" xfId="6"/>
+    <cellStyle name="Normal 7" xfId="9"/>
+    <cellStyle name="Normal 8" xfId="10"/>
+    <cellStyle name="Normal 9" xfId="11"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -5317,10 +5357,10 @@
       <c r="AS3" s="34"/>
       <c r="AT3" s="34"/>
       <c r="AU3" s="34"/>
-      <c r="AV3" s="102" t="s">
+      <c r="AV3" s="103" t="s">
         <v>166</v>
       </c>
-      <c r="AW3" s="103"/>
+      <c r="AW3" s="104"/>
       <c r="AX3" s="34"/>
       <c r="AY3" s="34"/>
       <c r="AZ3" s="34"/>
@@ -5335,7 +5375,7 @@
         <v>168</v>
       </c>
       <c r="BE3" s="100" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
     </row>
     <row r="4" spans="1:57" ht="13.2">
@@ -5421,10 +5461,10 @@
       <c r="AF4" s="38" t="s">
         <v>171</v>
       </c>
-      <c r="AG4" s="102" t="s">
+      <c r="AG4" s="103" t="s">
         <v>171</v>
       </c>
-      <c r="AH4" s="103"/>
+      <c r="AH4" s="104"/>
       <c r="AI4" s="39"/>
       <c r="AJ4" s="39"/>
       <c r="AK4" s="38" t="s">
@@ -7169,12 +7209,12 @@
       </c>
       <c r="B5" s="34"/>
       <c r="C5" s="34"/>
-      <c r="D5" s="102" t="s">
+      <c r="D5" s="103" t="s">
         <v>258</v>
       </c>
-      <c r="E5" s="103"/>
-      <c r="F5" s="103"/>
-      <c r="G5" s="103"/>
+      <c r="E5" s="104"/>
+      <c r="F5" s="104"/>
+      <c r="G5" s="104"/>
       <c r="H5" s="38" t="s">
         <v>259</v>
       </c>
@@ -7542,8 +7582,8 @@
   </sheetPr>
   <dimension ref="A1:BB6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AX9" sqref="AX9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -7758,8 +7798,8 @@
       <c r="BA1" s="71" t="s">
         <v>119</v>
       </c>
-      <c r="BB1" s="104" t="s">
-        <v>386</v>
+      <c r="BB1" s="102" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="2" spans="1:54">
@@ -7890,10 +7930,10 @@
       <c r="AS3" s="34"/>
       <c r="AT3" s="34"/>
       <c r="AU3" s="34"/>
-      <c r="AV3" s="102" t="s">
+      <c r="AV3" s="103" t="s">
         <v>166</v>
       </c>
-      <c r="AW3" s="103"/>
+      <c r="AW3" s="104"/>
       <c r="AX3" s="34"/>
       <c r="AY3" s="34"/>
       <c r="AZ3" s="34"/>
@@ -7983,10 +8023,10 @@
       <c r="AF4" s="38" t="s">
         <v>171</v>
       </c>
-      <c r="AG4" s="102" t="s">
+      <c r="AG4" s="103" t="s">
         <v>171</v>
       </c>
-      <c r="AH4" s="103"/>
+      <c r="AH4" s="104"/>
       <c r="AI4" s="39"/>
       <c r="AJ4" s="39"/>
       <c r="AK4" s="38" t="s">
@@ -8266,10 +8306,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -8290,7 +8330,7 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="101" t="s">
         <v>291</v>
       </c>
       <c r="B2" s="44" t="s">
@@ -8312,344 +8352,344 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="44" t="s">
-        <v>291</v>
-      </c>
-      <c r="B4" s="44" t="s">
-        <v>296</v>
-      </c>
-      <c r="C4" s="44" t="s">
-        <v>297</v>
+      <c r="A4" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="101" t="s">
+        <v>381</v>
+      </c>
+      <c r="C4" s="105" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="101" t="s">
+        <v>382</v>
+      </c>
+      <c r="C5" s="105" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="94" t="s">
+        <v>296</v>
+      </c>
+      <c r="B6" s="44" t="s">
+        <v>297</v>
+      </c>
+      <c r="C6" s="44" t="s">
         <v>298</v>
-      </c>
-      <c r="C5" s="44" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="50" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="44" t="s">
-        <v>300</v>
-      </c>
-      <c r="C6" s="44" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="94" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="B7" s="44" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C7" s="44" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="94" t="s">
+        <v>296</v>
+      </c>
+      <c r="B8" s="44" t="s">
+        <v>301</v>
+      </c>
+      <c r="C8" s="44" t="s">
         <v>302</v>
-      </c>
-      <c r="B8" s="44" t="s">
-        <v>305</v>
-      </c>
-      <c r="C8" s="44" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="94" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="B9" s="44" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C9" s="44" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="94" t="s">
-        <v>302</v>
-      </c>
-      <c r="B10" s="44" t="s">
-        <v>309</v>
-      </c>
-      <c r="C10" s="44" t="s">
-        <v>310</v>
+        <v>296</v>
+      </c>
+      <c r="B10" s="95" t="s">
+        <v>305</v>
+      </c>
+      <c r="C10" s="95" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="94" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="B11" s="95" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C11" s="95" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="94" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="B12" s="95" t="s">
+        <v>309</v>
+      </c>
+      <c r="C12" s="95" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="96" t="s">
+        <v>311</v>
+      </c>
+      <c r="B13" s="44" t="s">
+        <v>312</v>
+      </c>
+      <c r="C13" s="44" t="s">
         <v>313</v>
-      </c>
-      <c r="C12" s="95" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="94" t="s">
-        <v>302</v>
-      </c>
-      <c r="B13" s="95" t="s">
-        <v>315</v>
-      </c>
-      <c r="C13" s="95" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="96" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="B14" s="44" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C14" s="44" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="96" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="B15" s="44" t="s">
-        <v>320</v>
+        <v>301</v>
       </c>
       <c r="C15" s="44" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="96" t="s">
+        <v>311</v>
+      </c>
+      <c r="B16" s="44" t="s">
+        <v>303</v>
+      </c>
+      <c r="C16" s="44" t="s">
         <v>317</v>
-      </c>
-      <c r="B16" s="44" t="s">
-        <v>307</v>
-      </c>
-      <c r="C16" s="44" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="96" t="s">
-        <v>317</v>
-      </c>
-      <c r="B17" s="44" t="s">
-        <v>309</v>
-      </c>
-      <c r="C17" s="44" t="s">
-        <v>323</v>
+        <v>311</v>
+      </c>
+      <c r="B17" s="95" t="s">
+        <v>318</v>
+      </c>
+      <c r="C17" s="95" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="96" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="B18" s="95" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C18" s="95" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="96" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="B19" s="95" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C19" s="95" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="96" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="B20" s="95" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C20" s="95" t="s">
-        <v>329</v>
+        <v>310</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="96" t="s">
-        <v>317</v>
-      </c>
-      <c r="B21" s="95" t="s">
-        <v>330</v>
-      </c>
-      <c r="C21" s="95" t="s">
-        <v>316</v>
+      <c r="A21" s="97" t="s">
+        <v>325</v>
+      </c>
+      <c r="B21" s="44" t="s">
+        <v>326</v>
+      </c>
+      <c r="C21" s="45" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="97" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="B22" s="44" t="s">
-        <v>332</v>
-      </c>
-      <c r="C22" s="45" t="s">
-        <v>333</v>
+        <v>328</v>
+      </c>
+      <c r="C22" s="44" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="97" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="B23" s="44" t="s">
-        <v>334</v>
+        <v>301</v>
       </c>
       <c r="C23" s="44" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="97" t="s">
+        <v>325</v>
+      </c>
+      <c r="B24" s="44" t="s">
+        <v>303</v>
+      </c>
+      <c r="C24" s="44" t="s">
         <v>331</v>
-      </c>
-      <c r="B24" s="44" t="s">
-        <v>307</v>
-      </c>
-      <c r="C24" s="44" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="97" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="B25" s="44" t="s">
-        <v>309</v>
+        <v>332</v>
       </c>
       <c r="C25" s="44" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="97" t="s">
-        <v>331</v>
-      </c>
-      <c r="B26" s="44" t="s">
-        <v>338</v>
-      </c>
-      <c r="C26" s="44" t="s">
-        <v>339</v>
+        <v>325</v>
+      </c>
+      <c r="B26" s="95" t="s">
+        <v>334</v>
+      </c>
+      <c r="C26" s="95" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="97" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="B27" s="95" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C27" s="95" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="97" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="B28" s="95" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C28" s="95" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="97" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="B29" s="95" t="s">
+        <v>340</v>
+      </c>
+      <c r="C29" s="95" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="98" t="s">
+        <v>342</v>
+      </c>
+      <c r="B30" s="49" t="s">
+        <v>343</v>
+      </c>
+      <c r="C30" s="49" t="s">
         <v>344</v>
-      </c>
-      <c r="C29" s="95" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="97" t="s">
-        <v>331</v>
-      </c>
-      <c r="B30" s="95" t="s">
-        <v>346</v>
-      </c>
-      <c r="C30" s="95" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="98" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="B31" s="49" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C31" s="49" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="98" t="s">
+        <v>342</v>
+      </c>
+      <c r="B32" s="49" t="s">
+        <v>347</v>
+      </c>
+      <c r="C32" s="49" t="s">
         <v>348</v>
-      </c>
-      <c r="B32" s="49" t="s">
-        <v>351</v>
-      </c>
-      <c r="C32" s="49" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="98" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="B33" s="49" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C33" s="49" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="98" t="s">
-        <v>348</v>
-      </c>
-      <c r="B34" s="49" t="s">
-        <v>355</v>
-      </c>
-      <c r="C34" s="49" t="s">
-        <v>356</v>
+      <c r="A34" s="44" t="s">
+        <v>291</v>
+      </c>
+      <c r="B34" s="44" t="s">
+        <v>351</v>
+      </c>
+      <c r="C34" s="101" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -8657,10 +8697,10 @@
         <v>291</v>
       </c>
       <c r="B35" s="44" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="C35" s="101" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -8668,10 +8708,10 @@
         <v>291</v>
       </c>
       <c r="B36" s="44" t="s">
-        <v>358</v>
-      </c>
-      <c r="C36" s="101" t="s">
-        <v>378</v>
+        <v>353</v>
+      </c>
+      <c r="C36" s="59" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -8679,10 +8719,10 @@
         <v>291</v>
       </c>
       <c r="B37" s="44" t="s">
-        <v>359</v>
-      </c>
-      <c r="C37" s="59" t="s">
-        <v>372</v>
+        <v>354</v>
+      </c>
+      <c r="C37" s="101" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -8690,10 +8730,10 @@
         <v>291</v>
       </c>
       <c r="B38" s="44" t="s">
-        <v>360</v>
-      </c>
-      <c r="C38" s="101" t="s">
-        <v>379</v>
+        <v>355</v>
+      </c>
+      <c r="C38" s="59" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -8701,10 +8741,10 @@
         <v>291</v>
       </c>
       <c r="B39" s="44" t="s">
-        <v>361</v>
-      </c>
-      <c r="C39" s="59" t="s">
-        <v>373</v>
+        <v>356</v>
+      </c>
+      <c r="C39" s="101" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -8712,10 +8752,10 @@
         <v>291</v>
       </c>
       <c r="B40" s="44" t="s">
-        <v>362</v>
-      </c>
-      <c r="C40" s="101" t="s">
-        <v>380</v>
+        <v>357</v>
+      </c>
+      <c r="C40" s="59" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -8723,10 +8763,10 @@
         <v>291</v>
       </c>
       <c r="B41" s="44" t="s">
-        <v>363</v>
-      </c>
-      <c r="C41" s="59" t="s">
-        <v>374</v>
+        <v>358</v>
+      </c>
+      <c r="C41" s="101" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -8734,10 +8774,10 @@
         <v>291</v>
       </c>
       <c r="B42" s="44" t="s">
-        <v>364</v>
-      </c>
-      <c r="C42" s="101" t="s">
-        <v>381</v>
+        <v>359</v>
+      </c>
+      <c r="C42" s="59" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -8745,10 +8785,10 @@
         <v>291</v>
       </c>
       <c r="B43" s="44" t="s">
-        <v>365</v>
-      </c>
-      <c r="C43" s="59" t="s">
-        <v>375</v>
+        <v>360</v>
+      </c>
+      <c r="C43" s="101" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -8756,10 +8796,10 @@
         <v>291</v>
       </c>
       <c r="B44" s="44" t="s">
-        <v>366</v>
-      </c>
-      <c r="C44" s="101" t="s">
-        <v>382</v>
+        <v>361</v>
+      </c>
+      <c r="C44" s="59" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -8767,10 +8807,10 @@
         <v>291</v>
       </c>
       <c r="B45" s="44" t="s">
-        <v>367</v>
-      </c>
-      <c r="C45" s="59" t="s">
-        <v>376</v>
+        <v>362</v>
+      </c>
+      <c r="C45" s="101" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -8778,10 +8818,10 @@
         <v>291</v>
       </c>
       <c r="B46" s="44" t="s">
-        <v>368</v>
-      </c>
-      <c r="C46" s="101" t="s">
-        <v>383</v>
+        <v>363</v>
+      </c>
+      <c r="C46" s="59" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -8789,24 +8829,14 @@
         <v>291</v>
       </c>
       <c r="B47" s="44" t="s">
-        <v>369</v>
-      </c>
-      <c r="C47" s="59" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="44" t="s">
-        <v>291</v>
-      </c>
-      <c r="B48" s="44" t="s">
-        <v>370</v>
-      </c>
-      <c r="C48" s="101" t="s">
-        <v>384</v>
+        <v>364</v>
+      </c>
+      <c r="C47" s="101" t="s">
+        <v>378</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/TNR_JDD/RO/JDD.RO.ACT.xlsx
+++ b/TNR_JDD/RO/JDD.RO.ACT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="516" yWindow="624" windowWidth="15768" windowHeight="7704" activeTab="7"/>
+    <workbookView xWindow="516" yWindow="624" windowWidth="15768" windowHeight="7704" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Version" sheetId="1" r:id="rId1"/>
@@ -1691,11 +1691,11 @@
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="13" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="13" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="16">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5034,7 +5034,7 @@
   </sheetPr>
   <dimension ref="A1:BE17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -5357,10 +5357,10 @@
       <c r="AS3" s="34"/>
       <c r="AT3" s="34"/>
       <c r="AU3" s="34"/>
-      <c r="AV3" s="103" t="s">
+      <c r="AV3" s="104" t="s">
         <v>166</v>
       </c>
-      <c r="AW3" s="104"/>
+      <c r="AW3" s="105"/>
       <c r="AX3" s="34"/>
       <c r="AY3" s="34"/>
       <c r="AZ3" s="34"/>
@@ -5461,10 +5461,10 @@
       <c r="AF4" s="38" t="s">
         <v>171</v>
       </c>
-      <c r="AG4" s="103" t="s">
+      <c r="AG4" s="104" t="s">
         <v>171</v>
       </c>
-      <c r="AH4" s="104"/>
+      <c r="AH4" s="105"/>
       <c r="AI4" s="39"/>
       <c r="AJ4" s="39"/>
       <c r="AK4" s="38" t="s">
@@ -7209,12 +7209,12 @@
       </c>
       <c r="B5" s="34"/>
       <c r="C5" s="34"/>
-      <c r="D5" s="103" t="s">
+      <c r="D5" s="104" t="s">
         <v>258</v>
       </c>
-      <c r="E5" s="104"/>
-      <c r="F5" s="104"/>
-      <c r="G5" s="104"/>
+      <c r="E5" s="105"/>
+      <c r="F5" s="105"/>
+      <c r="G5" s="105"/>
       <c r="H5" s="38" t="s">
         <v>259</v>
       </c>
@@ -7930,10 +7930,10 @@
       <c r="AS3" s="34"/>
       <c r="AT3" s="34"/>
       <c r="AU3" s="34"/>
-      <c r="AV3" s="103" t="s">
+      <c r="AV3" s="104" t="s">
         <v>166</v>
       </c>
-      <c r="AW3" s="104"/>
+      <c r="AW3" s="105"/>
       <c r="AX3" s="34"/>
       <c r="AY3" s="34"/>
       <c r="AZ3" s="34"/>
@@ -8023,10 +8023,10 @@
       <c r="AF4" s="38" t="s">
         <v>171</v>
       </c>
-      <c r="AG4" s="103" t="s">
+      <c r="AG4" s="104" t="s">
         <v>171</v>
       </c>
-      <c r="AH4" s="104"/>
+      <c r="AH4" s="105"/>
       <c r="AI4" s="39"/>
       <c r="AJ4" s="39"/>
       <c r="AK4" s="38" t="s">
@@ -8308,7 +8308,7 @@
   </sheetPr>
   <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -8358,7 +8358,7 @@
       <c r="B4" s="101" t="s">
         <v>381</v>
       </c>
-      <c r="C4" s="105" t="s">
+      <c r="C4" s="103" t="s">
         <v>383</v>
       </c>
     </row>
@@ -8369,7 +8369,7 @@
       <c r="B5" s="101" t="s">
         <v>382</v>
       </c>
-      <c r="C5" s="105" t="s">
+      <c r="C5" s="103" t="s">
         <v>384</v>
       </c>
     </row>

--- a/TNR_JDD/RO/JDD.RO.ACT.xlsx
+++ b/TNR_JDD/RO/JDD.RO.ACT.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="386">
   <si>
     <t>Date</t>
   </si>
@@ -1176,6 +1176,9 @@
   </si>
   <si>
     <t>$TDGRILLE$ID_CODINT</t>
+  </si>
+  <si>
+    <t>ST_DESID_NUMZON</t>
   </si>
 </sst>
 </file>
@@ -1473,7 +1476,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1696,6 +1699,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="16">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5032,10 +5042,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BE17"/>
+  <dimension ref="A1:BF17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="AK1" workbookViewId="0">
+      <selection activeCell="AV4" sqref="AV4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -5051,9 +5061,10 @@
     <col min="54" max="55" width="24.5546875" bestFit="1" customWidth="1"/>
     <col min="56" max="56" width="24.109375" bestFit="1" customWidth="1"/>
     <col min="57" max="57" width="41.44140625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="41.44140625" style="105" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57" ht="14.25" customHeight="1">
+    <row r="1" spans="1:58" ht="14.25" customHeight="1">
       <c r="A1" s="26" t="s">
         <v>12</v>
       </c>
@@ -5222,11 +5233,14 @@
       <c r="BD1" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="BE1" s="32" t="s">
+      <c r="BE1" s="108" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="2" spans="1:57" ht="13.2">
+      <c r="BF1" s="108" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="2" spans="1:58" ht="13.2">
       <c r="A2" s="33" t="s">
         <v>159</v>
       </c>
@@ -5304,8 +5318,9 @@
       <c r="BC2" s="34"/>
       <c r="BD2" s="34"/>
       <c r="BE2" s="34"/>
-    </row>
-    <row r="3" spans="1:57" ht="13.2">
+      <c r="BF2" s="104"/>
+    </row>
+    <row r="3" spans="1:58" ht="13.2">
       <c r="A3" s="33" t="s">
         <v>164</v>
       </c>
@@ -5357,10 +5372,10 @@
       <c r="AS3" s="34"/>
       <c r="AT3" s="34"/>
       <c r="AU3" s="34"/>
-      <c r="AV3" s="104" t="s">
+      <c r="AV3" s="106" t="s">
         <v>166</v>
       </c>
-      <c r="AW3" s="105"/>
+      <c r="AW3" s="107"/>
       <c r="AX3" s="34"/>
       <c r="AY3" s="34"/>
       <c r="AZ3" s="34"/>
@@ -5377,8 +5392,11 @@
       <c r="BE3" s="100" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="4" spans="1:57" ht="13.2">
+      <c r="BF3" s="100" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="4" spans="1:58" ht="13.2">
       <c r="A4" s="33" t="s">
         <v>169</v>
       </c>
@@ -5461,10 +5479,10 @@
       <c r="AF4" s="38" t="s">
         <v>171</v>
       </c>
-      <c r="AG4" s="104" t="s">
+      <c r="AG4" s="106" t="s">
         <v>171</v>
       </c>
-      <c r="AH4" s="105"/>
+      <c r="AH4" s="107"/>
       <c r="AI4" s="39"/>
       <c r="AJ4" s="39"/>
       <c r="AK4" s="38" t="s">
@@ -5496,7 +5514,7 @@
       <c r="AU4" s="38" t="s">
         <v>171</v>
       </c>
-      <c r="AV4" s="38" t="s">
+      <c r="AV4" s="100" t="s">
         <v>172</v>
       </c>
       <c r="AW4" s="38" t="s">
@@ -5518,8 +5536,11 @@
       <c r="BE4" s="35" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="5" spans="1:57" ht="13.2">
+      <c r="BF4" s="104" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="5" spans="1:58" ht="13.2">
       <c r="A5" s="41" t="s">
         <v>174</v>
       </c>
@@ -5579,8 +5600,9 @@
       <c r="BC5" s="42"/>
       <c r="BD5" s="42"/>
       <c r="BE5" s="42"/>
-    </row>
-    <row r="6" spans="1:57" ht="13.2">
+      <c r="BF5" s="87"/>
+    </row>
+    <row r="6" spans="1:58" ht="13.2">
       <c r="A6" s="43" t="s">
         <v>175</v>
       </c>
@@ -5744,8 +5766,9 @@
       <c r="BC6" s="51"/>
       <c r="BD6" s="51"/>
       <c r="BE6" s="51"/>
-    </row>
-    <row r="7" spans="1:57" ht="13.2">
+      <c r="BF6" s="58"/>
+    </row>
+    <row r="7" spans="1:58" ht="13.2">
       <c r="A7" s="43" t="s">
         <v>193</v>
       </c>
@@ -5917,8 +5940,11 @@
       <c r="BE7" s="52" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="8" spans="1:57" ht="13.2">
+      <c r="BF7" s="62" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="8" spans="1:58" ht="13.2">
       <c r="A8" s="53" t="s">
         <v>206</v>
       </c>
@@ -6082,8 +6108,9 @@
       <c r="BC8" s="56"/>
       <c r="BD8" s="56"/>
       <c r="BE8" s="56"/>
-    </row>
-    <row r="9" spans="1:57" ht="13.2">
+      <c r="BF8" s="58"/>
+    </row>
+    <row r="9" spans="1:58" ht="13.2">
       <c r="A9" s="43" t="s">
         <v>217</v>
       </c>
@@ -6145,8 +6172,9 @@
       <c r="BC9" s="56"/>
       <c r="BD9" s="56"/>
       <c r="BE9" s="56"/>
-    </row>
-    <row r="10" spans="1:57" ht="13.2">
+      <c r="BF9" s="58"/>
+    </row>
+    <row r="10" spans="1:58" ht="13.2">
       <c r="A10" s="43" t="s">
         <v>218</v>
       </c>
@@ -6208,8 +6236,9 @@
       <c r="BC10" s="56"/>
       <c r="BD10" s="56"/>
       <c r="BE10" s="56"/>
-    </row>
-    <row r="11" spans="1:57" ht="13.2">
+      <c r="BF10" s="58"/>
+    </row>
+    <row r="11" spans="1:58" ht="13.2">
       <c r="A11" s="58"/>
       <c r="B11" s="59"/>
       <c r="C11" s="60"/>
@@ -6267,8 +6296,9 @@
       <c r="BC11" s="62"/>
       <c r="BD11" s="62"/>
       <c r="BE11" s="62"/>
-    </row>
-    <row r="12" spans="1:57" ht="13.2">
+      <c r="BF11" s="62"/>
+    </row>
+    <row r="12" spans="1:58" ht="13.2">
       <c r="A12" s="58"/>
       <c r="B12" s="59"/>
       <c r="C12" s="60"/>
@@ -6326,8 +6356,9 @@
       <c r="BC12" s="62"/>
       <c r="BD12" s="62"/>
       <c r="BE12" s="62"/>
-    </row>
-    <row r="13" spans="1:57" ht="13.2">
+      <c r="BF12" s="62"/>
+    </row>
+    <row r="13" spans="1:58" ht="13.2">
       <c r="A13" s="58"/>
       <c r="B13" s="59"/>
       <c r="C13" s="60"/>
@@ -6385,8 +6416,9 @@
       <c r="BC13" s="62"/>
       <c r="BD13" s="62"/>
       <c r="BE13" s="62"/>
-    </row>
-    <row r="14" spans="1:57" ht="13.2">
+      <c r="BF13" s="62"/>
+    </row>
+    <row r="14" spans="1:58" ht="13.2">
       <c r="A14" s="58"/>
       <c r="B14" s="59"/>
       <c r="C14" s="60"/>
@@ -6444,8 +6476,9 @@
       <c r="BC14" s="62"/>
       <c r="BD14" s="62"/>
       <c r="BE14" s="62"/>
-    </row>
-    <row r="15" spans="1:57" ht="13.2">
+      <c r="BF14" s="62"/>
+    </row>
+    <row r="15" spans="1:58" ht="13.2">
       <c r="A15" s="58"/>
       <c r="B15" s="59"/>
       <c r="C15" s="60"/>
@@ -6503,8 +6536,9 @@
       <c r="BC15" s="62"/>
       <c r="BD15" s="62"/>
       <c r="BE15" s="62"/>
-    </row>
-    <row r="16" spans="1:57" ht="13.2">
+      <c r="BF15" s="62"/>
+    </row>
+    <row r="16" spans="1:58" ht="13.2">
       <c r="A16" s="58"/>
       <c r="B16" s="59"/>
       <c r="C16" s="60"/>
@@ -6562,8 +6596,9 @@
       <c r="BC16" s="62"/>
       <c r="BD16" s="62"/>
       <c r="BE16" s="62"/>
-    </row>
-    <row r="17" spans="1:57" ht="13.2">
+      <c r="BF16" s="62"/>
+    </row>
+    <row r="17" spans="1:58" ht="13.2">
       <c r="A17" s="58"/>
       <c r="B17" s="59"/>
       <c r="C17" s="60"/>
@@ -6621,6 +6656,7 @@
       <c r="BC17" s="62"/>
       <c r="BD17" s="62"/>
       <c r="BE17" s="62"/>
+      <c r="BF17" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -7209,12 +7245,12 @@
       </c>
       <c r="B5" s="34"/>
       <c r="C5" s="34"/>
-      <c r="D5" s="104" t="s">
+      <c r="D5" s="106" t="s">
         <v>258</v>
       </c>
-      <c r="E5" s="105"/>
-      <c r="F5" s="105"/>
-      <c r="G5" s="105"/>
+      <c r="E5" s="107"/>
+      <c r="F5" s="107"/>
+      <c r="G5" s="107"/>
       <c r="H5" s="38" t="s">
         <v>259</v>
       </c>
@@ -7930,10 +7966,10 @@
       <c r="AS3" s="34"/>
       <c r="AT3" s="34"/>
       <c r="AU3" s="34"/>
-      <c r="AV3" s="104" t="s">
+      <c r="AV3" s="106" t="s">
         <v>166</v>
       </c>
-      <c r="AW3" s="105"/>
+      <c r="AW3" s="107"/>
       <c r="AX3" s="34"/>
       <c r="AY3" s="34"/>
       <c r="AZ3" s="34"/>
@@ -8023,10 +8059,10 @@
       <c r="AF4" s="38" t="s">
         <v>171</v>
       </c>
-      <c r="AG4" s="104" t="s">
+      <c r="AG4" s="106" t="s">
         <v>171</v>
       </c>
-      <c r="AH4" s="105"/>
+      <c r="AH4" s="107"/>
       <c r="AI4" s="39"/>
       <c r="AJ4" s="39"/>
       <c r="AK4" s="38" t="s">
@@ -8309,7 +8345,7 @@
   <dimension ref="A1:C47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C34" sqref="C34:C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
